--- a/1_Input_data/Infoexp.xlsx
+++ b/1_Input_data/Infoexp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81721C7A-C59B-A845-BC21-754158C141F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51656676-AC8E-C540-9133-FEA592240C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="5360" windowWidth="28640" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="28640" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="492">
   <si>
     <t>Type</t>
   </si>
@@ -1958,6 +1958,21 @@
   </si>
   <si>
     <t>Comb_id</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>(weeks)</t>
+  </si>
+  <si>
+    <t>(grams)</t>
+  </si>
+  <si>
+    <t>(cm)</t>
+  </si>
+  <si>
+    <t>(years)</t>
   </si>
 </sst>
 </file>
@@ -2566,8 +2581,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F239" sqref="F239"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2576,8 +2591,9 @@
     <col min="2" max="3" width="4.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="219.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="9" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="219.140625" hidden="1" customWidth="1"/>
     <col min="11" max="29" width="82" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2612,7 +2628,9 @@
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2632,7 +2650,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>450</v>
       </c>
@@ -2680,7 +2698,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>450</v>
       </c>
@@ -2822,7 +2840,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>307</v>
       </c>
@@ -2852,7 +2870,9 @@
       <c r="J6" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2872,7 +2892,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
@@ -2968,7 +2988,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>307</v>
       </c>
@@ -3098,7 +3118,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>307</v>
       </c>
@@ -3148,7 +3168,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>307</v>
       </c>
@@ -3196,7 +3216,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>307</v>
       </c>
@@ -3610,7 +3630,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>307</v>
       </c>
@@ -5054,7 +5074,7 @@
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>307</v>
       </c>
@@ -5104,7 +5124,7 @@
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>307</v>
       </c>
@@ -7288,7 +7308,7 @@
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
     </row>
-    <row r="110" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>132</v>
       </c>
@@ -7318,7 +7338,9 @@
       <c r="J110" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K110" s="4"/>
+      <c r="K110" s="4" t="s">
+        <v>488</v>
+      </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -7384,7 +7406,7 @@
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
     </row>
-    <row r="112" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>132</v>
       </c>
@@ -7696,7 +7718,7 @@
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
     </row>
-    <row r="119" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
@@ -7744,7 +7766,7 @@
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
     </row>
-    <row r="120" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>132</v>
       </c>
@@ -7912,7 +7934,7 @@
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
     </row>
-    <row r="124" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>132</v>
       </c>
@@ -8000,7 +8022,7 @@
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
     </row>
-    <row r="126" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>132</v>
       </c>
@@ -9572,7 +9594,7 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>132</v>
       </c>
@@ -9618,7 +9640,7 @@
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
     </row>
-    <row r="165" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>132</v>
       </c>
@@ -9664,7 +9686,7 @@
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
     </row>
-    <row r="166" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>132</v>
       </c>
@@ -9712,7 +9734,7 @@
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
     </row>
-    <row r="167" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>132</v>
       </c>
@@ -9854,7 +9876,7 @@
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
     </row>
-    <row r="170" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
@@ -10182,7 +10204,7 @@
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
     </row>
-    <row r="177" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>3</v>
       </c>
@@ -10228,7 +10250,7 @@
       <c r="AB177" s="4"/>
       <c r="AC177" s="4"/>
     </row>
-    <row r="178" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>3</v>
       </c>
@@ -10254,7 +10276,9 @@
       <c r="J178" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="K178" s="4"/>
+      <c r="K178" s="4" t="s">
+        <v>488</v>
+      </c>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
@@ -10274,7 +10298,7 @@
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
     </row>
-    <row r="179" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>3</v>
       </c>
@@ -10326,7 +10350,7 @@
       <c r="AB179" s="4"/>
       <c r="AC179" s="4"/>
     </row>
-    <row r="180" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>3</v>
       </c>
@@ -10422,7 +10446,7 @@
       <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
     </row>
-    <row r="182" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>3</v>
       </c>
@@ -10470,7 +10494,7 @@
       <c r="AB182" s="4"/>
       <c r="AC182" s="4"/>
     </row>
-    <row r="183" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>3</v>
       </c>
@@ -10500,7 +10524,9 @@
       <c r="J183" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K183" s="4"/>
+      <c r="K183" s="4" t="s">
+        <v>489</v>
+      </c>
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
@@ -10520,7 +10546,7 @@
       <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
     </row>
-    <row r="184" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>3</v>
       </c>
@@ -10550,7 +10576,9 @@
       <c r="J184" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K184" s="4"/>
+      <c r="K184" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
@@ -10570,7 +10598,7 @@
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
     </row>
-    <row r="185" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>3</v>
       </c>
@@ -10598,7 +10626,9 @@
       <c r="J185" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K185" s="4"/>
+      <c r="K185" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
@@ -10706,7 +10736,7 @@
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
     </row>
-    <row r="188" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>3</v>
       </c>
@@ -11924,7 +11954,7 @@
       <c r="AB215" s="4"/>
       <c r="AC215" s="4"/>
     </row>
-    <row r="216" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>3</v>
       </c>
@@ -11972,7 +12002,7 @@
       <c r="AB216" s="4"/>
       <c r="AC216" s="4"/>
     </row>
-    <row r="217" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>3</v>
       </c>
@@ -12022,7 +12052,7 @@
       <c r="AB217" s="4"/>
       <c r="AC217" s="4"/>
     </row>
-    <row r="218" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>3</v>
       </c>
@@ -12072,7 +12102,7 @@
       <c r="AB218" s="4"/>
       <c r="AC218" s="4"/>
     </row>
-    <row r="219" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>3</v>
       </c>
@@ -12120,7 +12150,7 @@
       <c r="AB219" s="4"/>
       <c r="AC219" s="4"/>
     </row>
-    <row r="220" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>3</v>
       </c>
@@ -12212,7 +12242,7 @@
       <c r="AB221" s="4"/>
       <c r="AC221" s="4"/>
     </row>
-    <row r="222" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>3</v>
       </c>
@@ -12262,7 +12292,7 @@
       <c r="AB222" s="4"/>
       <c r="AC222" s="4"/>
     </row>
-    <row r="223" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>3</v>
       </c>
@@ -12308,7 +12338,7 @@
       <c r="AB223" s="4"/>
       <c r="AC223" s="4"/>
     </row>
-    <row r="224" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>3</v>
       </c>
@@ -12404,7 +12434,7 @@
       <c r="AB225" s="4"/>
       <c r="AC225" s="4"/>
     </row>
-    <row r="226" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>3</v>
       </c>
@@ -12500,7 +12530,7 @@
       <c r="AB227" s="4"/>
       <c r="AC227" s="4"/>
     </row>
-    <row r="228" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>3</v>
       </c>
@@ -36417,11 +36447,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J234" xr:uid="{57039A5A-967D-E94D-A2C0-B8DD2470DE38}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="tobacco"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="8">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -36443,12 +36468,12 @@
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J188:J198 J200:J227 E227:G227 E226 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 D12:D14 D23:D24 D26:D27 D29 D31 D41:D43 D45:D51 D58:D59 D61:D66 I227 E188:G225 E168:G172 D68:D76 D2:D9 I188:I225 I168:I172 J168:J185 E174:G186 B168:D227 B229:G234 I174:I185 I186:J186 I229:J234 D110:D112">
+  <conditionalFormatting sqref="J188:J198 J200:J227 E227:G227 E226 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 D12:D14 D23:D24 D26:D27 D29 D31 D41:D43 D45:D51 D58:D59 D61:D66 I227 E188:G225 E168:G172 D68:D76 D2:D9 I188:I225 I168:I172 J168:J185 E174:G186 B168:D227 B229:G234 I174:I185 D110:D112 I186:J186 I229:J234">
     <cfRule type="expression" dxfId="15" priority="8">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J188:J198 J200:J227 E227:G227 E226 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 I227 I6:J76 I188:I225 I168:J186 B158:D227 B1:J5 B229:J234 B6:G76 G83 G86 G115:G116 E168:G186 E188:G225 B110:D112 H3:H234">
+  <conditionalFormatting sqref="J188:J198 J200:J227 E227:G227 E226 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 I227 I188:I225 B158:D227 B6:G76 G83 G86 G115:G116 E168:G186 E188:G225 B110:D112 H3:H234 I6:J83 I168:J186 B1:J5 B229:J234 I114:J118 I87:J94 I96:J97">
     <cfRule type="expression" dxfId="14" priority="9">
       <formula>B="metadata"</formula>
     </cfRule>
@@ -36473,7 +36498,7 @@
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 I79:J79 B158:G227 B229:G234 I153:I185 I186:J227 I229:J234 J77:J185 B110:C112 E110:G112 I77:I148">
+  <conditionalFormatting sqref="E79:G79 B158:G227 B229:G234 I153:I185 J77:J185 B110:C112 E110:G112 I77:I148 I79:J79 I186:J227 I229:J234">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>#REF!="metadata"</formula>
     </cfRule>
@@ -36483,7 +36508,7 @@
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96:G97 B85:D85 B90:G90 B86:C89 B93:D109 B91:C92 B113:D113 B117:G118 B114:C116 B121:D123 B119:C120 B125:D125 B124:C124 B127:D142 B126:C126 B149:D155 B143:C148 B77:G79 B80:C84 B156:C157 E114:G114 E91:G94 E87:G89 E80:G82 I77:J83 I114:J118 I87:J94 I96:J97 E83:F83 E115:F116">
+  <conditionalFormatting sqref="E96:G97 B85:D85 B90:G90 B86:C89 B93:D109 B91:C92 B113:D113 B117:G118 B114:C116 B121:D123 B119:C120 B125:D125 B124:C124 B127:D142 B126:C126 B149:D155 B143:C148 B77:G79 B80:C84 B156:C157 E114:G114 E91:G94 E87:G89 E80:G82 E83:F83 E115:F116">
     <cfRule type="expression" dxfId="7" priority="16">
       <formula>B="metadata"</formula>
     </cfRule>

--- a/1_Input_data/Infoexp.xlsx
+++ b/1_Input_data/Infoexp.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51656676-AC8E-C540-9133-FEA592240C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F7C948-1090-AD43-81EE-7F7C4177E028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="28640" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="28640" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$J$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$AC$995</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +83,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>variable created for the imputation,else no included in the imputation</t>
+          <t>variable created for the imputation,3: Variable used only to created  imputation variables. Variable without any number is not used in the imputation code</t>
         </r>
       </text>
     </comment>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="496">
   <si>
     <t>Type</t>
   </si>
@@ -1973,6 +1973,18 @@
   </si>
   <si>
     <t>(years)</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>(Kg)</t>
+  </si>
+  <si>
+    <t>(copies/microL)</t>
   </si>
 </sst>
 </file>
@@ -2581,8 +2593,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2591,10 +2603,11 @@
     <col min="2" max="3" width="4.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="9" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="219.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="29" width="82" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="29" width="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,8 +2644,12 @@
       <c r="K1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2650,7 +2667,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>450</v>
       </c>
@@ -2698,7 +2715,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>450</v>
       </c>
@@ -2873,7 +2890,9 @@
       <c r="K6" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>13</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -2892,7 +2911,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
@@ -2988,7 +3007,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>307</v>
       </c>
@@ -3118,7 +3137,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>307</v>
       </c>
@@ -3168,7 +3187,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>307</v>
       </c>
@@ -3216,7 +3235,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>307</v>
       </c>
@@ -3630,7 +3649,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>307</v>
       </c>
@@ -4334,7 +4353,7 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>307</v>
       </c>
@@ -4360,8 +4379,12 @@
       <c r="J41" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -4380,7 +4403,7 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>307</v>
       </c>
@@ -4406,8 +4429,12 @@
       <c r="J42" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -4426,7 +4453,7 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>307</v>
       </c>
@@ -4452,8 +4479,12 @@
       <c r="J43" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="K43" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -4604,7 +4635,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>307</v>
       </c>
@@ -5074,7 +5105,7 @@
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>307</v>
       </c>
@@ -5124,7 +5155,7 @@
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>307</v>
       </c>
@@ -5928,7 +5959,9 @@
       <c r="E77" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>464</v>
+      </c>
       <c r="G77" s="16"/>
       <c r="H77" s="4">
         <f t="shared" si="1"/>
@@ -5968,7 +6001,9 @@
       <c r="E78" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G78" s="16"/>
       <c r="H78" s="4">
         <f t="shared" si="1"/>
@@ -6008,7 +6043,9 @@
       <c r="E79" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F79" s="13"/>
+      <c r="F79" s="13" t="s">
+        <v>463</v>
+      </c>
       <c r="G79" s="18"/>
       <c r="H79" s="4">
         <f t="shared" si="1"/>
@@ -6084,7 +6121,7 @@
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
     </row>
-    <row r="81" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>132</v>
       </c>
@@ -6099,7 +6136,7 @@
         <v>141</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="4">
@@ -6110,8 +6147,12 @@
       <c r="J81" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="K81" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -6224,7 +6265,7 @@
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
     </row>
-    <row r="84" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>132</v>
       </c>
@@ -6250,8 +6291,12 @@
       <c r="J84" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -6358,7 +6403,7 @@
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
     </row>
-    <row r="87" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>132</v>
       </c>
@@ -6373,7 +6418,7 @@
         <v>153</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>464</v>
+        <v>42</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="4">
@@ -6384,8 +6429,12 @@
       <c r="J87" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0</v>
+      </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -7323,7 +7372,7 @@
         <v>199</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G110" s="12">
         <v>2</v>
@@ -7341,7 +7390,9 @@
       <c r="K110" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="L110" s="4"/>
+      <c r="L110" s="4">
+        <v>0</v>
+      </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -7406,7 +7457,7 @@
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
     </row>
-    <row r="112" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>132</v>
       </c>
@@ -7542,7 +7593,7 @@
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
     </row>
-    <row r="115" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>132</v>
       </c>
@@ -7557,7 +7608,7 @@
         <v>209</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G115" s="16">
         <v>-2</v>
@@ -7570,8 +7621,12 @@
       <c r="J115" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="K115" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L115" s="4">
+        <v>0</v>
+      </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -7718,7 +7773,7 @@
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
     </row>
-    <row r="119" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
@@ -7766,7 +7821,7 @@
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
     </row>
-    <row r="120" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>132</v>
       </c>
@@ -7934,7 +7989,7 @@
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
     </row>
-    <row r="124" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>132</v>
       </c>
@@ -8022,7 +8077,7 @@
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
     </row>
-    <row r="126" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>132</v>
       </c>
@@ -8802,7 +8857,7 @@
       <c r="AB144" s="4"/>
       <c r="AC144" s="4"/>
     </row>
-    <row r="145" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>132</v>
       </c>
@@ -8817,7 +8872,7 @@
         <v>269</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G145" s="16"/>
       <c r="H145" s="4">
@@ -8828,8 +8883,12 @@
       <c r="J145" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
+      <c r="K145" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L145" s="4">
+        <v>0</v>
+      </c>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -9594,7 +9653,7 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>132</v>
       </c>
@@ -9640,7 +9699,7 @@
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
     </row>
-    <row r="165" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>132</v>
       </c>
@@ -9686,7 +9745,7 @@
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
     </row>
-    <row r="166" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>132</v>
       </c>
@@ -9734,7 +9793,7 @@
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
     </row>
-    <row r="167" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>132</v>
       </c>
@@ -9828,7 +9887,7 @@
       <c r="AB168" s="4"/>
       <c r="AC168" s="4"/>
     </row>
-    <row r="169" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>3</v>
       </c>
@@ -9843,7 +9902,7 @@
         <v>6</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G169" s="16">
         <v>-2</v>
@@ -9856,8 +9915,12 @@
       <c r="J169" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
+      <c r="K169" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L169" s="4">
+        <v>0</v>
+      </c>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
@@ -9876,7 +9939,7 @@
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
     </row>
-    <row r="170" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
@@ -10062,7 +10125,7 @@
       <c r="AB173" s="4"/>
       <c r="AC173" s="4"/>
     </row>
-    <row r="174" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>3</v>
       </c>
@@ -10077,7 +10140,7 @@
         <v>17</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="4">
@@ -10088,8 +10151,12 @@
       <c r="J174" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
+      <c r="K174" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L174" s="4">
+        <v>0</v>
+      </c>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
@@ -10108,7 +10175,7 @@
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
     </row>
-    <row r="175" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>3</v>
       </c>
@@ -10123,7 +10190,7 @@
         <v>19</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G175" s="20">
         <v>-2</v>
@@ -10136,8 +10203,12 @@
       <c r="J175" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
+      <c r="K175" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L175" s="4">
+        <v>0</v>
+      </c>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
@@ -10156,7 +10227,7 @@
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
     </row>
-    <row r="176" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>3</v>
       </c>
@@ -10171,7 +10242,7 @@
         <v>21</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G176" s="16">
         <v>-2</v>
@@ -10184,8 +10255,12 @@
       <c r="J176" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
+      <c r="K176" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L176" s="4">
+        <v>0</v>
+      </c>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
@@ -10204,7 +10279,7 @@
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
     </row>
-    <row r="177" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>3</v>
       </c>
@@ -10263,7 +10338,7 @@
         <v>453</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="4">
@@ -10279,7 +10354,9 @@
       <c r="K178" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="L178" s="4"/>
+      <c r="L178" s="4">
+        <v>0</v>
+      </c>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
@@ -10298,7 +10375,7 @@
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
     </row>
-    <row r="179" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>3</v>
       </c>
@@ -10350,7 +10427,7 @@
       <c r="AB179" s="4"/>
       <c r="AC179" s="4"/>
     </row>
-    <row r="180" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>3</v>
       </c>
@@ -10446,7 +10523,7 @@
       <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
     </row>
-    <row r="182" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>3</v>
       </c>
@@ -10527,8 +10604,12 @@
       <c r="K183" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="L183" s="4"/>
-      <c r="M183" s="4"/>
+      <c r="L183" s="4">
+        <v>100</v>
+      </c>
+      <c r="M183" s="4">
+        <v>6000</v>
+      </c>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
@@ -10579,7 +10660,9 @@
       <c r="K184" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L184" s="4"/>
+      <c r="L184" s="4">
+        <v>18</v>
+      </c>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -10629,7 +10712,9 @@
       <c r="K185" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L185" s="4"/>
+      <c r="L185" s="4">
+        <v>0</v>
+      </c>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -10736,7 +10821,7 @@
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
     </row>
-    <row r="188" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>3</v>
       </c>
@@ -11954,7 +12039,7 @@
       <c r="AB215" s="4"/>
       <c r="AC215" s="4"/>
     </row>
-    <row r="216" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>3</v>
       </c>
@@ -12002,7 +12087,7 @@
       <c r="AB216" s="4"/>
       <c r="AC216" s="4"/>
     </row>
-    <row r="217" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>3</v>
       </c>
@@ -12052,7 +12137,7 @@
       <c r="AB217" s="4"/>
       <c r="AC217" s="4"/>
     </row>
-    <row r="218" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>3</v>
       </c>
@@ -12102,7 +12187,7 @@
       <c r="AB218" s="4"/>
       <c r="AC218" s="4"/>
     </row>
-    <row r="219" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>3</v>
       </c>
@@ -12150,7 +12235,7 @@
       <c r="AB219" s="4"/>
       <c r="AC219" s="4"/>
     </row>
-    <row r="220" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>3</v>
       </c>
@@ -12242,7 +12327,7 @@
       <c r="AB221" s="4"/>
       <c r="AC221" s="4"/>
     </row>
-    <row r="222" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>3</v>
       </c>
@@ -12292,7 +12377,7 @@
       <c r="AB222" s="4"/>
       <c r="AC222" s="4"/>
     </row>
-    <row r="223" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>3</v>
       </c>
@@ -12338,7 +12423,7 @@
       <c r="AB223" s="4"/>
       <c r="AC223" s="4"/>
     </row>
-    <row r="224" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>3</v>
       </c>
@@ -12434,7 +12519,7 @@
       <c r="AB225" s="4"/>
       <c r="AC225" s="4"/>
     </row>
-    <row r="226" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>3</v>
       </c>
@@ -12530,7 +12615,7 @@
       <c r="AB227" s="4"/>
       <c r="AC227" s="4"/>
     </row>
-    <row r="228" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>3</v>
       </c>
@@ -12578,7 +12663,7 @@
       <c r="AB228" s="4"/>
       <c r="AC228" s="4"/>
     </row>
-    <row r="229" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>3</v>
       </c>
@@ -12604,8 +12689,12 @@
       <c r="J229" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
+      <c r="K229" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L229" s="4">
+        <v>0</v>
+      </c>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
       <c r="O229" s="4"/>
@@ -12624,7 +12713,7 @@
       <c r="AB229" s="4"/>
       <c r="AC229" s="4"/>
     </row>
-    <row r="230" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>3</v>
       </c>
@@ -12650,8 +12739,12 @@
       <c r="J230" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
+      <c r="K230" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L230" s="4">
+        <v>0</v>
+      </c>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
       <c r="O230" s="4"/>
@@ -12670,7 +12763,7 @@
       <c r="AB230" s="4"/>
       <c r="AC230" s="4"/>
     </row>
-    <row r="231" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>3</v>
       </c>
@@ -12696,8 +12789,12 @@
       <c r="J231" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K231" s="4"/>
-      <c r="L231" s="4"/>
+      <c r="K231" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L231" s="4">
+        <v>0</v>
+      </c>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
       <c r="O231" s="4"/>
@@ -12716,7 +12813,7 @@
       <c r="AB231" s="4"/>
       <c r="AC231" s="4"/>
     </row>
-    <row r="232" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>3</v>
       </c>
@@ -12742,8 +12839,12 @@
       <c r="J232" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K232" s="4"/>
-      <c r="L232" s="4"/>
+      <c r="K232" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L232" s="4">
+        <v>0</v>
+      </c>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
       <c r="O232" s="4"/>
@@ -12762,7 +12863,7 @@
       <c r="AB232" s="4"/>
       <c r="AC232" s="4"/>
     </row>
-    <row r="233" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>3</v>
       </c>
@@ -12788,8 +12889,12 @@
       <c r="J233" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
+      <c r="K233" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L233" s="4">
+        <v>0</v>
+      </c>
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
       <c r="O233" s="4"/>
@@ -12808,7 +12913,7 @@
       <c r="AB233" s="4"/>
       <c r="AC233" s="4"/>
     </row>
-    <row r="234" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>3</v>
       </c>
@@ -12834,8 +12939,12 @@
       <c r="J234" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K234" s="4"/>
-      <c r="L234" s="4"/>
+      <c r="K234" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="L234" s="4">
+        <v>0</v>
+      </c>
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
       <c r="O234" s="4"/>
@@ -12854,7 +12963,7 @@
       <c r="AB234" s="4"/>
       <c r="AC234" s="4"/>
     </row>
-    <row r="235" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -12885,7 +12994,7 @@
       <c r="AB235" s="4"/>
       <c r="AC235" s="4"/>
     </row>
-    <row r="236" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -12916,7 +13025,7 @@
       <c r="AB236" s="4"/>
       <c r="AC236" s="4"/>
     </row>
-    <row r="237" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -12947,7 +13056,7 @@
       <c r="AB237" s="4"/>
       <c r="AC237" s="4"/>
     </row>
-    <row r="238" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -12978,7 +13087,7 @@
       <c r="AB238" s="4"/>
       <c r="AC238" s="4"/>
     </row>
-    <row r="239" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13009,7 +13118,7 @@
       <c r="AB239" s="4"/>
       <c r="AC239" s="4"/>
     </row>
-    <row r="240" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13040,7 +13149,7 @@
       <c r="AB240" s="4"/>
       <c r="AC240" s="4"/>
     </row>
-    <row r="241" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13071,7 +13180,7 @@
       <c r="AB241" s="4"/>
       <c r="AC241" s="4"/>
     </row>
-    <row r="242" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13102,7 +13211,7 @@
       <c r="AB242" s="4"/>
       <c r="AC242" s="4"/>
     </row>
-    <row r="243" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13133,7 +13242,7 @@
       <c r="AB243" s="4"/>
       <c r="AC243" s="4"/>
     </row>
-    <row r="244" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13164,7 +13273,7 @@
       <c r="AB244" s="4"/>
       <c r="AC244" s="4"/>
     </row>
-    <row r="245" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13195,7 +13304,7 @@
       <c r="AB245" s="4"/>
       <c r="AC245" s="4"/>
     </row>
-    <row r="246" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13226,7 +13335,7 @@
       <c r="AB246" s="4"/>
       <c r="AC246" s="4"/>
     </row>
-    <row r="247" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13257,7 +13366,7 @@
       <c r="AB247" s="4"/>
       <c r="AC247" s="4"/>
     </row>
-    <row r="248" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13288,7 +13397,7 @@
       <c r="AB248" s="4"/>
       <c r="AC248" s="4"/>
     </row>
-    <row r="249" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13319,7 +13428,7 @@
       <c r="AB249" s="4"/>
       <c r="AC249" s="4"/>
     </row>
-    <row r="250" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13350,7 +13459,7 @@
       <c r="AB250" s="4"/>
       <c r="AC250" s="4"/>
     </row>
-    <row r="251" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13381,7 +13490,7 @@
       <c r="AB251" s="4"/>
       <c r="AC251" s="4"/>
     </row>
-    <row r="252" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13412,7 +13521,7 @@
       <c r="AB252" s="4"/>
       <c r="AC252" s="4"/>
     </row>
-    <row r="253" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13443,7 +13552,7 @@
       <c r="AB253" s="4"/>
       <c r="AC253" s="4"/>
     </row>
-    <row r="254" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13474,7 +13583,7 @@
       <c r="AB254" s="4"/>
       <c r="AC254" s="4"/>
     </row>
-    <row r="255" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13505,7 +13614,7 @@
       <c r="AB255" s="4"/>
       <c r="AC255" s="4"/>
     </row>
-    <row r="256" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13536,7 +13645,7 @@
       <c r="AB256" s="4"/>
       <c r="AC256" s="4"/>
     </row>
-    <row r="257" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13567,7 +13676,7 @@
       <c r="AB257" s="4"/>
       <c r="AC257" s="4"/>
     </row>
-    <row r="258" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13598,7 +13707,7 @@
       <c r="AB258" s="4"/>
       <c r="AC258" s="4"/>
     </row>
-    <row r="259" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13629,7 +13738,7 @@
       <c r="AB259" s="4"/>
       <c r="AC259" s="4"/>
     </row>
-    <row r="260" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13660,7 +13769,7 @@
       <c r="AB260" s="4"/>
       <c r="AC260" s="4"/>
     </row>
-    <row r="261" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13691,7 +13800,7 @@
       <c r="AB261" s="4"/>
       <c r="AC261" s="4"/>
     </row>
-    <row r="262" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -13722,7 +13831,7 @@
       <c r="AB262" s="4"/>
       <c r="AC262" s="4"/>
     </row>
-    <row r="263" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -13753,7 +13862,7 @@
       <c r="AB263" s="4"/>
       <c r="AC263" s="4"/>
     </row>
-    <row r="264" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -13784,7 +13893,7 @@
       <c r="AB264" s="4"/>
       <c r="AC264" s="4"/>
     </row>
-    <row r="265" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -13815,7 +13924,7 @@
       <c r="AB265" s="4"/>
       <c r="AC265" s="4"/>
     </row>
-    <row r="266" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -13846,7 +13955,7 @@
       <c r="AB266" s="4"/>
       <c r="AC266" s="4"/>
     </row>
-    <row r="267" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -13877,7 +13986,7 @@
       <c r="AB267" s="4"/>
       <c r="AC267" s="4"/>
     </row>
-    <row r="268" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -13908,7 +14017,7 @@
       <c r="AB268" s="4"/>
       <c r="AC268" s="4"/>
     </row>
-    <row r="269" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -13939,7 +14048,7 @@
       <c r="AB269" s="4"/>
       <c r="AC269" s="4"/>
     </row>
-    <row r="270" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -13970,7 +14079,7 @@
       <c r="AB270" s="4"/>
       <c r="AC270" s="4"/>
     </row>
-    <row r="271" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -14001,7 +14110,7 @@
       <c r="AB271" s="4"/>
       <c r="AC271" s="4"/>
     </row>
-    <row r="272" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14032,7 +14141,7 @@
       <c r="AB272" s="4"/>
       <c r="AC272" s="4"/>
     </row>
-    <row r="273" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -14063,7 +14172,7 @@
       <c r="AB273" s="4"/>
       <c r="AC273" s="4"/>
     </row>
-    <row r="274" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -14094,7 +14203,7 @@
       <c r="AB274" s="4"/>
       <c r="AC274" s="4"/>
     </row>
-    <row r="275" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -14125,7 +14234,7 @@
       <c r="AB275" s="4"/>
       <c r="AC275" s="4"/>
     </row>
-    <row r="276" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -14156,7 +14265,7 @@
       <c r="AB276" s="4"/>
       <c r="AC276" s="4"/>
     </row>
-    <row r="277" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -14187,7 +14296,7 @@
       <c r="AB277" s="4"/>
       <c r="AC277" s="4"/>
     </row>
-    <row r="278" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -14218,7 +14327,7 @@
       <c r="AB278" s="4"/>
       <c r="AC278" s="4"/>
     </row>
-    <row r="279" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -14249,7 +14358,7 @@
       <c r="AB279" s="4"/>
       <c r="AC279" s="4"/>
     </row>
-    <row r="280" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -14280,7 +14389,7 @@
       <c r="AB280" s="4"/>
       <c r="AC280" s="4"/>
     </row>
-    <row r="281" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -14311,7 +14420,7 @@
       <c r="AB281" s="4"/>
       <c r="AC281" s="4"/>
     </row>
-    <row r="282" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -14342,7 +14451,7 @@
       <c r="AB282" s="4"/>
       <c r="AC282" s="4"/>
     </row>
-    <row r="283" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -14373,7 +14482,7 @@
       <c r="AB283" s="4"/>
       <c r="AC283" s="4"/>
     </row>
-    <row r="284" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -14404,7 +14513,7 @@
       <c r="AB284" s="4"/>
       <c r="AC284" s="4"/>
     </row>
-    <row r="285" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -14435,7 +14544,7 @@
       <c r="AB285" s="4"/>
       <c r="AC285" s="4"/>
     </row>
-    <row r="286" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -14466,7 +14575,7 @@
       <c r="AB286" s="4"/>
       <c r="AC286" s="4"/>
     </row>
-    <row r="287" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -14497,7 +14606,7 @@
       <c r="AB287" s="4"/>
       <c r="AC287" s="4"/>
     </row>
-    <row r="288" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -14528,7 +14637,7 @@
       <c r="AB288" s="4"/>
       <c r="AC288" s="4"/>
     </row>
-    <row r="289" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -14559,7 +14668,7 @@
       <c r="AB289" s="4"/>
       <c r="AC289" s="4"/>
     </row>
-    <row r="290" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -14590,7 +14699,7 @@
       <c r="AB290" s="4"/>
       <c r="AC290" s="4"/>
     </row>
-    <row r="291" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -14621,7 +14730,7 @@
       <c r="AB291" s="4"/>
       <c r="AC291" s="4"/>
     </row>
-    <row r="292" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -14652,7 +14761,7 @@
       <c r="AB292" s="4"/>
       <c r="AC292" s="4"/>
     </row>
-    <row r="293" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -14683,7 +14792,7 @@
       <c r="AB293" s="4"/>
       <c r="AC293" s="4"/>
     </row>
-    <row r="294" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -14714,7 +14823,7 @@
       <c r="AB294" s="4"/>
       <c r="AC294" s="4"/>
     </row>
-    <row r="295" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -14745,7 +14854,7 @@
       <c r="AB295" s="4"/>
       <c r="AC295" s="4"/>
     </row>
-    <row r="296" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -14776,7 +14885,7 @@
       <c r="AB296" s="4"/>
       <c r="AC296" s="4"/>
     </row>
-    <row r="297" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -14807,7 +14916,7 @@
       <c r="AB297" s="4"/>
       <c r="AC297" s="4"/>
     </row>
-    <row r="298" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -14838,7 +14947,7 @@
       <c r="AB298" s="4"/>
       <c r="AC298" s="4"/>
     </row>
-    <row r="299" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -14869,7 +14978,7 @@
       <c r="AB299" s="4"/>
       <c r="AC299" s="4"/>
     </row>
-    <row r="300" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -14900,7 +15009,7 @@
       <c r="AB300" s="4"/>
       <c r="AC300" s="4"/>
     </row>
-    <row r="301" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -14931,7 +15040,7 @@
       <c r="AB301" s="4"/>
       <c r="AC301" s="4"/>
     </row>
-    <row r="302" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -14962,7 +15071,7 @@
       <c r="AB302" s="4"/>
       <c r="AC302" s="4"/>
     </row>
-    <row r="303" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -14993,7 +15102,7 @@
       <c r="AB303" s="4"/>
       <c r="AC303" s="4"/>
     </row>
-    <row r="304" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -15024,7 +15133,7 @@
       <c r="AB304" s="4"/>
       <c r="AC304" s="4"/>
     </row>
-    <row r="305" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -15055,7 +15164,7 @@
       <c r="AB305" s="4"/>
       <c r="AC305" s="4"/>
     </row>
-    <row r="306" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -15086,7 +15195,7 @@
       <c r="AB306" s="4"/>
       <c r="AC306" s="4"/>
     </row>
-    <row r="307" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -15117,7 +15226,7 @@
       <c r="AB307" s="4"/>
       <c r="AC307" s="4"/>
     </row>
-    <row r="308" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -15148,7 +15257,7 @@
       <c r="AB308" s="4"/>
       <c r="AC308" s="4"/>
     </row>
-    <row r="309" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -15179,7 +15288,7 @@
       <c r="AB309" s="4"/>
       <c r="AC309" s="4"/>
     </row>
-    <row r="310" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -15210,7 +15319,7 @@
       <c r="AB310" s="4"/>
       <c r="AC310" s="4"/>
     </row>
-    <row r="311" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -15241,7 +15350,7 @@
       <c r="AB311" s="4"/>
       <c r="AC311" s="4"/>
     </row>
-    <row r="312" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -15272,7 +15381,7 @@
       <c r="AB312" s="4"/>
       <c r="AC312" s="4"/>
     </row>
-    <row r="313" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -15303,7 +15412,7 @@
       <c r="AB313" s="4"/>
       <c r="AC313" s="4"/>
     </row>
-    <row r="314" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -15334,7 +15443,7 @@
       <c r="AB314" s="4"/>
       <c r="AC314" s="4"/>
     </row>
-    <row r="315" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -15365,7 +15474,7 @@
       <c r="AB315" s="4"/>
       <c r="AC315" s="4"/>
     </row>
-    <row r="316" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -15396,7 +15505,7 @@
       <c r="AB316" s="4"/>
       <c r="AC316" s="4"/>
     </row>
-    <row r="317" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -15427,7 +15536,7 @@
       <c r="AB317" s="4"/>
       <c r="AC317" s="4"/>
     </row>
-    <row r="318" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -15458,7 +15567,7 @@
       <c r="AB318" s="4"/>
       <c r="AC318" s="4"/>
     </row>
-    <row r="319" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -15489,7 +15598,7 @@
       <c r="AB319" s="4"/>
       <c r="AC319" s="4"/>
     </row>
-    <row r="320" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -15520,7 +15629,7 @@
       <c r="AB320" s="4"/>
       <c r="AC320" s="4"/>
     </row>
-    <row r="321" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -15551,7 +15660,7 @@
       <c r="AB321" s="4"/>
       <c r="AC321" s="4"/>
     </row>
-    <row r="322" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -15582,7 +15691,7 @@
       <c r="AB322" s="4"/>
       <c r="AC322" s="4"/>
     </row>
-    <row r="323" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -15613,7 +15722,7 @@
       <c r="AB323" s="4"/>
       <c r="AC323" s="4"/>
     </row>
-    <row r="324" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -15644,7 +15753,7 @@
       <c r="AB324" s="4"/>
       <c r="AC324" s="4"/>
     </row>
-    <row r="325" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -15675,7 +15784,7 @@
       <c r="AB325" s="4"/>
       <c r="AC325" s="4"/>
     </row>
-    <row r="326" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -15706,7 +15815,7 @@
       <c r="AB326" s="4"/>
       <c r="AC326" s="4"/>
     </row>
-    <row r="327" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -15737,7 +15846,7 @@
       <c r="AB327" s="4"/>
       <c r="AC327" s="4"/>
     </row>
-    <row r="328" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -15768,7 +15877,7 @@
       <c r="AB328" s="4"/>
       <c r="AC328" s="4"/>
     </row>
-    <row r="329" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -15799,7 +15908,7 @@
       <c r="AB329" s="4"/>
       <c r="AC329" s="4"/>
     </row>
-    <row r="330" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -15830,7 +15939,7 @@
       <c r="AB330" s="4"/>
       <c r="AC330" s="4"/>
     </row>
-    <row r="331" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -15861,7 +15970,7 @@
       <c r="AB331" s="4"/>
       <c r="AC331" s="4"/>
     </row>
-    <row r="332" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -15892,7 +16001,7 @@
       <c r="AB332" s="4"/>
       <c r="AC332" s="4"/>
     </row>
-    <row r="333" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -15923,7 +16032,7 @@
       <c r="AB333" s="4"/>
       <c r="AC333" s="4"/>
     </row>
-    <row r="334" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -15954,7 +16063,7 @@
       <c r="AB334" s="4"/>
       <c r="AC334" s="4"/>
     </row>
-    <row r="335" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -15985,7 +16094,7 @@
       <c r="AB335" s="4"/>
       <c r="AC335" s="4"/>
     </row>
-    <row r="336" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -16016,7 +16125,7 @@
       <c r="AB336" s="4"/>
       <c r="AC336" s="4"/>
     </row>
-    <row r="337" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -16047,7 +16156,7 @@
       <c r="AB337" s="4"/>
       <c r="AC337" s="4"/>
     </row>
-    <row r="338" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -16078,7 +16187,7 @@
       <c r="AB338" s="4"/>
       <c r="AC338" s="4"/>
     </row>
-    <row r="339" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -16109,7 +16218,7 @@
       <c r="AB339" s="4"/>
       <c r="AC339" s="4"/>
     </row>
-    <row r="340" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -16140,7 +16249,7 @@
       <c r="AB340" s="4"/>
       <c r="AC340" s="4"/>
     </row>
-    <row r="341" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -16171,7 +16280,7 @@
       <c r="AB341" s="4"/>
       <c r="AC341" s="4"/>
     </row>
-    <row r="342" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -16202,7 +16311,7 @@
       <c r="AB342" s="4"/>
       <c r="AC342" s="4"/>
     </row>
-    <row r="343" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -16233,7 +16342,7 @@
       <c r="AB343" s="4"/>
       <c r="AC343" s="4"/>
     </row>
-    <row r="344" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -16264,7 +16373,7 @@
       <c r="AB344" s="4"/>
       <c r="AC344" s="4"/>
     </row>
-    <row r="345" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -16295,7 +16404,7 @@
       <c r="AB345" s="4"/>
       <c r="AC345" s="4"/>
     </row>
-    <row r="346" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -16326,7 +16435,7 @@
       <c r="AB346" s="4"/>
       <c r="AC346" s="4"/>
     </row>
-    <row r="347" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -16357,7 +16466,7 @@
       <c r="AB347" s="4"/>
       <c r="AC347" s="4"/>
     </row>
-    <row r="348" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -16388,7 +16497,7 @@
       <c r="AB348" s="4"/>
       <c r="AC348" s="4"/>
     </row>
-    <row r="349" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -16419,7 +16528,7 @@
       <c r="AB349" s="4"/>
       <c r="AC349" s="4"/>
     </row>
-    <row r="350" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -16450,7 +16559,7 @@
       <c r="AB350" s="4"/>
       <c r="AC350" s="4"/>
     </row>
-    <row r="351" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -16481,7 +16590,7 @@
       <c r="AB351" s="4"/>
       <c r="AC351" s="4"/>
     </row>
-    <row r="352" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -16512,7 +16621,7 @@
       <c r="AB352" s="4"/>
       <c r="AC352" s="4"/>
     </row>
-    <row r="353" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -16543,7 +16652,7 @@
       <c r="AB353" s="4"/>
       <c r="AC353" s="4"/>
     </row>
-    <row r="354" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -16574,7 +16683,7 @@
       <c r="AB354" s="4"/>
       <c r="AC354" s="4"/>
     </row>
-    <row r="355" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -16605,7 +16714,7 @@
       <c r="AB355" s="4"/>
       <c r="AC355" s="4"/>
     </row>
-    <row r="356" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -16636,7 +16745,7 @@
       <c r="AB356" s="4"/>
       <c r="AC356" s="4"/>
     </row>
-    <row r="357" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -16667,7 +16776,7 @@
       <c r="AB357" s="4"/>
       <c r="AC357" s="4"/>
     </row>
-    <row r="358" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -16698,7 +16807,7 @@
       <c r="AB358" s="4"/>
       <c r="AC358" s="4"/>
     </row>
-    <row r="359" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -16729,7 +16838,7 @@
       <c r="AB359" s="4"/>
       <c r="AC359" s="4"/>
     </row>
-    <row r="360" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -16760,7 +16869,7 @@
       <c r="AB360" s="4"/>
       <c r="AC360" s="4"/>
     </row>
-    <row r="361" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -16791,7 +16900,7 @@
       <c r="AB361" s="4"/>
       <c r="AC361" s="4"/>
     </row>
-    <row r="362" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -16822,7 +16931,7 @@
       <c r="AB362" s="4"/>
       <c r="AC362" s="4"/>
     </row>
-    <row r="363" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -16853,7 +16962,7 @@
       <c r="AB363" s="4"/>
       <c r="AC363" s="4"/>
     </row>
-    <row r="364" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -16884,7 +16993,7 @@
       <c r="AB364" s="4"/>
       <c r="AC364" s="4"/>
     </row>
-    <row r="365" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -16915,7 +17024,7 @@
       <c r="AB365" s="4"/>
       <c r="AC365" s="4"/>
     </row>
-    <row r="366" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -16946,7 +17055,7 @@
       <c r="AB366" s="4"/>
       <c r="AC366" s="4"/>
     </row>
-    <row r="367" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -16977,7 +17086,7 @@
       <c r="AB367" s="4"/>
       <c r="AC367" s="4"/>
     </row>
-    <row r="368" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -17008,7 +17117,7 @@
       <c r="AB368" s="4"/>
       <c r="AC368" s="4"/>
     </row>
-    <row r="369" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -17039,7 +17148,7 @@
       <c r="AB369" s="4"/>
       <c r="AC369" s="4"/>
     </row>
-    <row r="370" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -17070,7 +17179,7 @@
       <c r="AB370" s="4"/>
       <c r="AC370" s="4"/>
     </row>
-    <row r="371" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -17101,7 +17210,7 @@
       <c r="AB371" s="4"/>
       <c r="AC371" s="4"/>
     </row>
-    <row r="372" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -17132,7 +17241,7 @@
       <c r="AB372" s="4"/>
       <c r="AC372" s="4"/>
     </row>
-    <row r="373" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -17163,7 +17272,7 @@
       <c r="AB373" s="4"/>
       <c r="AC373" s="4"/>
     </row>
-    <row r="374" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -17194,7 +17303,7 @@
       <c r="AB374" s="4"/>
       <c r="AC374" s="4"/>
     </row>
-    <row r="375" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -17225,7 +17334,7 @@
       <c r="AB375" s="4"/>
       <c r="AC375" s="4"/>
     </row>
-    <row r="376" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -17256,7 +17365,7 @@
       <c r="AB376" s="4"/>
       <c r="AC376" s="4"/>
     </row>
-    <row r="377" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -17287,7 +17396,7 @@
       <c r="AB377" s="4"/>
       <c r="AC377" s="4"/>
     </row>
-    <row r="378" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -17318,7 +17427,7 @@
       <c r="AB378" s="4"/>
       <c r="AC378" s="4"/>
     </row>
-    <row r="379" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -17349,7 +17458,7 @@
       <c r="AB379" s="4"/>
       <c r="AC379" s="4"/>
     </row>
-    <row r="380" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -17380,7 +17489,7 @@
       <c r="AB380" s="4"/>
       <c r="AC380" s="4"/>
     </row>
-    <row r="381" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -17411,7 +17520,7 @@
       <c r="AB381" s="4"/>
       <c r="AC381" s="4"/>
     </row>
-    <row r="382" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -17442,7 +17551,7 @@
       <c r="AB382" s="4"/>
       <c r="AC382" s="4"/>
     </row>
-    <row r="383" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -17473,7 +17582,7 @@
       <c r="AB383" s="4"/>
       <c r="AC383" s="4"/>
     </row>
-    <row r="384" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -17504,7 +17613,7 @@
       <c r="AB384" s="4"/>
       <c r="AC384" s="4"/>
     </row>
-    <row r="385" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -17535,7 +17644,7 @@
       <c r="AB385" s="4"/>
       <c r="AC385" s="4"/>
     </row>
-    <row r="386" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -17566,7 +17675,7 @@
       <c r="AB386" s="4"/>
       <c r="AC386" s="4"/>
     </row>
-    <row r="387" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -17597,7 +17706,7 @@
       <c r="AB387" s="4"/>
       <c r="AC387" s="4"/>
     </row>
-    <row r="388" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -17628,7 +17737,7 @@
       <c r="AB388" s="4"/>
       <c r="AC388" s="4"/>
     </row>
-    <row r="389" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -17659,7 +17768,7 @@
       <c r="AB389" s="4"/>
       <c r="AC389" s="4"/>
     </row>
-    <row r="390" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -17690,7 +17799,7 @@
       <c r="AB390" s="4"/>
       <c r="AC390" s="4"/>
     </row>
-    <row r="391" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -17721,7 +17830,7 @@
       <c r="AB391" s="4"/>
       <c r="AC391" s="4"/>
     </row>
-    <row r="392" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -17752,7 +17861,7 @@
       <c r="AB392" s="4"/>
       <c r="AC392" s="4"/>
     </row>
-    <row r="393" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -17783,7 +17892,7 @@
       <c r="AB393" s="4"/>
       <c r="AC393" s="4"/>
     </row>
-    <row r="394" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -17814,7 +17923,7 @@
       <c r="AB394" s="4"/>
       <c r="AC394" s="4"/>
     </row>
-    <row r="395" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -17845,7 +17954,7 @@
       <c r="AB395" s="4"/>
       <c r="AC395" s="4"/>
     </row>
-    <row r="396" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -17876,7 +17985,7 @@
       <c r="AB396" s="4"/>
       <c r="AC396" s="4"/>
     </row>
-    <row r="397" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -17907,7 +18016,7 @@
       <c r="AB397" s="4"/>
       <c r="AC397" s="4"/>
     </row>
-    <row r="398" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -17938,7 +18047,7 @@
       <c r="AB398" s="4"/>
       <c r="AC398" s="4"/>
     </row>
-    <row r="399" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -17969,7 +18078,7 @@
       <c r="AB399" s="4"/>
       <c r="AC399" s="4"/>
     </row>
-    <row r="400" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -18000,7 +18109,7 @@
       <c r="AB400" s="4"/>
       <c r="AC400" s="4"/>
     </row>
-    <row r="401" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -18031,7 +18140,7 @@
       <c r="AB401" s="4"/>
       <c r="AC401" s="4"/>
     </row>
-    <row r="402" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -18062,7 +18171,7 @@
       <c r="AB402" s="4"/>
       <c r="AC402" s="4"/>
     </row>
-    <row r="403" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -18093,7 +18202,7 @@
       <c r="AB403" s="4"/>
       <c r="AC403" s="4"/>
     </row>
-    <row r="404" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -18124,7 +18233,7 @@
       <c r="AB404" s="4"/>
       <c r="AC404" s="4"/>
     </row>
-    <row r="405" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -18155,7 +18264,7 @@
       <c r="AB405" s="4"/>
       <c r="AC405" s="4"/>
     </row>
-    <row r="406" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -18186,7 +18295,7 @@
       <c r="AB406" s="4"/>
       <c r="AC406" s="4"/>
     </row>
-    <row r="407" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -18217,7 +18326,7 @@
       <c r="AB407" s="4"/>
       <c r="AC407" s="4"/>
     </row>
-    <row r="408" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -18248,7 +18357,7 @@
       <c r="AB408" s="4"/>
       <c r="AC408" s="4"/>
     </row>
-    <row r="409" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -18279,7 +18388,7 @@
       <c r="AB409" s="4"/>
       <c r="AC409" s="4"/>
     </row>
-    <row r="410" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -18310,7 +18419,7 @@
       <c r="AB410" s="4"/>
       <c r="AC410" s="4"/>
     </row>
-    <row r="411" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -18341,7 +18450,7 @@
       <c r="AB411" s="4"/>
       <c r="AC411" s="4"/>
     </row>
-    <row r="412" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -18372,7 +18481,7 @@
       <c r="AB412" s="4"/>
       <c r="AC412" s="4"/>
     </row>
-    <row r="413" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -18403,7 +18512,7 @@
       <c r="AB413" s="4"/>
       <c r="AC413" s="4"/>
     </row>
-    <row r="414" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -18434,7 +18543,7 @@
       <c r="AB414" s="4"/>
       <c r="AC414" s="4"/>
     </row>
-    <row r="415" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -18465,7 +18574,7 @@
       <c r="AB415" s="4"/>
       <c r="AC415" s="4"/>
     </row>
-    <row r="416" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -18496,7 +18605,7 @@
       <c r="AB416" s="4"/>
       <c r="AC416" s="4"/>
     </row>
-    <row r="417" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -18527,7 +18636,7 @@
       <c r="AB417" s="4"/>
       <c r="AC417" s="4"/>
     </row>
-    <row r="418" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -18558,7 +18667,7 @@
       <c r="AB418" s="4"/>
       <c r="AC418" s="4"/>
     </row>
-    <row r="419" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -18589,7 +18698,7 @@
       <c r="AB419" s="4"/>
       <c r="AC419" s="4"/>
     </row>
-    <row r="420" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -18620,7 +18729,7 @@
       <c r="AB420" s="4"/>
       <c r="AC420" s="4"/>
     </row>
-    <row r="421" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -18651,7 +18760,7 @@
       <c r="AB421" s="4"/>
       <c r="AC421" s="4"/>
     </row>
-    <row r="422" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -18682,7 +18791,7 @@
       <c r="AB422" s="4"/>
       <c r="AC422" s="4"/>
     </row>
-    <row r="423" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -18713,7 +18822,7 @@
       <c r="AB423" s="4"/>
       <c r="AC423" s="4"/>
     </row>
-    <row r="424" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -18744,7 +18853,7 @@
       <c r="AB424" s="4"/>
       <c r="AC424" s="4"/>
     </row>
-    <row r="425" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -18775,7 +18884,7 @@
       <c r="AB425" s="4"/>
       <c r="AC425" s="4"/>
     </row>
-    <row r="426" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -18806,7 +18915,7 @@
       <c r="AB426" s="4"/>
       <c r="AC426" s="4"/>
     </row>
-    <row r="427" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -18837,7 +18946,7 @@
       <c r="AB427" s="4"/>
       <c r="AC427" s="4"/>
     </row>
-    <row r="428" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -18868,7 +18977,7 @@
       <c r="AB428" s="4"/>
       <c r="AC428" s="4"/>
     </row>
-    <row r="429" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -18899,7 +19008,7 @@
       <c r="AB429" s="4"/>
       <c r="AC429" s="4"/>
     </row>
-    <row r="430" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -18930,7 +19039,7 @@
       <c r="AB430" s="4"/>
       <c r="AC430" s="4"/>
     </row>
-    <row r="431" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -18961,7 +19070,7 @@
       <c r="AB431" s="4"/>
       <c r="AC431" s="4"/>
     </row>
-    <row r="432" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -18992,7 +19101,7 @@
       <c r="AB432" s="4"/>
       <c r="AC432" s="4"/>
     </row>
-    <row r="433" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -19023,7 +19132,7 @@
       <c r="AB433" s="4"/>
       <c r="AC433" s="4"/>
     </row>
-    <row r="434" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -19054,7 +19163,7 @@
       <c r="AB434" s="4"/>
       <c r="AC434" s="4"/>
     </row>
-    <row r="435" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -19085,7 +19194,7 @@
       <c r="AB435" s="4"/>
       <c r="AC435" s="4"/>
     </row>
-    <row r="436" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -19116,7 +19225,7 @@
       <c r="AB436" s="4"/>
       <c r="AC436" s="4"/>
     </row>
-    <row r="437" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -19147,7 +19256,7 @@
       <c r="AB437" s="4"/>
       <c r="AC437" s="4"/>
     </row>
-    <row r="438" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -19178,7 +19287,7 @@
       <c r="AB438" s="4"/>
       <c r="AC438" s="4"/>
     </row>
-    <row r="439" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -19209,7 +19318,7 @@
       <c r="AB439" s="4"/>
       <c r="AC439" s="4"/>
     </row>
-    <row r="440" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -19240,7 +19349,7 @@
       <c r="AB440" s="4"/>
       <c r="AC440" s="4"/>
     </row>
-    <row r="441" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -19271,7 +19380,7 @@
       <c r="AB441" s="4"/>
       <c r="AC441" s="4"/>
     </row>
-    <row r="442" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -19302,7 +19411,7 @@
       <c r="AB442" s="4"/>
       <c r="AC442" s="4"/>
     </row>
-    <row r="443" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -19333,7 +19442,7 @@
       <c r="AB443" s="4"/>
       <c r="AC443" s="4"/>
     </row>
-    <row r="444" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -19364,7 +19473,7 @@
       <c r="AB444" s="4"/>
       <c r="AC444" s="4"/>
     </row>
-    <row r="445" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -19395,7 +19504,7 @@
       <c r="AB445" s="4"/>
       <c r="AC445" s="4"/>
     </row>
-    <row r="446" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -19426,7 +19535,7 @@
       <c r="AB446" s="4"/>
       <c r="AC446" s="4"/>
     </row>
-    <row r="447" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -19457,7 +19566,7 @@
       <c r="AB447" s="4"/>
       <c r="AC447" s="4"/>
     </row>
-    <row r="448" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -19488,7 +19597,7 @@
       <c r="AB448" s="4"/>
       <c r="AC448" s="4"/>
     </row>
-    <row r="449" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -19519,7 +19628,7 @@
       <c r="AB449" s="4"/>
       <c r="AC449" s="4"/>
     </row>
-    <row r="450" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -19550,7 +19659,7 @@
       <c r="AB450" s="4"/>
       <c r="AC450" s="4"/>
     </row>
-    <row r="451" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -19581,7 +19690,7 @@
       <c r="AB451" s="4"/>
       <c r="AC451" s="4"/>
     </row>
-    <row r="452" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -19612,7 +19721,7 @@
       <c r="AB452" s="4"/>
       <c r="AC452" s="4"/>
     </row>
-    <row r="453" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -19643,7 +19752,7 @@
       <c r="AB453" s="4"/>
       <c r="AC453" s="4"/>
     </row>
-    <row r="454" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -19674,7 +19783,7 @@
       <c r="AB454" s="4"/>
       <c r="AC454" s="4"/>
     </row>
-    <row r="455" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -19705,7 +19814,7 @@
       <c r="AB455" s="4"/>
       <c r="AC455" s="4"/>
     </row>
-    <row r="456" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -19736,7 +19845,7 @@
       <c r="AB456" s="4"/>
       <c r="AC456" s="4"/>
     </row>
-    <row r="457" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -19767,7 +19876,7 @@
       <c r="AB457" s="4"/>
       <c r="AC457" s="4"/>
     </row>
-    <row r="458" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -19798,7 +19907,7 @@
       <c r="AB458" s="4"/>
       <c r="AC458" s="4"/>
     </row>
-    <row r="459" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -19829,7 +19938,7 @@
       <c r="AB459" s="4"/>
       <c r="AC459" s="4"/>
     </row>
-    <row r="460" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -19860,7 +19969,7 @@
       <c r="AB460" s="4"/>
       <c r="AC460" s="4"/>
     </row>
-    <row r="461" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -19891,7 +20000,7 @@
       <c r="AB461" s="4"/>
       <c r="AC461" s="4"/>
     </row>
-    <row r="462" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -19922,7 +20031,7 @@
       <c r="AB462" s="4"/>
       <c r="AC462" s="4"/>
     </row>
-    <row r="463" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -19953,7 +20062,7 @@
       <c r="AB463" s="4"/>
       <c r="AC463" s="4"/>
     </row>
-    <row r="464" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -19984,7 +20093,7 @@
       <c r="AB464" s="4"/>
       <c r="AC464" s="4"/>
     </row>
-    <row r="465" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -20015,7 +20124,7 @@
       <c r="AB465" s="4"/>
       <c r="AC465" s="4"/>
     </row>
-    <row r="466" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -20046,7 +20155,7 @@
       <c r="AB466" s="4"/>
       <c r="AC466" s="4"/>
     </row>
-    <row r="467" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -20077,7 +20186,7 @@
       <c r="AB467" s="4"/>
       <c r="AC467" s="4"/>
     </row>
-    <row r="468" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -20108,7 +20217,7 @@
       <c r="AB468" s="4"/>
       <c r="AC468" s="4"/>
     </row>
-    <row r="469" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -20139,7 +20248,7 @@
       <c r="AB469" s="4"/>
       <c r="AC469" s="4"/>
     </row>
-    <row r="470" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -20170,7 +20279,7 @@
       <c r="AB470" s="4"/>
       <c r="AC470" s="4"/>
     </row>
-    <row r="471" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -20201,7 +20310,7 @@
       <c r="AB471" s="4"/>
       <c r="AC471" s="4"/>
     </row>
-    <row r="472" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -20232,7 +20341,7 @@
       <c r="AB472" s="4"/>
       <c r="AC472" s="4"/>
     </row>
-    <row r="473" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -20263,7 +20372,7 @@
       <c r="AB473" s="4"/>
       <c r="AC473" s="4"/>
     </row>
-    <row r="474" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -20294,7 +20403,7 @@
       <c r="AB474" s="4"/>
       <c r="AC474" s="4"/>
     </row>
-    <row r="475" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -20325,7 +20434,7 @@
       <c r="AB475" s="4"/>
       <c r="AC475" s="4"/>
     </row>
-    <row r="476" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -20356,7 +20465,7 @@
       <c r="AB476" s="4"/>
       <c r="AC476" s="4"/>
     </row>
-    <row r="477" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -20387,7 +20496,7 @@
       <c r="AB477" s="4"/>
       <c r="AC477" s="4"/>
     </row>
-    <row r="478" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -20418,7 +20527,7 @@
       <c r="AB478" s="4"/>
       <c r="AC478" s="4"/>
     </row>
-    <row r="479" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -20449,7 +20558,7 @@
       <c r="AB479" s="4"/>
       <c r="AC479" s="4"/>
     </row>
-    <row r="480" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -20480,7 +20589,7 @@
       <c r="AB480" s="4"/>
       <c r="AC480" s="4"/>
     </row>
-    <row r="481" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -20511,7 +20620,7 @@
       <c r="AB481" s="4"/>
       <c r="AC481" s="4"/>
     </row>
-    <row r="482" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -20542,7 +20651,7 @@
       <c r="AB482" s="4"/>
       <c r="AC482" s="4"/>
     </row>
-    <row r="483" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -20573,7 +20682,7 @@
       <c r="AB483" s="4"/>
       <c r="AC483" s="4"/>
     </row>
-    <row r="484" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -20604,7 +20713,7 @@
       <c r="AB484" s="4"/>
       <c r="AC484" s="4"/>
     </row>
-    <row r="485" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -20635,7 +20744,7 @@
       <c r="AB485" s="4"/>
       <c r="AC485" s="4"/>
     </row>
-    <row r="486" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -20666,7 +20775,7 @@
       <c r="AB486" s="4"/>
       <c r="AC486" s="4"/>
     </row>
-    <row r="487" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -20697,7 +20806,7 @@
       <c r="AB487" s="4"/>
       <c r="AC487" s="4"/>
     </row>
-    <row r="488" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -20728,7 +20837,7 @@
       <c r="AB488" s="4"/>
       <c r="AC488" s="4"/>
     </row>
-    <row r="489" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -20759,7 +20868,7 @@
       <c r="AB489" s="4"/>
       <c r="AC489" s="4"/>
     </row>
-    <row r="490" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -20790,7 +20899,7 @@
       <c r="AB490" s="4"/>
       <c r="AC490" s="4"/>
     </row>
-    <row r="491" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -20821,7 +20930,7 @@
       <c r="AB491" s="4"/>
       <c r="AC491" s="4"/>
     </row>
-    <row r="492" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -20852,7 +20961,7 @@
       <c r="AB492" s="4"/>
       <c r="AC492" s="4"/>
     </row>
-    <row r="493" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -20883,7 +20992,7 @@
       <c r="AB493" s="4"/>
       <c r="AC493" s="4"/>
     </row>
-    <row r="494" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -20914,7 +21023,7 @@
       <c r="AB494" s="4"/>
       <c r="AC494" s="4"/>
     </row>
-    <row r="495" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -20945,7 +21054,7 @@
       <c r="AB495" s="4"/>
       <c r="AC495" s="4"/>
     </row>
-    <row r="496" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -20976,7 +21085,7 @@
       <c r="AB496" s="4"/>
       <c r="AC496" s="4"/>
     </row>
-    <row r="497" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -21007,7 +21116,7 @@
       <c r="AB497" s="4"/>
       <c r="AC497" s="4"/>
     </row>
-    <row r="498" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -21038,7 +21147,7 @@
       <c r="AB498" s="4"/>
       <c r="AC498" s="4"/>
     </row>
-    <row r="499" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -21069,7 +21178,7 @@
       <c r="AB499" s="4"/>
       <c r="AC499" s="4"/>
     </row>
-    <row r="500" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -21100,7 +21209,7 @@
       <c r="AB500" s="4"/>
       <c r="AC500" s="4"/>
     </row>
-    <row r="501" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -21131,7 +21240,7 @@
       <c r="AB501" s="4"/>
       <c r="AC501" s="4"/>
     </row>
-    <row r="502" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -21162,7 +21271,7 @@
       <c r="AB502" s="4"/>
       <c r="AC502" s="4"/>
     </row>
-    <row r="503" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -21193,7 +21302,7 @@
       <c r="AB503" s="4"/>
       <c r="AC503" s="4"/>
     </row>
-    <row r="504" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -21224,7 +21333,7 @@
       <c r="AB504" s="4"/>
       <c r="AC504" s="4"/>
     </row>
-    <row r="505" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -21255,7 +21364,7 @@
       <c r="AB505" s="4"/>
       <c r="AC505" s="4"/>
     </row>
-    <row r="506" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -21286,7 +21395,7 @@
       <c r="AB506" s="4"/>
       <c r="AC506" s="4"/>
     </row>
-    <row r="507" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -21317,7 +21426,7 @@
       <c r="AB507" s="4"/>
       <c r="AC507" s="4"/>
     </row>
-    <row r="508" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -21348,7 +21457,7 @@
       <c r="AB508" s="4"/>
       <c r="AC508" s="4"/>
     </row>
-    <row r="509" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -21379,7 +21488,7 @@
       <c r="AB509" s="4"/>
       <c r="AC509" s="4"/>
     </row>
-    <row r="510" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -21410,7 +21519,7 @@
       <c r="AB510" s="4"/>
       <c r="AC510" s="4"/>
     </row>
-    <row r="511" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -21441,7 +21550,7 @@
       <c r="AB511" s="4"/>
       <c r="AC511" s="4"/>
     </row>
-    <row r="512" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -21472,7 +21581,7 @@
       <c r="AB512" s="4"/>
       <c r="AC512" s="4"/>
     </row>
-    <row r="513" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -21503,7 +21612,7 @@
       <c r="AB513" s="4"/>
       <c r="AC513" s="4"/>
     </row>
-    <row r="514" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -21534,7 +21643,7 @@
       <c r="AB514" s="4"/>
       <c r="AC514" s="4"/>
     </row>
-    <row r="515" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -21565,7 +21674,7 @@
       <c r="AB515" s="4"/>
       <c r="AC515" s="4"/>
     </row>
-    <row r="516" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -21596,7 +21705,7 @@
       <c r="AB516" s="4"/>
       <c r="AC516" s="4"/>
     </row>
-    <row r="517" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -21627,7 +21736,7 @@
       <c r="AB517" s="4"/>
       <c r="AC517" s="4"/>
     </row>
-    <row r="518" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -21658,7 +21767,7 @@
       <c r="AB518" s="4"/>
       <c r="AC518" s="4"/>
     </row>
-    <row r="519" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -21689,7 +21798,7 @@
       <c r="AB519" s="4"/>
       <c r="AC519" s="4"/>
     </row>
-    <row r="520" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -21720,7 +21829,7 @@
       <c r="AB520" s="4"/>
       <c r="AC520" s="4"/>
     </row>
-    <row r="521" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -21751,7 +21860,7 @@
       <c r="AB521" s="4"/>
       <c r="AC521" s="4"/>
     </row>
-    <row r="522" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -21782,7 +21891,7 @@
       <c r="AB522" s="4"/>
       <c r="AC522" s="4"/>
     </row>
-    <row r="523" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -21813,7 +21922,7 @@
       <c r="AB523" s="4"/>
       <c r="AC523" s="4"/>
     </row>
-    <row r="524" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -21844,7 +21953,7 @@
       <c r="AB524" s="4"/>
       <c r="AC524" s="4"/>
     </row>
-    <row r="525" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -21875,7 +21984,7 @@
       <c r="AB525" s="4"/>
       <c r="AC525" s="4"/>
     </row>
-    <row r="526" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -21906,7 +22015,7 @@
       <c r="AB526" s="4"/>
       <c r="AC526" s="4"/>
     </row>
-    <row r="527" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -21937,7 +22046,7 @@
       <c r="AB527" s="4"/>
       <c r="AC527" s="4"/>
     </row>
-    <row r="528" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -21968,7 +22077,7 @@
       <c r="AB528" s="4"/>
       <c r="AC528" s="4"/>
     </row>
-    <row r="529" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -21999,7 +22108,7 @@
       <c r="AB529" s="4"/>
       <c r="AC529" s="4"/>
     </row>
-    <row r="530" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -22030,7 +22139,7 @@
       <c r="AB530" s="4"/>
       <c r="AC530" s="4"/>
     </row>
-    <row r="531" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -22061,7 +22170,7 @@
       <c r="AB531" s="4"/>
       <c r="AC531" s="4"/>
     </row>
-    <row r="532" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -22092,7 +22201,7 @@
       <c r="AB532" s="4"/>
       <c r="AC532" s="4"/>
     </row>
-    <row r="533" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -22123,7 +22232,7 @@
       <c r="AB533" s="4"/>
       <c r="AC533" s="4"/>
     </row>
-    <row r="534" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -22154,7 +22263,7 @@
       <c r="AB534" s="4"/>
       <c r="AC534" s="4"/>
     </row>
-    <row r="535" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -22185,7 +22294,7 @@
       <c r="AB535" s="4"/>
       <c r="AC535" s="4"/>
     </row>
-    <row r="536" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -22216,7 +22325,7 @@
       <c r="AB536" s="4"/>
       <c r="AC536" s="4"/>
     </row>
-    <row r="537" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -22247,7 +22356,7 @@
       <c r="AB537" s="4"/>
       <c r="AC537" s="4"/>
     </row>
-    <row r="538" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -22278,7 +22387,7 @@
       <c r="AB538" s="4"/>
       <c r="AC538" s="4"/>
     </row>
-    <row r="539" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -22309,7 +22418,7 @@
       <c r="AB539" s="4"/>
       <c r="AC539" s="4"/>
     </row>
-    <row r="540" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -22340,7 +22449,7 @@
       <c r="AB540" s="4"/>
       <c r="AC540" s="4"/>
     </row>
-    <row r="541" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -22371,7 +22480,7 @@
       <c r="AB541" s="4"/>
       <c r="AC541" s="4"/>
     </row>
-    <row r="542" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -22402,7 +22511,7 @@
       <c r="AB542" s="4"/>
       <c r="AC542" s="4"/>
     </row>
-    <row r="543" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -22433,7 +22542,7 @@
       <c r="AB543" s="4"/>
       <c r="AC543" s="4"/>
     </row>
-    <row r="544" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -22464,7 +22573,7 @@
       <c r="AB544" s="4"/>
       <c r="AC544" s="4"/>
     </row>
-    <row r="545" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -22495,7 +22604,7 @@
       <c r="AB545" s="4"/>
       <c r="AC545" s="4"/>
     </row>
-    <row r="546" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -22526,7 +22635,7 @@
       <c r="AB546" s="4"/>
       <c r="AC546" s="4"/>
     </row>
-    <row r="547" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -22557,7 +22666,7 @@
       <c r="AB547" s="4"/>
       <c r="AC547" s="4"/>
     </row>
-    <row r="548" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -22588,7 +22697,7 @@
       <c r="AB548" s="4"/>
       <c r="AC548" s="4"/>
     </row>
-    <row r="549" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -22619,7 +22728,7 @@
       <c r="AB549" s="4"/>
       <c r="AC549" s="4"/>
     </row>
-    <row r="550" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -22650,7 +22759,7 @@
       <c r="AB550" s="4"/>
       <c r="AC550" s="4"/>
     </row>
-    <row r="551" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -22681,7 +22790,7 @@
       <c r="AB551" s="4"/>
       <c r="AC551" s="4"/>
     </row>
-    <row r="552" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -22712,7 +22821,7 @@
       <c r="AB552" s="4"/>
       <c r="AC552" s="4"/>
     </row>
-    <row r="553" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -22743,7 +22852,7 @@
       <c r="AB553" s="4"/>
       <c r="AC553" s="4"/>
     </row>
-    <row r="554" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -22774,7 +22883,7 @@
       <c r="AB554" s="4"/>
       <c r="AC554" s="4"/>
     </row>
-    <row r="555" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -22805,7 +22914,7 @@
       <c r="AB555" s="4"/>
       <c r="AC555" s="4"/>
     </row>
-    <row r="556" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -22836,7 +22945,7 @@
       <c r="AB556" s="4"/>
       <c r="AC556" s="4"/>
     </row>
-    <row r="557" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -22867,7 +22976,7 @@
       <c r="AB557" s="4"/>
       <c r="AC557" s="4"/>
     </row>
-    <row r="558" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -22898,7 +23007,7 @@
       <c r="AB558" s="4"/>
       <c r="AC558" s="4"/>
     </row>
-    <row r="559" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -22929,7 +23038,7 @@
       <c r="AB559" s="4"/>
       <c r="AC559" s="4"/>
     </row>
-    <row r="560" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -22960,7 +23069,7 @@
       <c r="AB560" s="4"/>
       <c r="AC560" s="4"/>
     </row>
-    <row r="561" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -22991,7 +23100,7 @@
       <c r="AB561" s="4"/>
       <c r="AC561" s="4"/>
     </row>
-    <row r="562" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -23022,7 +23131,7 @@
       <c r="AB562" s="4"/>
       <c r="AC562" s="4"/>
     </row>
-    <row r="563" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -23053,7 +23162,7 @@
       <c r="AB563" s="4"/>
       <c r="AC563" s="4"/>
     </row>
-    <row r="564" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -23084,7 +23193,7 @@
       <c r="AB564" s="4"/>
       <c r="AC564" s="4"/>
     </row>
-    <row r="565" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -23115,7 +23224,7 @@
       <c r="AB565" s="4"/>
       <c r="AC565" s="4"/>
     </row>
-    <row r="566" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -23146,7 +23255,7 @@
       <c r="AB566" s="4"/>
       <c r="AC566" s="4"/>
     </row>
-    <row r="567" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -23177,7 +23286,7 @@
       <c r="AB567" s="4"/>
       <c r="AC567" s="4"/>
     </row>
-    <row r="568" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -23208,7 +23317,7 @@
       <c r="AB568" s="4"/>
       <c r="AC568" s="4"/>
     </row>
-    <row r="569" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -23239,7 +23348,7 @@
       <c r="AB569" s="4"/>
       <c r="AC569" s="4"/>
     </row>
-    <row r="570" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -23270,7 +23379,7 @@
       <c r="AB570" s="4"/>
       <c r="AC570" s="4"/>
     </row>
-    <row r="571" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -23301,7 +23410,7 @@
       <c r="AB571" s="4"/>
       <c r="AC571" s="4"/>
     </row>
-    <row r="572" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -23332,7 +23441,7 @@
       <c r="AB572" s="4"/>
       <c r="AC572" s="4"/>
     </row>
-    <row r="573" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -23363,7 +23472,7 @@
       <c r="AB573" s="4"/>
       <c r="AC573" s="4"/>
     </row>
-    <row r="574" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -23394,7 +23503,7 @@
       <c r="AB574" s="4"/>
       <c r="AC574" s="4"/>
     </row>
-    <row r="575" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -23425,7 +23534,7 @@
       <c r="AB575" s="4"/>
       <c r="AC575" s="4"/>
     </row>
-    <row r="576" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -23456,7 +23565,7 @@
       <c r="AB576" s="4"/>
       <c r="AC576" s="4"/>
     </row>
-    <row r="577" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -23487,7 +23596,7 @@
       <c r="AB577" s="4"/>
       <c r="AC577" s="4"/>
     </row>
-    <row r="578" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -23518,7 +23627,7 @@
       <c r="AB578" s="4"/>
       <c r="AC578" s="4"/>
     </row>
-    <row r="579" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -23549,7 +23658,7 @@
       <c r="AB579" s="4"/>
       <c r="AC579" s="4"/>
     </row>
-    <row r="580" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -23580,7 +23689,7 @@
       <c r="AB580" s="4"/>
       <c r="AC580" s="4"/>
     </row>
-    <row r="581" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -23611,7 +23720,7 @@
       <c r="AB581" s="4"/>
       <c r="AC581" s="4"/>
     </row>
-    <row r="582" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -23642,7 +23751,7 @@
       <c r="AB582" s="4"/>
       <c r="AC582" s="4"/>
     </row>
-    <row r="583" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -23673,7 +23782,7 @@
       <c r="AB583" s="4"/>
       <c r="AC583" s="4"/>
     </row>
-    <row r="584" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -23704,7 +23813,7 @@
       <c r="AB584" s="4"/>
       <c r="AC584" s="4"/>
     </row>
-    <row r="585" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -23735,7 +23844,7 @@
       <c r="AB585" s="4"/>
       <c r="AC585" s="4"/>
     </row>
-    <row r="586" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -23766,7 +23875,7 @@
       <c r="AB586" s="4"/>
       <c r="AC586" s="4"/>
     </row>
-    <row r="587" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -23797,7 +23906,7 @@
       <c r="AB587" s="4"/>
       <c r="AC587" s="4"/>
     </row>
-    <row r="588" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -23828,7 +23937,7 @@
       <c r="AB588" s="4"/>
       <c r="AC588" s="4"/>
     </row>
-    <row r="589" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -23859,7 +23968,7 @@
       <c r="AB589" s="4"/>
       <c r="AC589" s="4"/>
     </row>
-    <row r="590" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -23890,7 +23999,7 @@
       <c r="AB590" s="4"/>
       <c r="AC590" s="4"/>
     </row>
-    <row r="591" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -23921,7 +24030,7 @@
       <c r="AB591" s="4"/>
       <c r="AC591" s="4"/>
     </row>
-    <row r="592" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -23952,7 +24061,7 @@
       <c r="AB592" s="4"/>
       <c r="AC592" s="4"/>
     </row>
-    <row r="593" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -23983,7 +24092,7 @@
       <c r="AB593" s="4"/>
       <c r="AC593" s="4"/>
     </row>
-    <row r="594" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -24014,7 +24123,7 @@
       <c r="AB594" s="4"/>
       <c r="AC594" s="4"/>
     </row>
-    <row r="595" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -24045,7 +24154,7 @@
       <c r="AB595" s="4"/>
       <c r="AC595" s="4"/>
     </row>
-    <row r="596" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -24076,7 +24185,7 @@
       <c r="AB596" s="4"/>
       <c r="AC596" s="4"/>
     </row>
-    <row r="597" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -24107,7 +24216,7 @@
       <c r="AB597" s="4"/>
       <c r="AC597" s="4"/>
     </row>
-    <row r="598" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -24138,7 +24247,7 @@
       <c r="AB598" s="4"/>
       <c r="AC598" s="4"/>
     </row>
-    <row r="599" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -24169,7 +24278,7 @@
       <c r="AB599" s="4"/>
       <c r="AC599" s="4"/>
     </row>
-    <row r="600" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -24200,7 +24309,7 @@
       <c r="AB600" s="4"/>
       <c r="AC600" s="4"/>
     </row>
-    <row r="601" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -24231,7 +24340,7 @@
       <c r="AB601" s="4"/>
       <c r="AC601" s="4"/>
     </row>
-    <row r="602" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -24262,7 +24371,7 @@
       <c r="AB602" s="4"/>
       <c r="AC602" s="4"/>
     </row>
-    <row r="603" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -24293,7 +24402,7 @@
       <c r="AB603" s="4"/>
       <c r="AC603" s="4"/>
     </row>
-    <row r="604" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -24324,7 +24433,7 @@
       <c r="AB604" s="4"/>
       <c r="AC604" s="4"/>
     </row>
-    <row r="605" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -24355,7 +24464,7 @@
       <c r="AB605" s="4"/>
       <c r="AC605" s="4"/>
     </row>
-    <row r="606" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -24386,7 +24495,7 @@
       <c r="AB606" s="4"/>
       <c r="AC606" s="4"/>
     </row>
-    <row r="607" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -24417,7 +24526,7 @@
       <c r="AB607" s="4"/>
       <c r="AC607" s="4"/>
     </row>
-    <row r="608" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -24448,7 +24557,7 @@
       <c r="AB608" s="4"/>
       <c r="AC608" s="4"/>
     </row>
-    <row r="609" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -24479,7 +24588,7 @@
       <c r="AB609" s="4"/>
       <c r="AC609" s="4"/>
     </row>
-    <row r="610" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -24510,7 +24619,7 @@
       <c r="AB610" s="4"/>
       <c r="AC610" s="4"/>
     </row>
-    <row r="611" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -24541,7 +24650,7 @@
       <c r="AB611" s="4"/>
       <c r="AC611" s="4"/>
     </row>
-    <row r="612" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -24572,7 +24681,7 @@
       <c r="AB612" s="4"/>
       <c r="AC612" s="4"/>
     </row>
-    <row r="613" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -24603,7 +24712,7 @@
       <c r="AB613" s="4"/>
       <c r="AC613" s="4"/>
     </row>
-    <row r="614" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -24634,7 +24743,7 @@
       <c r="AB614" s="4"/>
       <c r="AC614" s="4"/>
     </row>
-    <row r="615" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -24665,7 +24774,7 @@
       <c r="AB615" s="4"/>
       <c r="AC615" s="4"/>
     </row>
-    <row r="616" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -24696,7 +24805,7 @@
       <c r="AB616" s="4"/>
       <c r="AC616" s="4"/>
     </row>
-    <row r="617" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -24727,7 +24836,7 @@
       <c r="AB617" s="4"/>
       <c r="AC617" s="4"/>
     </row>
-    <row r="618" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -24758,7 +24867,7 @@
       <c r="AB618" s="4"/>
       <c r="AC618" s="4"/>
     </row>
-    <row r="619" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -24789,7 +24898,7 @@
       <c r="AB619" s="4"/>
       <c r="AC619" s="4"/>
     </row>
-    <row r="620" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -24820,7 +24929,7 @@
       <c r="AB620" s="4"/>
       <c r="AC620" s="4"/>
     </row>
-    <row r="621" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -24851,7 +24960,7 @@
       <c r="AB621" s="4"/>
       <c r="AC621" s="4"/>
     </row>
-    <row r="622" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -24882,7 +24991,7 @@
       <c r="AB622" s="4"/>
       <c r="AC622" s="4"/>
     </row>
-    <row r="623" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -24913,7 +25022,7 @@
       <c r="AB623" s="4"/>
       <c r="AC623" s="4"/>
     </row>
-    <row r="624" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -24944,7 +25053,7 @@
       <c r="AB624" s="4"/>
       <c r="AC624" s="4"/>
     </row>
-    <row r="625" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -24975,7 +25084,7 @@
       <c r="AB625" s="4"/>
       <c r="AC625" s="4"/>
     </row>
-    <row r="626" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -25006,7 +25115,7 @@
       <c r="AB626" s="4"/>
       <c r="AC626" s="4"/>
     </row>
-    <row r="627" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -25037,7 +25146,7 @@
       <c r="AB627" s="4"/>
       <c r="AC627" s="4"/>
     </row>
-    <row r="628" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -25068,7 +25177,7 @@
       <c r="AB628" s="4"/>
       <c r="AC628" s="4"/>
     </row>
-    <row r="629" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -25099,7 +25208,7 @@
       <c r="AB629" s="4"/>
       <c r="AC629" s="4"/>
     </row>
-    <row r="630" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -25130,7 +25239,7 @@
       <c r="AB630" s="4"/>
       <c r="AC630" s="4"/>
     </row>
-    <row r="631" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -25161,7 +25270,7 @@
       <c r="AB631" s="4"/>
       <c r="AC631" s="4"/>
     </row>
-    <row r="632" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -25192,7 +25301,7 @@
       <c r="AB632" s="4"/>
       <c r="AC632" s="4"/>
     </row>
-    <row r="633" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -25223,7 +25332,7 @@
       <c r="AB633" s="4"/>
       <c r="AC633" s="4"/>
     </row>
-    <row r="634" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -25254,7 +25363,7 @@
       <c r="AB634" s="4"/>
       <c r="AC634" s="4"/>
     </row>
-    <row r="635" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -25285,7 +25394,7 @@
       <c r="AB635" s="4"/>
       <c r="AC635" s="4"/>
     </row>
-    <row r="636" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -25316,7 +25425,7 @@
       <c r="AB636" s="4"/>
       <c r="AC636" s="4"/>
     </row>
-    <row r="637" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -25347,7 +25456,7 @@
       <c r="AB637" s="4"/>
       <c r="AC637" s="4"/>
     </row>
-    <row r="638" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -25378,7 +25487,7 @@
       <c r="AB638" s="4"/>
       <c r="AC638" s="4"/>
     </row>
-    <row r="639" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -25409,7 +25518,7 @@
       <c r="AB639" s="4"/>
       <c r="AC639" s="4"/>
     </row>
-    <row r="640" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -25440,7 +25549,7 @@
       <c r="AB640" s="4"/>
       <c r="AC640" s="4"/>
     </row>
-    <row r="641" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -25471,7 +25580,7 @@
       <c r="AB641" s="4"/>
       <c r="AC641" s="4"/>
     </row>
-    <row r="642" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -25502,7 +25611,7 @@
       <c r="AB642" s="4"/>
       <c r="AC642" s="4"/>
     </row>
-    <row r="643" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -25533,7 +25642,7 @@
       <c r="AB643" s="4"/>
       <c r="AC643" s="4"/>
     </row>
-    <row r="644" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -25564,7 +25673,7 @@
       <c r="AB644" s="4"/>
       <c r="AC644" s="4"/>
     </row>
-    <row r="645" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -25595,7 +25704,7 @@
       <c r="AB645" s="4"/>
       <c r="AC645" s="4"/>
     </row>
-    <row r="646" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -25626,7 +25735,7 @@
       <c r="AB646" s="4"/>
       <c r="AC646" s="4"/>
     </row>
-    <row r="647" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -25657,7 +25766,7 @@
       <c r="AB647" s="4"/>
       <c r="AC647" s="4"/>
     </row>
-    <row r="648" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -25688,7 +25797,7 @@
       <c r="AB648" s="4"/>
       <c r="AC648" s="4"/>
     </row>
-    <row r="649" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -25719,7 +25828,7 @@
       <c r="AB649" s="4"/>
       <c r="AC649" s="4"/>
     </row>
-    <row r="650" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -25750,7 +25859,7 @@
       <c r="AB650" s="4"/>
       <c r="AC650" s="4"/>
     </row>
-    <row r="651" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -25781,7 +25890,7 @@
       <c r="AB651" s="4"/>
       <c r="AC651" s="4"/>
     </row>
-    <row r="652" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -25812,7 +25921,7 @@
       <c r="AB652" s="4"/>
       <c r="AC652" s="4"/>
     </row>
-    <row r="653" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -25843,7 +25952,7 @@
       <c r="AB653" s="4"/>
       <c r="AC653" s="4"/>
     </row>
-    <row r="654" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -25874,7 +25983,7 @@
       <c r="AB654" s="4"/>
       <c r="AC654" s="4"/>
     </row>
-    <row r="655" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -25905,7 +26014,7 @@
       <c r="AB655" s="4"/>
       <c r="AC655" s="4"/>
     </row>
-    <row r="656" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -25936,7 +26045,7 @@
       <c r="AB656" s="4"/>
       <c r="AC656" s="4"/>
     </row>
-    <row r="657" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -25967,7 +26076,7 @@
       <c r="AB657" s="4"/>
       <c r="AC657" s="4"/>
     </row>
-    <row r="658" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -25998,7 +26107,7 @@
       <c r="AB658" s="4"/>
       <c r="AC658" s="4"/>
     </row>
-    <row r="659" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -26029,7 +26138,7 @@
       <c r="AB659" s="4"/>
       <c r="AC659" s="4"/>
     </row>
-    <row r="660" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -26060,7 +26169,7 @@
       <c r="AB660" s="4"/>
       <c r="AC660" s="4"/>
     </row>
-    <row r="661" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -26091,7 +26200,7 @@
       <c r="AB661" s="4"/>
       <c r="AC661" s="4"/>
     </row>
-    <row r="662" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -26122,7 +26231,7 @@
       <c r="AB662" s="4"/>
       <c r="AC662" s="4"/>
     </row>
-    <row r="663" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -26153,7 +26262,7 @@
       <c r="AB663" s="4"/>
       <c r="AC663" s="4"/>
     </row>
-    <row r="664" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -26184,7 +26293,7 @@
       <c r="AB664" s="4"/>
       <c r="AC664" s="4"/>
     </row>
-    <row r="665" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -26215,7 +26324,7 @@
       <c r="AB665" s="4"/>
       <c r="AC665" s="4"/>
     </row>
-    <row r="666" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -26246,7 +26355,7 @@
       <c r="AB666" s="4"/>
       <c r="AC666" s="4"/>
     </row>
-    <row r="667" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -26277,7 +26386,7 @@
       <c r="AB667" s="4"/>
       <c r="AC667" s="4"/>
     </row>
-    <row r="668" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -26308,7 +26417,7 @@
       <c r="AB668" s="4"/>
       <c r="AC668" s="4"/>
     </row>
-    <row r="669" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -26339,7 +26448,7 @@
       <c r="AB669" s="4"/>
       <c r="AC669" s="4"/>
     </row>
-    <row r="670" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -26370,7 +26479,7 @@
       <c r="AB670" s="4"/>
       <c r="AC670" s="4"/>
     </row>
-    <row r="671" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -26401,7 +26510,7 @@
       <c r="AB671" s="4"/>
       <c r="AC671" s="4"/>
     </row>
-    <row r="672" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -26432,7 +26541,7 @@
       <c r="AB672" s="4"/>
       <c r="AC672" s="4"/>
     </row>
-    <row r="673" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -26463,7 +26572,7 @@
       <c r="AB673" s="4"/>
       <c r="AC673" s="4"/>
     </row>
-    <row r="674" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -26494,7 +26603,7 @@
       <c r="AB674" s="4"/>
       <c r="AC674" s="4"/>
     </row>
-    <row r="675" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -26525,7 +26634,7 @@
       <c r="AB675" s="4"/>
       <c r="AC675" s="4"/>
     </row>
-    <row r="676" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -26556,7 +26665,7 @@
       <c r="AB676" s="4"/>
       <c r="AC676" s="4"/>
     </row>
-    <row r="677" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -26587,7 +26696,7 @@
       <c r="AB677" s="4"/>
       <c r="AC677" s="4"/>
     </row>
-    <row r="678" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -26618,7 +26727,7 @@
       <c r="AB678" s="4"/>
       <c r="AC678" s="4"/>
     </row>
-    <row r="679" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -26649,7 +26758,7 @@
       <c r="AB679" s="4"/>
       <c r="AC679" s="4"/>
     </row>
-    <row r="680" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -26680,7 +26789,7 @@
       <c r="AB680" s="4"/>
       <c r="AC680" s="4"/>
     </row>
-    <row r="681" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -26711,7 +26820,7 @@
       <c r="AB681" s="4"/>
       <c r="AC681" s="4"/>
     </row>
-    <row r="682" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -26742,7 +26851,7 @@
       <c r="AB682" s="4"/>
       <c r="AC682" s="4"/>
     </row>
-    <row r="683" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -26773,7 +26882,7 @@
       <c r="AB683" s="4"/>
       <c r="AC683" s="4"/>
     </row>
-    <row r="684" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -26804,7 +26913,7 @@
       <c r="AB684" s="4"/>
       <c r="AC684" s="4"/>
     </row>
-    <row r="685" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -26835,7 +26944,7 @@
       <c r="AB685" s="4"/>
       <c r="AC685" s="4"/>
     </row>
-    <row r="686" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -26866,7 +26975,7 @@
       <c r="AB686" s="4"/>
       <c r="AC686" s="4"/>
     </row>
-    <row r="687" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -26897,7 +27006,7 @@
       <c r="AB687" s="4"/>
       <c r="AC687" s="4"/>
     </row>
-    <row r="688" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -26928,7 +27037,7 @@
       <c r="AB688" s="4"/>
       <c r="AC688" s="4"/>
     </row>
-    <row r="689" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -26959,7 +27068,7 @@
       <c r="AB689" s="4"/>
       <c r="AC689" s="4"/>
     </row>
-    <row r="690" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -26990,7 +27099,7 @@
       <c r="AB690" s="4"/>
       <c r="AC690" s="4"/>
     </row>
-    <row r="691" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -27021,7 +27130,7 @@
       <c r="AB691" s="4"/>
       <c r="AC691" s="4"/>
     </row>
-    <row r="692" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -27052,7 +27161,7 @@
       <c r="AB692" s="4"/>
       <c r="AC692" s="4"/>
     </row>
-    <row r="693" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -27083,7 +27192,7 @@
       <c r="AB693" s="4"/>
       <c r="AC693" s="4"/>
     </row>
-    <row r="694" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -27114,7 +27223,7 @@
       <c r="AB694" s="4"/>
       <c r="AC694" s="4"/>
     </row>
-    <row r="695" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -27145,7 +27254,7 @@
       <c r="AB695" s="4"/>
       <c r="AC695" s="4"/>
     </row>
-    <row r="696" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -27176,7 +27285,7 @@
       <c r="AB696" s="4"/>
       <c r="AC696" s="4"/>
     </row>
-    <row r="697" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -27207,7 +27316,7 @@
       <c r="AB697" s="4"/>
       <c r="AC697" s="4"/>
     </row>
-    <row r="698" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -27238,7 +27347,7 @@
       <c r="AB698" s="4"/>
       <c r="AC698" s="4"/>
     </row>
-    <row r="699" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -27269,7 +27378,7 @@
       <c r="AB699" s="4"/>
       <c r="AC699" s="4"/>
     </row>
-    <row r="700" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -27300,7 +27409,7 @@
       <c r="AB700" s="4"/>
       <c r="AC700" s="4"/>
     </row>
-    <row r="701" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -27331,7 +27440,7 @@
       <c r="AB701" s="4"/>
       <c r="AC701" s="4"/>
     </row>
-    <row r="702" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -27362,7 +27471,7 @@
       <c r="AB702" s="4"/>
       <c r="AC702" s="4"/>
     </row>
-    <row r="703" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -27393,7 +27502,7 @@
       <c r="AB703" s="4"/>
       <c r="AC703" s="4"/>
     </row>
-    <row r="704" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -27424,7 +27533,7 @@
       <c r="AB704" s="4"/>
       <c r="AC704" s="4"/>
     </row>
-    <row r="705" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -27455,7 +27564,7 @@
       <c r="AB705" s="4"/>
       <c r="AC705" s="4"/>
     </row>
-    <row r="706" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -27486,7 +27595,7 @@
       <c r="AB706" s="4"/>
       <c r="AC706" s="4"/>
     </row>
-    <row r="707" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -27517,7 +27626,7 @@
       <c r="AB707" s="4"/>
       <c r="AC707" s="4"/>
     </row>
-    <row r="708" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -27548,7 +27657,7 @@
       <c r="AB708" s="4"/>
       <c r="AC708" s="4"/>
     </row>
-    <row r="709" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -27579,7 +27688,7 @@
       <c r="AB709" s="4"/>
       <c r="AC709" s="4"/>
     </row>
-    <row r="710" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -27610,7 +27719,7 @@
       <c r="AB710" s="4"/>
       <c r="AC710" s="4"/>
     </row>
-    <row r="711" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -27641,7 +27750,7 @@
       <c r="AB711" s="4"/>
       <c r="AC711" s="4"/>
     </row>
-    <row r="712" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -27672,7 +27781,7 @@
       <c r="AB712" s="4"/>
       <c r="AC712" s="4"/>
     </row>
-    <row r="713" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -27703,7 +27812,7 @@
       <c r="AB713" s="4"/>
       <c r="AC713" s="4"/>
     </row>
-    <row r="714" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -27734,7 +27843,7 @@
       <c r="AB714" s="4"/>
       <c r="AC714" s="4"/>
     </row>
-    <row r="715" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -27765,7 +27874,7 @@
       <c r="AB715" s="4"/>
       <c r="AC715" s="4"/>
     </row>
-    <row r="716" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -27796,7 +27905,7 @@
       <c r="AB716" s="4"/>
       <c r="AC716" s="4"/>
     </row>
-    <row r="717" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -27827,7 +27936,7 @@
       <c r="AB717" s="4"/>
       <c r="AC717" s="4"/>
     </row>
-    <row r="718" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -27858,7 +27967,7 @@
       <c r="AB718" s="4"/>
       <c r="AC718" s="4"/>
     </row>
-    <row r="719" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -27889,7 +27998,7 @@
       <c r="AB719" s="4"/>
       <c r="AC719" s="4"/>
     </row>
-    <row r="720" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -27920,7 +28029,7 @@
       <c r="AB720" s="4"/>
       <c r="AC720" s="4"/>
     </row>
-    <row r="721" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -27951,7 +28060,7 @@
       <c r="AB721" s="4"/>
       <c r="AC721" s="4"/>
     </row>
-    <row r="722" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -27982,7 +28091,7 @@
       <c r="AB722" s="4"/>
       <c r="AC722" s="4"/>
     </row>
-    <row r="723" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -28013,7 +28122,7 @@
       <c r="AB723" s="4"/>
       <c r="AC723" s="4"/>
     </row>
-    <row r="724" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -28044,7 +28153,7 @@
       <c r="AB724" s="4"/>
       <c r="AC724" s="4"/>
     </row>
-    <row r="725" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -28075,7 +28184,7 @@
       <c r="AB725" s="4"/>
       <c r="AC725" s="4"/>
     </row>
-    <row r="726" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -28106,7 +28215,7 @@
       <c r="AB726" s="4"/>
       <c r="AC726" s="4"/>
     </row>
-    <row r="727" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -28137,7 +28246,7 @@
       <c r="AB727" s="4"/>
       <c r="AC727" s="4"/>
     </row>
-    <row r="728" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -28168,7 +28277,7 @@
       <c r="AB728" s="4"/>
       <c r="AC728" s="4"/>
     </row>
-    <row r="729" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -28199,7 +28308,7 @@
       <c r="AB729" s="4"/>
       <c r="AC729" s="4"/>
     </row>
-    <row r="730" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -28230,7 +28339,7 @@
       <c r="AB730" s="4"/>
       <c r="AC730" s="4"/>
     </row>
-    <row r="731" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -28261,7 +28370,7 @@
       <c r="AB731" s="4"/>
       <c r="AC731" s="4"/>
     </row>
-    <row r="732" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -28292,7 +28401,7 @@
       <c r="AB732" s="4"/>
       <c r="AC732" s="4"/>
     </row>
-    <row r="733" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -28323,7 +28432,7 @@
       <c r="AB733" s="4"/>
       <c r="AC733" s="4"/>
     </row>
-    <row r="734" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -28354,7 +28463,7 @@
       <c r="AB734" s="4"/>
       <c r="AC734" s="4"/>
     </row>
-    <row r="735" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -28385,7 +28494,7 @@
       <c r="AB735" s="4"/>
       <c r="AC735" s="4"/>
     </row>
-    <row r="736" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -28416,7 +28525,7 @@
       <c r="AB736" s="4"/>
       <c r="AC736" s="4"/>
     </row>
-    <row r="737" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -28447,7 +28556,7 @@
       <c r="AB737" s="4"/>
       <c r="AC737" s="4"/>
     </row>
-    <row r="738" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -28478,7 +28587,7 @@
       <c r="AB738" s="4"/>
       <c r="AC738" s="4"/>
     </row>
-    <row r="739" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -28509,7 +28618,7 @@
       <c r="AB739" s="4"/>
       <c r="AC739" s="4"/>
     </row>
-    <row r="740" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -28540,7 +28649,7 @@
       <c r="AB740" s="4"/>
       <c r="AC740" s="4"/>
     </row>
-    <row r="741" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -28571,7 +28680,7 @@
       <c r="AB741" s="4"/>
       <c r="AC741" s="4"/>
     </row>
-    <row r="742" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -28602,7 +28711,7 @@
       <c r="AB742" s="4"/>
       <c r="AC742" s="4"/>
     </row>
-    <row r="743" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -28633,7 +28742,7 @@
       <c r="AB743" s="4"/>
       <c r="AC743" s="4"/>
     </row>
-    <row r="744" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -28664,7 +28773,7 @@
       <c r="AB744" s="4"/>
       <c r="AC744" s="4"/>
     </row>
-    <row r="745" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -28695,7 +28804,7 @@
       <c r="AB745" s="4"/>
       <c r="AC745" s="4"/>
     </row>
-    <row r="746" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -28726,7 +28835,7 @@
       <c r="AB746" s="4"/>
       <c r="AC746" s="4"/>
     </row>
-    <row r="747" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -28757,7 +28866,7 @@
       <c r="AB747" s="4"/>
       <c r="AC747" s="4"/>
     </row>
-    <row r="748" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -28788,7 +28897,7 @@
       <c r="AB748" s="4"/>
       <c r="AC748" s="4"/>
     </row>
-    <row r="749" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -28819,7 +28928,7 @@
       <c r="AB749" s="4"/>
       <c r="AC749" s="4"/>
     </row>
-    <row r="750" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -28850,7 +28959,7 @@
       <c r="AB750" s="4"/>
       <c r="AC750" s="4"/>
     </row>
-    <row r="751" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -28881,7 +28990,7 @@
       <c r="AB751" s="4"/>
       <c r="AC751" s="4"/>
     </row>
-    <row r="752" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -28912,7 +29021,7 @@
       <c r="AB752" s="4"/>
       <c r="AC752" s="4"/>
     </row>
-    <row r="753" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -28943,7 +29052,7 @@
       <c r="AB753" s="4"/>
       <c r="AC753" s="4"/>
     </row>
-    <row r="754" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -28974,7 +29083,7 @@
       <c r="AB754" s="4"/>
       <c r="AC754" s="4"/>
     </row>
-    <row r="755" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -29005,7 +29114,7 @@
       <c r="AB755" s="4"/>
       <c r="AC755" s="4"/>
     </row>
-    <row r="756" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -29036,7 +29145,7 @@
       <c r="AB756" s="4"/>
       <c r="AC756" s="4"/>
     </row>
-    <row r="757" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -29067,7 +29176,7 @@
       <c r="AB757" s="4"/>
       <c r="AC757" s="4"/>
     </row>
-    <row r="758" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -29098,7 +29207,7 @@
       <c r="AB758" s="4"/>
       <c r="AC758" s="4"/>
     </row>
-    <row r="759" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -29129,7 +29238,7 @@
       <c r="AB759" s="4"/>
       <c r="AC759" s="4"/>
     </row>
-    <row r="760" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -29160,7 +29269,7 @@
       <c r="AB760" s="4"/>
       <c r="AC760" s="4"/>
     </row>
-    <row r="761" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -29191,7 +29300,7 @@
       <c r="AB761" s="4"/>
       <c r="AC761" s="4"/>
     </row>
-    <row r="762" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -29222,7 +29331,7 @@
       <c r="AB762" s="4"/>
       <c r="AC762" s="4"/>
     </row>
-    <row r="763" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -29253,7 +29362,7 @@
       <c r="AB763" s="4"/>
       <c r="AC763" s="4"/>
     </row>
-    <row r="764" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -29284,7 +29393,7 @@
       <c r="AB764" s="4"/>
       <c r="AC764" s="4"/>
     </row>
-    <row r="765" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -29315,7 +29424,7 @@
       <c r="AB765" s="4"/>
       <c r="AC765" s="4"/>
     </row>
-    <row r="766" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -29346,7 +29455,7 @@
       <c r="AB766" s="4"/>
       <c r="AC766" s="4"/>
     </row>
-    <row r="767" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -29377,7 +29486,7 @@
       <c r="AB767" s="4"/>
       <c r="AC767" s="4"/>
     </row>
-    <row r="768" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -29408,7 +29517,7 @@
       <c r="AB768" s="4"/>
       <c r="AC768" s="4"/>
     </row>
-    <row r="769" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -29439,7 +29548,7 @@
       <c r="AB769" s="4"/>
       <c r="AC769" s="4"/>
     </row>
-    <row r="770" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -29470,7 +29579,7 @@
       <c r="AB770" s="4"/>
       <c r="AC770" s="4"/>
     </row>
-    <row r="771" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -29501,7 +29610,7 @@
       <c r="AB771" s="4"/>
       <c r="AC771" s="4"/>
     </row>
-    <row r="772" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -29532,7 +29641,7 @@
       <c r="AB772" s="4"/>
       <c r="AC772" s="4"/>
     </row>
-    <row r="773" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -29563,7 +29672,7 @@
       <c r="AB773" s="4"/>
       <c r="AC773" s="4"/>
     </row>
-    <row r="774" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -29594,7 +29703,7 @@
       <c r="AB774" s="4"/>
       <c r="AC774" s="4"/>
     </row>
-    <row r="775" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -29625,7 +29734,7 @@
       <c r="AB775" s="4"/>
       <c r="AC775" s="4"/>
     </row>
-    <row r="776" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -29656,7 +29765,7 @@
       <c r="AB776" s="4"/>
       <c r="AC776" s="4"/>
     </row>
-    <row r="777" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -29687,7 +29796,7 @@
       <c r="AB777" s="4"/>
       <c r="AC777" s="4"/>
     </row>
-    <row r="778" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -29718,7 +29827,7 @@
       <c r="AB778" s="4"/>
       <c r="AC778" s="4"/>
     </row>
-    <row r="779" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -29749,7 +29858,7 @@
       <c r="AB779" s="4"/>
       <c r="AC779" s="4"/>
     </row>
-    <row r="780" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -29780,7 +29889,7 @@
       <c r="AB780" s="4"/>
       <c r="AC780" s="4"/>
     </row>
-    <row r="781" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -29811,7 +29920,7 @@
       <c r="AB781" s="4"/>
       <c r="AC781" s="4"/>
     </row>
-    <row r="782" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -29842,7 +29951,7 @@
       <c r="AB782" s="4"/>
       <c r="AC782" s="4"/>
     </row>
-    <row r="783" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -29873,7 +29982,7 @@
       <c r="AB783" s="4"/>
       <c r="AC783" s="4"/>
     </row>
-    <row r="784" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -29904,7 +30013,7 @@
       <c r="AB784" s="4"/>
       <c r="AC784" s="4"/>
     </row>
-    <row r="785" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -29935,7 +30044,7 @@
       <c r="AB785" s="4"/>
       <c r="AC785" s="4"/>
     </row>
-    <row r="786" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -29966,7 +30075,7 @@
       <c r="AB786" s="4"/>
       <c r="AC786" s="4"/>
     </row>
-    <row r="787" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -29997,7 +30106,7 @@
       <c r="AB787" s="4"/>
       <c r="AC787" s="4"/>
     </row>
-    <row r="788" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -30028,7 +30137,7 @@
       <c r="AB788" s="4"/>
       <c r="AC788" s="4"/>
     </row>
-    <row r="789" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -30059,7 +30168,7 @@
       <c r="AB789" s="4"/>
       <c r="AC789" s="4"/>
     </row>
-    <row r="790" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -30090,7 +30199,7 @@
       <c r="AB790" s="4"/>
       <c r="AC790" s="4"/>
     </row>
-    <row r="791" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -30121,7 +30230,7 @@
       <c r="AB791" s="4"/>
       <c r="AC791" s="4"/>
     </row>
-    <row r="792" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -30152,7 +30261,7 @@
       <c r="AB792" s="4"/>
       <c r="AC792" s="4"/>
     </row>
-    <row r="793" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -30183,7 +30292,7 @@
       <c r="AB793" s="4"/>
       <c r="AC793" s="4"/>
     </row>
-    <row r="794" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -30214,7 +30323,7 @@
       <c r="AB794" s="4"/>
       <c r="AC794" s="4"/>
     </row>
-    <row r="795" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -30245,7 +30354,7 @@
       <c r="AB795" s="4"/>
       <c r="AC795" s="4"/>
     </row>
-    <row r="796" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -30276,7 +30385,7 @@
       <c r="AB796" s="4"/>
       <c r="AC796" s="4"/>
     </row>
-    <row r="797" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -30307,7 +30416,7 @@
       <c r="AB797" s="4"/>
       <c r="AC797" s="4"/>
     </row>
-    <row r="798" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -30338,7 +30447,7 @@
       <c r="AB798" s="4"/>
       <c r="AC798" s="4"/>
     </row>
-    <row r="799" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -30369,7 +30478,7 @@
       <c r="AB799" s="4"/>
       <c r="AC799" s="4"/>
     </row>
-    <row r="800" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -30400,7 +30509,7 @@
       <c r="AB800" s="4"/>
       <c r="AC800" s="4"/>
     </row>
-    <row r="801" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -30431,7 +30540,7 @@
       <c r="AB801" s="4"/>
       <c r="AC801" s="4"/>
     </row>
-    <row r="802" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -30462,7 +30571,7 @@
       <c r="AB802" s="4"/>
       <c r="AC802" s="4"/>
     </row>
-    <row r="803" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -30493,7 +30602,7 @@
       <c r="AB803" s="4"/>
       <c r="AC803" s="4"/>
     </row>
-    <row r="804" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -30524,7 +30633,7 @@
       <c r="AB804" s="4"/>
       <c r="AC804" s="4"/>
     </row>
-    <row r="805" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -30555,7 +30664,7 @@
       <c r="AB805" s="4"/>
       <c r="AC805" s="4"/>
     </row>
-    <row r="806" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -30586,7 +30695,7 @@
       <c r="AB806" s="4"/>
       <c r="AC806" s="4"/>
     </row>
-    <row r="807" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -30617,7 +30726,7 @@
       <c r="AB807" s="4"/>
       <c r="AC807" s="4"/>
     </row>
-    <row r="808" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -30648,7 +30757,7 @@
       <c r="AB808" s="4"/>
       <c r="AC808" s="4"/>
     </row>
-    <row r="809" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -30679,7 +30788,7 @@
       <c r="AB809" s="4"/>
       <c r="AC809" s="4"/>
     </row>
-    <row r="810" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -30710,7 +30819,7 @@
       <c r="AB810" s="4"/>
       <c r="AC810" s="4"/>
     </row>
-    <row r="811" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -30741,7 +30850,7 @@
       <c r="AB811" s="4"/>
       <c r="AC811" s="4"/>
     </row>
-    <row r="812" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -30772,7 +30881,7 @@
       <c r="AB812" s="4"/>
       <c r="AC812" s="4"/>
     </row>
-    <row r="813" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -30803,7 +30912,7 @@
       <c r="AB813" s="4"/>
       <c r="AC813" s="4"/>
     </row>
-    <row r="814" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -30834,7 +30943,7 @@
       <c r="AB814" s="4"/>
       <c r="AC814" s="4"/>
     </row>
-    <row r="815" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -30865,7 +30974,7 @@
       <c r="AB815" s="4"/>
       <c r="AC815" s="4"/>
     </row>
-    <row r="816" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -30896,7 +31005,7 @@
       <c r="AB816" s="4"/>
       <c r="AC816" s="4"/>
     </row>
-    <row r="817" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -30927,7 +31036,7 @@
       <c r="AB817" s="4"/>
       <c r="AC817" s="4"/>
     </row>
-    <row r="818" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -30958,7 +31067,7 @@
       <c r="AB818" s="4"/>
       <c r="AC818" s="4"/>
     </row>
-    <row r="819" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -30989,7 +31098,7 @@
       <c r="AB819" s="4"/>
       <c r="AC819" s="4"/>
     </row>
-    <row r="820" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -31020,7 +31129,7 @@
       <c r="AB820" s="4"/>
       <c r="AC820" s="4"/>
     </row>
-    <row r="821" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -31051,7 +31160,7 @@
       <c r="AB821" s="4"/>
       <c r="AC821" s="4"/>
     </row>
-    <row r="822" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -31082,7 +31191,7 @@
       <c r="AB822" s="4"/>
       <c r="AC822" s="4"/>
     </row>
-    <row r="823" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -31113,7 +31222,7 @@
       <c r="AB823" s="4"/>
       <c r="AC823" s="4"/>
     </row>
-    <row r="824" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -31144,7 +31253,7 @@
       <c r="AB824" s="4"/>
       <c r="AC824" s="4"/>
     </row>
-    <row r="825" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -31175,7 +31284,7 @@
       <c r="AB825" s="4"/>
       <c r="AC825" s="4"/>
     </row>
-    <row r="826" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -31206,7 +31315,7 @@
       <c r="AB826" s="4"/>
       <c r="AC826" s="4"/>
     </row>
-    <row r="827" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -31237,7 +31346,7 @@
       <c r="AB827" s="4"/>
       <c r="AC827" s="4"/>
     </row>
-    <row r="828" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -31268,7 +31377,7 @@
       <c r="AB828" s="4"/>
       <c r="AC828" s="4"/>
     </row>
-    <row r="829" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -31299,7 +31408,7 @@
       <c r="AB829" s="4"/>
       <c r="AC829" s="4"/>
     </row>
-    <row r="830" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -31330,7 +31439,7 @@
       <c r="AB830" s="4"/>
       <c r="AC830" s="4"/>
     </row>
-    <row r="831" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -31361,7 +31470,7 @@
       <c r="AB831" s="4"/>
       <c r="AC831" s="4"/>
     </row>
-    <row r="832" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -31392,7 +31501,7 @@
       <c r="AB832" s="4"/>
       <c r="AC832" s="4"/>
     </row>
-    <row r="833" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -31423,7 +31532,7 @@
       <c r="AB833" s="4"/>
       <c r="AC833" s="4"/>
     </row>
-    <row r="834" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -31454,7 +31563,7 @@
       <c r="AB834" s="4"/>
       <c r="AC834" s="4"/>
     </row>
-    <row r="835" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -31485,7 +31594,7 @@
       <c r="AB835" s="4"/>
       <c r="AC835" s="4"/>
     </row>
-    <row r="836" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -31516,7 +31625,7 @@
       <c r="AB836" s="4"/>
       <c r="AC836" s="4"/>
     </row>
-    <row r="837" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -31547,7 +31656,7 @@
       <c r="AB837" s="4"/>
       <c r="AC837" s="4"/>
     </row>
-    <row r="838" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -31578,7 +31687,7 @@
       <c r="AB838" s="4"/>
       <c r="AC838" s="4"/>
     </row>
-    <row r="839" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -31609,7 +31718,7 @@
       <c r="AB839" s="4"/>
       <c r="AC839" s="4"/>
     </row>
-    <row r="840" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -31640,7 +31749,7 @@
       <c r="AB840" s="4"/>
       <c r="AC840" s="4"/>
     </row>
-    <row r="841" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -31671,7 +31780,7 @@
       <c r="AB841" s="4"/>
       <c r="AC841" s="4"/>
     </row>
-    <row r="842" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -31702,7 +31811,7 @@
       <c r="AB842" s="4"/>
       <c r="AC842" s="4"/>
     </row>
-    <row r="843" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -31733,7 +31842,7 @@
       <c r="AB843" s="4"/>
       <c r="AC843" s="4"/>
     </row>
-    <row r="844" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -31764,7 +31873,7 @@
       <c r="AB844" s="4"/>
       <c r="AC844" s="4"/>
     </row>
-    <row r="845" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -31795,7 +31904,7 @@
       <c r="AB845" s="4"/>
       <c r="AC845" s="4"/>
     </row>
-    <row r="846" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -31826,7 +31935,7 @@
       <c r="AB846" s="4"/>
       <c r="AC846" s="4"/>
     </row>
-    <row r="847" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -31857,7 +31966,7 @@
       <c r="AB847" s="4"/>
       <c r="AC847" s="4"/>
     </row>
-    <row r="848" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -31888,7 +31997,7 @@
       <c r="AB848" s="4"/>
       <c r="AC848" s="4"/>
     </row>
-    <row r="849" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -31919,7 +32028,7 @@
       <c r="AB849" s="4"/>
       <c r="AC849" s="4"/>
     </row>
-    <row r="850" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -31950,7 +32059,7 @@
       <c r="AB850" s="4"/>
       <c r="AC850" s="4"/>
     </row>
-    <row r="851" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -31981,7 +32090,7 @@
       <c r="AB851" s="4"/>
       <c r="AC851" s="4"/>
     </row>
-    <row r="852" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -32012,7 +32121,7 @@
       <c r="AB852" s="4"/>
       <c r="AC852" s="4"/>
     </row>
-    <row r="853" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -32043,7 +32152,7 @@
       <c r="AB853" s="4"/>
       <c r="AC853" s="4"/>
     </row>
-    <row r="854" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -32074,7 +32183,7 @@
       <c r="AB854" s="4"/>
       <c r="AC854" s="4"/>
     </row>
-    <row r="855" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -32105,7 +32214,7 @@
       <c r="AB855" s="4"/>
       <c r="AC855" s="4"/>
     </row>
-    <row r="856" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -32136,7 +32245,7 @@
       <c r="AB856" s="4"/>
       <c r="AC856" s="4"/>
     </row>
-    <row r="857" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -32167,7 +32276,7 @@
       <c r="AB857" s="4"/>
       <c r="AC857" s="4"/>
     </row>
-    <row r="858" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -32198,7 +32307,7 @@
       <c r="AB858" s="4"/>
       <c r="AC858" s="4"/>
     </row>
-    <row r="859" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -32229,7 +32338,7 @@
       <c r="AB859" s="4"/>
       <c r="AC859" s="4"/>
     </row>
-    <row r="860" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -32260,7 +32369,7 @@
       <c r="AB860" s="4"/>
       <c r="AC860" s="4"/>
     </row>
-    <row r="861" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -32291,7 +32400,7 @@
       <c r="AB861" s="4"/>
       <c r="AC861" s="4"/>
     </row>
-    <row r="862" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -32322,7 +32431,7 @@
       <c r="AB862" s="4"/>
       <c r="AC862" s="4"/>
     </row>
-    <row r="863" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -32353,7 +32462,7 @@
       <c r="AB863" s="4"/>
       <c r="AC863" s="4"/>
     </row>
-    <row r="864" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -32384,7 +32493,7 @@
       <c r="AB864" s="4"/>
       <c r="AC864" s="4"/>
     </row>
-    <row r="865" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -32415,7 +32524,7 @@
       <c r="AB865" s="4"/>
       <c r="AC865" s="4"/>
     </row>
-    <row r="866" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -32446,7 +32555,7 @@
       <c r="AB866" s="4"/>
       <c r="AC866" s="4"/>
     </row>
-    <row r="867" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -32477,7 +32586,7 @@
       <c r="AB867" s="4"/>
       <c r="AC867" s="4"/>
     </row>
-    <row r="868" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -32508,7 +32617,7 @@
       <c r="AB868" s="4"/>
       <c r="AC868" s="4"/>
     </row>
-    <row r="869" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -32539,7 +32648,7 @@
       <c r="AB869" s="4"/>
       <c r="AC869" s="4"/>
     </row>
-    <row r="870" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -32570,7 +32679,7 @@
       <c r="AB870" s="4"/>
       <c r="AC870" s="4"/>
     </row>
-    <row r="871" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -32601,7 +32710,7 @@
       <c r="AB871" s="4"/>
       <c r="AC871" s="4"/>
     </row>
-    <row r="872" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -32632,7 +32741,7 @@
       <c r="AB872" s="4"/>
       <c r="AC872" s="4"/>
     </row>
-    <row r="873" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -32663,7 +32772,7 @@
       <c r="AB873" s="4"/>
       <c r="AC873" s="4"/>
     </row>
-    <row r="874" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -32694,7 +32803,7 @@
       <c r="AB874" s="4"/>
       <c r="AC874" s="4"/>
     </row>
-    <row r="875" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -32725,7 +32834,7 @@
       <c r="AB875" s="4"/>
       <c r="AC875" s="4"/>
     </row>
-    <row r="876" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -32756,7 +32865,7 @@
       <c r="AB876" s="4"/>
       <c r="AC876" s="4"/>
     </row>
-    <row r="877" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -32787,7 +32896,7 @@
       <c r="AB877" s="4"/>
       <c r="AC877" s="4"/>
     </row>
-    <row r="878" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -32818,7 +32927,7 @@
       <c r="AB878" s="4"/>
       <c r="AC878" s="4"/>
     </row>
-    <row r="879" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -32849,7 +32958,7 @@
       <c r="AB879" s="4"/>
       <c r="AC879" s="4"/>
     </row>
-    <row r="880" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -32880,7 +32989,7 @@
       <c r="AB880" s="4"/>
       <c r="AC880" s="4"/>
     </row>
-    <row r="881" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -32911,7 +33020,7 @@
       <c r="AB881" s="4"/>
       <c r="AC881" s="4"/>
     </row>
-    <row r="882" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -32942,7 +33051,7 @@
       <c r="AB882" s="4"/>
       <c r="AC882" s="4"/>
     </row>
-    <row r="883" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -32973,7 +33082,7 @@
       <c r="AB883" s="4"/>
       <c r="AC883" s="4"/>
     </row>
-    <row r="884" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -33004,7 +33113,7 @@
       <c r="AB884" s="4"/>
       <c r="AC884" s="4"/>
     </row>
-    <row r="885" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -33035,7 +33144,7 @@
       <c r="AB885" s="4"/>
       <c r="AC885" s="4"/>
     </row>
-    <row r="886" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -33066,7 +33175,7 @@
       <c r="AB886" s="4"/>
       <c r="AC886" s="4"/>
     </row>
-    <row r="887" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -33097,7 +33206,7 @@
       <c r="AB887" s="4"/>
       <c r="AC887" s="4"/>
     </row>
-    <row r="888" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -33128,7 +33237,7 @@
       <c r="AB888" s="4"/>
       <c r="AC888" s="4"/>
     </row>
-    <row r="889" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -33159,7 +33268,7 @@
       <c r="AB889" s="4"/>
       <c r="AC889" s="4"/>
     </row>
-    <row r="890" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -33190,7 +33299,7 @@
       <c r="AB890" s="4"/>
       <c r="AC890" s="4"/>
     </row>
-    <row r="891" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -33221,7 +33330,7 @@
       <c r="AB891" s="4"/>
       <c r="AC891" s="4"/>
     </row>
-    <row r="892" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -33252,7 +33361,7 @@
       <c r="AB892" s="4"/>
       <c r="AC892" s="4"/>
     </row>
-    <row r="893" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -33283,7 +33392,7 @@
       <c r="AB893" s="4"/>
       <c r="AC893" s="4"/>
     </row>
-    <row r="894" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -33314,7 +33423,7 @@
       <c r="AB894" s="4"/>
       <c r="AC894" s="4"/>
     </row>
-    <row r="895" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -33345,7 +33454,7 @@
       <c r="AB895" s="4"/>
       <c r="AC895" s="4"/>
     </row>
-    <row r="896" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -33376,7 +33485,7 @@
       <c r="AB896" s="4"/>
       <c r="AC896" s="4"/>
     </row>
-    <row r="897" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -33407,7 +33516,7 @@
       <c r="AB897" s="4"/>
       <c r="AC897" s="4"/>
     </row>
-    <row r="898" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -33438,7 +33547,7 @@
       <c r="AB898" s="4"/>
       <c r="AC898" s="4"/>
     </row>
-    <row r="899" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -33469,7 +33578,7 @@
       <c r="AB899" s="4"/>
       <c r="AC899" s="4"/>
     </row>
-    <row r="900" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -33500,7 +33609,7 @@
       <c r="AB900" s="4"/>
       <c r="AC900" s="4"/>
     </row>
-    <row r="901" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -33531,7 +33640,7 @@
       <c r="AB901" s="4"/>
       <c r="AC901" s="4"/>
     </row>
-    <row r="902" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -33562,7 +33671,7 @@
       <c r="AB902" s="4"/>
       <c r="AC902" s="4"/>
     </row>
-    <row r="903" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -33593,7 +33702,7 @@
       <c r="AB903" s="4"/>
       <c r="AC903" s="4"/>
     </row>
-    <row r="904" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -33624,7 +33733,7 @@
       <c r="AB904" s="4"/>
       <c r="AC904" s="4"/>
     </row>
-    <row r="905" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -33655,7 +33764,7 @@
       <c r="AB905" s="4"/>
       <c r="AC905" s="4"/>
     </row>
-    <row r="906" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -33686,7 +33795,7 @@
       <c r="AB906" s="4"/>
       <c r="AC906" s="4"/>
     </row>
-    <row r="907" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -33717,7 +33826,7 @@
       <c r="AB907" s="4"/>
       <c r="AC907" s="4"/>
     </row>
-    <row r="908" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -33748,7 +33857,7 @@
       <c r="AB908" s="4"/>
       <c r="AC908" s="4"/>
     </row>
-    <row r="909" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -33779,7 +33888,7 @@
       <c r="AB909" s="4"/>
       <c r="AC909" s="4"/>
     </row>
-    <row r="910" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -33810,7 +33919,7 @@
       <c r="AB910" s="4"/>
       <c r="AC910" s="4"/>
     </row>
-    <row r="911" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -33841,7 +33950,7 @@
       <c r="AB911" s="4"/>
       <c r="AC911" s="4"/>
     </row>
-    <row r="912" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -33872,7 +33981,7 @@
       <c r="AB912" s="4"/>
       <c r="AC912" s="4"/>
     </row>
-    <row r="913" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -33903,7 +34012,7 @@
       <c r="AB913" s="4"/>
       <c r="AC913" s="4"/>
     </row>
-    <row r="914" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -33934,7 +34043,7 @@
       <c r="AB914" s="4"/>
       <c r="AC914" s="4"/>
     </row>
-    <row r="915" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -33965,7 +34074,7 @@
       <c r="AB915" s="4"/>
       <c r="AC915" s="4"/>
     </row>
-    <row r="916" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -33996,7 +34105,7 @@
       <c r="AB916" s="4"/>
       <c r="AC916" s="4"/>
     </row>
-    <row r="917" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -34027,7 +34136,7 @@
       <c r="AB917" s="4"/>
       <c r="AC917" s="4"/>
     </row>
-    <row r="918" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -34058,7 +34167,7 @@
       <c r="AB918" s="4"/>
       <c r="AC918" s="4"/>
     </row>
-    <row r="919" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -34089,7 +34198,7 @@
       <c r="AB919" s="4"/>
       <c r="AC919" s="4"/>
     </row>
-    <row r="920" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -34120,7 +34229,7 @@
       <c r="AB920" s="4"/>
       <c r="AC920" s="4"/>
     </row>
-    <row r="921" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -34151,7 +34260,7 @@
       <c r="AB921" s="4"/>
       <c r="AC921" s="4"/>
     </row>
-    <row r="922" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -34182,7 +34291,7 @@
       <c r="AB922" s="4"/>
       <c r="AC922" s="4"/>
     </row>
-    <row r="923" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -34213,7 +34322,7 @@
       <c r="AB923" s="4"/>
       <c r="AC923" s="4"/>
     </row>
-    <row r="924" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -34244,7 +34353,7 @@
       <c r="AB924" s="4"/>
       <c r="AC924" s="4"/>
     </row>
-    <row r="925" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -34275,7 +34384,7 @@
       <c r="AB925" s="4"/>
       <c r="AC925" s="4"/>
     </row>
-    <row r="926" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -34306,7 +34415,7 @@
       <c r="AB926" s="4"/>
       <c r="AC926" s="4"/>
     </row>
-    <row r="927" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -34337,7 +34446,7 @@
       <c r="AB927" s="4"/>
       <c r="AC927" s="4"/>
     </row>
-    <row r="928" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -34368,7 +34477,7 @@
       <c r="AB928" s="4"/>
       <c r="AC928" s="4"/>
     </row>
-    <row r="929" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -34399,7 +34508,7 @@
       <c r="AB929" s="4"/>
       <c r="AC929" s="4"/>
     </row>
-    <row r="930" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -34430,7 +34539,7 @@
       <c r="AB930" s="4"/>
       <c r="AC930" s="4"/>
     </row>
-    <row r="931" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -34461,7 +34570,7 @@
       <c r="AB931" s="4"/>
       <c r="AC931" s="4"/>
     </row>
-    <row r="932" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -34492,7 +34601,7 @@
       <c r="AB932" s="4"/>
       <c r="AC932" s="4"/>
     </row>
-    <row r="933" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -34523,7 +34632,7 @@
       <c r="AB933" s="4"/>
       <c r="AC933" s="4"/>
     </row>
-    <row r="934" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -34554,7 +34663,7 @@
       <c r="AB934" s="4"/>
       <c r="AC934" s="4"/>
     </row>
-    <row r="935" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -34585,7 +34694,7 @@
       <c r="AB935" s="4"/>
       <c r="AC935" s="4"/>
     </row>
-    <row r="936" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -34616,7 +34725,7 @@
       <c r="AB936" s="4"/>
       <c r="AC936" s="4"/>
     </row>
-    <row r="937" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -34647,7 +34756,7 @@
       <c r="AB937" s="4"/>
       <c r="AC937" s="4"/>
     </row>
-    <row r="938" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -34678,7 +34787,7 @@
       <c r="AB938" s="4"/>
       <c r="AC938" s="4"/>
     </row>
-    <row r="939" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -34709,7 +34818,7 @@
       <c r="AB939" s="4"/>
       <c r="AC939" s="4"/>
     </row>
-    <row r="940" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -34740,7 +34849,7 @@
       <c r="AB940" s="4"/>
       <c r="AC940" s="4"/>
     </row>
-    <row r="941" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -34771,7 +34880,7 @@
       <c r="AB941" s="4"/>
       <c r="AC941" s="4"/>
     </row>
-    <row r="942" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -34802,7 +34911,7 @@
       <c r="AB942" s="4"/>
       <c r="AC942" s="4"/>
     </row>
-    <row r="943" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -34833,7 +34942,7 @@
       <c r="AB943" s="4"/>
       <c r="AC943" s="4"/>
     </row>
-    <row r="944" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -34864,7 +34973,7 @@
       <c r="AB944" s="4"/>
       <c r="AC944" s="4"/>
     </row>
-    <row r="945" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -34895,7 +35004,7 @@
       <c r="AB945" s="4"/>
       <c r="AC945" s="4"/>
     </row>
-    <row r="946" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -34926,7 +35035,7 @@
       <c r="AB946" s="4"/>
       <c r="AC946" s="4"/>
     </row>
-    <row r="947" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -34957,7 +35066,7 @@
       <c r="AB947" s="4"/>
       <c r="AC947" s="4"/>
     </row>
-    <row r="948" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -34988,7 +35097,7 @@
       <c r="AB948" s="4"/>
       <c r="AC948" s="4"/>
     </row>
-    <row r="949" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -35019,7 +35128,7 @@
       <c r="AB949" s="4"/>
       <c r="AC949" s="4"/>
     </row>
-    <row r="950" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -35050,7 +35159,7 @@
       <c r="AB950" s="4"/>
       <c r="AC950" s="4"/>
     </row>
-    <row r="951" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -35081,7 +35190,7 @@
       <c r="AB951" s="4"/>
       <c r="AC951" s="4"/>
     </row>
-    <row r="952" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -35112,7 +35221,7 @@
       <c r="AB952" s="4"/>
       <c r="AC952" s="4"/>
     </row>
-    <row r="953" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -35143,7 +35252,7 @@
       <c r="AB953" s="4"/>
       <c r="AC953" s="4"/>
     </row>
-    <row r="954" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -35174,7 +35283,7 @@
       <c r="AB954" s="4"/>
       <c r="AC954" s="4"/>
     </row>
-    <row r="955" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -35205,7 +35314,7 @@
       <c r="AB955" s="4"/>
       <c r="AC955" s="4"/>
     </row>
-    <row r="956" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -35236,7 +35345,7 @@
       <c r="AB956" s="4"/>
       <c r="AC956" s="4"/>
     </row>
-    <row r="957" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -35267,7 +35376,7 @@
       <c r="AB957" s="4"/>
       <c r="AC957" s="4"/>
     </row>
-    <row r="958" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -35298,7 +35407,7 @@
       <c r="AB958" s="4"/>
       <c r="AC958" s="4"/>
     </row>
-    <row r="959" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -35329,7 +35438,7 @@
       <c r="AB959" s="4"/>
       <c r="AC959" s="4"/>
     </row>
-    <row r="960" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -35360,7 +35469,7 @@
       <c r="AB960" s="4"/>
       <c r="AC960" s="4"/>
     </row>
-    <row r="961" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -35391,7 +35500,7 @@
       <c r="AB961" s="4"/>
       <c r="AC961" s="4"/>
     </row>
-    <row r="962" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -35422,7 +35531,7 @@
       <c r="AB962" s="4"/>
       <c r="AC962" s="4"/>
     </row>
-    <row r="963" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -35453,7 +35562,7 @@
       <c r="AB963" s="4"/>
       <c r="AC963" s="4"/>
     </row>
-    <row r="964" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -35484,7 +35593,7 @@
       <c r="AB964" s="4"/>
       <c r="AC964" s="4"/>
     </row>
-    <row r="965" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -35515,7 +35624,7 @@
       <c r="AB965" s="4"/>
       <c r="AC965" s="4"/>
     </row>
-    <row r="966" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -35546,7 +35655,7 @@
       <c r="AB966" s="4"/>
       <c r="AC966" s="4"/>
     </row>
-    <row r="967" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -35577,7 +35686,7 @@
       <c r="AB967" s="4"/>
       <c r="AC967" s="4"/>
     </row>
-    <row r="968" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -35608,7 +35717,7 @@
       <c r="AB968" s="4"/>
       <c r="AC968" s="4"/>
     </row>
-    <row r="969" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -35639,7 +35748,7 @@
       <c r="AB969" s="4"/>
       <c r="AC969" s="4"/>
     </row>
-    <row r="970" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -35670,7 +35779,7 @@
       <c r="AB970" s="4"/>
       <c r="AC970" s="4"/>
     </row>
-    <row r="971" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -35701,7 +35810,7 @@
       <c r="AB971" s="4"/>
       <c r="AC971" s="4"/>
     </row>
-    <row r="972" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -35732,7 +35841,7 @@
       <c r="AB972" s="4"/>
       <c r="AC972" s="4"/>
     </row>
-    <row r="973" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -35763,7 +35872,7 @@
       <c r="AB973" s="4"/>
       <c r="AC973" s="4"/>
     </row>
-    <row r="974" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -35794,7 +35903,7 @@
       <c r="AB974" s="4"/>
       <c r="AC974" s="4"/>
     </row>
-    <row r="975" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -35825,7 +35934,7 @@
       <c r="AB975" s="4"/>
       <c r="AC975" s="4"/>
     </row>
-    <row r="976" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -35856,7 +35965,7 @@
       <c r="AB976" s="4"/>
       <c r="AC976" s="4"/>
     </row>
-    <row r="977" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -35887,7 +35996,7 @@
       <c r="AB977" s="4"/>
       <c r="AC977" s="4"/>
     </row>
-    <row r="978" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -35918,7 +36027,7 @@
       <c r="AB978" s="4"/>
       <c r="AC978" s="4"/>
     </row>
-    <row r="979" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -35949,7 +36058,7 @@
       <c r="AB979" s="4"/>
       <c r="AC979" s="4"/>
     </row>
-    <row r="980" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -35980,7 +36089,7 @@
       <c r="AB980" s="4"/>
       <c r="AC980" s="4"/>
     </row>
-    <row r="981" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -36011,7 +36120,7 @@
       <c r="AB981" s="4"/>
       <c r="AC981" s="4"/>
     </row>
-    <row r="982" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -36042,7 +36151,7 @@
       <c r="AB982" s="4"/>
       <c r="AC982" s="4"/>
     </row>
-    <row r="983" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -36073,7 +36182,7 @@
       <c r="AB983" s="4"/>
       <c r="AC983" s="4"/>
     </row>
-    <row r="984" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -36104,7 +36213,7 @@
       <c r="AB984" s="4"/>
       <c r="AC984" s="4"/>
     </row>
-    <row r="985" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -36135,7 +36244,7 @@
       <c r="AB985" s="4"/>
       <c r="AC985" s="4"/>
     </row>
-    <row r="986" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -36166,7 +36275,7 @@
       <c r="AB986" s="4"/>
       <c r="AC986" s="4"/>
     </row>
-    <row r="987" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -36197,7 +36306,7 @@
       <c r="AB987" s="4"/>
       <c r="AC987" s="4"/>
     </row>
-    <row r="988" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -36228,7 +36337,7 @@
       <c r="AB988" s="4"/>
       <c r="AC988" s="4"/>
     </row>
-    <row r="989" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -36259,7 +36368,7 @@
       <c r="AB989" s="4"/>
       <c r="AC989" s="4"/>
     </row>
-    <row r="990" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -36290,7 +36399,7 @@
       <c r="AB990" s="4"/>
       <c r="AC990" s="4"/>
     </row>
-    <row r="991" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -36321,7 +36430,7 @@
       <c r="AB991" s="4"/>
       <c r="AC991" s="4"/>
     </row>
-    <row r="992" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -36352,7 +36461,7 @@
       <c r="AB992" s="4"/>
       <c r="AC992" s="4"/>
     </row>
-    <row r="993" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -36383,7 +36492,7 @@
       <c r="AB993" s="4"/>
       <c r="AC993" s="4"/>
     </row>
-    <row r="994" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -36414,7 +36523,7 @@
       <c r="AB994" s="4"/>
       <c r="AC994" s="4"/>
     </row>
-    <row r="995" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -36446,11 +36555,17 @@
       <c r="AC995" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J234" xr:uid="{57039A5A-967D-E94D-A2C0-B8DD2470DE38}">
-    <filterColumn colId="8">
+  <autoFilter ref="A1:AC995" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="C"/>
+        <filter val="T"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B175:D175">

--- a/1_Input_data/Infoexp.xlsx
+++ b/1_Input_data/Infoexp.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F7C948-1090-AD43-81EE-7F7C4177E028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A03F3-B529-4F49-840D-DA10B3D4498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="28640" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="880" windowWidth="28640" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$AC$995</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$AC$996</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="499">
   <si>
     <t>Type</t>
   </si>
@@ -1985,6 +1985,15 @@
   </si>
   <si>
     <t>(copies/microL)</t>
+  </si>
+  <si>
+    <t>(months)</t>
+  </si>
+  <si>
+    <t>microcephaly_posn</t>
+  </si>
+  <si>
+    <t>Presence of postnatal microcephalea, microscephalia criteria for follow up measures was calculated with the who_hcircm2zscore() function</t>
   </si>
 </sst>
 </file>
@@ -2590,27 +2599,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC995"/>
+  <dimension ref="A1:AC996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="3" width="4.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="219.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="219.140625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="13" width="6.42578125" customWidth="1"/>
     <col min="14" max="29" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2675,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>450</v>
       </c>
@@ -2715,7 +2723,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>450</v>
       </c>
@@ -2765,7 +2773,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>450</v>
       </c>
@@ -2811,7 +2819,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>450</v>
       </c>
@@ -2857,7 +2865,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>307</v>
       </c>
@@ -2911,7 +2919,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
@@ -2961,7 +2969,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>307</v>
       </c>
@@ -3007,7 +3015,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>307</v>
       </c>
@@ -3057,7 +3065,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>307</v>
       </c>
@@ -3097,7 +3105,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>307</v>
       </c>
@@ -3137,7 +3145,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>307</v>
       </c>
@@ -3187,7 +3195,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>307</v>
       </c>
@@ -3235,7 +3243,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>307</v>
       </c>
@@ -3283,7 +3291,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>307</v>
       </c>
@@ -3323,7 +3331,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>307</v>
       </c>
@@ -3363,7 +3371,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>307</v>
       </c>
@@ -3403,7 +3411,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>307</v>
       </c>
@@ -3443,7 +3451,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>307</v>
       </c>
@@ -3483,7 +3491,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>307</v>
       </c>
@@ -3523,7 +3531,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>307</v>
       </c>
@@ -3563,7 +3571,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>307</v>
       </c>
@@ -3603,7 +3611,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>307</v>
       </c>
@@ -3649,7 +3657,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>307</v>
       </c>
@@ -3697,7 +3705,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>307</v>
       </c>
@@ -3737,7 +3745,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>307</v>
       </c>
@@ -3781,7 +3789,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>307</v>
       </c>
@@ -3825,7 +3833,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>307</v>
       </c>
@@ -3865,7 +3873,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>307</v>
       </c>
@@ -3909,7 +3917,7 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>307</v>
       </c>
@@ -3949,7 +3957,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>307</v>
       </c>
@@ -3993,7 +4001,7 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>307</v>
       </c>
@@ -4033,7 +4041,7 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="140" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>307</v>
       </c>
@@ -4073,7 +4081,7 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>307</v>
       </c>
@@ -4113,7 +4121,7 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>307</v>
       </c>
@@ -4153,7 +4161,7 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>307</v>
       </c>
@@ -4193,7 +4201,7 @@
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>307</v>
       </c>
@@ -4233,7 +4241,7 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>307</v>
       </c>
@@ -4273,7 +4281,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>307</v>
       </c>
@@ -4313,7 +4321,7 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>307</v>
       </c>
@@ -4353,7 +4361,7 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>307</v>
       </c>
@@ -4403,7 +4411,7 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>307</v>
       </c>
@@ -4453,7 +4461,7 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>307</v>
       </c>
@@ -4503,7 +4511,7 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>307</v>
       </c>
@@ -4543,7 +4551,7 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>307</v>
       </c>
@@ -4589,7 +4597,7 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>307</v>
       </c>
@@ -4635,7 +4643,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>307</v>
       </c>
@@ -4687,7 +4695,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>307</v>
       </c>
@@ -4731,7 +4739,7 @@
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>307</v>
       </c>
@@ -4775,7 +4783,7 @@
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>307</v>
       </c>
@@ -4819,7 +4827,7 @@
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>307</v>
       </c>
@@ -4865,7 +4873,7 @@
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>307</v>
       </c>
@@ -4905,7 +4913,7 @@
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>307</v>
       </c>
@@ -4945,7 +4953,7 @@
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
     </row>
-    <row r="54" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>307</v>
       </c>
@@ -4985,7 +4993,7 @@
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
     </row>
-    <row r="55" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>307</v>
       </c>
@@ -5025,7 +5033,7 @@
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>307</v>
       </c>
@@ -5065,7 +5073,7 @@
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
     </row>
-    <row r="57" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>307</v>
       </c>
@@ -5105,7 +5113,7 @@
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>307</v>
       </c>
@@ -5155,7 +5163,7 @@
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>307</v>
       </c>
@@ -5205,7 +5213,7 @@
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>307</v>
       </c>
@@ -5245,7 +5253,7 @@
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>307</v>
       </c>
@@ -5291,7 +5299,7 @@
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>307</v>
       </c>
@@ -5337,7 +5345,7 @@
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>307</v>
       </c>
@@ -5381,7 +5389,7 @@
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>307</v>
       </c>
@@ -5425,7 +5433,7 @@
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>307</v>
       </c>
@@ -5469,7 +5477,7 @@
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>307</v>
       </c>
@@ -5513,7 +5521,7 @@
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>307</v>
       </c>
@@ -5553,7 +5561,7 @@
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>307</v>
       </c>
@@ -5597,7 +5605,7 @@
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>307</v>
       </c>
@@ -5641,7 +5649,7 @@
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>307</v>
       </c>
@@ -5685,7 +5693,7 @@
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>307</v>
       </c>
@@ -5729,7 +5737,7 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
     </row>
-    <row r="72" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>307</v>
       </c>
@@ -5773,7 +5781,7 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
     </row>
-    <row r="73" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>307</v>
       </c>
@@ -5817,7 +5825,7 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
     </row>
-    <row r="74" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>307</v>
       </c>
@@ -5861,7 +5869,7 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
     </row>
-    <row r="75" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>307</v>
       </c>
@@ -5905,7 +5913,7 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
     </row>
-    <row r="76" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>307</v>
       </c>
@@ -5949,7 +5957,7 @@
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
     </row>
-    <row r="77" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>132</v>
       </c>
@@ -5991,7 +5999,7 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
     </row>
-    <row r="78" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
@@ -6033,7 +6041,7 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
     </row>
-    <row r="79" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>132</v>
       </c>
@@ -6075,7 +6083,7 @@
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
     </row>
-    <row r="80" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>132</v>
       </c>
@@ -6121,7 +6129,7 @@
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
     </row>
-    <row r="81" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>132</v>
       </c>
@@ -6171,7 +6179,7 @@
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
     </row>
-    <row r="82" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>132</v>
       </c>
@@ -6217,7 +6225,7 @@
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
     </row>
-    <row r="83" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>132</v>
       </c>
@@ -6265,7 +6273,7 @@
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
     </row>
-    <row r="84" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>132</v>
       </c>
@@ -6315,7 +6323,7 @@
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
     </row>
-    <row r="85" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>132</v>
       </c>
@@ -6355,7 +6363,7 @@
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
     </row>
-    <row r="86" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
@@ -6403,7 +6411,7 @@
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
     </row>
-    <row r="87" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>132</v>
       </c>
@@ -6453,7 +6461,7 @@
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
     </row>
-    <row r="88" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>132</v>
       </c>
@@ -6499,7 +6507,7 @@
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
     </row>
-    <row r="89" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>132</v>
       </c>
@@ -6545,7 +6553,7 @@
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
     </row>
-    <row r="90" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>132</v>
       </c>
@@ -6585,7 +6593,7 @@
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
     </row>
-    <row r="91" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>132</v>
       </c>
@@ -6631,7 +6639,7 @@
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
     </row>
-    <row r="92" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>132</v>
       </c>
@@ -6677,7 +6685,7 @@
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
     </row>
-    <row r="93" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>132</v>
       </c>
@@ -6717,7 +6725,7 @@
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
     </row>
-    <row r="94" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>132</v>
       </c>
@@ -6757,7 +6765,7 @@
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
     </row>
-    <row r="95" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>132</v>
       </c>
@@ -6797,7 +6805,7 @@
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
     </row>
-    <row r="96" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>132</v>
       </c>
@@ -6837,7 +6845,7 @@
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
     </row>
-    <row r="97" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>132</v>
       </c>
@@ -6877,7 +6885,7 @@
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
     </row>
-    <row r="98" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>132</v>
       </c>
@@ -6917,7 +6925,7 @@
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
     </row>
-    <row r="99" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>132</v>
       </c>
@@ -6957,7 +6965,7 @@
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
     </row>
-    <row r="100" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>132</v>
       </c>
@@ -6997,7 +7005,7 @@
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
     </row>
-    <row r="101" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>132</v>
       </c>
@@ -7037,7 +7045,7 @@
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
     </row>
-    <row r="102" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>132</v>
       </c>
@@ -7077,7 +7085,7 @@
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
     </row>
-    <row r="103" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>132</v>
       </c>
@@ -7117,7 +7125,7 @@
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
     </row>
-    <row r="104" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>132</v>
       </c>
@@ -7157,7 +7165,7 @@
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
     </row>
-    <row r="105" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>132</v>
       </c>
@@ -7197,7 +7205,7 @@
       <c r="AB105" s="4"/>
       <c r="AC105" s="4"/>
     </row>
-    <row r="106" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>132</v>
       </c>
@@ -7237,7 +7245,7 @@
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
     </row>
-    <row r="107" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>132</v>
       </c>
@@ -7277,7 +7285,7 @@
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
     </row>
-    <row r="108" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>132</v>
       </c>
@@ -7317,7 +7325,7 @@
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
     </row>
-    <row r="109" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>132</v>
       </c>
@@ -7357,7 +7365,7 @@
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
     </row>
-    <row r="110" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>132</v>
       </c>
@@ -7411,7 +7419,7 @@
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
     </row>
-    <row r="111" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>132</v>
       </c>
@@ -7457,7 +7465,7 @@
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
     </row>
-    <row r="112" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>132</v>
       </c>
@@ -7507,7 +7515,7 @@
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
     </row>
-    <row r="113" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>132</v>
       </c>
@@ -7547,7 +7555,7 @@
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
     </row>
-    <row r="114" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>132</v>
       </c>
@@ -7593,7 +7601,7 @@
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
     </row>
-    <row r="115" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>132</v>
       </c>
@@ -7645,7 +7653,7 @@
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
     </row>
-    <row r="116" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>132</v>
       </c>
@@ -7693,7 +7701,7 @@
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
     </row>
-    <row r="117" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>132</v>
       </c>
@@ -7733,7 +7741,7 @@
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
     </row>
-    <row r="118" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>132</v>
       </c>
@@ -7773,7 +7781,7 @@
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
     </row>
-    <row r="119" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
@@ -7821,7 +7829,7 @@
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
     </row>
-    <row r="120" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>132</v>
       </c>
@@ -7869,7 +7877,7 @@
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
     </row>
-    <row r="121" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>132</v>
       </c>
@@ -7909,7 +7917,7 @@
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
     </row>
-    <row r="122" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>132</v>
       </c>
@@ -7949,7 +7957,7 @@
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
     </row>
-    <row r="123" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>132</v>
       </c>
@@ -7989,7 +7997,7 @@
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
     </row>
-    <row r="124" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>132</v>
       </c>
@@ -8037,7 +8045,7 @@
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
     </row>
-    <row r="125" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>132</v>
       </c>
@@ -8077,7 +8085,7 @@
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
     </row>
-    <row r="126" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>132</v>
       </c>
@@ -8125,7 +8133,7 @@
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
     </row>
-    <row r="127" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>132</v>
       </c>
@@ -8165,7 +8173,7 @@
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
     </row>
-    <row r="128" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>132</v>
       </c>
@@ -8205,7 +8213,7 @@
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
     </row>
-    <row r="129" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>132</v>
       </c>
@@ -8245,7 +8253,7 @@
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
     </row>
-    <row r="130" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>132</v>
       </c>
@@ -8285,7 +8293,7 @@
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
     </row>
-    <row r="131" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>132</v>
       </c>
@@ -8325,7 +8333,7 @@
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
     </row>
-    <row r="132" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>132</v>
       </c>
@@ -8365,7 +8373,7 @@
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
     </row>
-    <row r="133" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
@@ -8405,7 +8413,7 @@
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
     </row>
-    <row r="134" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -8445,7 +8453,7 @@
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
     </row>
-    <row r="135" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>132</v>
       </c>
@@ -8485,7 +8493,7 @@
       <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
     </row>
-    <row r="136" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>132</v>
       </c>
@@ -8525,7 +8533,7 @@
       <c r="AB136" s="4"/>
       <c r="AC136" s="4"/>
     </row>
-    <row r="137" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>132</v>
       </c>
@@ -8565,7 +8573,7 @@
       <c r="AB137" s="4"/>
       <c r="AC137" s="4"/>
     </row>
-    <row r="138" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>132</v>
       </c>
@@ -8605,7 +8613,7 @@
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
     </row>
-    <row r="139" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>132</v>
       </c>
@@ -8645,7 +8653,7 @@
       <c r="AB139" s="4"/>
       <c r="AC139" s="4"/>
     </row>
-    <row r="140" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>132</v>
       </c>
@@ -8685,7 +8693,7 @@
       <c r="AB140" s="4"/>
       <c r="AC140" s="4"/>
     </row>
-    <row r="141" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>132</v>
       </c>
@@ -8725,7 +8733,7 @@
       <c r="AB141" s="4"/>
       <c r="AC141" s="4"/>
     </row>
-    <row r="142" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>132</v>
       </c>
@@ -8765,7 +8773,7 @@
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
     </row>
-    <row r="143" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>132</v>
       </c>
@@ -8811,7 +8819,7 @@
       <c r="AB143" s="4"/>
       <c r="AC143" s="4"/>
     </row>
-    <row r="144" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>132</v>
       </c>
@@ -8857,7 +8865,7 @@
       <c r="AB144" s="4"/>
       <c r="AC144" s="4"/>
     </row>
-    <row r="145" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>132</v>
       </c>
@@ -8907,7 +8915,7 @@
       <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
     </row>
-    <row r="146" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>132</v>
       </c>
@@ -8953,7 +8961,7 @@
       <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
     </row>
-    <row r="147" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>132</v>
       </c>
@@ -8999,7 +9007,7 @@
       <c r="AB147" s="4"/>
       <c r="AC147" s="4"/>
     </row>
-    <row r="148" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>132</v>
       </c>
@@ -9045,7 +9053,7 @@
       <c r="AB148" s="4"/>
       <c r="AC148" s="4"/>
     </row>
-    <row r="149" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>132</v>
       </c>
@@ -9085,7 +9093,7 @@
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
     </row>
-    <row r="150" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>132</v>
       </c>
@@ -9125,7 +9133,7 @@
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
     </row>
-    <row r="151" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>132</v>
       </c>
@@ -9165,7 +9173,7 @@
       <c r="AB151" s="4"/>
       <c r="AC151" s="4"/>
     </row>
-    <row r="152" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>132</v>
       </c>
@@ -9205,7 +9213,7 @@
       <c r="AB152" s="4"/>
       <c r="AC152" s="4"/>
     </row>
-    <row r="153" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>132</v>
       </c>
@@ -9245,7 +9253,7 @@
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
     </row>
-    <row r="154" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>132</v>
       </c>
@@ -9285,7 +9293,7 @@
       <c r="AB154" s="4"/>
       <c r="AC154" s="4"/>
     </row>
-    <row r="155" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>132</v>
       </c>
@@ -9325,7 +9333,7 @@
       <c r="AB155" s="4"/>
       <c r="AC155" s="4"/>
     </row>
-    <row r="156" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>132</v>
       </c>
@@ -9369,7 +9377,7 @@
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
     </row>
-    <row r="157" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>132</v>
       </c>
@@ -9413,7 +9421,7 @@
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
     </row>
-    <row r="158" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>132</v>
       </c>
@@ -9453,7 +9461,7 @@
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
     </row>
-    <row r="159" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>132</v>
       </c>
@@ -9493,7 +9501,7 @@
       <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
     </row>
-    <row r="160" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>132</v>
       </c>
@@ -9533,7 +9541,7 @@
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
     </row>
-    <row r="161" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>132</v>
       </c>
@@ -9573,7 +9581,7 @@
       <c r="AB161" s="4"/>
       <c r="AC161" s="4"/>
     </row>
-    <row r="162" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>132</v>
       </c>
@@ -9613,7 +9621,7 @@
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
     </row>
-    <row r="163" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>132</v>
       </c>
@@ -9653,7 +9661,7 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>132</v>
       </c>
@@ -9699,7 +9707,7 @@
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
     </row>
-    <row r="165" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>132</v>
       </c>
@@ -9745,7 +9753,7 @@
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
     </row>
-    <row r="166" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>132</v>
       </c>
@@ -9793,7 +9801,7 @@
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
     </row>
-    <row r="167" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>132</v>
       </c>
@@ -9839,7 +9847,7 @@
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
     </row>
-    <row r="168" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>3</v>
       </c>
@@ -9887,7 +9895,7 @@
       <c r="AB168" s="4"/>
       <c r="AC168" s="4"/>
     </row>
-    <row r="169" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>3</v>
       </c>
@@ -9939,7 +9947,7 @@
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
     </row>
-    <row r="170" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
@@ -9989,7 +9997,7 @@
       <c r="AB170" s="4"/>
       <c r="AC170" s="4"/>
     </row>
-    <row r="171" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>3</v>
       </c>
@@ -10029,7 +10037,7 @@
       <c r="AB171" s="4"/>
       <c r="AC171" s="4"/>
     </row>
-    <row r="172" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>3</v>
       </c>
@@ -10077,7 +10085,7 @@
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
     </row>
-    <row r="173" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>3</v>
       </c>
@@ -10125,7 +10133,7 @@
       <c r="AB173" s="4"/>
       <c r="AC173" s="4"/>
     </row>
-    <row r="174" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>3</v>
       </c>
@@ -10175,7 +10183,7 @@
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
     </row>
-    <row r="175" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>3</v>
       </c>
@@ -10227,7 +10235,7 @@
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
     </row>
-    <row r="176" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>3</v>
       </c>
@@ -10279,7 +10287,7 @@
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
     </row>
-    <row r="177" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>3</v>
       </c>
@@ -10325,7 +10333,7 @@
       <c r="AB177" s="4"/>
       <c r="AC177" s="4"/>
     </row>
-    <row r="178" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>3</v>
       </c>
@@ -10375,7 +10383,7 @@
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
     </row>
-    <row r="179" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>3</v>
       </c>
@@ -10427,7 +10435,7 @@
       <c r="AB179" s="4"/>
       <c r="AC179" s="4"/>
     </row>
-    <row r="180" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>3</v>
       </c>
@@ -10475,7 +10483,7 @@
       <c r="AB180" s="4"/>
       <c r="AC180" s="4"/>
     </row>
-    <row r="181" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>3</v>
       </c>
@@ -10523,7 +10531,7 @@
       <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
     </row>
-    <row r="182" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>3</v>
       </c>
@@ -10571,7 +10579,7 @@
       <c r="AB182" s="4"/>
       <c r="AC182" s="4"/>
     </row>
-    <row r="183" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>3</v>
       </c>
@@ -10627,7 +10635,7 @@
       <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
     </row>
-    <row r="184" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>3</v>
       </c>
@@ -10681,7 +10689,7 @@
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
     </row>
-    <row r="185" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>3</v>
       </c>
@@ -10733,7 +10741,7 @@
       <c r="AB185" s="4"/>
       <c r="AC185" s="4"/>
     </row>
-    <row r="186" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>3</v>
       </c>
@@ -10781,7 +10789,7 @@
       <c r="AB186" s="4"/>
       <c r="AC186" s="4"/>
     </row>
-    <row r="187" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>3</v>
       </c>
@@ -10821,7 +10829,7 @@
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
     </row>
-    <row r="188" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>3</v>
       </c>
@@ -10871,7 +10879,7 @@
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
     </row>
-    <row r="189" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>3</v>
       </c>
@@ -10911,7 +10919,7 @@
       <c r="AB189" s="4"/>
       <c r="AC189" s="4"/>
     </row>
-    <row r="190" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>3</v>
       </c>
@@ -10951,7 +10959,7 @@
       <c r="AB190" s="4"/>
       <c r="AC190" s="4"/>
     </row>
-    <row r="191" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>3</v>
       </c>
@@ -10991,7 +10999,7 @@
       <c r="AB191" s="4"/>
       <c r="AC191" s="4"/>
     </row>
-    <row r="192" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>3</v>
       </c>
@@ -11031,7 +11039,7 @@
       <c r="AB192" s="4"/>
       <c r="AC192" s="4"/>
     </row>
-    <row r="193" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>3</v>
       </c>
@@ -11071,7 +11079,7 @@
       <c r="AB193" s="4"/>
       <c r="AC193" s="4"/>
     </row>
-    <row r="194" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>3</v>
       </c>
@@ -11115,7 +11123,7 @@
       <c r="AB194" s="4"/>
       <c r="AC194" s="4"/>
     </row>
-    <row r="195" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>3</v>
       </c>
@@ -11159,7 +11167,7 @@
       <c r="AB195" s="4"/>
       <c r="AC195" s="4"/>
     </row>
-    <row r="196" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>3</v>
       </c>
@@ -11176,7 +11184,7 @@
       </c>
       <c r="G196" s="16"/>
       <c r="H196" s="4">
-        <f t="shared" ref="H196:H234" si="3">+H195+1</f>
+        <f t="shared" ref="H196:H235" si="3">+H195+1</f>
         <v>195</v>
       </c>
       <c r="I196" s="7"/>
@@ -11203,7 +11211,7 @@
       <c r="AB196" s="4"/>
       <c r="AC196" s="4"/>
     </row>
-    <row r="197" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>3</v>
       </c>
@@ -11247,7 +11255,7 @@
       <c r="AB197" s="4"/>
       <c r="AC197" s="4"/>
     </row>
-    <row r="198" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>3</v>
       </c>
@@ -11291,7 +11299,7 @@
       <c r="AB198" s="4"/>
       <c r="AC198" s="4"/>
     </row>
-    <row r="199" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>3</v>
       </c>
@@ -11335,7 +11343,7 @@
       <c r="AB199" s="4"/>
       <c r="AC199" s="4"/>
     </row>
-    <row r="200" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>3</v>
       </c>
@@ -11379,7 +11387,7 @@
       <c r="AB200" s="4"/>
       <c r="AC200" s="4"/>
     </row>
-    <row r="201" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>3</v>
       </c>
@@ -11423,7 +11431,7 @@
       <c r="AB201" s="4"/>
       <c r="AC201" s="4"/>
     </row>
-    <row r="202" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>3</v>
       </c>
@@ -11467,7 +11475,7 @@
       <c r="AB202" s="4"/>
       <c r="AC202" s="4"/>
     </row>
-    <row r="203" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>3</v>
       </c>
@@ -11511,7 +11519,7 @@
       <c r="AB203" s="4"/>
       <c r="AC203" s="4"/>
     </row>
-    <row r="204" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>3</v>
       </c>
@@ -11555,7 +11563,7 @@
       <c r="AB204" s="4"/>
       <c r="AC204" s="4"/>
     </row>
-    <row r="205" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>3</v>
       </c>
@@ -11599,7 +11607,7 @@
       <c r="AB205" s="4"/>
       <c r="AC205" s="4"/>
     </row>
-    <row r="206" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>3</v>
       </c>
@@ -11643,7 +11651,7 @@
       <c r="AB206" s="4"/>
       <c r="AC206" s="4"/>
     </row>
-    <row r="207" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>3</v>
       </c>
@@ -11687,7 +11695,7 @@
       <c r="AB207" s="4"/>
       <c r="AC207" s="4"/>
     </row>
-    <row r="208" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="60" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>3</v>
       </c>
@@ -11731,7 +11739,7 @@
       <c r="AB208" s="4"/>
       <c r="AC208" s="4"/>
     </row>
-    <row r="209" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>3</v>
       </c>
@@ -11775,7 +11783,7 @@
       <c r="AB209" s="4"/>
       <c r="AC209" s="4"/>
     </row>
-    <row r="210" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>3</v>
       </c>
@@ -11819,7 +11827,7 @@
       <c r="AB210" s="4"/>
       <c r="AC210" s="4"/>
     </row>
-    <row r="211" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>3</v>
       </c>
@@ -11863,7 +11871,7 @@
       <c r="AB211" s="4"/>
       <c r="AC211" s="4"/>
     </row>
-    <row r="212" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>3</v>
       </c>
@@ -11907,7 +11915,7 @@
       <c r="AB212" s="4"/>
       <c r="AC212" s="4"/>
     </row>
-    <row r="213" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>3</v>
       </c>
@@ -11951,7 +11959,7 @@
       <c r="AB213" s="4"/>
       <c r="AC213" s="4"/>
     </row>
-    <row r="214" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>3</v>
       </c>
@@ -11995,7 +12003,7 @@
       <c r="AB214" s="4"/>
       <c r="AC214" s="4"/>
     </row>
-    <row r="215" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>3</v>
       </c>
@@ -12039,7 +12047,7 @@
       <c r="AB215" s="4"/>
       <c r="AC215" s="4"/>
     </row>
-    <row r="216" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>3</v>
       </c>
@@ -12087,7 +12095,7 @@
       <c r="AB216" s="4"/>
       <c r="AC216" s="4"/>
     </row>
-    <row r="217" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>3</v>
       </c>
@@ -12137,7 +12145,7 @@
       <c r="AB217" s="4"/>
       <c r="AC217" s="4"/>
     </row>
-    <row r="218" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>3</v>
       </c>
@@ -12187,7 +12195,7 @@
       <c r="AB218" s="4"/>
       <c r="AC218" s="4"/>
     </row>
-    <row r="219" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>3</v>
       </c>
@@ -12235,7 +12243,7 @@
       <c r="AB219" s="4"/>
       <c r="AC219" s="4"/>
     </row>
-    <row r="220" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>3</v>
       </c>
@@ -12285,7 +12293,7 @@
       <c r="AB220" s="4"/>
       <c r="AC220" s="4"/>
     </row>
-    <row r="221" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>3</v>
       </c>
@@ -12327,7 +12335,7 @@
       <c r="AB221" s="4"/>
       <c r="AC221" s="4"/>
     </row>
-    <row r="222" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>3</v>
       </c>
@@ -12377,7 +12385,7 @@
       <c r="AB222" s="4"/>
       <c r="AC222" s="4"/>
     </row>
-    <row r="223" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>3</v>
       </c>
@@ -12423,7 +12431,7 @@
       <c r="AB223" s="4"/>
       <c r="AC223" s="4"/>
     </row>
-    <row r="224" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>3</v>
       </c>
@@ -12469,7 +12477,7 @@
       <c r="AB224" s="4"/>
       <c r="AC224" s="4"/>
     </row>
-    <row r="225" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>3</v>
       </c>
@@ -12519,7 +12527,7 @@
       <c r="AB225" s="4"/>
       <c r="AC225" s="4"/>
     </row>
-    <row r="226" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>3</v>
       </c>
@@ -12567,33 +12575,29 @@
       <c r="AB226" s="4"/>
       <c r="AC226" s="4"/>
     </row>
-    <row r="227" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="5">
-        <v>1</v>
-      </c>
-      <c r="C227" s="5">
-        <v>1</v>
-      </c>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
       <c r="D227" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F227" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F227" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G227" s="16"/>
+      <c r="G227" s="23"/>
       <c r="H227" s="4">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="I227" s="7"/>
+      <c r="I227" s="17"/>
       <c r="J227" s="7" t="s">
-        <v>131</v>
+        <v>498</v>
       </c>
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
@@ -12615,33 +12619,33 @@
       <c r="AB227" s="4"/>
       <c r="AC227" s="4"/>
     </row>
-    <row r="228" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4">
-        <v>2</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="F228" s="4" t="s">
+      <c r="B228" s="5">
+        <v>1</v>
+      </c>
+      <c r="C228" s="5">
+        <v>1</v>
+      </c>
+      <c r="D228" s="12">
+        <v>1</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F228" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G228" s="4">
-        <v>2</v>
-      </c>
+      <c r="G228" s="16"/>
       <c r="H228" s="4">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="I228" s="4">
-        <v>1</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>475</v>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
@@ -12663,38 +12667,36 @@
       <c r="AB228" s="4"/>
       <c r="AC228" s="4"/>
     </row>
-    <row r="229" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B229" s="5">
-        <v>1</v>
-      </c>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5">
-        <v>1</v>
-      </c>
-      <c r="E229" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G229" s="16"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4">
+        <v>2</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="4">
+        <v>2</v>
+      </c>
       <c r="H229" s="4">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="I229" s="7"/>
-      <c r="J229" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K229" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="L229" s="4">
-        <v>0</v>
-      </c>
+      <c r="I229" s="4">
+        <v>1</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
       <c r="O229" s="4"/>
@@ -12713,7 +12715,7 @@
       <c r="AB229" s="4"/>
       <c r="AC229" s="4"/>
     </row>
-    <row r="230" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>3</v>
       </c>
@@ -12725,10 +12727,10 @@
         <v>1</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G230" s="16"/>
       <c r="H230" s="4">
@@ -12737,10 +12739,10 @@
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L230" s="4">
         <v>0</v>
@@ -12763,7 +12765,7 @@
       <c r="AB230" s="4"/>
       <c r="AC230" s="4"/>
     </row>
-    <row r="231" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>3</v>
       </c>
@@ -12775,10 +12777,10 @@
         <v>1</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G231" s="16"/>
       <c r="H231" s="4">
@@ -12787,10 +12789,10 @@
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L231" s="4">
         <v>0</v>
@@ -12813,7 +12815,7 @@
       <c r="AB231" s="4"/>
       <c r="AC231" s="4"/>
     </row>
-    <row r="232" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>3</v>
       </c>
@@ -12825,10 +12827,10 @@
         <v>1</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G232" s="16"/>
       <c r="H232" s="4">
@@ -12837,10 +12839,10 @@
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L232" s="4">
         <v>0</v>
@@ -12863,7 +12865,7 @@
       <c r="AB232" s="4"/>
       <c r="AC232" s="4"/>
     </row>
-    <row r="233" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>3</v>
       </c>
@@ -12875,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G233" s="16"/>
       <c r="H233" s="4">
@@ -12887,10 +12889,10 @@
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L233" s="4">
         <v>0</v>
@@ -12913,7 +12915,7 @@
       <c r="AB233" s="4"/>
       <c r="AC233" s="4"/>
     </row>
-    <row r="234" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>3</v>
       </c>
@@ -12925,10 +12927,10 @@
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G234" s="16"/>
       <c r="H234" s="4">
@@ -12937,10 +12939,10 @@
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L234" s="4">
         <v>0</v>
@@ -12963,19 +12965,38 @@
       <c r="AB234" s="4"/>
       <c r="AC234" s="4"/>
     </row>
-    <row r="235" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="4"/>
-      <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
-      <c r="I235" s="4"/>
-      <c r="J235" s="4"/>
-      <c r="K235" s="4"/>
-      <c r="L235" s="4"/>
+    <row r="235" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="5">
+        <v>1</v>
+      </c>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5">
+        <v>1</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G235" s="16"/>
+      <c r="H235" s="4">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="I235" s="7"/>
+      <c r="J235" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="L235" s="4">
+        <v>0</v>
+      </c>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
       <c r="O235" s="4"/>
@@ -12994,7 +13015,7 @@
       <c r="AB235" s="4"/>
       <c r="AC235" s="4"/>
     </row>
-    <row r="236" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13025,7 +13046,7 @@
       <c r="AB236" s="4"/>
       <c r="AC236" s="4"/>
     </row>
-    <row r="237" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13056,7 +13077,7 @@
       <c r="AB237" s="4"/>
       <c r="AC237" s="4"/>
     </row>
-    <row r="238" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13087,7 +13108,7 @@
       <c r="AB238" s="4"/>
       <c r="AC238" s="4"/>
     </row>
-    <row r="239" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13118,7 +13139,7 @@
       <c r="AB239" s="4"/>
       <c r="AC239" s="4"/>
     </row>
-    <row r="240" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13149,7 +13170,7 @@
       <c r="AB240" s="4"/>
       <c r="AC240" s="4"/>
     </row>
-    <row r="241" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13180,7 +13201,7 @@
       <c r="AB241" s="4"/>
       <c r="AC241" s="4"/>
     </row>
-    <row r="242" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13211,7 +13232,7 @@
       <c r="AB242" s="4"/>
       <c r="AC242" s="4"/>
     </row>
-    <row r="243" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13242,7 +13263,7 @@
       <c r="AB243" s="4"/>
       <c r="AC243" s="4"/>
     </row>
-    <row r="244" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13273,7 +13294,7 @@
       <c r="AB244" s="4"/>
       <c r="AC244" s="4"/>
     </row>
-    <row r="245" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13304,7 +13325,7 @@
       <c r="AB245" s="4"/>
       <c r="AC245" s="4"/>
     </row>
-    <row r="246" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13335,7 +13356,7 @@
       <c r="AB246" s="4"/>
       <c r="AC246" s="4"/>
     </row>
-    <row r="247" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13366,7 +13387,7 @@
       <c r="AB247" s="4"/>
       <c r="AC247" s="4"/>
     </row>
-    <row r="248" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13397,7 +13418,7 @@
       <c r="AB248" s="4"/>
       <c r="AC248" s="4"/>
     </row>
-    <row r="249" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13428,7 +13449,7 @@
       <c r="AB249" s="4"/>
       <c r="AC249" s="4"/>
     </row>
-    <row r="250" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13459,7 +13480,7 @@
       <c r="AB250" s="4"/>
       <c r="AC250" s="4"/>
     </row>
-    <row r="251" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13490,7 +13511,7 @@
       <c r="AB251" s="4"/>
       <c r="AC251" s="4"/>
     </row>
-    <row r="252" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13521,7 +13542,7 @@
       <c r="AB252" s="4"/>
       <c r="AC252" s="4"/>
     </row>
-    <row r="253" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13552,7 +13573,7 @@
       <c r="AB253" s="4"/>
       <c r="AC253" s="4"/>
     </row>
-    <row r="254" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13583,7 +13604,7 @@
       <c r="AB254" s="4"/>
       <c r="AC254" s="4"/>
     </row>
-    <row r="255" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13614,7 +13635,7 @@
       <c r="AB255" s="4"/>
       <c r="AC255" s="4"/>
     </row>
-    <row r="256" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13645,7 +13666,7 @@
       <c r="AB256" s="4"/>
       <c r="AC256" s="4"/>
     </row>
-    <row r="257" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13676,7 +13697,7 @@
       <c r="AB257" s="4"/>
       <c r="AC257" s="4"/>
     </row>
-    <row r="258" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13707,7 +13728,7 @@
       <c r="AB258" s="4"/>
       <c r="AC258" s="4"/>
     </row>
-    <row r="259" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13738,7 +13759,7 @@
       <c r="AB259" s="4"/>
       <c r="AC259" s="4"/>
     </row>
-    <row r="260" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13769,7 +13790,7 @@
       <c r="AB260" s="4"/>
       <c r="AC260" s="4"/>
     </row>
-    <row r="261" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13800,7 +13821,7 @@
       <c r="AB261" s="4"/>
       <c r="AC261" s="4"/>
     </row>
-    <row r="262" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -13831,7 +13852,7 @@
       <c r="AB262" s="4"/>
       <c r="AC262" s="4"/>
     </row>
-    <row r="263" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -13862,7 +13883,7 @@
       <c r="AB263" s="4"/>
       <c r="AC263" s="4"/>
     </row>
-    <row r="264" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -13893,7 +13914,7 @@
       <c r="AB264" s="4"/>
       <c r="AC264" s="4"/>
     </row>
-    <row r="265" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -13924,7 +13945,7 @@
       <c r="AB265" s="4"/>
       <c r="AC265" s="4"/>
     </row>
-    <row r="266" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -13955,7 +13976,7 @@
       <c r="AB266" s="4"/>
       <c r="AC266" s="4"/>
     </row>
-    <row r="267" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -13986,7 +14007,7 @@
       <c r="AB267" s="4"/>
       <c r="AC267" s="4"/>
     </row>
-    <row r="268" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14017,7 +14038,7 @@
       <c r="AB268" s="4"/>
       <c r="AC268" s="4"/>
     </row>
-    <row r="269" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -14048,7 +14069,7 @@
       <c r="AB269" s="4"/>
       <c r="AC269" s="4"/>
     </row>
-    <row r="270" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -14079,7 +14100,7 @@
       <c r="AB270" s="4"/>
       <c r="AC270" s="4"/>
     </row>
-    <row r="271" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -14110,7 +14131,7 @@
       <c r="AB271" s="4"/>
       <c r="AC271" s="4"/>
     </row>
-    <row r="272" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14141,7 +14162,7 @@
       <c r="AB272" s="4"/>
       <c r="AC272" s="4"/>
     </row>
-    <row r="273" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -14172,7 +14193,7 @@
       <c r="AB273" s="4"/>
       <c r="AC273" s="4"/>
     </row>
-    <row r="274" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -14203,7 +14224,7 @@
       <c r="AB274" s="4"/>
       <c r="AC274" s="4"/>
     </row>
-    <row r="275" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -14234,7 +14255,7 @@
       <c r="AB275" s="4"/>
       <c r="AC275" s="4"/>
     </row>
-    <row r="276" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -14265,7 +14286,7 @@
       <c r="AB276" s="4"/>
       <c r="AC276" s="4"/>
     </row>
-    <row r="277" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -14296,7 +14317,7 @@
       <c r="AB277" s="4"/>
       <c r="AC277" s="4"/>
     </row>
-    <row r="278" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -14327,7 +14348,7 @@
       <c r="AB278" s="4"/>
       <c r="AC278" s="4"/>
     </row>
-    <row r="279" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -14358,7 +14379,7 @@
       <c r="AB279" s="4"/>
       <c r="AC279" s="4"/>
     </row>
-    <row r="280" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -14389,7 +14410,7 @@
       <c r="AB280" s="4"/>
       <c r="AC280" s="4"/>
     </row>
-    <row r="281" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -14420,7 +14441,7 @@
       <c r="AB281" s="4"/>
       <c r="AC281" s="4"/>
     </row>
-    <row r="282" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -14451,7 +14472,7 @@
       <c r="AB282" s="4"/>
       <c r="AC282" s="4"/>
     </row>
-    <row r="283" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -14482,7 +14503,7 @@
       <c r="AB283" s="4"/>
       <c r="AC283" s="4"/>
     </row>
-    <row r="284" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -14513,7 +14534,7 @@
       <c r="AB284" s="4"/>
       <c r="AC284" s="4"/>
     </row>
-    <row r="285" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -14544,7 +14565,7 @@
       <c r="AB285" s="4"/>
       <c r="AC285" s="4"/>
     </row>
-    <row r="286" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -14575,7 +14596,7 @@
       <c r="AB286" s="4"/>
       <c r="AC286" s="4"/>
     </row>
-    <row r="287" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -14606,7 +14627,7 @@
       <c r="AB287" s="4"/>
       <c r="AC287" s="4"/>
     </row>
-    <row r="288" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -14637,7 +14658,7 @@
       <c r="AB288" s="4"/>
       <c r="AC288" s="4"/>
     </row>
-    <row r="289" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -14668,7 +14689,7 @@
       <c r="AB289" s="4"/>
       <c r="AC289" s="4"/>
     </row>
-    <row r="290" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -14699,7 +14720,7 @@
       <c r="AB290" s="4"/>
       <c r="AC290" s="4"/>
     </row>
-    <row r="291" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -14730,7 +14751,7 @@
       <c r="AB291" s="4"/>
       <c r="AC291" s="4"/>
     </row>
-    <row r="292" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -14761,7 +14782,7 @@
       <c r="AB292" s="4"/>
       <c r="AC292" s="4"/>
     </row>
-    <row r="293" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -14792,7 +14813,7 @@
       <c r="AB293" s="4"/>
       <c r="AC293" s="4"/>
     </row>
-    <row r="294" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -14823,7 +14844,7 @@
       <c r="AB294" s="4"/>
       <c r="AC294" s="4"/>
     </row>
-    <row r="295" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -14854,7 +14875,7 @@
       <c r="AB295" s="4"/>
       <c r="AC295" s="4"/>
     </row>
-    <row r="296" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -14885,7 +14906,7 @@
       <c r="AB296" s="4"/>
       <c r="AC296" s="4"/>
     </row>
-    <row r="297" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -14916,7 +14937,7 @@
       <c r="AB297" s="4"/>
       <c r="AC297" s="4"/>
     </row>
-    <row r="298" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -14947,7 +14968,7 @@
       <c r="AB298" s="4"/>
       <c r="AC298" s="4"/>
     </row>
-    <row r="299" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -14978,7 +14999,7 @@
       <c r="AB299" s="4"/>
       <c r="AC299" s="4"/>
     </row>
-    <row r="300" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -15009,7 +15030,7 @@
       <c r="AB300" s="4"/>
       <c r="AC300" s="4"/>
     </row>
-    <row r="301" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -15040,7 +15061,7 @@
       <c r="AB301" s="4"/>
       <c r="AC301" s="4"/>
     </row>
-    <row r="302" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -15071,7 +15092,7 @@
       <c r="AB302" s="4"/>
       <c r="AC302" s="4"/>
     </row>
-    <row r="303" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -15102,7 +15123,7 @@
       <c r="AB303" s="4"/>
       <c r="AC303" s="4"/>
     </row>
-    <row r="304" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -15133,7 +15154,7 @@
       <c r="AB304" s="4"/>
       <c r="AC304" s="4"/>
     </row>
-    <row r="305" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -15164,7 +15185,7 @@
       <c r="AB305" s="4"/>
       <c r="AC305" s="4"/>
     </row>
-    <row r="306" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -15195,7 +15216,7 @@
       <c r="AB306" s="4"/>
       <c r="AC306" s="4"/>
     </row>
-    <row r="307" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -15226,7 +15247,7 @@
       <c r="AB307" s="4"/>
       <c r="AC307" s="4"/>
     </row>
-    <row r="308" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -15257,7 +15278,7 @@
       <c r="AB308" s="4"/>
       <c r="AC308" s="4"/>
     </row>
-    <row r="309" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -15288,7 +15309,7 @@
       <c r="AB309" s="4"/>
       <c r="AC309" s="4"/>
     </row>
-    <row r="310" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -15319,7 +15340,7 @@
       <c r="AB310" s="4"/>
       <c r="AC310" s="4"/>
     </row>
-    <row r="311" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -15350,7 +15371,7 @@
       <c r="AB311" s="4"/>
       <c r="AC311" s="4"/>
     </row>
-    <row r="312" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -15381,7 +15402,7 @@
       <c r="AB312" s="4"/>
       <c r="AC312" s="4"/>
     </row>
-    <row r="313" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -15412,7 +15433,7 @@
       <c r="AB313" s="4"/>
       <c r="AC313" s="4"/>
     </row>
-    <row r="314" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -15443,7 +15464,7 @@
       <c r="AB314" s="4"/>
       <c r="AC314" s="4"/>
     </row>
-    <row r="315" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -15474,7 +15495,7 @@
       <c r="AB315" s="4"/>
       <c r="AC315" s="4"/>
     </row>
-    <row r="316" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -15505,7 +15526,7 @@
       <c r="AB316" s="4"/>
       <c r="AC316" s="4"/>
     </row>
-    <row r="317" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -15536,7 +15557,7 @@
       <c r="AB317" s="4"/>
       <c r="AC317" s="4"/>
     </row>
-    <row r="318" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -15567,7 +15588,7 @@
       <c r="AB318" s="4"/>
       <c r="AC318" s="4"/>
     </row>
-    <row r="319" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -15598,7 +15619,7 @@
       <c r="AB319" s="4"/>
       <c r="AC319" s="4"/>
     </row>
-    <row r="320" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -15629,7 +15650,7 @@
       <c r="AB320" s="4"/>
       <c r="AC320" s="4"/>
     </row>
-    <row r="321" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -15660,7 +15681,7 @@
       <c r="AB321" s="4"/>
       <c r="AC321" s="4"/>
     </row>
-    <row r="322" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -15691,7 +15712,7 @@
       <c r="AB322" s="4"/>
       <c r="AC322" s="4"/>
     </row>
-    <row r="323" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -15722,7 +15743,7 @@
       <c r="AB323" s="4"/>
       <c r="AC323" s="4"/>
     </row>
-    <row r="324" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -15753,7 +15774,7 @@
       <c r="AB324" s="4"/>
       <c r="AC324" s="4"/>
     </row>
-    <row r="325" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -15784,7 +15805,7 @@
       <c r="AB325" s="4"/>
       <c r="AC325" s="4"/>
     </row>
-    <row r="326" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -15815,7 +15836,7 @@
       <c r="AB326" s="4"/>
       <c r="AC326" s="4"/>
     </row>
-    <row r="327" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -15846,7 +15867,7 @@
       <c r="AB327" s="4"/>
       <c r="AC327" s="4"/>
     </row>
-    <row r="328" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -15877,7 +15898,7 @@
       <c r="AB328" s="4"/>
       <c r="AC328" s="4"/>
     </row>
-    <row r="329" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -15908,7 +15929,7 @@
       <c r="AB329" s="4"/>
       <c r="AC329" s="4"/>
     </row>
-    <row r="330" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -15939,7 +15960,7 @@
       <c r="AB330" s="4"/>
       <c r="AC330" s="4"/>
     </row>
-    <row r="331" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -15970,7 +15991,7 @@
       <c r="AB331" s="4"/>
       <c r="AC331" s="4"/>
     </row>
-    <row r="332" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -16001,7 +16022,7 @@
       <c r="AB332" s="4"/>
       <c r="AC332" s="4"/>
     </row>
-    <row r="333" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -16032,7 +16053,7 @@
       <c r="AB333" s="4"/>
       <c r="AC333" s="4"/>
     </row>
-    <row r="334" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -16063,7 +16084,7 @@
       <c r="AB334" s="4"/>
       <c r="AC334" s="4"/>
     </row>
-    <row r="335" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -16094,7 +16115,7 @@
       <c r="AB335" s="4"/>
       <c r="AC335" s="4"/>
     </row>
-    <row r="336" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -16125,7 +16146,7 @@
       <c r="AB336" s="4"/>
       <c r="AC336" s="4"/>
     </row>
-    <row r="337" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -16156,7 +16177,7 @@
       <c r="AB337" s="4"/>
       <c r="AC337" s="4"/>
     </row>
-    <row r="338" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -16187,7 +16208,7 @@
       <c r="AB338" s="4"/>
       <c r="AC338" s="4"/>
     </row>
-    <row r="339" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -16218,7 +16239,7 @@
       <c r="AB339" s="4"/>
       <c r="AC339" s="4"/>
     </row>
-    <row r="340" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -16249,7 +16270,7 @@
       <c r="AB340" s="4"/>
       <c r="AC340" s="4"/>
     </row>
-    <row r="341" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -16280,7 +16301,7 @@
       <c r="AB341" s="4"/>
       <c r="AC341" s="4"/>
     </row>
-    <row r="342" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -16311,7 +16332,7 @@
       <c r="AB342" s="4"/>
       <c r="AC342" s="4"/>
     </row>
-    <row r="343" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -16342,7 +16363,7 @@
       <c r="AB343" s="4"/>
       <c r="AC343" s="4"/>
     </row>
-    <row r="344" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -16373,7 +16394,7 @@
       <c r="AB344" s="4"/>
       <c r="AC344" s="4"/>
     </row>
-    <row r="345" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -16404,7 +16425,7 @@
       <c r="AB345" s="4"/>
       <c r="AC345" s="4"/>
     </row>
-    <row r="346" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -16435,7 +16456,7 @@
       <c r="AB346" s="4"/>
       <c r="AC346" s="4"/>
     </row>
-    <row r="347" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -16466,7 +16487,7 @@
       <c r="AB347" s="4"/>
       <c r="AC347" s="4"/>
     </row>
-    <row r="348" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -16497,7 +16518,7 @@
       <c r="AB348" s="4"/>
       <c r="AC348" s="4"/>
     </row>
-    <row r="349" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -16528,7 +16549,7 @@
       <c r="AB349" s="4"/>
       <c r="AC349" s="4"/>
     </row>
-    <row r="350" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -16559,7 +16580,7 @@
       <c r="AB350" s="4"/>
       <c r="AC350" s="4"/>
     </row>
-    <row r="351" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -16590,7 +16611,7 @@
       <c r="AB351" s="4"/>
       <c r="AC351" s="4"/>
     </row>
-    <row r="352" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -16621,7 +16642,7 @@
       <c r="AB352" s="4"/>
       <c r="AC352" s="4"/>
     </row>
-    <row r="353" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -16652,7 +16673,7 @@
       <c r="AB353" s="4"/>
       <c r="AC353" s="4"/>
     </row>
-    <row r="354" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -16683,7 +16704,7 @@
       <c r="AB354" s="4"/>
       <c r="AC354" s="4"/>
     </row>
-    <row r="355" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -16714,7 +16735,7 @@
       <c r="AB355" s="4"/>
       <c r="AC355" s="4"/>
     </row>
-    <row r="356" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -16745,7 +16766,7 @@
       <c r="AB356" s="4"/>
       <c r="AC356" s="4"/>
     </row>
-    <row r="357" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -16776,7 +16797,7 @@
       <c r="AB357" s="4"/>
       <c r="AC357" s="4"/>
     </row>
-    <row r="358" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -16807,7 +16828,7 @@
       <c r="AB358" s="4"/>
       <c r="AC358" s="4"/>
     </row>
-    <row r="359" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -16838,7 +16859,7 @@
       <c r="AB359" s="4"/>
       <c r="AC359" s="4"/>
     </row>
-    <row r="360" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -16869,7 +16890,7 @@
       <c r="AB360" s="4"/>
       <c r="AC360" s="4"/>
     </row>
-    <row r="361" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -16900,7 +16921,7 @@
       <c r="AB361" s="4"/>
       <c r="AC361" s="4"/>
     </row>
-    <row r="362" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -16931,7 +16952,7 @@
       <c r="AB362" s="4"/>
       <c r="AC362" s="4"/>
     </row>
-    <row r="363" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -16962,7 +16983,7 @@
       <c r="AB363" s="4"/>
       <c r="AC363" s="4"/>
     </row>
-    <row r="364" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -16993,7 +17014,7 @@
       <c r="AB364" s="4"/>
       <c r="AC364" s="4"/>
     </row>
-    <row r="365" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -17024,7 +17045,7 @@
       <c r="AB365" s="4"/>
       <c r="AC365" s="4"/>
     </row>
-    <row r="366" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -17055,7 +17076,7 @@
       <c r="AB366" s="4"/>
       <c r="AC366" s="4"/>
     </row>
-    <row r="367" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -17086,7 +17107,7 @@
       <c r="AB367" s="4"/>
       <c r="AC367" s="4"/>
     </row>
-    <row r="368" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -17117,7 +17138,7 @@
       <c r="AB368" s="4"/>
       <c r="AC368" s="4"/>
     </row>
-    <row r="369" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -17148,7 +17169,7 @@
       <c r="AB369" s="4"/>
       <c r="AC369" s="4"/>
     </row>
-    <row r="370" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -17179,7 +17200,7 @@
       <c r="AB370" s="4"/>
       <c r="AC370" s="4"/>
     </row>
-    <row r="371" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -17210,7 +17231,7 @@
       <c r="AB371" s="4"/>
       <c r="AC371" s="4"/>
     </row>
-    <row r="372" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -17241,7 +17262,7 @@
       <c r="AB372" s="4"/>
       <c r="AC372" s="4"/>
     </row>
-    <row r="373" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -17272,7 +17293,7 @@
       <c r="AB373" s="4"/>
       <c r="AC373" s="4"/>
     </row>
-    <row r="374" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -17303,7 +17324,7 @@
       <c r="AB374" s="4"/>
       <c r="AC374" s="4"/>
     </row>
-    <row r="375" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -17334,7 +17355,7 @@
       <c r="AB375" s="4"/>
       <c r="AC375" s="4"/>
     </row>
-    <row r="376" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -17365,7 +17386,7 @@
       <c r="AB376" s="4"/>
       <c r="AC376" s="4"/>
     </row>
-    <row r="377" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -17396,7 +17417,7 @@
       <c r="AB377" s="4"/>
       <c r="AC377" s="4"/>
     </row>
-    <row r="378" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -17427,7 +17448,7 @@
       <c r="AB378" s="4"/>
       <c r="AC378" s="4"/>
     </row>
-    <row r="379" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -17458,7 +17479,7 @@
       <c r="AB379" s="4"/>
       <c r="AC379" s="4"/>
     </row>
-    <row r="380" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -17489,7 +17510,7 @@
       <c r="AB380" s="4"/>
       <c r="AC380" s="4"/>
     </row>
-    <row r="381" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -17520,7 +17541,7 @@
       <c r="AB381" s="4"/>
       <c r="AC381" s="4"/>
     </row>
-    <row r="382" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -17551,7 +17572,7 @@
       <c r="AB382" s="4"/>
       <c r="AC382" s="4"/>
     </row>
-    <row r="383" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -17582,7 +17603,7 @@
       <c r="AB383" s="4"/>
       <c r="AC383" s="4"/>
     </row>
-    <row r="384" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -17613,7 +17634,7 @@
       <c r="AB384" s="4"/>
       <c r="AC384" s="4"/>
     </row>
-    <row r="385" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -17644,7 +17665,7 @@
       <c r="AB385" s="4"/>
       <c r="AC385" s="4"/>
     </row>
-    <row r="386" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -17675,7 +17696,7 @@
       <c r="AB386" s="4"/>
       <c r="AC386" s="4"/>
     </row>
-    <row r="387" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -17706,7 +17727,7 @@
       <c r="AB387" s="4"/>
       <c r="AC387" s="4"/>
     </row>
-    <row r="388" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -17737,7 +17758,7 @@
       <c r="AB388" s="4"/>
       <c r="AC388" s="4"/>
     </row>
-    <row r="389" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -17768,7 +17789,7 @@
       <c r="AB389" s="4"/>
       <c r="AC389" s="4"/>
     </row>
-    <row r="390" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -17799,7 +17820,7 @@
       <c r="AB390" s="4"/>
       <c r="AC390" s="4"/>
     </row>
-    <row r="391" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -17830,7 +17851,7 @@
       <c r="AB391" s="4"/>
       <c r="AC391" s="4"/>
     </row>
-    <row r="392" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -17861,7 +17882,7 @@
       <c r="AB392" s="4"/>
       <c r="AC392" s="4"/>
     </row>
-    <row r="393" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -17892,7 +17913,7 @@
       <c r="AB393" s="4"/>
       <c r="AC393" s="4"/>
     </row>
-    <row r="394" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -17923,7 +17944,7 @@
       <c r="AB394" s="4"/>
       <c r="AC394" s="4"/>
     </row>
-    <row r="395" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -17954,7 +17975,7 @@
       <c r="AB395" s="4"/>
       <c r="AC395" s="4"/>
     </row>
-    <row r="396" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -17985,7 +18006,7 @@
       <c r="AB396" s="4"/>
       <c r="AC396" s="4"/>
     </row>
-    <row r="397" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -18016,7 +18037,7 @@
       <c r="AB397" s="4"/>
       <c r="AC397" s="4"/>
     </row>
-    <row r="398" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -18047,7 +18068,7 @@
       <c r="AB398" s="4"/>
       <c r="AC398" s="4"/>
     </row>
-    <row r="399" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -18078,7 +18099,7 @@
       <c r="AB399" s="4"/>
       <c r="AC399" s="4"/>
     </row>
-    <row r="400" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -18109,7 +18130,7 @@
       <c r="AB400" s="4"/>
       <c r="AC400" s="4"/>
     </row>
-    <row r="401" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -18140,7 +18161,7 @@
       <c r="AB401" s="4"/>
       <c r="AC401" s="4"/>
     </row>
-    <row r="402" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -18171,7 +18192,7 @@
       <c r="AB402" s="4"/>
       <c r="AC402" s="4"/>
     </row>
-    <row r="403" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -18202,7 +18223,7 @@
       <c r="AB403" s="4"/>
       <c r="AC403" s="4"/>
     </row>
-    <row r="404" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -18233,7 +18254,7 @@
       <c r="AB404" s="4"/>
       <c r="AC404" s="4"/>
     </row>
-    <row r="405" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -18264,7 +18285,7 @@
       <c r="AB405" s="4"/>
       <c r="AC405" s="4"/>
     </row>
-    <row r="406" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -18295,7 +18316,7 @@
       <c r="AB406" s="4"/>
       <c r="AC406" s="4"/>
     </row>
-    <row r="407" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -18326,7 +18347,7 @@
       <c r="AB407" s="4"/>
       <c r="AC407" s="4"/>
     </row>
-    <row r="408" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -18357,7 +18378,7 @@
       <c r="AB408" s="4"/>
       <c r="AC408" s="4"/>
     </row>
-    <row r="409" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -18388,7 +18409,7 @@
       <c r="AB409" s="4"/>
       <c r="AC409" s="4"/>
     </row>
-    <row r="410" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -18419,7 +18440,7 @@
       <c r="AB410" s="4"/>
       <c r="AC410" s="4"/>
     </row>
-    <row r="411" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -18450,7 +18471,7 @@
       <c r="AB411" s="4"/>
       <c r="AC411" s="4"/>
     </row>
-    <row r="412" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -18481,7 +18502,7 @@
       <c r="AB412" s="4"/>
       <c r="AC412" s="4"/>
     </row>
-    <row r="413" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -18512,7 +18533,7 @@
       <c r="AB413" s="4"/>
       <c r="AC413" s="4"/>
     </row>
-    <row r="414" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -18543,7 +18564,7 @@
       <c r="AB414" s="4"/>
       <c r="AC414" s="4"/>
     </row>
-    <row r="415" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -18574,7 +18595,7 @@
       <c r="AB415" s="4"/>
       <c r="AC415" s="4"/>
     </row>
-    <row r="416" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -18605,7 +18626,7 @@
       <c r="AB416" s="4"/>
       <c r="AC416" s="4"/>
     </row>
-    <row r="417" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -18636,7 +18657,7 @@
       <c r="AB417" s="4"/>
       <c r="AC417" s="4"/>
     </row>
-    <row r="418" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -18667,7 +18688,7 @@
       <c r="AB418" s="4"/>
       <c r="AC418" s="4"/>
     </row>
-    <row r="419" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -18698,7 +18719,7 @@
       <c r="AB419" s="4"/>
       <c r="AC419" s="4"/>
     </row>
-    <row r="420" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -18729,7 +18750,7 @@
       <c r="AB420" s="4"/>
       <c r="AC420" s="4"/>
     </row>
-    <row r="421" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -18760,7 +18781,7 @@
       <c r="AB421" s="4"/>
       <c r="AC421" s="4"/>
     </row>
-    <row r="422" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -18791,7 +18812,7 @@
       <c r="AB422" s="4"/>
       <c r="AC422" s="4"/>
     </row>
-    <row r="423" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -18822,7 +18843,7 @@
       <c r="AB423" s="4"/>
       <c r="AC423" s="4"/>
     </row>
-    <row r="424" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -18853,7 +18874,7 @@
       <c r="AB424" s="4"/>
       <c r="AC424" s="4"/>
     </row>
-    <row r="425" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -18884,7 +18905,7 @@
       <c r="AB425" s="4"/>
       <c r="AC425" s="4"/>
     </row>
-    <row r="426" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -18915,7 +18936,7 @@
       <c r="AB426" s="4"/>
       <c r="AC426" s="4"/>
     </row>
-    <row r="427" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -18946,7 +18967,7 @@
       <c r="AB427" s="4"/>
       <c r="AC427" s="4"/>
     </row>
-    <row r="428" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -18977,7 +18998,7 @@
       <c r="AB428" s="4"/>
       <c r="AC428" s="4"/>
     </row>
-    <row r="429" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -19008,7 +19029,7 @@
       <c r="AB429" s="4"/>
       <c r="AC429" s="4"/>
     </row>
-    <row r="430" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -19039,7 +19060,7 @@
       <c r="AB430" s="4"/>
       <c r="AC430" s="4"/>
     </row>
-    <row r="431" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -19070,7 +19091,7 @@
       <c r="AB431" s="4"/>
       <c r="AC431" s="4"/>
     </row>
-    <row r="432" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -19101,7 +19122,7 @@
       <c r="AB432" s="4"/>
       <c r="AC432" s="4"/>
     </row>
-    <row r="433" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -19132,7 +19153,7 @@
       <c r="AB433" s="4"/>
       <c r="AC433" s="4"/>
     </row>
-    <row r="434" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -19163,7 +19184,7 @@
       <c r="AB434" s="4"/>
       <c r="AC434" s="4"/>
     </row>
-    <row r="435" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -19194,7 +19215,7 @@
       <c r="AB435" s="4"/>
       <c r="AC435" s="4"/>
     </row>
-    <row r="436" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -19225,7 +19246,7 @@
       <c r="AB436" s="4"/>
       <c r="AC436" s="4"/>
     </row>
-    <row r="437" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -19256,7 +19277,7 @@
       <c r="AB437" s="4"/>
       <c r="AC437" s="4"/>
     </row>
-    <row r="438" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -19287,7 +19308,7 @@
       <c r="AB438" s="4"/>
       <c r="AC438" s="4"/>
     </row>
-    <row r="439" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -19318,7 +19339,7 @@
       <c r="AB439" s="4"/>
       <c r="AC439" s="4"/>
     </row>
-    <row r="440" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -19349,7 +19370,7 @@
       <c r="AB440" s="4"/>
       <c r="AC440" s="4"/>
     </row>
-    <row r="441" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -19380,7 +19401,7 @@
       <c r="AB441" s="4"/>
       <c r="AC441" s="4"/>
     </row>
-    <row r="442" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -19411,7 +19432,7 @@
       <c r="AB442" s="4"/>
       <c r="AC442" s="4"/>
     </row>
-    <row r="443" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -19442,7 +19463,7 @@
       <c r="AB443" s="4"/>
       <c r="AC443" s="4"/>
     </row>
-    <row r="444" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -19473,7 +19494,7 @@
       <c r="AB444" s="4"/>
       <c r="AC444" s="4"/>
     </row>
-    <row r="445" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -19504,7 +19525,7 @@
       <c r="AB445" s="4"/>
       <c r="AC445" s="4"/>
     </row>
-    <row r="446" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -19535,7 +19556,7 @@
       <c r="AB446" s="4"/>
       <c r="AC446" s="4"/>
     </row>
-    <row r="447" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -19566,7 +19587,7 @@
       <c r="AB447" s="4"/>
       <c r="AC447" s="4"/>
     </row>
-    <row r="448" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -19597,7 +19618,7 @@
       <c r="AB448" s="4"/>
       <c r="AC448" s="4"/>
     </row>
-    <row r="449" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -19628,7 +19649,7 @@
       <c r="AB449" s="4"/>
       <c r="AC449" s="4"/>
     </row>
-    <row r="450" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -19659,7 +19680,7 @@
       <c r="AB450" s="4"/>
       <c r="AC450" s="4"/>
     </row>
-    <row r="451" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -19690,7 +19711,7 @@
       <c r="AB451" s="4"/>
       <c r="AC451" s="4"/>
     </row>
-    <row r="452" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -19721,7 +19742,7 @@
       <c r="AB452" s="4"/>
       <c r="AC452" s="4"/>
     </row>
-    <row r="453" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -19752,7 +19773,7 @@
       <c r="AB453" s="4"/>
       <c r="AC453" s="4"/>
     </row>
-    <row r="454" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -19783,7 +19804,7 @@
       <c r="AB454" s="4"/>
       <c r="AC454" s="4"/>
     </row>
-    <row r="455" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -19814,7 +19835,7 @@
       <c r="AB455" s="4"/>
       <c r="AC455" s="4"/>
     </row>
-    <row r="456" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -19845,7 +19866,7 @@
       <c r="AB456" s="4"/>
       <c r="AC456" s="4"/>
     </row>
-    <row r="457" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -19876,7 +19897,7 @@
       <c r="AB457" s="4"/>
       <c r="AC457" s="4"/>
     </row>
-    <row r="458" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -19907,7 +19928,7 @@
       <c r="AB458" s="4"/>
       <c r="AC458" s="4"/>
     </row>
-    <row r="459" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -19938,7 +19959,7 @@
       <c r="AB459" s="4"/>
       <c r="AC459" s="4"/>
     </row>
-    <row r="460" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -19969,7 +19990,7 @@
       <c r="AB460" s="4"/>
       <c r="AC460" s="4"/>
     </row>
-    <row r="461" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -20000,7 +20021,7 @@
       <c r="AB461" s="4"/>
       <c r="AC461" s="4"/>
     </row>
-    <row r="462" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -20031,7 +20052,7 @@
       <c r="AB462" s="4"/>
       <c r="AC462" s="4"/>
     </row>
-    <row r="463" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -20062,7 +20083,7 @@
       <c r="AB463" s="4"/>
       <c r="AC463" s="4"/>
     </row>
-    <row r="464" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -20093,7 +20114,7 @@
       <c r="AB464" s="4"/>
       <c r="AC464" s="4"/>
     </row>
-    <row r="465" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -20124,7 +20145,7 @@
       <c r="AB465" s="4"/>
       <c r="AC465" s="4"/>
     </row>
-    <row r="466" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -20155,7 +20176,7 @@
       <c r="AB466" s="4"/>
       <c r="AC466" s="4"/>
     </row>
-    <row r="467" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -20186,7 +20207,7 @@
       <c r="AB467" s="4"/>
       <c r="AC467" s="4"/>
     </row>
-    <row r="468" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -20217,7 +20238,7 @@
       <c r="AB468" s="4"/>
       <c r="AC468" s="4"/>
     </row>
-    <row r="469" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -20248,7 +20269,7 @@
       <c r="AB469" s="4"/>
       <c r="AC469" s="4"/>
     </row>
-    <row r="470" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -20279,7 +20300,7 @@
       <c r="AB470" s="4"/>
       <c r="AC470" s="4"/>
     </row>
-    <row r="471" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -20310,7 +20331,7 @@
       <c r="AB471" s="4"/>
       <c r="AC471" s="4"/>
     </row>
-    <row r="472" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -20341,7 +20362,7 @@
       <c r="AB472" s="4"/>
       <c r="AC472" s="4"/>
     </row>
-    <row r="473" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -20372,7 +20393,7 @@
       <c r="AB473" s="4"/>
       <c r="AC473" s="4"/>
     </row>
-    <row r="474" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -20403,7 +20424,7 @@
       <c r="AB474" s="4"/>
       <c r="AC474" s="4"/>
     </row>
-    <row r="475" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -20434,7 +20455,7 @@
       <c r="AB475" s="4"/>
       <c r="AC475" s="4"/>
     </row>
-    <row r="476" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -20465,7 +20486,7 @@
       <c r="AB476" s="4"/>
       <c r="AC476" s="4"/>
     </row>
-    <row r="477" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -20496,7 +20517,7 @@
       <c r="AB477" s="4"/>
       <c r="AC477" s="4"/>
     </row>
-    <row r="478" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -20527,7 +20548,7 @@
       <c r="AB478" s="4"/>
       <c r="AC478" s="4"/>
     </row>
-    <row r="479" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -20558,7 +20579,7 @@
       <c r="AB479" s="4"/>
       <c r="AC479" s="4"/>
     </row>
-    <row r="480" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -20589,7 +20610,7 @@
       <c r="AB480" s="4"/>
       <c r="AC480" s="4"/>
     </row>
-    <row r="481" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -20620,7 +20641,7 @@
       <c r="AB481" s="4"/>
       <c r="AC481" s="4"/>
     </row>
-    <row r="482" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -20651,7 +20672,7 @@
       <c r="AB482" s="4"/>
       <c r="AC482" s="4"/>
     </row>
-    <row r="483" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -20682,7 +20703,7 @@
       <c r="AB483" s="4"/>
       <c r="AC483" s="4"/>
     </row>
-    <row r="484" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -20713,7 +20734,7 @@
       <c r="AB484" s="4"/>
       <c r="AC484" s="4"/>
     </row>
-    <row r="485" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -20744,7 +20765,7 @@
       <c r="AB485" s="4"/>
       <c r="AC485" s="4"/>
     </row>
-    <row r="486" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -20775,7 +20796,7 @@
       <c r="AB486" s="4"/>
       <c r="AC486" s="4"/>
     </row>
-    <row r="487" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -20806,7 +20827,7 @@
       <c r="AB487" s="4"/>
       <c r="AC487" s="4"/>
     </row>
-    <row r="488" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -20837,7 +20858,7 @@
       <c r="AB488" s="4"/>
       <c r="AC488" s="4"/>
     </row>
-    <row r="489" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -20868,7 +20889,7 @@
       <c r="AB489" s="4"/>
       <c r="AC489" s="4"/>
     </row>
-    <row r="490" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -20899,7 +20920,7 @@
       <c r="AB490" s="4"/>
       <c r="AC490" s="4"/>
     </row>
-    <row r="491" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -20930,7 +20951,7 @@
       <c r="AB491" s="4"/>
       <c r="AC491" s="4"/>
     </row>
-    <row r="492" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -20961,7 +20982,7 @@
       <c r="AB492" s="4"/>
       <c r="AC492" s="4"/>
     </row>
-    <row r="493" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -20992,7 +21013,7 @@
       <c r="AB493" s="4"/>
       <c r="AC493" s="4"/>
     </row>
-    <row r="494" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -21023,7 +21044,7 @@
       <c r="AB494" s="4"/>
       <c r="AC494" s="4"/>
     </row>
-    <row r="495" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -21054,7 +21075,7 @@
       <c r="AB495" s="4"/>
       <c r="AC495" s="4"/>
     </row>
-    <row r="496" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -21085,7 +21106,7 @@
       <c r="AB496" s="4"/>
       <c r="AC496" s="4"/>
     </row>
-    <row r="497" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -21116,7 +21137,7 @@
       <c r="AB497" s="4"/>
       <c r="AC497" s="4"/>
     </row>
-    <row r="498" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -21147,7 +21168,7 @@
       <c r="AB498" s="4"/>
       <c r="AC498" s="4"/>
     </row>
-    <row r="499" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -21178,7 +21199,7 @@
       <c r="AB499" s="4"/>
       <c r="AC499" s="4"/>
     </row>
-    <row r="500" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -21209,7 +21230,7 @@
       <c r="AB500" s="4"/>
       <c r="AC500" s="4"/>
     </row>
-    <row r="501" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -21240,7 +21261,7 @@
       <c r="AB501" s="4"/>
       <c r="AC501" s="4"/>
     </row>
-    <row r="502" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -21271,7 +21292,7 @@
       <c r="AB502" s="4"/>
       <c r="AC502" s="4"/>
     </row>
-    <row r="503" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -21302,7 +21323,7 @@
       <c r="AB503" s="4"/>
       <c r="AC503" s="4"/>
     </row>
-    <row r="504" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -21333,7 +21354,7 @@
       <c r="AB504" s="4"/>
       <c r="AC504" s="4"/>
     </row>
-    <row r="505" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -21364,7 +21385,7 @@
       <c r="AB505" s="4"/>
       <c r="AC505" s="4"/>
     </row>
-    <row r="506" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -21395,7 +21416,7 @@
       <c r="AB506" s="4"/>
       <c r="AC506" s="4"/>
     </row>
-    <row r="507" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -21426,7 +21447,7 @@
       <c r="AB507" s="4"/>
       <c r="AC507" s="4"/>
     </row>
-    <row r="508" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -21457,7 +21478,7 @@
       <c r="AB508" s="4"/>
       <c r="AC508" s="4"/>
     </row>
-    <row r="509" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -21488,7 +21509,7 @@
       <c r="AB509" s="4"/>
       <c r="AC509" s="4"/>
     </row>
-    <row r="510" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -21519,7 +21540,7 @@
       <c r="AB510" s="4"/>
       <c r="AC510" s="4"/>
     </row>
-    <row r="511" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -21550,7 +21571,7 @@
       <c r="AB511" s="4"/>
       <c r="AC511" s="4"/>
     </row>
-    <row r="512" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -21581,7 +21602,7 @@
       <c r="AB512" s="4"/>
       <c r="AC512" s="4"/>
     </row>
-    <row r="513" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -21612,7 +21633,7 @@
       <c r="AB513" s="4"/>
       <c r="AC513" s="4"/>
     </row>
-    <row r="514" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -21643,7 +21664,7 @@
       <c r="AB514" s="4"/>
       <c r="AC514" s="4"/>
     </row>
-    <row r="515" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -21674,7 +21695,7 @@
       <c r="AB515" s="4"/>
       <c r="AC515" s="4"/>
     </row>
-    <row r="516" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -21705,7 +21726,7 @@
       <c r="AB516" s="4"/>
       <c r="AC516" s="4"/>
     </row>
-    <row r="517" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -21736,7 +21757,7 @@
       <c r="AB517" s="4"/>
       <c r="AC517" s="4"/>
     </row>
-    <row r="518" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -21767,7 +21788,7 @@
       <c r="AB518" s="4"/>
       <c r="AC518" s="4"/>
     </row>
-    <row r="519" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -21798,7 +21819,7 @@
       <c r="AB519" s="4"/>
       <c r="AC519" s="4"/>
     </row>
-    <row r="520" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -21829,7 +21850,7 @@
       <c r="AB520" s="4"/>
       <c r="AC520" s="4"/>
     </row>
-    <row r="521" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -21860,7 +21881,7 @@
       <c r="AB521" s="4"/>
       <c r="AC521" s="4"/>
     </row>
-    <row r="522" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -21891,7 +21912,7 @@
       <c r="AB522" s="4"/>
       <c r="AC522" s="4"/>
     </row>
-    <row r="523" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -21922,7 +21943,7 @@
       <c r="AB523" s="4"/>
       <c r="AC523" s="4"/>
     </row>
-    <row r="524" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -21953,7 +21974,7 @@
       <c r="AB524" s="4"/>
       <c r="AC524" s="4"/>
     </row>
-    <row r="525" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -21984,7 +22005,7 @@
       <c r="AB525" s="4"/>
       <c r="AC525" s="4"/>
     </row>
-    <row r="526" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -22015,7 +22036,7 @@
       <c r="AB526" s="4"/>
       <c r="AC526" s="4"/>
     </row>
-    <row r="527" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -22046,7 +22067,7 @@
       <c r="AB527" s="4"/>
       <c r="AC527" s="4"/>
     </row>
-    <row r="528" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -22077,7 +22098,7 @@
       <c r="AB528" s="4"/>
       <c r="AC528" s="4"/>
     </row>
-    <row r="529" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -22108,7 +22129,7 @@
       <c r="AB529" s="4"/>
       <c r="AC529" s="4"/>
     </row>
-    <row r="530" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -22139,7 +22160,7 @@
       <c r="AB530" s="4"/>
       <c r="AC530" s="4"/>
     </row>
-    <row r="531" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -22170,7 +22191,7 @@
       <c r="AB531" s="4"/>
       <c r="AC531" s="4"/>
     </row>
-    <row r="532" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -22201,7 +22222,7 @@
       <c r="AB532" s="4"/>
       <c r="AC532" s="4"/>
     </row>
-    <row r="533" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -22232,7 +22253,7 @@
       <c r="AB533" s="4"/>
       <c r="AC533" s="4"/>
     </row>
-    <row r="534" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -22263,7 +22284,7 @@
       <c r="AB534" s="4"/>
       <c r="AC534" s="4"/>
     </row>
-    <row r="535" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -22294,7 +22315,7 @@
       <c r="AB535" s="4"/>
       <c r="AC535" s="4"/>
     </row>
-    <row r="536" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -22325,7 +22346,7 @@
       <c r="AB536" s="4"/>
       <c r="AC536" s="4"/>
     </row>
-    <row r="537" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -22356,7 +22377,7 @@
       <c r="AB537" s="4"/>
       <c r="AC537" s="4"/>
     </row>
-    <row r="538" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -22387,7 +22408,7 @@
       <c r="AB538" s="4"/>
       <c r="AC538" s="4"/>
     </row>
-    <row r="539" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -22418,7 +22439,7 @@
       <c r="AB539" s="4"/>
       <c r="AC539" s="4"/>
     </row>
-    <row r="540" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -22449,7 +22470,7 @@
       <c r="AB540" s="4"/>
       <c r="AC540" s="4"/>
     </row>
-    <row r="541" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -22480,7 +22501,7 @@
       <c r="AB541" s="4"/>
       <c r="AC541" s="4"/>
     </row>
-    <row r="542" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -22511,7 +22532,7 @@
       <c r="AB542" s="4"/>
       <c r="AC542" s="4"/>
     </row>
-    <row r="543" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -22542,7 +22563,7 @@
       <c r="AB543" s="4"/>
       <c r="AC543" s="4"/>
     </row>
-    <row r="544" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -22573,7 +22594,7 @@
       <c r="AB544" s="4"/>
       <c r="AC544" s="4"/>
     </row>
-    <row r="545" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -22604,7 +22625,7 @@
       <c r="AB545" s="4"/>
       <c r="AC545" s="4"/>
     </row>
-    <row r="546" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -22635,7 +22656,7 @@
       <c r="AB546" s="4"/>
       <c r="AC546" s="4"/>
     </row>
-    <row r="547" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -22666,7 +22687,7 @@
       <c r="AB547" s="4"/>
       <c r="AC547" s="4"/>
     </row>
-    <row r="548" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -22697,7 +22718,7 @@
       <c r="AB548" s="4"/>
       <c r="AC548" s="4"/>
     </row>
-    <row r="549" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -22728,7 +22749,7 @@
       <c r="AB549" s="4"/>
       <c r="AC549" s="4"/>
     </row>
-    <row r="550" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -22759,7 +22780,7 @@
       <c r="AB550" s="4"/>
       <c r="AC550" s="4"/>
     </row>
-    <row r="551" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -22790,7 +22811,7 @@
       <c r="AB551" s="4"/>
       <c r="AC551" s="4"/>
     </row>
-    <row r="552" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -22821,7 +22842,7 @@
       <c r="AB552" s="4"/>
       <c r="AC552" s="4"/>
     </row>
-    <row r="553" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -22852,7 +22873,7 @@
       <c r="AB553" s="4"/>
       <c r="AC553" s="4"/>
     </row>
-    <row r="554" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -22883,7 +22904,7 @@
       <c r="AB554" s="4"/>
       <c r="AC554" s="4"/>
     </row>
-    <row r="555" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -22914,7 +22935,7 @@
       <c r="AB555" s="4"/>
       <c r="AC555" s="4"/>
     </row>
-    <row r="556" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -22945,7 +22966,7 @@
       <c r="AB556" s="4"/>
       <c r="AC556" s="4"/>
     </row>
-    <row r="557" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -22976,7 +22997,7 @@
       <c r="AB557" s="4"/>
       <c r="AC557" s="4"/>
     </row>
-    <row r="558" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -23007,7 +23028,7 @@
       <c r="AB558" s="4"/>
       <c r="AC558" s="4"/>
     </row>
-    <row r="559" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -23038,7 +23059,7 @@
       <c r="AB559" s="4"/>
       <c r="AC559" s="4"/>
     </row>
-    <row r="560" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -23069,7 +23090,7 @@
       <c r="AB560" s="4"/>
       <c r="AC560" s="4"/>
     </row>
-    <row r="561" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -23100,7 +23121,7 @@
       <c r="AB561" s="4"/>
       <c r="AC561" s="4"/>
     </row>
-    <row r="562" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -23131,7 +23152,7 @@
       <c r="AB562" s="4"/>
       <c r="AC562" s="4"/>
     </row>
-    <row r="563" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -23162,7 +23183,7 @@
       <c r="AB563" s="4"/>
       <c r="AC563" s="4"/>
     </row>
-    <row r="564" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -23193,7 +23214,7 @@
       <c r="AB564" s="4"/>
       <c r="AC564" s="4"/>
     </row>
-    <row r="565" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -23224,7 +23245,7 @@
       <c r="AB565" s="4"/>
       <c r="AC565" s="4"/>
     </row>
-    <row r="566" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -23255,7 +23276,7 @@
       <c r="AB566" s="4"/>
       <c r="AC566" s="4"/>
     </row>
-    <row r="567" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -23286,7 +23307,7 @@
       <c r="AB567" s="4"/>
       <c r="AC567" s="4"/>
     </row>
-    <row r="568" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -23317,7 +23338,7 @@
       <c r="AB568" s="4"/>
       <c r="AC568" s="4"/>
     </row>
-    <row r="569" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -23348,7 +23369,7 @@
       <c r="AB569" s="4"/>
       <c r="AC569" s="4"/>
     </row>
-    <row r="570" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -23379,7 +23400,7 @@
       <c r="AB570" s="4"/>
       <c r="AC570" s="4"/>
     </row>
-    <row r="571" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -23410,7 +23431,7 @@
       <c r="AB571" s="4"/>
       <c r="AC571" s="4"/>
     </row>
-    <row r="572" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -23441,7 +23462,7 @@
       <c r="AB572" s="4"/>
       <c r="AC572" s="4"/>
     </row>
-    <row r="573" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -23472,7 +23493,7 @@
       <c r="AB573" s="4"/>
       <c r="AC573" s="4"/>
     </row>
-    <row r="574" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -23503,7 +23524,7 @@
       <c r="AB574" s="4"/>
       <c r="AC574" s="4"/>
     </row>
-    <row r="575" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -23534,7 +23555,7 @@
       <c r="AB575" s="4"/>
       <c r="AC575" s="4"/>
     </row>
-    <row r="576" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -23565,7 +23586,7 @@
       <c r="AB576" s="4"/>
       <c r="AC576" s="4"/>
     </row>
-    <row r="577" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -23596,7 +23617,7 @@
       <c r="AB577" s="4"/>
       <c r="AC577" s="4"/>
     </row>
-    <row r="578" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -23627,7 +23648,7 @@
       <c r="AB578" s="4"/>
       <c r="AC578" s="4"/>
     </row>
-    <row r="579" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -23658,7 +23679,7 @@
       <c r="AB579" s="4"/>
       <c r="AC579" s="4"/>
     </row>
-    <row r="580" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -23689,7 +23710,7 @@
       <c r="AB580" s="4"/>
       <c r="AC580" s="4"/>
     </row>
-    <row r="581" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -23720,7 +23741,7 @@
       <c r="AB581" s="4"/>
       <c r="AC581" s="4"/>
     </row>
-    <row r="582" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -23751,7 +23772,7 @@
       <c r="AB582" s="4"/>
       <c r="AC582" s="4"/>
     </row>
-    <row r="583" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -23782,7 +23803,7 @@
       <c r="AB583" s="4"/>
       <c r="AC583" s="4"/>
     </row>
-    <row r="584" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -23813,7 +23834,7 @@
       <c r="AB584" s="4"/>
       <c r="AC584" s="4"/>
     </row>
-    <row r="585" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -23844,7 +23865,7 @@
       <c r="AB585" s="4"/>
       <c r="AC585" s="4"/>
     </row>
-    <row r="586" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -23875,7 +23896,7 @@
       <c r="AB586" s="4"/>
       <c r="AC586" s="4"/>
     </row>
-    <row r="587" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -23906,7 +23927,7 @@
       <c r="AB587" s="4"/>
       <c r="AC587" s="4"/>
     </row>
-    <row r="588" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -23937,7 +23958,7 @@
       <c r="AB588" s="4"/>
       <c r="AC588" s="4"/>
     </row>
-    <row r="589" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -23968,7 +23989,7 @@
       <c r="AB589" s="4"/>
       <c r="AC589" s="4"/>
     </row>
-    <row r="590" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -23999,7 +24020,7 @@
       <c r="AB590" s="4"/>
       <c r="AC590" s="4"/>
     </row>
-    <row r="591" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -24030,7 +24051,7 @@
       <c r="AB591" s="4"/>
       <c r="AC591" s="4"/>
     </row>
-    <row r="592" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -24061,7 +24082,7 @@
       <c r="AB592" s="4"/>
       <c r="AC592" s="4"/>
     </row>
-    <row r="593" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -24092,7 +24113,7 @@
       <c r="AB593" s="4"/>
       <c r="AC593" s="4"/>
     </row>
-    <row r="594" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -24123,7 +24144,7 @@
       <c r="AB594" s="4"/>
       <c r="AC594" s="4"/>
     </row>
-    <row r="595" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -24154,7 +24175,7 @@
       <c r="AB595" s="4"/>
       <c r="AC595" s="4"/>
     </row>
-    <row r="596" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -24185,7 +24206,7 @@
       <c r="AB596" s="4"/>
       <c r="AC596" s="4"/>
     </row>
-    <row r="597" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -24216,7 +24237,7 @@
       <c r="AB597" s="4"/>
       <c r="AC597" s="4"/>
     </row>
-    <row r="598" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -24247,7 +24268,7 @@
       <c r="AB598" s="4"/>
       <c r="AC598" s="4"/>
     </row>
-    <row r="599" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -24278,7 +24299,7 @@
       <c r="AB599" s="4"/>
       <c r="AC599" s="4"/>
     </row>
-    <row r="600" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -24309,7 +24330,7 @@
       <c r="AB600" s="4"/>
       <c r="AC600" s="4"/>
     </row>
-    <row r="601" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -24340,7 +24361,7 @@
       <c r="AB601" s="4"/>
       <c r="AC601" s="4"/>
     </row>
-    <row r="602" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -24371,7 +24392,7 @@
       <c r="AB602" s="4"/>
       <c r="AC602" s="4"/>
     </row>
-    <row r="603" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -24402,7 +24423,7 @@
       <c r="AB603" s="4"/>
       <c r="AC603" s="4"/>
     </row>
-    <row r="604" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -24433,7 +24454,7 @@
       <c r="AB604" s="4"/>
       <c r="AC604" s="4"/>
     </row>
-    <row r="605" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -24464,7 +24485,7 @@
       <c r="AB605" s="4"/>
       <c r="AC605" s="4"/>
     </row>
-    <row r="606" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -24495,7 +24516,7 @@
       <c r="AB606" s="4"/>
       <c r="AC606" s="4"/>
     </row>
-    <row r="607" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -24526,7 +24547,7 @@
       <c r="AB607" s="4"/>
       <c r="AC607" s="4"/>
     </row>
-    <row r="608" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -24557,7 +24578,7 @@
       <c r="AB608" s="4"/>
       <c r="AC608" s="4"/>
     </row>
-    <row r="609" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -24588,7 +24609,7 @@
       <c r="AB609" s="4"/>
       <c r="AC609" s="4"/>
     </row>
-    <row r="610" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -24619,7 +24640,7 @@
       <c r="AB610" s="4"/>
       <c r="AC610" s="4"/>
     </row>
-    <row r="611" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -24650,7 +24671,7 @@
       <c r="AB611" s="4"/>
       <c r="AC611" s="4"/>
     </row>
-    <row r="612" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -24681,7 +24702,7 @@
       <c r="AB612" s="4"/>
       <c r="AC612" s="4"/>
     </row>
-    <row r="613" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -24712,7 +24733,7 @@
       <c r="AB613" s="4"/>
       <c r="AC613" s="4"/>
     </row>
-    <row r="614" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -24743,7 +24764,7 @@
       <c r="AB614" s="4"/>
       <c r="AC614" s="4"/>
     </row>
-    <row r="615" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -24774,7 +24795,7 @@
       <c r="AB615" s="4"/>
       <c r="AC615" s="4"/>
     </row>
-    <row r="616" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -24805,7 +24826,7 @@
       <c r="AB616" s="4"/>
       <c r="AC616" s="4"/>
     </row>
-    <row r="617" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -24836,7 +24857,7 @@
       <c r="AB617" s="4"/>
       <c r="AC617" s="4"/>
     </row>
-    <row r="618" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -24867,7 +24888,7 @@
       <c r="AB618" s="4"/>
       <c r="AC618" s="4"/>
     </row>
-    <row r="619" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -24898,7 +24919,7 @@
       <c r="AB619" s="4"/>
       <c r="AC619" s="4"/>
     </row>
-    <row r="620" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -24929,7 +24950,7 @@
       <c r="AB620" s="4"/>
       <c r="AC620" s="4"/>
     </row>
-    <row r="621" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -24960,7 +24981,7 @@
       <c r="AB621" s="4"/>
       <c r="AC621" s="4"/>
     </row>
-    <row r="622" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -24991,7 +25012,7 @@
       <c r="AB622" s="4"/>
       <c r="AC622" s="4"/>
     </row>
-    <row r="623" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -25022,7 +25043,7 @@
       <c r="AB623" s="4"/>
       <c r="AC623" s="4"/>
     </row>
-    <row r="624" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -25053,7 +25074,7 @@
       <c r="AB624" s="4"/>
       <c r="AC624" s="4"/>
     </row>
-    <row r="625" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -25084,7 +25105,7 @@
       <c r="AB625" s="4"/>
       <c r="AC625" s="4"/>
     </row>
-    <row r="626" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -25115,7 +25136,7 @@
       <c r="AB626" s="4"/>
       <c r="AC626" s="4"/>
     </row>
-    <row r="627" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -25146,7 +25167,7 @@
       <c r="AB627" s="4"/>
       <c r="AC627" s="4"/>
     </row>
-    <row r="628" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -25177,7 +25198,7 @@
       <c r="AB628" s="4"/>
       <c r="AC628" s="4"/>
     </row>
-    <row r="629" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -25208,7 +25229,7 @@
       <c r="AB629" s="4"/>
       <c r="AC629" s="4"/>
     </row>
-    <row r="630" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -25239,7 +25260,7 @@
       <c r="AB630" s="4"/>
       <c r="AC630" s="4"/>
     </row>
-    <row r="631" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -25270,7 +25291,7 @@
       <c r="AB631" s="4"/>
       <c r="AC631" s="4"/>
     </row>
-    <row r="632" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -25301,7 +25322,7 @@
       <c r="AB632" s="4"/>
       <c r="AC632" s="4"/>
     </row>
-    <row r="633" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -25332,7 +25353,7 @@
       <c r="AB633" s="4"/>
       <c r="AC633" s="4"/>
     </row>
-    <row r="634" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -25363,7 +25384,7 @@
       <c r="AB634" s="4"/>
       <c r="AC634" s="4"/>
     </row>
-    <row r="635" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -25394,7 +25415,7 @@
       <c r="AB635" s="4"/>
       <c r="AC635" s="4"/>
     </row>
-    <row r="636" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -25425,7 +25446,7 @@
       <c r="AB636" s="4"/>
       <c r="AC636" s="4"/>
     </row>
-    <row r="637" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -25456,7 +25477,7 @@
       <c r="AB637" s="4"/>
       <c r="AC637" s="4"/>
     </row>
-    <row r="638" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -25487,7 +25508,7 @@
       <c r="AB638" s="4"/>
       <c r="AC638" s="4"/>
     </row>
-    <row r="639" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -25518,7 +25539,7 @@
       <c r="AB639" s="4"/>
       <c r="AC639" s="4"/>
     </row>
-    <row r="640" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -25549,7 +25570,7 @@
       <c r="AB640" s="4"/>
       <c r="AC640" s="4"/>
     </row>
-    <row r="641" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -25580,7 +25601,7 @@
       <c r="AB641" s="4"/>
       <c r="AC641" s="4"/>
     </row>
-    <row r="642" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -25611,7 +25632,7 @@
       <c r="AB642" s="4"/>
       <c r="AC642" s="4"/>
     </row>
-    <row r="643" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -25642,7 +25663,7 @@
       <c r="AB643" s="4"/>
       <c r="AC643" s="4"/>
     </row>
-    <row r="644" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -25673,7 +25694,7 @@
       <c r="AB644" s="4"/>
       <c r="AC644" s="4"/>
     </row>
-    <row r="645" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -25704,7 +25725,7 @@
       <c r="AB645" s="4"/>
       <c r="AC645" s="4"/>
     </row>
-    <row r="646" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -25735,7 +25756,7 @@
       <c r="AB646" s="4"/>
       <c r="AC646" s="4"/>
     </row>
-    <row r="647" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -25766,7 +25787,7 @@
       <c r="AB647" s="4"/>
       <c r="AC647" s="4"/>
     </row>
-    <row r="648" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -25797,7 +25818,7 @@
       <c r="AB648" s="4"/>
       <c r="AC648" s="4"/>
     </row>
-    <row r="649" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -25828,7 +25849,7 @@
       <c r="AB649" s="4"/>
       <c r="AC649" s="4"/>
     </row>
-    <row r="650" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -25859,7 +25880,7 @@
       <c r="AB650" s="4"/>
       <c r="AC650" s="4"/>
     </row>
-    <row r="651" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -25890,7 +25911,7 @@
       <c r="AB651" s="4"/>
       <c r="AC651" s="4"/>
     </row>
-    <row r="652" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -25921,7 +25942,7 @@
       <c r="AB652" s="4"/>
       <c r="AC652" s="4"/>
     </row>
-    <row r="653" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -25952,7 +25973,7 @@
       <c r="AB653" s="4"/>
       <c r="AC653" s="4"/>
     </row>
-    <row r="654" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -25983,7 +26004,7 @@
       <c r="AB654" s="4"/>
       <c r="AC654" s="4"/>
     </row>
-    <row r="655" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -26014,7 +26035,7 @@
       <c r="AB655" s="4"/>
       <c r="AC655" s="4"/>
     </row>
-    <row r="656" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -26045,7 +26066,7 @@
       <c r="AB656" s="4"/>
       <c r="AC656" s="4"/>
     </row>
-    <row r="657" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -26076,7 +26097,7 @@
       <c r="AB657" s="4"/>
       <c r="AC657" s="4"/>
     </row>
-    <row r="658" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -26107,7 +26128,7 @@
       <c r="AB658" s="4"/>
       <c r="AC658" s="4"/>
     </row>
-    <row r="659" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -26138,7 +26159,7 @@
       <c r="AB659" s="4"/>
       <c r="AC659" s="4"/>
     </row>
-    <row r="660" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -26169,7 +26190,7 @@
       <c r="AB660" s="4"/>
       <c r="AC660" s="4"/>
     </row>
-    <row r="661" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -26200,7 +26221,7 @@
       <c r="AB661" s="4"/>
       <c r="AC661" s="4"/>
     </row>
-    <row r="662" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -26231,7 +26252,7 @@
       <c r="AB662" s="4"/>
       <c r="AC662" s="4"/>
     </row>
-    <row r="663" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -26262,7 +26283,7 @@
       <c r="AB663" s="4"/>
       <c r="AC663" s="4"/>
     </row>
-    <row r="664" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -26293,7 +26314,7 @@
       <c r="AB664" s="4"/>
       <c r="AC664" s="4"/>
     </row>
-    <row r="665" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -26324,7 +26345,7 @@
       <c r="AB665" s="4"/>
       <c r="AC665" s="4"/>
     </row>
-    <row r="666" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -26355,7 +26376,7 @@
       <c r="AB666" s="4"/>
       <c r="AC666" s="4"/>
     </row>
-    <row r="667" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -26386,7 +26407,7 @@
       <c r="AB667" s="4"/>
       <c r="AC667" s="4"/>
     </row>
-    <row r="668" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -26417,7 +26438,7 @@
       <c r="AB668" s="4"/>
       <c r="AC668" s="4"/>
     </row>
-    <row r="669" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -26448,7 +26469,7 @@
       <c r="AB669" s="4"/>
       <c r="AC669" s="4"/>
     </row>
-    <row r="670" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -26479,7 +26500,7 @@
       <c r="AB670" s="4"/>
       <c r="AC670" s="4"/>
     </row>
-    <row r="671" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -26510,7 +26531,7 @@
       <c r="AB671" s="4"/>
       <c r="AC671" s="4"/>
     </row>
-    <row r="672" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -26541,7 +26562,7 @@
       <c r="AB672" s="4"/>
       <c r="AC672" s="4"/>
     </row>
-    <row r="673" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -26572,7 +26593,7 @@
       <c r="AB673" s="4"/>
       <c r="AC673" s="4"/>
     </row>
-    <row r="674" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -26603,7 +26624,7 @@
       <c r="AB674" s="4"/>
       <c r="AC674" s="4"/>
     </row>
-    <row r="675" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -26634,7 +26655,7 @@
       <c r="AB675" s="4"/>
       <c r="AC675" s="4"/>
     </row>
-    <row r="676" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -26665,7 +26686,7 @@
       <c r="AB676" s="4"/>
       <c r="AC676" s="4"/>
     </row>
-    <row r="677" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -26696,7 +26717,7 @@
       <c r="AB677" s="4"/>
       <c r="AC677" s="4"/>
     </row>
-    <row r="678" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -26727,7 +26748,7 @@
       <c r="AB678" s="4"/>
       <c r="AC678" s="4"/>
     </row>
-    <row r="679" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -26758,7 +26779,7 @@
       <c r="AB679" s="4"/>
       <c r="AC679" s="4"/>
     </row>
-    <row r="680" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -26789,7 +26810,7 @@
       <c r="AB680" s="4"/>
       <c r="AC680" s="4"/>
     </row>
-    <row r="681" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -26820,7 +26841,7 @@
       <c r="AB681" s="4"/>
       <c r="AC681" s="4"/>
     </row>
-    <row r="682" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -26851,7 +26872,7 @@
       <c r="AB682" s="4"/>
       <c r="AC682" s="4"/>
     </row>
-    <row r="683" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -26882,7 +26903,7 @@
       <c r="AB683" s="4"/>
       <c r="AC683" s="4"/>
     </row>
-    <row r="684" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -26913,7 +26934,7 @@
       <c r="AB684" s="4"/>
       <c r="AC684" s="4"/>
     </row>
-    <row r="685" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -26944,7 +26965,7 @@
       <c r="AB685" s="4"/>
       <c r="AC685" s="4"/>
     </row>
-    <row r="686" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -26975,7 +26996,7 @@
       <c r="AB686" s="4"/>
       <c r="AC686" s="4"/>
     </row>
-    <row r="687" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -27006,7 +27027,7 @@
       <c r="AB687" s="4"/>
       <c r="AC687" s="4"/>
     </row>
-    <row r="688" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -27037,7 +27058,7 @@
       <c r="AB688" s="4"/>
       <c r="AC688" s="4"/>
     </row>
-    <row r="689" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -27068,7 +27089,7 @@
       <c r="AB689" s="4"/>
       <c r="AC689" s="4"/>
     </row>
-    <row r="690" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -27099,7 +27120,7 @@
       <c r="AB690" s="4"/>
       <c r="AC690" s="4"/>
     </row>
-    <row r="691" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -27130,7 +27151,7 @@
       <c r="AB691" s="4"/>
       <c r="AC691" s="4"/>
     </row>
-    <row r="692" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -27161,7 +27182,7 @@
       <c r="AB692" s="4"/>
       <c r="AC692" s="4"/>
     </row>
-    <row r="693" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -27192,7 +27213,7 @@
       <c r="AB693" s="4"/>
       <c r="AC693" s="4"/>
     </row>
-    <row r="694" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -27223,7 +27244,7 @@
       <c r="AB694" s="4"/>
       <c r="AC694" s="4"/>
     </row>
-    <row r="695" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -27254,7 +27275,7 @@
       <c r="AB695" s="4"/>
       <c r="AC695" s="4"/>
     </row>
-    <row r="696" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -27285,7 +27306,7 @@
       <c r="AB696" s="4"/>
       <c r="AC696" s="4"/>
     </row>
-    <row r="697" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -27316,7 +27337,7 @@
       <c r="AB697" s="4"/>
       <c r="AC697" s="4"/>
     </row>
-    <row r="698" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -27347,7 +27368,7 @@
       <c r="AB698" s="4"/>
       <c r="AC698" s="4"/>
     </row>
-    <row r="699" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -27378,7 +27399,7 @@
       <c r="AB699" s="4"/>
       <c r="AC699" s="4"/>
     </row>
-    <row r="700" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -27409,7 +27430,7 @@
       <c r="AB700" s="4"/>
       <c r="AC700" s="4"/>
     </row>
-    <row r="701" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -27440,7 +27461,7 @@
       <c r="AB701" s="4"/>
       <c r="AC701" s="4"/>
     </row>
-    <row r="702" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -27471,7 +27492,7 @@
       <c r="AB702" s="4"/>
       <c r="AC702" s="4"/>
     </row>
-    <row r="703" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -27502,7 +27523,7 @@
       <c r="AB703" s="4"/>
       <c r="AC703" s="4"/>
     </row>
-    <row r="704" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -27533,7 +27554,7 @@
       <c r="AB704" s="4"/>
       <c r="AC704" s="4"/>
     </row>
-    <row r="705" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -27564,7 +27585,7 @@
       <c r="AB705" s="4"/>
       <c r="AC705" s="4"/>
     </row>
-    <row r="706" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -27595,7 +27616,7 @@
       <c r="AB706" s="4"/>
       <c r="AC706" s="4"/>
     </row>
-    <row r="707" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -27626,7 +27647,7 @@
       <c r="AB707" s="4"/>
       <c r="AC707" s="4"/>
     </row>
-    <row r="708" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -27657,7 +27678,7 @@
       <c r="AB708" s="4"/>
       <c r="AC708" s="4"/>
     </row>
-    <row r="709" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -27688,7 +27709,7 @@
       <c r="AB709" s="4"/>
       <c r="AC709" s="4"/>
     </row>
-    <row r="710" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -27719,7 +27740,7 @@
       <c r="AB710" s="4"/>
       <c r="AC710" s="4"/>
     </row>
-    <row r="711" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -27750,7 +27771,7 @@
       <c r="AB711" s="4"/>
       <c r="AC711" s="4"/>
     </row>
-    <row r="712" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -27781,7 +27802,7 @@
       <c r="AB712" s="4"/>
       <c r="AC712" s="4"/>
     </row>
-    <row r="713" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -27812,7 +27833,7 @@
       <c r="AB713" s="4"/>
       <c r="AC713" s="4"/>
     </row>
-    <row r="714" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -27843,7 +27864,7 @@
       <c r="AB714" s="4"/>
       <c r="AC714" s="4"/>
     </row>
-    <row r="715" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -27874,7 +27895,7 @@
       <c r="AB715" s="4"/>
       <c r="AC715" s="4"/>
     </row>
-    <row r="716" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -27905,7 +27926,7 @@
       <c r="AB716" s="4"/>
       <c r="AC716" s="4"/>
     </row>
-    <row r="717" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -27936,7 +27957,7 @@
       <c r="AB717" s="4"/>
       <c r="AC717" s="4"/>
     </row>
-    <row r="718" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -27967,7 +27988,7 @@
       <c r="AB718" s="4"/>
       <c r="AC718" s="4"/>
     </row>
-    <row r="719" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -27998,7 +28019,7 @@
       <c r="AB719" s="4"/>
       <c r="AC719" s="4"/>
     </row>
-    <row r="720" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -28029,7 +28050,7 @@
       <c r="AB720" s="4"/>
       <c r="AC720" s="4"/>
     </row>
-    <row r="721" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -28060,7 +28081,7 @@
       <c r="AB721" s="4"/>
       <c r="AC721" s="4"/>
     </row>
-    <row r="722" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -28091,7 +28112,7 @@
       <c r="AB722" s="4"/>
       <c r="AC722" s="4"/>
     </row>
-    <row r="723" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -28122,7 +28143,7 @@
       <c r="AB723" s="4"/>
       <c r="AC723" s="4"/>
     </row>
-    <row r="724" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -28153,7 +28174,7 @@
       <c r="AB724" s="4"/>
       <c r="AC724" s="4"/>
     </row>
-    <row r="725" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -28184,7 +28205,7 @@
       <c r="AB725" s="4"/>
       <c r="AC725" s="4"/>
     </row>
-    <row r="726" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -28215,7 +28236,7 @@
       <c r="AB726" s="4"/>
       <c r="AC726" s="4"/>
     </row>
-    <row r="727" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -28246,7 +28267,7 @@
       <c r="AB727" s="4"/>
       <c r="AC727" s="4"/>
     </row>
-    <row r="728" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -28277,7 +28298,7 @@
       <c r="AB728" s="4"/>
       <c r="AC728" s="4"/>
     </row>
-    <row r="729" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -28308,7 +28329,7 @@
       <c r="AB729" s="4"/>
       <c r="AC729" s="4"/>
     </row>
-    <row r="730" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -28339,7 +28360,7 @@
       <c r="AB730" s="4"/>
       <c r="AC730" s="4"/>
     </row>
-    <row r="731" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -28370,7 +28391,7 @@
       <c r="AB731" s="4"/>
       <c r="AC731" s="4"/>
     </row>
-    <row r="732" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -28401,7 +28422,7 @@
       <c r="AB732" s="4"/>
       <c r="AC732" s="4"/>
     </row>
-    <row r="733" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -28432,7 +28453,7 @@
       <c r="AB733" s="4"/>
       <c r="AC733" s="4"/>
     </row>
-    <row r="734" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -28463,7 +28484,7 @@
       <c r="AB734" s="4"/>
       <c r="AC734" s="4"/>
     </row>
-    <row r="735" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -28494,7 +28515,7 @@
       <c r="AB735" s="4"/>
       <c r="AC735" s="4"/>
     </row>
-    <row r="736" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -28525,7 +28546,7 @@
       <c r="AB736" s="4"/>
       <c r="AC736" s="4"/>
     </row>
-    <row r="737" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -28556,7 +28577,7 @@
       <c r="AB737" s="4"/>
       <c r="AC737" s="4"/>
     </row>
-    <row r="738" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -28587,7 +28608,7 @@
       <c r="AB738" s="4"/>
       <c r="AC738" s="4"/>
     </row>
-    <row r="739" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -28618,7 +28639,7 @@
       <c r="AB739" s="4"/>
       <c r="AC739" s="4"/>
     </row>
-    <row r="740" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -28649,7 +28670,7 @@
       <c r="AB740" s="4"/>
       <c r="AC740" s="4"/>
     </row>
-    <row r="741" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -28680,7 +28701,7 @@
       <c r="AB741" s="4"/>
       <c r="AC741" s="4"/>
     </row>
-    <row r="742" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -28711,7 +28732,7 @@
       <c r="AB742" s="4"/>
       <c r="AC742" s="4"/>
     </row>
-    <row r="743" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -28742,7 +28763,7 @@
       <c r="AB743" s="4"/>
       <c r="AC743" s="4"/>
     </row>
-    <row r="744" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -28773,7 +28794,7 @@
       <c r="AB744" s="4"/>
       <c r="AC744" s="4"/>
     </row>
-    <row r="745" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -28804,7 +28825,7 @@
       <c r="AB745" s="4"/>
       <c r="AC745" s="4"/>
     </row>
-    <row r="746" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -28835,7 +28856,7 @@
       <c r="AB746" s="4"/>
       <c r="AC746" s="4"/>
     </row>
-    <row r="747" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -28866,7 +28887,7 @@
       <c r="AB747" s="4"/>
       <c r="AC747" s="4"/>
     </row>
-    <row r="748" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -28897,7 +28918,7 @@
       <c r="AB748" s="4"/>
       <c r="AC748" s="4"/>
     </row>
-    <row r="749" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -28928,7 +28949,7 @@
       <c r="AB749" s="4"/>
       <c r="AC749" s="4"/>
     </row>
-    <row r="750" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -28959,7 +28980,7 @@
       <c r="AB750" s="4"/>
       <c r="AC750" s="4"/>
     </row>
-    <row r="751" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -28990,7 +29011,7 @@
       <c r="AB751" s="4"/>
       <c r="AC751" s="4"/>
     </row>
-    <row r="752" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -29021,7 +29042,7 @@
       <c r="AB752" s="4"/>
       <c r="AC752" s="4"/>
     </row>
-    <row r="753" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -29052,7 +29073,7 @@
       <c r="AB753" s="4"/>
       <c r="AC753" s="4"/>
     </row>
-    <row r="754" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -29083,7 +29104,7 @@
       <c r="AB754" s="4"/>
       <c r="AC754" s="4"/>
     </row>
-    <row r="755" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -29114,7 +29135,7 @@
       <c r="AB755" s="4"/>
       <c r="AC755" s="4"/>
     </row>
-    <row r="756" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -29145,7 +29166,7 @@
       <c r="AB756" s="4"/>
       <c r="AC756" s="4"/>
     </row>
-    <row r="757" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -29176,7 +29197,7 @@
       <c r="AB757" s="4"/>
       <c r="AC757" s="4"/>
     </row>
-    <row r="758" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -29207,7 +29228,7 @@
       <c r="AB758" s="4"/>
       <c r="AC758" s="4"/>
     </row>
-    <row r="759" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -29238,7 +29259,7 @@
       <c r="AB759" s="4"/>
       <c r="AC759" s="4"/>
     </row>
-    <row r="760" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -29269,7 +29290,7 @@
       <c r="AB760" s="4"/>
       <c r="AC760" s="4"/>
     </row>
-    <row r="761" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -29300,7 +29321,7 @@
       <c r="AB761" s="4"/>
       <c r="AC761" s="4"/>
     </row>
-    <row r="762" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -29331,7 +29352,7 @@
       <c r="AB762" s="4"/>
       <c r="AC762" s="4"/>
     </row>
-    <row r="763" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -29362,7 +29383,7 @@
       <c r="AB763" s="4"/>
       <c r="AC763" s="4"/>
     </row>
-    <row r="764" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -29393,7 +29414,7 @@
       <c r="AB764" s="4"/>
       <c r="AC764" s="4"/>
     </row>
-    <row r="765" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -29424,7 +29445,7 @@
       <c r="AB765" s="4"/>
       <c r="AC765" s="4"/>
     </row>
-    <row r="766" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -29455,7 +29476,7 @@
       <c r="AB766" s="4"/>
       <c r="AC766" s="4"/>
     </row>
-    <row r="767" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -29486,7 +29507,7 @@
       <c r="AB767" s="4"/>
       <c r="AC767" s="4"/>
     </row>
-    <row r="768" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -29517,7 +29538,7 @@
       <c r="AB768" s="4"/>
       <c r="AC768" s="4"/>
     </row>
-    <row r="769" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -29548,7 +29569,7 @@
       <c r="AB769" s="4"/>
       <c r="AC769" s="4"/>
     </row>
-    <row r="770" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -29579,7 +29600,7 @@
       <c r="AB770" s="4"/>
       <c r="AC770" s="4"/>
     </row>
-    <row r="771" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -29610,7 +29631,7 @@
       <c r="AB771" s="4"/>
       <c r="AC771" s="4"/>
     </row>
-    <row r="772" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -29641,7 +29662,7 @@
       <c r="AB772" s="4"/>
       <c r="AC772" s="4"/>
     </row>
-    <row r="773" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -29672,7 +29693,7 @@
       <c r="AB773" s="4"/>
       <c r="AC773" s="4"/>
     </row>
-    <row r="774" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -29703,7 +29724,7 @@
       <c r="AB774" s="4"/>
       <c r="AC774" s="4"/>
     </row>
-    <row r="775" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -29734,7 +29755,7 @@
       <c r="AB775" s="4"/>
       <c r="AC775" s="4"/>
     </row>
-    <row r="776" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -29765,7 +29786,7 @@
       <c r="AB776" s="4"/>
       <c r="AC776" s="4"/>
     </row>
-    <row r="777" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -29796,7 +29817,7 @@
       <c r="AB777" s="4"/>
       <c r="AC777" s="4"/>
     </row>
-    <row r="778" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -29827,7 +29848,7 @@
       <c r="AB778" s="4"/>
       <c r="AC778" s="4"/>
     </row>
-    <row r="779" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -29858,7 +29879,7 @@
       <c r="AB779" s="4"/>
       <c r="AC779" s="4"/>
     </row>
-    <row r="780" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -29889,7 +29910,7 @@
       <c r="AB780" s="4"/>
       <c r="AC780" s="4"/>
     </row>
-    <row r="781" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -29920,7 +29941,7 @@
       <c r="AB781" s="4"/>
       <c r="AC781" s="4"/>
     </row>
-    <row r="782" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -29951,7 +29972,7 @@
       <c r="AB782" s="4"/>
       <c r="AC782" s="4"/>
     </row>
-    <row r="783" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -29982,7 +30003,7 @@
       <c r="AB783" s="4"/>
       <c r="AC783" s="4"/>
     </row>
-    <row r="784" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -30013,7 +30034,7 @@
       <c r="AB784" s="4"/>
       <c r="AC784" s="4"/>
     </row>
-    <row r="785" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -30044,7 +30065,7 @@
       <c r="AB785" s="4"/>
       <c r="AC785" s="4"/>
     </row>
-    <row r="786" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -30075,7 +30096,7 @@
       <c r="AB786" s="4"/>
       <c r="AC786" s="4"/>
     </row>
-    <row r="787" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -30106,7 +30127,7 @@
       <c r="AB787" s="4"/>
       <c r="AC787" s="4"/>
     </row>
-    <row r="788" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -30137,7 +30158,7 @@
       <c r="AB788" s="4"/>
       <c r="AC788" s="4"/>
     </row>
-    <row r="789" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -30168,7 +30189,7 @@
       <c r="AB789" s="4"/>
       <c r="AC789" s="4"/>
     </row>
-    <row r="790" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -30199,7 +30220,7 @@
       <c r="AB790" s="4"/>
       <c r="AC790" s="4"/>
     </row>
-    <row r="791" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -30230,7 +30251,7 @@
       <c r="AB791" s="4"/>
       <c r="AC791" s="4"/>
     </row>
-    <row r="792" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -30261,7 +30282,7 @@
       <c r="AB792" s="4"/>
       <c r="AC792" s="4"/>
     </row>
-    <row r="793" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -30292,7 +30313,7 @@
       <c r="AB793" s="4"/>
       <c r="AC793" s="4"/>
     </row>
-    <row r="794" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -30323,7 +30344,7 @@
       <c r="AB794" s="4"/>
       <c r="AC794" s="4"/>
     </row>
-    <row r="795" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -30354,7 +30375,7 @@
       <c r="AB795" s="4"/>
       <c r="AC795" s="4"/>
     </row>
-    <row r="796" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -30385,7 +30406,7 @@
       <c r="AB796" s="4"/>
       <c r="AC796" s="4"/>
     </row>
-    <row r="797" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -30416,7 +30437,7 @@
       <c r="AB797" s="4"/>
       <c r="AC797" s="4"/>
     </row>
-    <row r="798" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -30447,7 +30468,7 @@
       <c r="AB798" s="4"/>
       <c r="AC798" s="4"/>
     </row>
-    <row r="799" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -30478,7 +30499,7 @@
       <c r="AB799" s="4"/>
       <c r="AC799" s="4"/>
     </row>
-    <row r="800" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -30509,7 +30530,7 @@
       <c r="AB800" s="4"/>
       <c r="AC800" s="4"/>
     </row>
-    <row r="801" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -30540,7 +30561,7 @@
       <c r="AB801" s="4"/>
       <c r="AC801" s="4"/>
     </row>
-    <row r="802" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -30571,7 +30592,7 @@
       <c r="AB802" s="4"/>
       <c r="AC802" s="4"/>
     </row>
-    <row r="803" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -30602,7 +30623,7 @@
       <c r="AB803" s="4"/>
       <c r="AC803" s="4"/>
     </row>
-    <row r="804" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -30633,7 +30654,7 @@
       <c r="AB804" s="4"/>
       <c r="AC804" s="4"/>
     </row>
-    <row r="805" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -30664,7 +30685,7 @@
       <c r="AB805" s="4"/>
       <c r="AC805" s="4"/>
     </row>
-    <row r="806" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -30695,7 +30716,7 @@
       <c r="AB806" s="4"/>
       <c r="AC806" s="4"/>
     </row>
-    <row r="807" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -30726,7 +30747,7 @@
       <c r="AB807" s="4"/>
       <c r="AC807" s="4"/>
     </row>
-    <row r="808" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -30757,7 +30778,7 @@
       <c r="AB808" s="4"/>
       <c r="AC808" s="4"/>
     </row>
-    <row r="809" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -30788,7 +30809,7 @@
       <c r="AB809" s="4"/>
       <c r="AC809" s="4"/>
     </row>
-    <row r="810" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -30819,7 +30840,7 @@
       <c r="AB810" s="4"/>
       <c r="AC810" s="4"/>
     </row>
-    <row r="811" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -30850,7 +30871,7 @@
       <c r="AB811" s="4"/>
       <c r="AC811" s="4"/>
     </row>
-    <row r="812" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -30881,7 +30902,7 @@
       <c r="AB812" s="4"/>
       <c r="AC812" s="4"/>
     </row>
-    <row r="813" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -30912,7 +30933,7 @@
       <c r="AB813" s="4"/>
       <c r="AC813" s="4"/>
     </row>
-    <row r="814" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -30943,7 +30964,7 @@
       <c r="AB814" s="4"/>
       <c r="AC814" s="4"/>
     </row>
-    <row r="815" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -30974,7 +30995,7 @@
       <c r="AB815" s="4"/>
       <c r="AC815" s="4"/>
     </row>
-    <row r="816" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -31005,7 +31026,7 @@
       <c r="AB816" s="4"/>
       <c r="AC816" s="4"/>
     </row>
-    <row r="817" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -31036,7 +31057,7 @@
       <c r="AB817" s="4"/>
       <c r="AC817" s="4"/>
     </row>
-    <row r="818" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -31067,7 +31088,7 @@
       <c r="AB818" s="4"/>
       <c r="AC818" s="4"/>
     </row>
-    <row r="819" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -31098,7 +31119,7 @@
       <c r="AB819" s="4"/>
       <c r="AC819" s="4"/>
     </row>
-    <row r="820" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -31129,7 +31150,7 @@
       <c r="AB820" s="4"/>
       <c r="AC820" s="4"/>
     </row>
-    <row r="821" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -31160,7 +31181,7 @@
       <c r="AB821" s="4"/>
       <c r="AC821" s="4"/>
     </row>
-    <row r="822" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -31191,7 +31212,7 @@
       <c r="AB822" s="4"/>
       <c r="AC822" s="4"/>
     </row>
-    <row r="823" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -31222,7 +31243,7 @@
       <c r="AB823" s="4"/>
       <c r="AC823" s="4"/>
     </row>
-    <row r="824" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -31253,7 +31274,7 @@
       <c r="AB824" s="4"/>
       <c r="AC824" s="4"/>
     </row>
-    <row r="825" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -31284,7 +31305,7 @@
       <c r="AB825" s="4"/>
       <c r="AC825" s="4"/>
     </row>
-    <row r="826" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -31315,7 +31336,7 @@
       <c r="AB826" s="4"/>
       <c r="AC826" s="4"/>
     </row>
-    <row r="827" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -31346,7 +31367,7 @@
       <c r="AB827" s="4"/>
       <c r="AC827" s="4"/>
     </row>
-    <row r="828" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -31377,7 +31398,7 @@
       <c r="AB828" s="4"/>
       <c r="AC828" s="4"/>
     </row>
-    <row r="829" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -31408,7 +31429,7 @@
       <c r="AB829" s="4"/>
       <c r="AC829" s="4"/>
     </row>
-    <row r="830" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -31439,7 +31460,7 @@
       <c r="AB830" s="4"/>
       <c r="AC830" s="4"/>
     </row>
-    <row r="831" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -31470,7 +31491,7 @@
       <c r="AB831" s="4"/>
       <c r="AC831" s="4"/>
     </row>
-    <row r="832" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -31501,7 +31522,7 @@
       <c r="AB832" s="4"/>
       <c r="AC832" s="4"/>
     </row>
-    <row r="833" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -31532,7 +31553,7 @@
       <c r="AB833" s="4"/>
       <c r="AC833" s="4"/>
     </row>
-    <row r="834" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -31563,7 +31584,7 @@
       <c r="AB834" s="4"/>
       <c r="AC834" s="4"/>
     </row>
-    <row r="835" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -31594,7 +31615,7 @@
       <c r="AB835" s="4"/>
       <c r="AC835" s="4"/>
     </row>
-    <row r="836" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -31625,7 +31646,7 @@
       <c r="AB836" s="4"/>
       <c r="AC836" s="4"/>
     </row>
-    <row r="837" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -31656,7 +31677,7 @@
       <c r="AB837" s="4"/>
       <c r="AC837" s="4"/>
     </row>
-    <row r="838" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -31687,7 +31708,7 @@
       <c r="AB838" s="4"/>
       <c r="AC838" s="4"/>
     </row>
-    <row r="839" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -31718,7 +31739,7 @@
       <c r="AB839" s="4"/>
       <c r="AC839" s="4"/>
     </row>
-    <row r="840" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -31749,7 +31770,7 @@
       <c r="AB840" s="4"/>
       <c r="AC840" s="4"/>
     </row>
-    <row r="841" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -31780,7 +31801,7 @@
       <c r="AB841" s="4"/>
       <c r="AC841" s="4"/>
     </row>
-    <row r="842" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -31811,7 +31832,7 @@
       <c r="AB842" s="4"/>
       <c r="AC842" s="4"/>
     </row>
-    <row r="843" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -31842,7 +31863,7 @@
       <c r="AB843" s="4"/>
       <c r="AC843" s="4"/>
     </row>
-    <row r="844" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -31873,7 +31894,7 @@
       <c r="AB844" s="4"/>
       <c r="AC844" s="4"/>
     </row>
-    <row r="845" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -31904,7 +31925,7 @@
       <c r="AB845" s="4"/>
       <c r="AC845" s="4"/>
     </row>
-    <row r="846" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -31935,7 +31956,7 @@
       <c r="AB846" s="4"/>
       <c r="AC846" s="4"/>
     </row>
-    <row r="847" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -31966,7 +31987,7 @@
       <c r="AB847" s="4"/>
       <c r="AC847" s="4"/>
     </row>
-    <row r="848" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -31997,7 +32018,7 @@
       <c r="AB848" s="4"/>
       <c r="AC848" s="4"/>
     </row>
-    <row r="849" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -32028,7 +32049,7 @@
       <c r="AB849" s="4"/>
       <c r="AC849" s="4"/>
     </row>
-    <row r="850" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -32059,7 +32080,7 @@
       <c r="AB850" s="4"/>
       <c r="AC850" s="4"/>
     </row>
-    <row r="851" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -32090,7 +32111,7 @@
       <c r="AB851" s="4"/>
       <c r="AC851" s="4"/>
     </row>
-    <row r="852" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -32121,7 +32142,7 @@
       <c r="AB852" s="4"/>
       <c r="AC852" s="4"/>
     </row>
-    <row r="853" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -32152,7 +32173,7 @@
       <c r="AB853" s="4"/>
       <c r="AC853" s="4"/>
     </row>
-    <row r="854" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -32183,7 +32204,7 @@
       <c r="AB854" s="4"/>
       <c r="AC854" s="4"/>
     </row>
-    <row r="855" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -32214,7 +32235,7 @@
       <c r="AB855" s="4"/>
       <c r="AC855" s="4"/>
     </row>
-    <row r="856" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -32245,7 +32266,7 @@
       <c r="AB856" s="4"/>
       <c r="AC856" s="4"/>
     </row>
-    <row r="857" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -32276,7 +32297,7 @@
       <c r="AB857" s="4"/>
       <c r="AC857" s="4"/>
     </row>
-    <row r="858" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -32307,7 +32328,7 @@
       <c r="AB858" s="4"/>
       <c r="AC858" s="4"/>
     </row>
-    <row r="859" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -32338,7 +32359,7 @@
       <c r="AB859" s="4"/>
       <c r="AC859" s="4"/>
     </row>
-    <row r="860" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -32369,7 +32390,7 @@
       <c r="AB860" s="4"/>
       <c r="AC860" s="4"/>
     </row>
-    <row r="861" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -32400,7 +32421,7 @@
       <c r="AB861" s="4"/>
       <c r="AC861" s="4"/>
     </row>
-    <row r="862" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -32431,7 +32452,7 @@
       <c r="AB862" s="4"/>
       <c r="AC862" s="4"/>
     </row>
-    <row r="863" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -32462,7 +32483,7 @@
       <c r="AB863" s="4"/>
       <c r="AC863" s="4"/>
     </row>
-    <row r="864" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -32493,7 +32514,7 @@
       <c r="AB864" s="4"/>
       <c r="AC864" s="4"/>
     </row>
-    <row r="865" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -32524,7 +32545,7 @@
       <c r="AB865" s="4"/>
       <c r="AC865" s="4"/>
     </row>
-    <row r="866" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -32555,7 +32576,7 @@
       <c r="AB866" s="4"/>
       <c r="AC866" s="4"/>
     </row>
-    <row r="867" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -32586,7 +32607,7 @@
       <c r="AB867" s="4"/>
       <c r="AC867" s="4"/>
     </row>
-    <row r="868" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -32617,7 +32638,7 @@
       <c r="AB868" s="4"/>
       <c r="AC868" s="4"/>
     </row>
-    <row r="869" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -32648,7 +32669,7 @@
       <c r="AB869" s="4"/>
       <c r="AC869" s="4"/>
     </row>
-    <row r="870" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -32679,7 +32700,7 @@
       <c r="AB870" s="4"/>
       <c r="AC870" s="4"/>
     </row>
-    <row r="871" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -32710,7 +32731,7 @@
       <c r="AB871" s="4"/>
       <c r="AC871" s="4"/>
     </row>
-    <row r="872" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -32741,7 +32762,7 @@
       <c r="AB872" s="4"/>
       <c r="AC872" s="4"/>
     </row>
-    <row r="873" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -32772,7 +32793,7 @@
       <c r="AB873" s="4"/>
       <c r="AC873" s="4"/>
     </row>
-    <row r="874" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -32803,7 +32824,7 @@
       <c r="AB874" s="4"/>
       <c r="AC874" s="4"/>
     </row>
-    <row r="875" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -32834,7 +32855,7 @@
       <c r="AB875" s="4"/>
       <c r="AC875" s="4"/>
     </row>
-    <row r="876" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -32865,7 +32886,7 @@
       <c r="AB876" s="4"/>
       <c r="AC876" s="4"/>
     </row>
-    <row r="877" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -32896,7 +32917,7 @@
       <c r="AB877" s="4"/>
       <c r="AC877" s="4"/>
     </row>
-    <row r="878" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -32927,7 +32948,7 @@
       <c r="AB878" s="4"/>
       <c r="AC878" s="4"/>
     </row>
-    <row r="879" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -32958,7 +32979,7 @@
       <c r="AB879" s="4"/>
       <c r="AC879" s="4"/>
     </row>
-    <row r="880" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -32989,7 +33010,7 @@
       <c r="AB880" s="4"/>
       <c r="AC880" s="4"/>
     </row>
-    <row r="881" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -33020,7 +33041,7 @@
       <c r="AB881" s="4"/>
       <c r="AC881" s="4"/>
     </row>
-    <row r="882" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -33051,7 +33072,7 @@
       <c r="AB882" s="4"/>
       <c r="AC882" s="4"/>
     </row>
-    <row r="883" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -33082,7 +33103,7 @@
       <c r="AB883" s="4"/>
       <c r="AC883" s="4"/>
     </row>
-    <row r="884" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -33113,7 +33134,7 @@
       <c r="AB884" s="4"/>
       <c r="AC884" s="4"/>
     </row>
-    <row r="885" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -33144,7 +33165,7 @@
       <c r="AB885" s="4"/>
       <c r="AC885" s="4"/>
     </row>
-    <row r="886" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -33175,7 +33196,7 @@
       <c r="AB886" s="4"/>
       <c r="AC886" s="4"/>
     </row>
-    <row r="887" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -33206,7 +33227,7 @@
       <c r="AB887" s="4"/>
       <c r="AC887" s="4"/>
     </row>
-    <row r="888" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -33237,7 +33258,7 @@
       <c r="AB888" s="4"/>
       <c r="AC888" s="4"/>
     </row>
-    <row r="889" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -33268,7 +33289,7 @@
       <c r="AB889" s="4"/>
       <c r="AC889" s="4"/>
     </row>
-    <row r="890" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -33299,7 +33320,7 @@
       <c r="AB890" s="4"/>
       <c r="AC890" s="4"/>
     </row>
-    <row r="891" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -33330,7 +33351,7 @@
       <c r="AB891" s="4"/>
       <c r="AC891" s="4"/>
     </row>
-    <row r="892" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -33361,7 +33382,7 @@
       <c r="AB892" s="4"/>
       <c r="AC892" s="4"/>
     </row>
-    <row r="893" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -33392,7 +33413,7 @@
       <c r="AB893" s="4"/>
       <c r="AC893" s="4"/>
     </row>
-    <row r="894" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -33423,7 +33444,7 @@
       <c r="AB894" s="4"/>
       <c r="AC894" s="4"/>
     </row>
-    <row r="895" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -33454,7 +33475,7 @@
       <c r="AB895" s="4"/>
       <c r="AC895" s="4"/>
     </row>
-    <row r="896" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -33485,7 +33506,7 @@
       <c r="AB896" s="4"/>
       <c r="AC896" s="4"/>
     </row>
-    <row r="897" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -33516,7 +33537,7 @@
       <c r="AB897" s="4"/>
       <c r="AC897" s="4"/>
     </row>
-    <row r="898" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -33547,7 +33568,7 @@
       <c r="AB898" s="4"/>
       <c r="AC898" s="4"/>
     </row>
-    <row r="899" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -33578,7 +33599,7 @@
       <c r="AB899" s="4"/>
       <c r="AC899" s="4"/>
     </row>
-    <row r="900" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -33609,7 +33630,7 @@
       <c r="AB900" s="4"/>
       <c r="AC900" s="4"/>
     </row>
-    <row r="901" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -33640,7 +33661,7 @@
       <c r="AB901" s="4"/>
       <c r="AC901" s="4"/>
     </row>
-    <row r="902" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -33671,7 +33692,7 @@
       <c r="AB902" s="4"/>
       <c r="AC902" s="4"/>
     </row>
-    <row r="903" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -33702,7 +33723,7 @@
       <c r="AB903" s="4"/>
       <c r="AC903" s="4"/>
     </row>
-    <row r="904" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -33733,7 +33754,7 @@
       <c r="AB904" s="4"/>
       <c r="AC904" s="4"/>
     </row>
-    <row r="905" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -33764,7 +33785,7 @@
       <c r="AB905" s="4"/>
       <c r="AC905" s="4"/>
     </row>
-    <row r="906" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -33795,7 +33816,7 @@
       <c r="AB906" s="4"/>
       <c r="AC906" s="4"/>
     </row>
-    <row r="907" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -33826,7 +33847,7 @@
       <c r="AB907" s="4"/>
       <c r="AC907" s="4"/>
     </row>
-    <row r="908" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -33857,7 +33878,7 @@
       <c r="AB908" s="4"/>
       <c r="AC908" s="4"/>
     </row>
-    <row r="909" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -33888,7 +33909,7 @@
       <c r="AB909" s="4"/>
       <c r="AC909" s="4"/>
     </row>
-    <row r="910" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -33919,7 +33940,7 @@
       <c r="AB910" s="4"/>
       <c r="AC910" s="4"/>
     </row>
-    <row r="911" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -33950,7 +33971,7 @@
       <c r="AB911" s="4"/>
       <c r="AC911" s="4"/>
     </row>
-    <row r="912" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -33981,7 +34002,7 @@
       <c r="AB912" s="4"/>
       <c r="AC912" s="4"/>
     </row>
-    <row r="913" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -34012,7 +34033,7 @@
       <c r="AB913" s="4"/>
       <c r="AC913" s="4"/>
     </row>
-    <row r="914" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -34043,7 +34064,7 @@
       <c r="AB914" s="4"/>
       <c r="AC914" s="4"/>
     </row>
-    <row r="915" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -34074,7 +34095,7 @@
       <c r="AB915" s="4"/>
       <c r="AC915" s="4"/>
     </row>
-    <row r="916" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -34105,7 +34126,7 @@
       <c r="AB916" s="4"/>
       <c r="AC916" s="4"/>
     </row>
-    <row r="917" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -34136,7 +34157,7 @@
       <c r="AB917" s="4"/>
       <c r="AC917" s="4"/>
     </row>
-    <row r="918" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -34167,7 +34188,7 @@
       <c r="AB918" s="4"/>
       <c r="AC918" s="4"/>
     </row>
-    <row r="919" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -34198,7 +34219,7 @@
       <c r="AB919" s="4"/>
       <c r="AC919" s="4"/>
     </row>
-    <row r="920" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -34229,7 +34250,7 @@
       <c r="AB920" s="4"/>
       <c r="AC920" s="4"/>
     </row>
-    <row r="921" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -34260,7 +34281,7 @@
       <c r="AB921" s="4"/>
       <c r="AC921" s="4"/>
     </row>
-    <row r="922" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -34291,7 +34312,7 @@
       <c r="AB922" s="4"/>
       <c r="AC922" s="4"/>
     </row>
-    <row r="923" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -34322,7 +34343,7 @@
       <c r="AB923" s="4"/>
       <c r="AC923" s="4"/>
     </row>
-    <row r="924" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -34353,7 +34374,7 @@
       <c r="AB924" s="4"/>
       <c r="AC924" s="4"/>
     </row>
-    <row r="925" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -34384,7 +34405,7 @@
       <c r="AB925" s="4"/>
       <c r="AC925" s="4"/>
     </row>
-    <row r="926" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -34415,7 +34436,7 @@
       <c r="AB926" s="4"/>
       <c r="AC926" s="4"/>
     </row>
-    <row r="927" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -34446,7 +34467,7 @@
       <c r="AB927" s="4"/>
       <c r="AC927" s="4"/>
     </row>
-    <row r="928" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -34477,7 +34498,7 @@
       <c r="AB928" s="4"/>
       <c r="AC928" s="4"/>
     </row>
-    <row r="929" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -34508,7 +34529,7 @@
       <c r="AB929" s="4"/>
       <c r="AC929" s="4"/>
     </row>
-    <row r="930" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -34539,7 +34560,7 @@
       <c r="AB930" s="4"/>
       <c r="AC930" s="4"/>
     </row>
-    <row r="931" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -34570,7 +34591,7 @@
       <c r="AB931" s="4"/>
       <c r="AC931" s="4"/>
     </row>
-    <row r="932" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -34601,7 +34622,7 @@
       <c r="AB932" s="4"/>
       <c r="AC932" s="4"/>
     </row>
-    <row r="933" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -34632,7 +34653,7 @@
       <c r="AB933" s="4"/>
       <c r="AC933" s="4"/>
     </row>
-    <row r="934" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -34663,7 +34684,7 @@
       <c r="AB934" s="4"/>
       <c r="AC934" s="4"/>
     </row>
-    <row r="935" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -34694,7 +34715,7 @@
       <c r="AB935" s="4"/>
       <c r="AC935" s="4"/>
     </row>
-    <row r="936" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -34725,7 +34746,7 @@
       <c r="AB936" s="4"/>
       <c r="AC936" s="4"/>
     </row>
-    <row r="937" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -34756,7 +34777,7 @@
       <c r="AB937" s="4"/>
       <c r="AC937" s="4"/>
     </row>
-    <row r="938" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -34787,7 +34808,7 @@
       <c r="AB938" s="4"/>
       <c r="AC938" s="4"/>
     </row>
-    <row r="939" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -34818,7 +34839,7 @@
       <c r="AB939" s="4"/>
       <c r="AC939" s="4"/>
     </row>
-    <row r="940" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -34849,7 +34870,7 @@
       <c r="AB940" s="4"/>
       <c r="AC940" s="4"/>
     </row>
-    <row r="941" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -34880,7 +34901,7 @@
       <c r="AB941" s="4"/>
       <c r="AC941" s="4"/>
     </row>
-    <row r="942" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -34911,7 +34932,7 @@
       <c r="AB942" s="4"/>
       <c r="AC942" s="4"/>
     </row>
-    <row r="943" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -34942,7 +34963,7 @@
       <c r="AB943" s="4"/>
       <c r="AC943" s="4"/>
     </row>
-    <row r="944" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -34973,7 +34994,7 @@
       <c r="AB944" s="4"/>
       <c r="AC944" s="4"/>
     </row>
-    <row r="945" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -35004,7 +35025,7 @@
       <c r="AB945" s="4"/>
       <c r="AC945" s="4"/>
     </row>
-    <row r="946" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -35035,7 +35056,7 @@
       <c r="AB946" s="4"/>
       <c r="AC946" s="4"/>
     </row>
-    <row r="947" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -35066,7 +35087,7 @@
       <c r="AB947" s="4"/>
       <c r="AC947" s="4"/>
     </row>
-    <row r="948" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -35097,7 +35118,7 @@
       <c r="AB948" s="4"/>
       <c r="AC948" s="4"/>
     </row>
-    <row r="949" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -35128,7 +35149,7 @@
       <c r="AB949" s="4"/>
       <c r="AC949" s="4"/>
     </row>
-    <row r="950" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -35159,7 +35180,7 @@
       <c r="AB950" s="4"/>
       <c r="AC950" s="4"/>
     </row>
-    <row r="951" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -35190,7 +35211,7 @@
       <c r="AB951" s="4"/>
       <c r="AC951" s="4"/>
     </row>
-    <row r="952" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -35221,7 +35242,7 @@
       <c r="AB952" s="4"/>
       <c r="AC952" s="4"/>
     </row>
-    <row r="953" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -35252,7 +35273,7 @@
       <c r="AB953" s="4"/>
       <c r="AC953" s="4"/>
     </row>
-    <row r="954" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -35283,7 +35304,7 @@
       <c r="AB954" s="4"/>
       <c r="AC954" s="4"/>
     </row>
-    <row r="955" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -35314,7 +35335,7 @@
       <c r="AB955" s="4"/>
       <c r="AC955" s="4"/>
     </row>
-    <row r="956" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -35345,7 +35366,7 @@
       <c r="AB956" s="4"/>
       <c r="AC956" s="4"/>
     </row>
-    <row r="957" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -35376,7 +35397,7 @@
       <c r="AB957" s="4"/>
       <c r="AC957" s="4"/>
     </row>
-    <row r="958" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -35407,7 +35428,7 @@
       <c r="AB958" s="4"/>
       <c r="AC958" s="4"/>
     </row>
-    <row r="959" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -35438,7 +35459,7 @@
       <c r="AB959" s="4"/>
       <c r="AC959" s="4"/>
     </row>
-    <row r="960" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -35469,7 +35490,7 @@
       <c r="AB960" s="4"/>
       <c r="AC960" s="4"/>
     </row>
-    <row r="961" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -35500,7 +35521,7 @@
       <c r="AB961" s="4"/>
       <c r="AC961" s="4"/>
     </row>
-    <row r="962" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -35531,7 +35552,7 @@
       <c r="AB962" s="4"/>
       <c r="AC962" s="4"/>
     </row>
-    <row r="963" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -35562,7 +35583,7 @@
       <c r="AB963" s="4"/>
       <c r="AC963" s="4"/>
     </row>
-    <row r="964" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -35593,7 +35614,7 @@
       <c r="AB964" s="4"/>
       <c r="AC964" s="4"/>
     </row>
-    <row r="965" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -35624,7 +35645,7 @@
       <c r="AB965" s="4"/>
       <c r="AC965" s="4"/>
     </row>
-    <row r="966" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -35655,7 +35676,7 @@
       <c r="AB966" s="4"/>
       <c r="AC966" s="4"/>
     </row>
-    <row r="967" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -35686,7 +35707,7 @@
       <c r="AB967" s="4"/>
       <c r="AC967" s="4"/>
     </row>
-    <row r="968" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -35717,7 +35738,7 @@
       <c r="AB968" s="4"/>
       <c r="AC968" s="4"/>
     </row>
-    <row r="969" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -35748,7 +35769,7 @@
       <c r="AB969" s="4"/>
       <c r="AC969" s="4"/>
     </row>
-    <row r="970" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -35779,7 +35800,7 @@
       <c r="AB970" s="4"/>
       <c r="AC970" s="4"/>
     </row>
-    <row r="971" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -35810,7 +35831,7 @@
       <c r="AB971" s="4"/>
       <c r="AC971" s="4"/>
     </row>
-    <row r="972" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -35841,7 +35862,7 @@
       <c r="AB972" s="4"/>
       <c r="AC972" s="4"/>
     </row>
-    <row r="973" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -35872,7 +35893,7 @@
       <c r="AB973" s="4"/>
       <c r="AC973" s="4"/>
     </row>
-    <row r="974" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -35903,7 +35924,7 @@
       <c r="AB974" s="4"/>
       <c r="AC974" s="4"/>
     </row>
-    <row r="975" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -35934,7 +35955,7 @@
       <c r="AB975" s="4"/>
       <c r="AC975" s="4"/>
     </row>
-    <row r="976" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -35965,7 +35986,7 @@
       <c r="AB976" s="4"/>
       <c r="AC976" s="4"/>
     </row>
-    <row r="977" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -35996,7 +36017,7 @@
       <c r="AB977" s="4"/>
       <c r="AC977" s="4"/>
     </row>
-    <row r="978" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -36027,7 +36048,7 @@
       <c r="AB978" s="4"/>
       <c r="AC978" s="4"/>
     </row>
-    <row r="979" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -36058,7 +36079,7 @@
       <c r="AB979" s="4"/>
       <c r="AC979" s="4"/>
     </row>
-    <row r="980" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -36089,7 +36110,7 @@
       <c r="AB980" s="4"/>
       <c r="AC980" s="4"/>
     </row>
-    <row r="981" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -36120,7 +36141,7 @@
       <c r="AB981" s="4"/>
       <c r="AC981" s="4"/>
     </row>
-    <row r="982" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -36151,7 +36172,7 @@
       <c r="AB982" s="4"/>
       <c r="AC982" s="4"/>
     </row>
-    <row r="983" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -36182,7 +36203,7 @@
       <c r="AB983" s="4"/>
       <c r="AC983" s="4"/>
     </row>
-    <row r="984" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -36213,7 +36234,7 @@
       <c r="AB984" s="4"/>
       <c r="AC984" s="4"/>
     </row>
-    <row r="985" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -36244,7 +36265,7 @@
       <c r="AB985" s="4"/>
       <c r="AC985" s="4"/>
     </row>
-    <row r="986" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -36275,7 +36296,7 @@
       <c r="AB986" s="4"/>
       <c r="AC986" s="4"/>
     </row>
-    <row r="987" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -36306,7 +36327,7 @@
       <c r="AB987" s="4"/>
       <c r="AC987" s="4"/>
     </row>
-    <row r="988" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -36337,7 +36358,7 @@
       <c r="AB988" s="4"/>
       <c r="AC988" s="4"/>
     </row>
-    <row r="989" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -36368,7 +36389,7 @@
       <c r="AB989" s="4"/>
       <c r="AC989" s="4"/>
     </row>
-    <row r="990" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -36399,7 +36420,7 @@
       <c r="AB990" s="4"/>
       <c r="AC990" s="4"/>
     </row>
-    <row r="991" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -36430,7 +36451,7 @@
       <c r="AB991" s="4"/>
       <c r="AC991" s="4"/>
     </row>
-    <row r="992" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -36461,7 +36482,7 @@
       <c r="AB992" s="4"/>
       <c r="AC992" s="4"/>
     </row>
-    <row r="993" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -36492,7 +36513,7 @@
       <c r="AB993" s="4"/>
       <c r="AC993" s="4"/>
     </row>
-    <row r="994" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -36523,7 +36544,7 @@
       <c r="AB994" s="4"/>
       <c r="AC994" s="4"/>
     </row>
-    <row r="995" spans="1:29" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -36554,20 +36575,39 @@
       <c r="AB995" s="4"/>
       <c r="AC995" s="4"/>
     </row>
+    <row r="996" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+      <c r="A996" s="4"/>
+      <c r="B996" s="4"/>
+      <c r="C996" s="4"/>
+      <c r="D996" s="4"/>
+      <c r="E996" s="4"/>
+      <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
+      <c r="H996" s="4"/>
+      <c r="I996" s="4"/>
+      <c r="J996" s="4"/>
+      <c r="K996" s="4"/>
+      <c r="L996" s="4"/>
+      <c r="M996" s="4"/>
+      <c r="N996" s="4"/>
+      <c r="O996" s="4"/>
+      <c r="P996" s="4"/>
+      <c r="Q996" s="4"/>
+      <c r="R996" s="4"/>
+      <c r="S996" s="4"/>
+      <c r="T996" s="4"/>
+      <c r="U996" s="4"/>
+      <c r="V996" s="4"/>
+      <c r="W996" s="4"/>
+      <c r="X996" s="4"/>
+      <c r="Y996" s="4"/>
+      <c r="Z996" s="4"/>
+      <c r="AA996" s="4"/>
+      <c r="AB996" s="4"/>
+      <c r="AC996" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC995" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="C"/>
-        <filter val="T"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC996" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B175:D175">
     <cfRule type="expression" dxfId="18" priority="5">
       <formula>$K171="Maybe - needs discussion"</formula>
@@ -36583,12 +36623,12 @@
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J188:J198 J200:J227 E227:G227 E226 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 D12:D14 D23:D24 D26:D27 D29 D31 D41:D43 D45:D51 D58:D59 D61:D66 I227 E188:G225 E168:G172 D68:D76 D2:D9 I188:I225 I168:I172 J168:J185 E174:G186 B168:D227 B229:G234 I174:I185 D110:D112 I186:J186 I229:J234">
+  <conditionalFormatting sqref="J188:J198 J200:J228 E228:G228 E226:E227 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 D12:D14 D23:D24 D26:D27 D29 D31 D41:D43 D45:D51 D58:D59 D61:D66 I228 E188:G225 E168:G172 D68:D76 D2:D9 I188:I225 I168:I172 J168:J185 E174:G186 B168:D228 B230:G235 I174:I185 D110:D112 I186:J186 I230:J235">
     <cfRule type="expression" dxfId="15" priority="8">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J188:J198 J200:J227 E227:G227 E226 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 I227 I188:I225 B158:D227 B6:G76 G83 G86 G115:G116 E168:G186 E188:G225 B110:D112 H3:H234 I6:J83 I168:J186 B1:J5 B229:J234 I114:J118 I87:J94 I96:J97">
+  <conditionalFormatting sqref="J188:J198 J200:J228 E228:G228 E226:E227 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 I228 I188:I225 B158:D228 B6:G76 G83 G86 G115:G116 E168:G186 E188:G225 B110:D112 I6:J83 I168:J186 B1:J5 B230:J235 I114:J118 I87:J94 I96:J97 H3:H235">
     <cfRule type="expression" dxfId="14" priority="9">
       <formula>B="metadata"</formula>
     </cfRule>
@@ -36613,7 +36653,7 @@
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 B158:G227 B229:G234 I153:I185 J77:J185 B110:C112 E110:G112 I77:I148 I79:J79 I186:J227 I229:J234">
+  <conditionalFormatting sqref="E79:G79 B158:G228 B230:G235 I153:I185 J77:J185 B110:C112 E110:G112 I77:I148 I79:J79 I186:J228 I230:J235">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>#REF!="metadata"</formula>
     </cfRule>

--- a/1_Input_data/Infoexp.xlsx
+++ b/1_Input_data/Infoexp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A03F3-B529-4F49-840D-DA10B3D4498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C064C792-AC99-E04A-A21C-A4A5ADDEAE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="880" windowWidth="28640" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="28640" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="501">
   <si>
     <t>Type</t>
   </si>
@@ -1994,6 +1994,12 @@
   </si>
   <si>
     <t>Presence of postnatal microcephalea, microscephalia criteria for follow up measures was calculated with the who_hcircm2zscore() function</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -2599,10 +2605,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H232" sqref="H232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2899,9 +2909,11 @@
         <v>491</v>
       </c>
       <c r="L6" s="4">
-        <v>13</v>
-      </c>
-      <c r="M6" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="M6" s="4">
+        <v>55</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -3065,7 +3077,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>307</v>
       </c>
@@ -3105,7 +3117,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>307</v>
       </c>
@@ -3291,7 +3303,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>307</v>
       </c>
@@ -3331,7 +3343,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>307</v>
       </c>
@@ -3371,7 +3383,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>307</v>
       </c>
@@ -3411,7 +3423,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>307</v>
       </c>
@@ -3451,7 +3463,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>307</v>
       </c>
@@ -3491,7 +3503,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>307</v>
       </c>
@@ -3531,7 +3543,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>307</v>
       </c>
@@ -3571,7 +3583,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>307</v>
       </c>
@@ -3705,7 +3717,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>307</v>
       </c>
@@ -3833,7 +3845,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>307</v>
       </c>
@@ -3917,7 +3929,7 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>307</v>
       </c>
@@ -4001,7 +4013,7 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>307</v>
       </c>
@@ -4041,7 +4053,7 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="140" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="140" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>307</v>
       </c>
@@ -4081,7 +4093,7 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>307</v>
       </c>
@@ -4121,7 +4133,7 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>307</v>
       </c>
@@ -4161,7 +4173,7 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>307</v>
       </c>
@@ -4201,7 +4213,7 @@
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>307</v>
       </c>
@@ -4241,7 +4253,7 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>307</v>
       </c>
@@ -4281,7 +4293,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>307</v>
       </c>
@@ -4321,7 +4333,7 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>307</v>
       </c>
@@ -4391,9 +4403,11 @@
         <v>494</v>
       </c>
       <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M41" s="4">
+        <v>200</v>
+      </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -4441,9 +4455,11 @@
         <v>494</v>
       </c>
       <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M42" s="4">
+        <v>200</v>
+      </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -4490,10 +4506,12 @@
       <c r="K43" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4"/>
+      <c r="L43" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>500</v>
+      </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -4511,7 +4529,7 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>307</v>
       </c>
@@ -4873,7 +4891,7 @@
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>307</v>
       </c>
@@ -4913,7 +4931,7 @@
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>307</v>
       </c>
@@ -4953,7 +4971,7 @@
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
     </row>
-    <row r="54" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>307</v>
       </c>
@@ -4993,7 +5011,7 @@
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
     </row>
-    <row r="55" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>307</v>
       </c>
@@ -5033,7 +5051,7 @@
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>307</v>
       </c>
@@ -5073,7 +5091,7 @@
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
     </row>
-    <row r="57" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>307</v>
       </c>
@@ -5213,7 +5231,7 @@
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>307</v>
       </c>
@@ -5521,7 +5539,7 @@
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>307</v>
       </c>
@@ -5957,7 +5975,7 @@
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
     </row>
-    <row r="77" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>132</v>
       </c>
@@ -5999,7 +6017,7 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
     </row>
-    <row r="78" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
@@ -6041,7 +6059,7 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
     </row>
-    <row r="79" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>132</v>
       </c>
@@ -6161,7 +6179,9 @@
       <c r="L81" s="4">
         <v>0</v>
       </c>
-      <c r="M81" s="4"/>
+      <c r="M81" s="4">
+        <v>46</v>
+      </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -6323,7 +6343,7 @@
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
     </row>
-    <row r="85" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>132</v>
       </c>
@@ -6443,7 +6463,9 @@
       <c r="L87" s="4">
         <v>0</v>
       </c>
-      <c r="M87" s="4"/>
+      <c r="M87" s="4">
+        <v>46</v>
+      </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6553,7 +6575,7 @@
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
     </row>
-    <row r="90" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>132</v>
       </c>
@@ -6685,7 +6707,7 @@
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
     </row>
-    <row r="93" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>132</v>
       </c>
@@ -6725,7 +6747,7 @@
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
     </row>
-    <row r="94" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>132</v>
       </c>
@@ -6765,7 +6787,7 @@
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
     </row>
-    <row r="95" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>132</v>
       </c>
@@ -6805,7 +6827,7 @@
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
     </row>
-    <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>132</v>
       </c>
@@ -6845,7 +6867,7 @@
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
     </row>
-    <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>132</v>
       </c>
@@ -6885,7 +6907,7 @@
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
     </row>
-    <row r="98" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>132</v>
       </c>
@@ -6925,7 +6947,7 @@
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
     </row>
-    <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>132</v>
       </c>
@@ -6965,7 +6987,7 @@
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
     </row>
-    <row r="100" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>132</v>
       </c>
@@ -7005,7 +7027,7 @@
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
     </row>
-    <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>132</v>
       </c>
@@ -7045,7 +7067,7 @@
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
     </row>
-    <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>132</v>
       </c>
@@ -7085,7 +7107,7 @@
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
     </row>
-    <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>132</v>
       </c>
@@ -7125,7 +7147,7 @@
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
     </row>
-    <row r="104" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>132</v>
       </c>
@@ -7165,7 +7187,7 @@
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
     </row>
-    <row r="105" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>132</v>
       </c>
@@ -7205,7 +7227,7 @@
       <c r="AB105" s="4"/>
       <c r="AC105" s="4"/>
     </row>
-    <row r="106" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>132</v>
       </c>
@@ -7245,7 +7267,7 @@
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
     </row>
-    <row r="107" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>132</v>
       </c>
@@ -7285,7 +7307,7 @@
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
     </row>
-    <row r="108" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>132</v>
       </c>
@@ -7325,7 +7347,7 @@
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
     </row>
-    <row r="109" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>132</v>
       </c>
@@ -7401,7 +7423,9 @@
       <c r="L110" s="4">
         <v>0</v>
       </c>
-      <c r="M110" s="4"/>
+      <c r="M110" s="4">
+        <v>46</v>
+      </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -7515,7 +7539,7 @@
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
     </row>
-    <row r="113" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>132</v>
       </c>
@@ -7635,7 +7659,9 @@
       <c r="L115" s="4">
         <v>0</v>
       </c>
-      <c r="M115" s="4"/>
+      <c r="M115" s="4">
+        <v>46</v>
+      </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -7701,7 +7727,7 @@
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
     </row>
-    <row r="117" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>132</v>
       </c>
@@ -7741,7 +7767,7 @@
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
     </row>
-    <row r="118" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>132</v>
       </c>
@@ -7877,7 +7903,7 @@
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
     </row>
-    <row r="121" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>132</v>
       </c>
@@ -7917,7 +7943,7 @@
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
     </row>
-    <row r="122" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>132</v>
       </c>
@@ -7957,7 +7983,7 @@
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
     </row>
-    <row r="123" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>132</v>
       </c>
@@ -8045,7 +8071,7 @@
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
     </row>
-    <row r="125" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>132</v>
       </c>
@@ -8133,7 +8159,7 @@
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
     </row>
-    <row r="127" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>132</v>
       </c>
@@ -8173,7 +8199,7 @@
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
     </row>
-    <row r="128" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>132</v>
       </c>
@@ -8213,7 +8239,7 @@
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
     </row>
-    <row r="129" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>132</v>
       </c>
@@ -8253,7 +8279,7 @@
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
     </row>
-    <row r="130" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>132</v>
       </c>
@@ -8293,7 +8319,7 @@
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
     </row>
-    <row r="131" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>132</v>
       </c>
@@ -8333,7 +8359,7 @@
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
     </row>
-    <row r="132" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>132</v>
       </c>
@@ -8373,7 +8399,7 @@
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
     </row>
-    <row r="133" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
@@ -8413,7 +8439,7 @@
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
     </row>
-    <row r="134" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -8453,7 +8479,7 @@
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
     </row>
-    <row r="135" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>132</v>
       </c>
@@ -8493,7 +8519,7 @@
       <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
     </row>
-    <row r="136" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>132</v>
       </c>
@@ -8533,7 +8559,7 @@
       <c r="AB136" s="4"/>
       <c r="AC136" s="4"/>
     </row>
-    <row r="137" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>132</v>
       </c>
@@ -8573,7 +8599,7 @@
       <c r="AB137" s="4"/>
       <c r="AC137" s="4"/>
     </row>
-    <row r="138" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>132</v>
       </c>
@@ -8613,7 +8639,7 @@
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
     </row>
-    <row r="139" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>132</v>
       </c>
@@ -8653,7 +8679,7 @@
       <c r="AB139" s="4"/>
       <c r="AC139" s="4"/>
     </row>
-    <row r="140" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>132</v>
       </c>
@@ -8693,7 +8719,7 @@
       <c r="AB140" s="4"/>
       <c r="AC140" s="4"/>
     </row>
-    <row r="141" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>132</v>
       </c>
@@ -8733,7 +8759,7 @@
       <c r="AB141" s="4"/>
       <c r="AC141" s="4"/>
     </row>
-    <row r="142" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>132</v>
       </c>
@@ -8897,7 +8923,9 @@
       <c r="L145" s="4">
         <v>0</v>
       </c>
-      <c r="M145" s="4"/>
+      <c r="M145" s="4">
+        <v>46</v>
+      </c>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
@@ -9053,7 +9081,7 @@
       <c r="AB148" s="4"/>
       <c r="AC148" s="4"/>
     </row>
-    <row r="149" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>132</v>
       </c>
@@ -9093,7 +9121,7 @@
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
     </row>
-    <row r="150" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>132</v>
       </c>
@@ -9133,7 +9161,7 @@
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
     </row>
-    <row r="151" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>132</v>
       </c>
@@ -9173,7 +9201,7 @@
       <c r="AB151" s="4"/>
       <c r="AC151" s="4"/>
     </row>
-    <row r="152" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>132</v>
       </c>
@@ -9213,7 +9241,7 @@
       <c r="AB152" s="4"/>
       <c r="AC152" s="4"/>
     </row>
-    <row r="153" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>132</v>
       </c>
@@ -9253,7 +9281,7 @@
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
     </row>
-    <row r="154" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>132</v>
       </c>
@@ -9293,7 +9321,7 @@
       <c r="AB154" s="4"/>
       <c r="AC154" s="4"/>
     </row>
-    <row r="155" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>132</v>
       </c>
@@ -9421,7 +9449,7 @@
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
     </row>
-    <row r="158" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>132</v>
       </c>
@@ -9461,7 +9489,7 @@
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
     </row>
-    <row r="159" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>132</v>
       </c>
@@ -9501,7 +9529,7 @@
       <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
     </row>
-    <row r="160" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>132</v>
       </c>
@@ -9541,7 +9569,7 @@
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
     </row>
-    <row r="161" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>132</v>
       </c>
@@ -9581,7 +9609,7 @@
       <c r="AB161" s="4"/>
       <c r="AC161" s="4"/>
     </row>
-    <row r="162" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>132</v>
       </c>
@@ -9621,7 +9649,7 @@
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
     </row>
-    <row r="163" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>132</v>
       </c>
@@ -9929,7 +9957,9 @@
       <c r="L169" s="4">
         <v>0</v>
       </c>
-      <c r="M169" s="4"/>
+      <c r="M169" s="4">
+        <v>20</v>
+      </c>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
@@ -9997,7 +10027,7 @@
       <c r="AB170" s="4"/>
       <c r="AC170" s="4"/>
     </row>
-    <row r="171" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>3</v>
       </c>
@@ -10163,9 +10193,11 @@
         <v>488</v>
       </c>
       <c r="L174" s="4">
-        <v>0</v>
-      </c>
-      <c r="M174" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="M174" s="4">
+        <v>46</v>
+      </c>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
@@ -10217,7 +10249,9 @@
       <c r="L175" s="4">
         <v>0</v>
       </c>
-      <c r="M175" s="4"/>
+      <c r="M175" s="4">
+        <v>46</v>
+      </c>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
@@ -10269,7 +10303,9 @@
       <c r="L176" s="4">
         <v>0</v>
       </c>
-      <c r="M176" s="4"/>
+      <c r="M176" s="4">
+        <v>46</v>
+      </c>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
@@ -10365,7 +10401,9 @@
       <c r="L178" s="4">
         <v>0</v>
       </c>
-      <c r="M178" s="4"/>
+      <c r="M178" s="4">
+        <v>46</v>
+      </c>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
@@ -10671,7 +10709,9 @@
       <c r="L184" s="4">
         <v>18</v>
       </c>
-      <c r="M184" s="4"/>
+      <c r="M184" s="4">
+        <v>70</v>
+      </c>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
@@ -10789,7 +10829,7 @@
       <c r="AB186" s="4"/>
       <c r="AC186" s="4"/>
     </row>
-    <row r="187" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>3</v>
       </c>
@@ -10879,7 +10919,7 @@
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
     </row>
-    <row r="189" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>3</v>
       </c>
@@ -10919,7 +10959,7 @@
       <c r="AB189" s="4"/>
       <c r="AC189" s="4"/>
     </row>
-    <row r="190" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>3</v>
       </c>
@@ -10959,7 +10999,7 @@
       <c r="AB190" s="4"/>
       <c r="AC190" s="4"/>
     </row>
-    <row r="191" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>3</v>
       </c>
@@ -10999,7 +11039,7 @@
       <c r="AB191" s="4"/>
       <c r="AC191" s="4"/>
     </row>
-    <row r="192" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>3</v>
       </c>
@@ -11039,7 +11079,7 @@
       <c r="AB192" s="4"/>
       <c r="AC192" s="4"/>
     </row>
-    <row r="193" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>3</v>
       </c>
@@ -12293,7 +12333,7 @@
       <c r="AB220" s="4"/>
       <c r="AC220" s="4"/>
     </row>
-    <row r="221" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>3</v>
       </c>
@@ -13015,7 +13055,7 @@
       <c r="AB235" s="4"/>
       <c r="AC235" s="4"/>
     </row>
-    <row r="236" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13046,7 +13086,7 @@
       <c r="AB236" s="4"/>
       <c r="AC236" s="4"/>
     </row>
-    <row r="237" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13077,7 +13117,7 @@
       <c r="AB237" s="4"/>
       <c r="AC237" s="4"/>
     </row>
-    <row r="238" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13108,7 +13148,7 @@
       <c r="AB238" s="4"/>
       <c r="AC238" s="4"/>
     </row>
-    <row r="239" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13139,7 +13179,7 @@
       <c r="AB239" s="4"/>
       <c r="AC239" s="4"/>
     </row>
-    <row r="240" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13170,7 +13210,7 @@
       <c r="AB240" s="4"/>
       <c r="AC240" s="4"/>
     </row>
-    <row r="241" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13201,7 +13241,7 @@
       <c r="AB241" s="4"/>
       <c r="AC241" s="4"/>
     </row>
-    <row r="242" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13232,7 +13272,7 @@
       <c r="AB242" s="4"/>
       <c r="AC242" s="4"/>
     </row>
-    <row r="243" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13263,7 +13303,7 @@
       <c r="AB243" s="4"/>
       <c r="AC243" s="4"/>
     </row>
-    <row r="244" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13294,7 +13334,7 @@
       <c r="AB244" s="4"/>
       <c r="AC244" s="4"/>
     </row>
-    <row r="245" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13325,7 +13365,7 @@
       <c r="AB245" s="4"/>
       <c r="AC245" s="4"/>
     </row>
-    <row r="246" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13356,7 +13396,7 @@
       <c r="AB246" s="4"/>
       <c r="AC246" s="4"/>
     </row>
-    <row r="247" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13387,7 +13427,7 @@
       <c r="AB247" s="4"/>
       <c r="AC247" s="4"/>
     </row>
-    <row r="248" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13418,7 +13458,7 @@
       <c r="AB248" s="4"/>
       <c r="AC248" s="4"/>
     </row>
-    <row r="249" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13449,7 +13489,7 @@
       <c r="AB249" s="4"/>
       <c r="AC249" s="4"/>
     </row>
-    <row r="250" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13480,7 +13520,7 @@
       <c r="AB250" s="4"/>
       <c r="AC250" s="4"/>
     </row>
-    <row r="251" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13511,7 +13551,7 @@
       <c r="AB251" s="4"/>
       <c r="AC251" s="4"/>
     </row>
-    <row r="252" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13542,7 +13582,7 @@
       <c r="AB252" s="4"/>
       <c r="AC252" s="4"/>
     </row>
-    <row r="253" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13573,7 +13613,7 @@
       <c r="AB253" s="4"/>
       <c r="AC253" s="4"/>
     </row>
-    <row r="254" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13604,7 +13644,7 @@
       <c r="AB254" s="4"/>
       <c r="AC254" s="4"/>
     </row>
-    <row r="255" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13635,7 +13675,7 @@
       <c r="AB255" s="4"/>
       <c r="AC255" s="4"/>
     </row>
-    <row r="256" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13666,7 +13706,7 @@
       <c r="AB256" s="4"/>
       <c r="AC256" s="4"/>
     </row>
-    <row r="257" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13697,7 +13737,7 @@
       <c r="AB257" s="4"/>
       <c r="AC257" s="4"/>
     </row>
-    <row r="258" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13728,7 +13768,7 @@
       <c r="AB258" s="4"/>
       <c r="AC258" s="4"/>
     </row>
-    <row r="259" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13759,7 +13799,7 @@
       <c r="AB259" s="4"/>
       <c r="AC259" s="4"/>
     </row>
-    <row r="260" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13790,7 +13830,7 @@
       <c r="AB260" s="4"/>
       <c r="AC260" s="4"/>
     </row>
-    <row r="261" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13821,7 +13861,7 @@
       <c r="AB261" s="4"/>
       <c r="AC261" s="4"/>
     </row>
-    <row r="262" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -13852,7 +13892,7 @@
       <c r="AB262" s="4"/>
       <c r="AC262" s="4"/>
     </row>
-    <row r="263" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -13883,7 +13923,7 @@
       <c r="AB263" s="4"/>
       <c r="AC263" s="4"/>
     </row>
-    <row r="264" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -13914,7 +13954,7 @@
       <c r="AB264" s="4"/>
       <c r="AC264" s="4"/>
     </row>
-    <row r="265" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -13945,7 +13985,7 @@
       <c r="AB265" s="4"/>
       <c r="AC265" s="4"/>
     </row>
-    <row r="266" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -13976,7 +14016,7 @@
       <c r="AB266" s="4"/>
       <c r="AC266" s="4"/>
     </row>
-    <row r="267" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14007,7 +14047,7 @@
       <c r="AB267" s="4"/>
       <c r="AC267" s="4"/>
     </row>
-    <row r="268" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14038,7 +14078,7 @@
       <c r="AB268" s="4"/>
       <c r="AC268" s="4"/>
     </row>
-    <row r="269" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -14069,7 +14109,7 @@
       <c r="AB269" s="4"/>
       <c r="AC269" s="4"/>
     </row>
-    <row r="270" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -14100,7 +14140,7 @@
       <c r="AB270" s="4"/>
       <c r="AC270" s="4"/>
     </row>
-    <row r="271" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -14131,7 +14171,7 @@
       <c r="AB271" s="4"/>
       <c r="AC271" s="4"/>
     </row>
-    <row r="272" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14162,7 +14202,7 @@
       <c r="AB272" s="4"/>
       <c r="AC272" s="4"/>
     </row>
-    <row r="273" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -14193,7 +14233,7 @@
       <c r="AB273" s="4"/>
       <c r="AC273" s="4"/>
     </row>
-    <row r="274" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -14224,7 +14264,7 @@
       <c r="AB274" s="4"/>
       <c r="AC274" s="4"/>
     </row>
-    <row r="275" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -14255,7 +14295,7 @@
       <c r="AB275" s="4"/>
       <c r="AC275" s="4"/>
     </row>
-    <row r="276" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -14286,7 +14326,7 @@
       <c r="AB276" s="4"/>
       <c r="AC276" s="4"/>
     </row>
-    <row r="277" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -14317,7 +14357,7 @@
       <c r="AB277" s="4"/>
       <c r="AC277" s="4"/>
     </row>
-    <row r="278" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -14348,7 +14388,7 @@
       <c r="AB278" s="4"/>
       <c r="AC278" s="4"/>
     </row>
-    <row r="279" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -14379,7 +14419,7 @@
       <c r="AB279" s="4"/>
       <c r="AC279" s="4"/>
     </row>
-    <row r="280" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -14410,7 +14450,7 @@
       <c r="AB280" s="4"/>
       <c r="AC280" s="4"/>
     </row>
-    <row r="281" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -14441,7 +14481,7 @@
       <c r="AB281" s="4"/>
       <c r="AC281" s="4"/>
     </row>
-    <row r="282" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -14472,7 +14512,7 @@
       <c r="AB282" s="4"/>
       <c r="AC282" s="4"/>
     </row>
-    <row r="283" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -14503,7 +14543,7 @@
       <c r="AB283" s="4"/>
       <c r="AC283" s="4"/>
     </row>
-    <row r="284" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -14534,7 +14574,7 @@
       <c r="AB284" s="4"/>
       <c r="AC284" s="4"/>
     </row>
-    <row r="285" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -14565,7 +14605,7 @@
       <c r="AB285" s="4"/>
       <c r="AC285" s="4"/>
     </row>
-    <row r="286" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -14596,7 +14636,7 @@
       <c r="AB286" s="4"/>
       <c r="AC286" s="4"/>
     </row>
-    <row r="287" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -14627,7 +14667,7 @@
       <c r="AB287" s="4"/>
       <c r="AC287" s="4"/>
     </row>
-    <row r="288" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -14658,7 +14698,7 @@
       <c r="AB288" s="4"/>
       <c r="AC288" s="4"/>
     </row>
-    <row r="289" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -14689,7 +14729,7 @@
       <c r="AB289" s="4"/>
       <c r="AC289" s="4"/>
     </row>
-    <row r="290" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -14720,7 +14760,7 @@
       <c r="AB290" s="4"/>
       <c r="AC290" s="4"/>
     </row>
-    <row r="291" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -14751,7 +14791,7 @@
       <c r="AB291" s="4"/>
       <c r="AC291" s="4"/>
     </row>
-    <row r="292" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -14782,7 +14822,7 @@
       <c r="AB292" s="4"/>
       <c r="AC292" s="4"/>
     </row>
-    <row r="293" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -14813,7 +14853,7 @@
       <c r="AB293" s="4"/>
       <c r="AC293" s="4"/>
     </row>
-    <row r="294" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -14844,7 +14884,7 @@
       <c r="AB294" s="4"/>
       <c r="AC294" s="4"/>
     </row>
-    <row r="295" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -14875,7 +14915,7 @@
       <c r="AB295" s="4"/>
       <c r="AC295" s="4"/>
     </row>
-    <row r="296" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -14906,7 +14946,7 @@
       <c r="AB296" s="4"/>
       <c r="AC296" s="4"/>
     </row>
-    <row r="297" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -14937,7 +14977,7 @@
       <c r="AB297" s="4"/>
       <c r="AC297" s="4"/>
     </row>
-    <row r="298" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -14968,7 +15008,7 @@
       <c r="AB298" s="4"/>
       <c r="AC298" s="4"/>
     </row>
-    <row r="299" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -14999,7 +15039,7 @@
       <c r="AB299" s="4"/>
       <c r="AC299" s="4"/>
     </row>
-    <row r="300" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -15030,7 +15070,7 @@
       <c r="AB300" s="4"/>
       <c r="AC300" s="4"/>
     </row>
-    <row r="301" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -15061,7 +15101,7 @@
       <c r="AB301" s="4"/>
       <c r="AC301" s="4"/>
     </row>
-    <row r="302" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -15092,7 +15132,7 @@
       <c r="AB302" s="4"/>
       <c r="AC302" s="4"/>
     </row>
-    <row r="303" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -15123,7 +15163,7 @@
       <c r="AB303" s="4"/>
       <c r="AC303" s="4"/>
     </row>
-    <row r="304" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -15154,7 +15194,7 @@
       <c r="AB304" s="4"/>
       <c r="AC304" s="4"/>
     </row>
-    <row r="305" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -15185,7 +15225,7 @@
       <c r="AB305" s="4"/>
       <c r="AC305" s="4"/>
     </row>
-    <row r="306" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -15216,7 +15256,7 @@
       <c r="AB306" s="4"/>
       <c r="AC306" s="4"/>
     </row>
-    <row r="307" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -15247,7 +15287,7 @@
       <c r="AB307" s="4"/>
       <c r="AC307" s="4"/>
     </row>
-    <row r="308" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -15278,7 +15318,7 @@
       <c r="AB308" s="4"/>
       <c r="AC308" s="4"/>
     </row>
-    <row r="309" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -15309,7 +15349,7 @@
       <c r="AB309" s="4"/>
       <c r="AC309" s="4"/>
     </row>
-    <row r="310" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -15340,7 +15380,7 @@
       <c r="AB310" s="4"/>
       <c r="AC310" s="4"/>
     </row>
-    <row r="311" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -15371,7 +15411,7 @@
       <c r="AB311" s="4"/>
       <c r="AC311" s="4"/>
     </row>
-    <row r="312" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -15402,7 +15442,7 @@
       <c r="AB312" s="4"/>
       <c r="AC312" s="4"/>
     </row>
-    <row r="313" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -15433,7 +15473,7 @@
       <c r="AB313" s="4"/>
       <c r="AC313" s="4"/>
     </row>
-    <row r="314" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -15464,7 +15504,7 @@
       <c r="AB314" s="4"/>
       <c r="AC314" s="4"/>
     </row>
-    <row r="315" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -15495,7 +15535,7 @@
       <c r="AB315" s="4"/>
       <c r="AC315" s="4"/>
     </row>
-    <row r="316" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -15526,7 +15566,7 @@
       <c r="AB316" s="4"/>
       <c r="AC316" s="4"/>
     </row>
-    <row r="317" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -15557,7 +15597,7 @@
       <c r="AB317" s="4"/>
       <c r="AC317" s="4"/>
     </row>
-    <row r="318" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -15588,7 +15628,7 @@
       <c r="AB318" s="4"/>
       <c r="AC318" s="4"/>
     </row>
-    <row r="319" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -15619,7 +15659,7 @@
       <c r="AB319" s="4"/>
       <c r="AC319" s="4"/>
     </row>
-    <row r="320" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -15650,7 +15690,7 @@
       <c r="AB320" s="4"/>
       <c r="AC320" s="4"/>
     </row>
-    <row r="321" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -15681,7 +15721,7 @@
       <c r="AB321" s="4"/>
       <c r="AC321" s="4"/>
     </row>
-    <row r="322" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -15712,7 +15752,7 @@
       <c r="AB322" s="4"/>
       <c r="AC322" s="4"/>
     </row>
-    <row r="323" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -15743,7 +15783,7 @@
       <c r="AB323" s="4"/>
       <c r="AC323" s="4"/>
     </row>
-    <row r="324" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -15774,7 +15814,7 @@
       <c r="AB324" s="4"/>
       <c r="AC324" s="4"/>
     </row>
-    <row r="325" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -15805,7 +15845,7 @@
       <c r="AB325" s="4"/>
       <c r="AC325" s="4"/>
     </row>
-    <row r="326" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -15836,7 +15876,7 @@
       <c r="AB326" s="4"/>
       <c r="AC326" s="4"/>
     </row>
-    <row r="327" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -15867,7 +15907,7 @@
       <c r="AB327" s="4"/>
       <c r="AC327" s="4"/>
     </row>
-    <row r="328" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -15898,7 +15938,7 @@
       <c r="AB328" s="4"/>
       <c r="AC328" s="4"/>
     </row>
-    <row r="329" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -15929,7 +15969,7 @@
       <c r="AB329" s="4"/>
       <c r="AC329" s="4"/>
     </row>
-    <row r="330" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -15960,7 +16000,7 @@
       <c r="AB330" s="4"/>
       <c r="AC330" s="4"/>
     </row>
-    <row r="331" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -15991,7 +16031,7 @@
       <c r="AB331" s="4"/>
       <c r="AC331" s="4"/>
     </row>
-    <row r="332" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -16022,7 +16062,7 @@
       <c r="AB332" s="4"/>
       <c r="AC332" s="4"/>
     </row>
-    <row r="333" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -16053,7 +16093,7 @@
       <c r="AB333" s="4"/>
       <c r="AC333" s="4"/>
     </row>
-    <row r="334" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -16084,7 +16124,7 @@
       <c r="AB334" s="4"/>
       <c r="AC334" s="4"/>
     </row>
-    <row r="335" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -16115,7 +16155,7 @@
       <c r="AB335" s="4"/>
       <c r="AC335" s="4"/>
     </row>
-    <row r="336" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -16146,7 +16186,7 @@
       <c r="AB336" s="4"/>
       <c r="AC336" s="4"/>
     </row>
-    <row r="337" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -16177,7 +16217,7 @@
       <c r="AB337" s="4"/>
       <c r="AC337" s="4"/>
     </row>
-    <row r="338" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -16208,7 +16248,7 @@
       <c r="AB338" s="4"/>
       <c r="AC338" s="4"/>
     </row>
-    <row r="339" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -16239,7 +16279,7 @@
       <c r="AB339" s="4"/>
       <c r="AC339" s="4"/>
     </row>
-    <row r="340" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -16270,7 +16310,7 @@
       <c r="AB340" s="4"/>
       <c r="AC340" s="4"/>
     </row>
-    <row r="341" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -16301,7 +16341,7 @@
       <c r="AB341" s="4"/>
       <c r="AC341" s="4"/>
     </row>
-    <row r="342" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -16332,7 +16372,7 @@
       <c r="AB342" s="4"/>
       <c r="AC342" s="4"/>
     </row>
-    <row r="343" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -16363,7 +16403,7 @@
       <c r="AB343" s="4"/>
       <c r="AC343" s="4"/>
     </row>
-    <row r="344" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -16394,7 +16434,7 @@
       <c r="AB344" s="4"/>
       <c r="AC344" s="4"/>
     </row>
-    <row r="345" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -16425,7 +16465,7 @@
       <c r="AB345" s="4"/>
       <c r="AC345" s="4"/>
     </row>
-    <row r="346" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -16456,7 +16496,7 @@
       <c r="AB346" s="4"/>
       <c r="AC346" s="4"/>
     </row>
-    <row r="347" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -16487,7 +16527,7 @@
       <c r="AB347" s="4"/>
       <c r="AC347" s="4"/>
     </row>
-    <row r="348" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -16518,7 +16558,7 @@
       <c r="AB348" s="4"/>
       <c r="AC348" s="4"/>
     </row>
-    <row r="349" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -16549,7 +16589,7 @@
       <c r="AB349" s="4"/>
       <c r="AC349" s="4"/>
     </row>
-    <row r="350" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -16580,7 +16620,7 @@
       <c r="AB350" s="4"/>
       <c r="AC350" s="4"/>
     </row>
-    <row r="351" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -16611,7 +16651,7 @@
       <c r="AB351" s="4"/>
       <c r="AC351" s="4"/>
     </row>
-    <row r="352" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -16642,7 +16682,7 @@
       <c r="AB352" s="4"/>
       <c r="AC352" s="4"/>
     </row>
-    <row r="353" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -16673,7 +16713,7 @@
       <c r="AB353" s="4"/>
       <c r="AC353" s="4"/>
     </row>
-    <row r="354" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -16704,7 +16744,7 @@
       <c r="AB354" s="4"/>
       <c r="AC354" s="4"/>
     </row>
-    <row r="355" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -16735,7 +16775,7 @@
       <c r="AB355" s="4"/>
       <c r="AC355" s="4"/>
     </row>
-    <row r="356" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -16766,7 +16806,7 @@
       <c r="AB356" s="4"/>
       <c r="AC356" s="4"/>
     </row>
-    <row r="357" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -16797,7 +16837,7 @@
       <c r="AB357" s="4"/>
       <c r="AC357" s="4"/>
     </row>
-    <row r="358" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -16828,7 +16868,7 @@
       <c r="AB358" s="4"/>
       <c r="AC358" s="4"/>
     </row>
-    <row r="359" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -16859,7 +16899,7 @@
       <c r="AB359" s="4"/>
       <c r="AC359" s="4"/>
     </row>
-    <row r="360" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -16890,7 +16930,7 @@
       <c r="AB360" s="4"/>
       <c r="AC360" s="4"/>
     </row>
-    <row r="361" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -16921,7 +16961,7 @@
       <c r="AB361" s="4"/>
       <c r="AC361" s="4"/>
     </row>
-    <row r="362" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -16952,7 +16992,7 @@
       <c r="AB362" s="4"/>
       <c r="AC362" s="4"/>
     </row>
-    <row r="363" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -16983,7 +17023,7 @@
       <c r="AB363" s="4"/>
       <c r="AC363" s="4"/>
     </row>
-    <row r="364" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -17014,7 +17054,7 @@
       <c r="AB364" s="4"/>
       <c r="AC364" s="4"/>
     </row>
-    <row r="365" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -17045,7 +17085,7 @@
       <c r="AB365" s="4"/>
       <c r="AC365" s="4"/>
     </row>
-    <row r="366" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -17076,7 +17116,7 @@
       <c r="AB366" s="4"/>
       <c r="AC366" s="4"/>
     </row>
-    <row r="367" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -17107,7 +17147,7 @@
       <c r="AB367" s="4"/>
       <c r="AC367" s="4"/>
     </row>
-    <row r="368" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -17138,7 +17178,7 @@
       <c r="AB368" s="4"/>
       <c r="AC368" s="4"/>
     </row>
-    <row r="369" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -17169,7 +17209,7 @@
       <c r="AB369" s="4"/>
       <c r="AC369" s="4"/>
     </row>
-    <row r="370" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -17200,7 +17240,7 @@
       <c r="AB370" s="4"/>
       <c r="AC370" s="4"/>
     </row>
-    <row r="371" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -17231,7 +17271,7 @@
       <c r="AB371" s="4"/>
       <c r="AC371" s="4"/>
     </row>
-    <row r="372" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -17262,7 +17302,7 @@
       <c r="AB372" s="4"/>
       <c r="AC372" s="4"/>
     </row>
-    <row r="373" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -17293,7 +17333,7 @@
       <c r="AB373" s="4"/>
       <c r="AC373" s="4"/>
     </row>
-    <row r="374" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -17324,7 +17364,7 @@
       <c r="AB374" s="4"/>
       <c r="AC374" s="4"/>
     </row>
-    <row r="375" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -17355,7 +17395,7 @@
       <c r="AB375" s="4"/>
       <c r="AC375" s="4"/>
     </row>
-    <row r="376" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -17386,7 +17426,7 @@
       <c r="AB376" s="4"/>
       <c r="AC376" s="4"/>
     </row>
-    <row r="377" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -17417,7 +17457,7 @@
       <c r="AB377" s="4"/>
       <c r="AC377" s="4"/>
     </row>
-    <row r="378" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -17448,7 +17488,7 @@
       <c r="AB378" s="4"/>
       <c r="AC378" s="4"/>
     </row>
-    <row r="379" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -17479,7 +17519,7 @@
       <c r="AB379" s="4"/>
       <c r="AC379" s="4"/>
     </row>
-    <row r="380" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -17510,7 +17550,7 @@
       <c r="AB380" s="4"/>
       <c r="AC380" s="4"/>
     </row>
-    <row r="381" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -17541,7 +17581,7 @@
       <c r="AB381" s="4"/>
       <c r="AC381" s="4"/>
     </row>
-    <row r="382" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -17572,7 +17612,7 @@
       <c r="AB382" s="4"/>
       <c r="AC382" s="4"/>
     </row>
-    <row r="383" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -17603,7 +17643,7 @@
       <c r="AB383" s="4"/>
       <c r="AC383" s="4"/>
     </row>
-    <row r="384" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -17634,7 +17674,7 @@
       <c r="AB384" s="4"/>
       <c r="AC384" s="4"/>
     </row>
-    <row r="385" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -17665,7 +17705,7 @@
       <c r="AB385" s="4"/>
       <c r="AC385" s="4"/>
     </row>
-    <row r="386" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -17696,7 +17736,7 @@
       <c r="AB386" s="4"/>
       <c r="AC386" s="4"/>
     </row>
-    <row r="387" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -17727,7 +17767,7 @@
       <c r="AB387" s="4"/>
       <c r="AC387" s="4"/>
     </row>
-    <row r="388" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -17758,7 +17798,7 @@
       <c r="AB388" s="4"/>
       <c r="AC388" s="4"/>
     </row>
-    <row r="389" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -17789,7 +17829,7 @@
       <c r="AB389" s="4"/>
       <c r="AC389" s="4"/>
     </row>
-    <row r="390" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -17820,7 +17860,7 @@
       <c r="AB390" s="4"/>
       <c r="AC390" s="4"/>
     </row>
-    <row r="391" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -17851,7 +17891,7 @@
       <c r="AB391" s="4"/>
       <c r="AC391" s="4"/>
     </row>
-    <row r="392" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -17882,7 +17922,7 @@
       <c r="AB392" s="4"/>
       <c r="AC392" s="4"/>
     </row>
-    <row r="393" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -17913,7 +17953,7 @@
       <c r="AB393" s="4"/>
       <c r="AC393" s="4"/>
     </row>
-    <row r="394" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -17944,7 +17984,7 @@
       <c r="AB394" s="4"/>
       <c r="AC394" s="4"/>
     </row>
-    <row r="395" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -17975,7 +18015,7 @@
       <c r="AB395" s="4"/>
       <c r="AC395" s="4"/>
     </row>
-    <row r="396" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -18006,7 +18046,7 @@
       <c r="AB396" s="4"/>
       <c r="AC396" s="4"/>
     </row>
-    <row r="397" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -18037,7 +18077,7 @@
       <c r="AB397" s="4"/>
       <c r="AC397" s="4"/>
     </row>
-    <row r="398" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -18068,7 +18108,7 @@
       <c r="AB398" s="4"/>
       <c r="AC398" s="4"/>
     </row>
-    <row r="399" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -18099,7 +18139,7 @@
       <c r="AB399" s="4"/>
       <c r="AC399" s="4"/>
     </row>
-    <row r="400" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -18130,7 +18170,7 @@
       <c r="AB400" s="4"/>
       <c r="AC400" s="4"/>
     </row>
-    <row r="401" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -18161,7 +18201,7 @@
       <c r="AB401" s="4"/>
       <c r="AC401" s="4"/>
     </row>
-    <row r="402" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -18192,7 +18232,7 @@
       <c r="AB402" s="4"/>
       <c r="AC402" s="4"/>
     </row>
-    <row r="403" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -18223,7 +18263,7 @@
       <c r="AB403" s="4"/>
       <c r="AC403" s="4"/>
     </row>
-    <row r="404" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -18254,7 +18294,7 @@
       <c r="AB404" s="4"/>
       <c r="AC404" s="4"/>
     </row>
-    <row r="405" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -18285,7 +18325,7 @@
       <c r="AB405" s="4"/>
       <c r="AC405" s="4"/>
     </row>
-    <row r="406" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -18316,7 +18356,7 @@
       <c r="AB406" s="4"/>
       <c r="AC406" s="4"/>
     </row>
-    <row r="407" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -18347,7 +18387,7 @@
       <c r="AB407" s="4"/>
       <c r="AC407" s="4"/>
     </row>
-    <row r="408" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -18378,7 +18418,7 @@
       <c r="AB408" s="4"/>
       <c r="AC408" s="4"/>
     </row>
-    <row r="409" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -18409,7 +18449,7 @@
       <c r="AB409" s="4"/>
       <c r="AC409" s="4"/>
     </row>
-    <row r="410" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -18440,7 +18480,7 @@
       <c r="AB410" s="4"/>
       <c r="AC410" s="4"/>
     </row>
-    <row r="411" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -18471,7 +18511,7 @@
       <c r="AB411" s="4"/>
       <c r="AC411" s="4"/>
     </row>
-    <row r="412" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -18502,7 +18542,7 @@
       <c r="AB412" s="4"/>
       <c r="AC412" s="4"/>
     </row>
-    <row r="413" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -18533,7 +18573,7 @@
       <c r="AB413" s="4"/>
       <c r="AC413" s="4"/>
     </row>
-    <row r="414" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -18564,7 +18604,7 @@
       <c r="AB414" s="4"/>
       <c r="AC414" s="4"/>
     </row>
-    <row r="415" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -18595,7 +18635,7 @@
       <c r="AB415" s="4"/>
       <c r="AC415" s="4"/>
     </row>
-    <row r="416" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -18626,7 +18666,7 @@
       <c r="AB416" s="4"/>
       <c r="AC416" s="4"/>
     </row>
-    <row r="417" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -18657,7 +18697,7 @@
       <c r="AB417" s="4"/>
       <c r="AC417" s="4"/>
     </row>
-    <row r="418" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -18688,7 +18728,7 @@
       <c r="AB418" s="4"/>
       <c r="AC418" s="4"/>
     </row>
-    <row r="419" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -18719,7 +18759,7 @@
       <c r="AB419" s="4"/>
       <c r="AC419" s="4"/>
     </row>
-    <row r="420" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -18750,7 +18790,7 @@
       <c r="AB420" s="4"/>
       <c r="AC420" s="4"/>
     </row>
-    <row r="421" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -18781,7 +18821,7 @@
       <c r="AB421" s="4"/>
       <c r="AC421" s="4"/>
     </row>
-    <row r="422" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -18812,7 +18852,7 @@
       <c r="AB422" s="4"/>
       <c r="AC422" s="4"/>
     </row>
-    <row r="423" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -18843,7 +18883,7 @@
       <c r="AB423" s="4"/>
       <c r="AC423" s="4"/>
     </row>
-    <row r="424" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -18874,7 +18914,7 @@
       <c r="AB424" s="4"/>
       <c r="AC424" s="4"/>
     </row>
-    <row r="425" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -18905,7 +18945,7 @@
       <c r="AB425" s="4"/>
       <c r="AC425" s="4"/>
     </row>
-    <row r="426" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -18936,7 +18976,7 @@
       <c r="AB426" s="4"/>
       <c r="AC426" s="4"/>
     </row>
-    <row r="427" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -18967,7 +19007,7 @@
       <c r="AB427" s="4"/>
       <c r="AC427" s="4"/>
     </row>
-    <row r="428" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -18998,7 +19038,7 @@
       <c r="AB428" s="4"/>
       <c r="AC428" s="4"/>
     </row>
-    <row r="429" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -19029,7 +19069,7 @@
       <c r="AB429" s="4"/>
       <c r="AC429" s="4"/>
     </row>
-    <row r="430" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -19060,7 +19100,7 @@
       <c r="AB430" s="4"/>
       <c r="AC430" s="4"/>
     </row>
-    <row r="431" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -19091,7 +19131,7 @@
       <c r="AB431" s="4"/>
       <c r="AC431" s="4"/>
     </row>
-    <row r="432" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -19122,7 +19162,7 @@
       <c r="AB432" s="4"/>
       <c r="AC432" s="4"/>
     </row>
-    <row r="433" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -19153,7 +19193,7 @@
       <c r="AB433" s="4"/>
       <c r="AC433" s="4"/>
     </row>
-    <row r="434" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -19184,7 +19224,7 @@
       <c r="AB434" s="4"/>
       <c r="AC434" s="4"/>
     </row>
-    <row r="435" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -19215,7 +19255,7 @@
       <c r="AB435" s="4"/>
       <c r="AC435" s="4"/>
     </row>
-    <row r="436" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -19246,7 +19286,7 @@
       <c r="AB436" s="4"/>
       <c r="AC436" s="4"/>
     </row>
-    <row r="437" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -19277,7 +19317,7 @@
       <c r="AB437" s="4"/>
       <c r="AC437" s="4"/>
     </row>
-    <row r="438" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -19308,7 +19348,7 @@
       <c r="AB438" s="4"/>
       <c r="AC438" s="4"/>
     </row>
-    <row r="439" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -19339,7 +19379,7 @@
       <c r="AB439" s="4"/>
       <c r="AC439" s="4"/>
     </row>
-    <row r="440" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -19370,7 +19410,7 @@
       <c r="AB440" s="4"/>
       <c r="AC440" s="4"/>
     </row>
-    <row r="441" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -19401,7 +19441,7 @@
       <c r="AB441" s="4"/>
       <c r="AC441" s="4"/>
     </row>
-    <row r="442" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -19432,7 +19472,7 @@
       <c r="AB442" s="4"/>
       <c r="AC442" s="4"/>
     </row>
-    <row r="443" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -19463,7 +19503,7 @@
       <c r="AB443" s="4"/>
       <c r="AC443" s="4"/>
     </row>
-    <row r="444" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -19494,7 +19534,7 @@
       <c r="AB444" s="4"/>
       <c r="AC444" s="4"/>
     </row>
-    <row r="445" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -19525,7 +19565,7 @@
       <c r="AB445" s="4"/>
       <c r="AC445" s="4"/>
     </row>
-    <row r="446" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -19556,7 +19596,7 @@
       <c r="AB446" s="4"/>
       <c r="AC446" s="4"/>
     </row>
-    <row r="447" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -19587,7 +19627,7 @@
       <c r="AB447" s="4"/>
       <c r="AC447" s="4"/>
     </row>
-    <row r="448" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -19618,7 +19658,7 @@
       <c r="AB448" s="4"/>
       <c r="AC448" s="4"/>
     </row>
-    <row r="449" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -19649,7 +19689,7 @@
       <c r="AB449" s="4"/>
       <c r="AC449" s="4"/>
     </row>
-    <row r="450" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -19680,7 +19720,7 @@
       <c r="AB450" s="4"/>
       <c r="AC450" s="4"/>
     </row>
-    <row r="451" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -19711,7 +19751,7 @@
       <c r="AB451" s="4"/>
       <c r="AC451" s="4"/>
     </row>
-    <row r="452" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -19742,7 +19782,7 @@
       <c r="AB452" s="4"/>
       <c r="AC452" s="4"/>
     </row>
-    <row r="453" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -19773,7 +19813,7 @@
       <c r="AB453" s="4"/>
       <c r="AC453" s="4"/>
     </row>
-    <row r="454" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -19804,7 +19844,7 @@
       <c r="AB454" s="4"/>
       <c r="AC454" s="4"/>
     </row>
-    <row r="455" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -19835,7 +19875,7 @@
       <c r="AB455" s="4"/>
       <c r="AC455" s="4"/>
     </row>
-    <row r="456" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -19866,7 +19906,7 @@
       <c r="AB456" s="4"/>
       <c r="AC456" s="4"/>
     </row>
-    <row r="457" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -19897,7 +19937,7 @@
       <c r="AB457" s="4"/>
       <c r="AC457" s="4"/>
     </row>
-    <row r="458" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -19928,7 +19968,7 @@
       <c r="AB458" s="4"/>
       <c r="AC458" s="4"/>
     </row>
-    <row r="459" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -19959,7 +19999,7 @@
       <c r="AB459" s="4"/>
       <c r="AC459" s="4"/>
     </row>
-    <row r="460" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -19990,7 +20030,7 @@
       <c r="AB460" s="4"/>
       <c r="AC460" s="4"/>
     </row>
-    <row r="461" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -20021,7 +20061,7 @@
       <c r="AB461" s="4"/>
       <c r="AC461" s="4"/>
     </row>
-    <row r="462" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -20052,7 +20092,7 @@
       <c r="AB462" s="4"/>
       <c r="AC462" s="4"/>
     </row>
-    <row r="463" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -20083,7 +20123,7 @@
       <c r="AB463" s="4"/>
       <c r="AC463" s="4"/>
     </row>
-    <row r="464" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -20114,7 +20154,7 @@
       <c r="AB464" s="4"/>
       <c r="AC464" s="4"/>
     </row>
-    <row r="465" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -20145,7 +20185,7 @@
       <c r="AB465" s="4"/>
       <c r="AC465" s="4"/>
     </row>
-    <row r="466" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -20176,7 +20216,7 @@
       <c r="AB466" s="4"/>
       <c r="AC466" s="4"/>
     </row>
-    <row r="467" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -20207,7 +20247,7 @@
       <c r="AB467" s="4"/>
       <c r="AC467" s="4"/>
     </row>
-    <row r="468" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -20238,7 +20278,7 @@
       <c r="AB468" s="4"/>
       <c r="AC468" s="4"/>
     </row>
-    <row r="469" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -20269,7 +20309,7 @@
       <c r="AB469" s="4"/>
       <c r="AC469" s="4"/>
     </row>
-    <row r="470" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -20300,7 +20340,7 @@
       <c r="AB470" s="4"/>
       <c r="AC470" s="4"/>
     </row>
-    <row r="471" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -20331,7 +20371,7 @@
       <c r="AB471" s="4"/>
       <c r="AC471" s="4"/>
     </row>
-    <row r="472" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -20362,7 +20402,7 @@
       <c r="AB472" s="4"/>
       <c r="AC472" s="4"/>
     </row>
-    <row r="473" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -20393,7 +20433,7 @@
       <c r="AB473" s="4"/>
       <c r="AC473" s="4"/>
     </row>
-    <row r="474" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -20424,7 +20464,7 @@
       <c r="AB474" s="4"/>
       <c r="AC474" s="4"/>
     </row>
-    <row r="475" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -20455,7 +20495,7 @@
       <c r="AB475" s="4"/>
       <c r="AC475" s="4"/>
     </row>
-    <row r="476" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -20486,7 +20526,7 @@
       <c r="AB476" s="4"/>
       <c r="AC476" s="4"/>
     </row>
-    <row r="477" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -20517,7 +20557,7 @@
       <c r="AB477" s="4"/>
       <c r="AC477" s="4"/>
     </row>
-    <row r="478" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -20548,7 +20588,7 @@
       <c r="AB478" s="4"/>
       <c r="AC478" s="4"/>
     </row>
-    <row r="479" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -20579,7 +20619,7 @@
       <c r="AB479" s="4"/>
       <c r="AC479" s="4"/>
     </row>
-    <row r="480" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -20610,7 +20650,7 @@
       <c r="AB480" s="4"/>
       <c r="AC480" s="4"/>
     </row>
-    <row r="481" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -20641,7 +20681,7 @@
       <c r="AB481" s="4"/>
       <c r="AC481" s="4"/>
     </row>
-    <row r="482" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -20672,7 +20712,7 @@
       <c r="AB482" s="4"/>
       <c r="AC482" s="4"/>
     </row>
-    <row r="483" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -20703,7 +20743,7 @@
       <c r="AB483" s="4"/>
       <c r="AC483" s="4"/>
     </row>
-    <row r="484" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -20734,7 +20774,7 @@
       <c r="AB484" s="4"/>
       <c r="AC484" s="4"/>
     </row>
-    <row r="485" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -20765,7 +20805,7 @@
       <c r="AB485" s="4"/>
       <c r="AC485" s="4"/>
     </row>
-    <row r="486" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -20796,7 +20836,7 @@
       <c r="AB486" s="4"/>
       <c r="AC486" s="4"/>
     </row>
-    <row r="487" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -20827,7 +20867,7 @@
       <c r="AB487" s="4"/>
       <c r="AC487" s="4"/>
     </row>
-    <row r="488" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -20858,7 +20898,7 @@
       <c r="AB488" s="4"/>
       <c r="AC488" s="4"/>
     </row>
-    <row r="489" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -20889,7 +20929,7 @@
       <c r="AB489" s="4"/>
       <c r="AC489" s="4"/>
     </row>
-    <row r="490" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -20920,7 +20960,7 @@
       <c r="AB490" s="4"/>
       <c r="AC490" s="4"/>
     </row>
-    <row r="491" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -20951,7 +20991,7 @@
       <c r="AB491" s="4"/>
       <c r="AC491" s="4"/>
     </row>
-    <row r="492" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -20982,7 +21022,7 @@
       <c r="AB492" s="4"/>
       <c r="AC492" s="4"/>
     </row>
-    <row r="493" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -21013,7 +21053,7 @@
       <c r="AB493" s="4"/>
       <c r="AC493" s="4"/>
     </row>
-    <row r="494" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -21044,7 +21084,7 @@
       <c r="AB494" s="4"/>
       <c r="AC494" s="4"/>
     </row>
-    <row r="495" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -21075,7 +21115,7 @@
       <c r="AB495" s="4"/>
       <c r="AC495" s="4"/>
     </row>
-    <row r="496" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -21106,7 +21146,7 @@
       <c r="AB496" s="4"/>
       <c r="AC496" s="4"/>
     </row>
-    <row r="497" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -21137,7 +21177,7 @@
       <c r="AB497" s="4"/>
       <c r="AC497" s="4"/>
     </row>
-    <row r="498" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -21168,7 +21208,7 @@
       <c r="AB498" s="4"/>
       <c r="AC498" s="4"/>
     </row>
-    <row r="499" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -21199,7 +21239,7 @@
       <c r="AB499" s="4"/>
       <c r="AC499" s="4"/>
     </row>
-    <row r="500" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -21230,7 +21270,7 @@
       <c r="AB500" s="4"/>
       <c r="AC500" s="4"/>
     </row>
-    <row r="501" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -21261,7 +21301,7 @@
       <c r="AB501" s="4"/>
       <c r="AC501" s="4"/>
     </row>
-    <row r="502" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -21292,7 +21332,7 @@
       <c r="AB502" s="4"/>
       <c r="AC502" s="4"/>
     </row>
-    <row r="503" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -21323,7 +21363,7 @@
       <c r="AB503" s="4"/>
       <c r="AC503" s="4"/>
     </row>
-    <row r="504" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -21354,7 +21394,7 @@
       <c r="AB504" s="4"/>
       <c r="AC504" s="4"/>
     </row>
-    <row r="505" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -21385,7 +21425,7 @@
       <c r="AB505" s="4"/>
       <c r="AC505" s="4"/>
     </row>
-    <row r="506" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -21416,7 +21456,7 @@
       <c r="AB506" s="4"/>
       <c r="AC506" s="4"/>
     </row>
-    <row r="507" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -21447,7 +21487,7 @@
       <c r="AB507" s="4"/>
       <c r="AC507" s="4"/>
     </row>
-    <row r="508" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -21478,7 +21518,7 @@
       <c r="AB508" s="4"/>
       <c r="AC508" s="4"/>
     </row>
-    <row r="509" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -21509,7 +21549,7 @@
       <c r="AB509" s="4"/>
       <c r="AC509" s="4"/>
     </row>
-    <row r="510" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -21540,7 +21580,7 @@
       <c r="AB510" s="4"/>
       <c r="AC510" s="4"/>
     </row>
-    <row r="511" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -21571,7 +21611,7 @@
       <c r="AB511" s="4"/>
       <c r="AC511" s="4"/>
     </row>
-    <row r="512" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -21602,7 +21642,7 @@
       <c r="AB512" s="4"/>
       <c r="AC512" s="4"/>
     </row>
-    <row r="513" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -21633,7 +21673,7 @@
       <c r="AB513" s="4"/>
       <c r="AC513" s="4"/>
     </row>
-    <row r="514" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -21664,7 +21704,7 @@
       <c r="AB514" s="4"/>
       <c r="AC514" s="4"/>
     </row>
-    <row r="515" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -21695,7 +21735,7 @@
       <c r="AB515" s="4"/>
       <c r="AC515" s="4"/>
     </row>
-    <row r="516" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -21726,7 +21766,7 @@
       <c r="AB516" s="4"/>
       <c r="AC516" s="4"/>
     </row>
-    <row r="517" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -21757,7 +21797,7 @@
       <c r="AB517" s="4"/>
       <c r="AC517" s="4"/>
     </row>
-    <row r="518" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -21788,7 +21828,7 @@
       <c r="AB518" s="4"/>
       <c r="AC518" s="4"/>
     </row>
-    <row r="519" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -21819,7 +21859,7 @@
       <c r="AB519" s="4"/>
       <c r="AC519" s="4"/>
     </row>
-    <row r="520" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -21850,7 +21890,7 @@
       <c r="AB520" s="4"/>
       <c r="AC520" s="4"/>
     </row>
-    <row r="521" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -21881,7 +21921,7 @@
       <c r="AB521" s="4"/>
       <c r="AC521" s="4"/>
     </row>
-    <row r="522" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -21912,7 +21952,7 @@
       <c r="AB522" s="4"/>
       <c r="AC522" s="4"/>
     </row>
-    <row r="523" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -21943,7 +21983,7 @@
       <c r="AB523" s="4"/>
       <c r="AC523" s="4"/>
     </row>
-    <row r="524" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -21974,7 +22014,7 @@
       <c r="AB524" s="4"/>
       <c r="AC524" s="4"/>
     </row>
-    <row r="525" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -22005,7 +22045,7 @@
       <c r="AB525" s="4"/>
       <c r="AC525" s="4"/>
     </row>
-    <row r="526" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -22036,7 +22076,7 @@
       <c r="AB526" s="4"/>
       <c r="AC526" s="4"/>
     </row>
-    <row r="527" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -22067,7 +22107,7 @@
       <c r="AB527" s="4"/>
       <c r="AC527" s="4"/>
     </row>
-    <row r="528" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -22098,7 +22138,7 @@
       <c r="AB528" s="4"/>
       <c r="AC528" s="4"/>
     </row>
-    <row r="529" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -22129,7 +22169,7 @@
       <c r="AB529" s="4"/>
       <c r="AC529" s="4"/>
     </row>
-    <row r="530" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -22160,7 +22200,7 @@
       <c r="AB530" s="4"/>
       <c r="AC530" s="4"/>
     </row>
-    <row r="531" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -22191,7 +22231,7 @@
       <c r="AB531" s="4"/>
       <c r="AC531" s="4"/>
     </row>
-    <row r="532" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -22222,7 +22262,7 @@
       <c r="AB532" s="4"/>
       <c r="AC532" s="4"/>
     </row>
-    <row r="533" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -22253,7 +22293,7 @@
       <c r="AB533" s="4"/>
       <c r="AC533" s="4"/>
     </row>
-    <row r="534" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -22284,7 +22324,7 @@
       <c r="AB534" s="4"/>
       <c r="AC534" s="4"/>
     </row>
-    <row r="535" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -22315,7 +22355,7 @@
       <c r="AB535" s="4"/>
       <c r="AC535" s="4"/>
     </row>
-    <row r="536" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -22346,7 +22386,7 @@
       <c r="AB536" s="4"/>
       <c r="AC536" s="4"/>
     </row>
-    <row r="537" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -22377,7 +22417,7 @@
       <c r="AB537" s="4"/>
       <c r="AC537" s="4"/>
     </row>
-    <row r="538" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -22408,7 +22448,7 @@
       <c r="AB538" s="4"/>
       <c r="AC538" s="4"/>
     </row>
-    <row r="539" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -22439,7 +22479,7 @@
       <c r="AB539" s="4"/>
       <c r="AC539" s="4"/>
     </row>
-    <row r="540" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -22470,7 +22510,7 @@
       <c r="AB540" s="4"/>
       <c r="AC540" s="4"/>
     </row>
-    <row r="541" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -22501,7 +22541,7 @@
       <c r="AB541" s="4"/>
       <c r="AC541" s="4"/>
     </row>
-    <row r="542" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -22532,7 +22572,7 @@
       <c r="AB542" s="4"/>
       <c r="AC542" s="4"/>
     </row>
-    <row r="543" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -22563,7 +22603,7 @@
       <c r="AB543" s="4"/>
       <c r="AC543" s="4"/>
     </row>
-    <row r="544" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -22594,7 +22634,7 @@
       <c r="AB544" s="4"/>
       <c r="AC544" s="4"/>
     </row>
-    <row r="545" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -22625,7 +22665,7 @@
       <c r="AB545" s="4"/>
       <c r="AC545" s="4"/>
     </row>
-    <row r="546" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -22656,7 +22696,7 @@
       <c r="AB546" s="4"/>
       <c r="AC546" s="4"/>
     </row>
-    <row r="547" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -22687,7 +22727,7 @@
       <c r="AB547" s="4"/>
       <c r="AC547" s="4"/>
     </row>
-    <row r="548" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -22718,7 +22758,7 @@
       <c r="AB548" s="4"/>
       <c r="AC548" s="4"/>
     </row>
-    <row r="549" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -22749,7 +22789,7 @@
       <c r="AB549" s="4"/>
       <c r="AC549" s="4"/>
     </row>
-    <row r="550" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -22780,7 +22820,7 @@
       <c r="AB550" s="4"/>
       <c r="AC550" s="4"/>
     </row>
-    <row r="551" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -22811,7 +22851,7 @@
       <c r="AB551" s="4"/>
       <c r="AC551" s="4"/>
     </row>
-    <row r="552" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -22842,7 +22882,7 @@
       <c r="AB552" s="4"/>
       <c r="AC552" s="4"/>
     </row>
-    <row r="553" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -22873,7 +22913,7 @@
       <c r="AB553" s="4"/>
       <c r="AC553" s="4"/>
     </row>
-    <row r="554" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -22904,7 +22944,7 @@
       <c r="AB554" s="4"/>
       <c r="AC554" s="4"/>
     </row>
-    <row r="555" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -22935,7 +22975,7 @@
       <c r="AB555" s="4"/>
       <c r="AC555" s="4"/>
     </row>
-    <row r="556" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -22966,7 +23006,7 @@
       <c r="AB556" s="4"/>
       <c r="AC556" s="4"/>
     </row>
-    <row r="557" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -22997,7 +23037,7 @@
       <c r="AB557" s="4"/>
       <c r="AC557" s="4"/>
     </row>
-    <row r="558" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -23028,7 +23068,7 @@
       <c r="AB558" s="4"/>
       <c r="AC558" s="4"/>
     </row>
-    <row r="559" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -23059,7 +23099,7 @@
       <c r="AB559" s="4"/>
       <c r="AC559" s="4"/>
     </row>
-    <row r="560" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -23090,7 +23130,7 @@
       <c r="AB560" s="4"/>
       <c r="AC560" s="4"/>
     </row>
-    <row r="561" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -23121,7 +23161,7 @@
       <c r="AB561" s="4"/>
       <c r="AC561" s="4"/>
     </row>
-    <row r="562" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -23152,7 +23192,7 @@
       <c r="AB562" s="4"/>
       <c r="AC562" s="4"/>
     </row>
-    <row r="563" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -23183,7 +23223,7 @@
       <c r="AB563" s="4"/>
       <c r="AC563" s="4"/>
     </row>
-    <row r="564" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -23214,7 +23254,7 @@
       <c r="AB564" s="4"/>
       <c r="AC564" s="4"/>
     </row>
-    <row r="565" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -23245,7 +23285,7 @@
       <c r="AB565" s="4"/>
       <c r="AC565" s="4"/>
     </row>
-    <row r="566" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -23276,7 +23316,7 @@
       <c r="AB566" s="4"/>
       <c r="AC566" s="4"/>
     </row>
-    <row r="567" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -23307,7 +23347,7 @@
       <c r="AB567" s="4"/>
       <c r="AC567" s="4"/>
     </row>
-    <row r="568" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -23338,7 +23378,7 @@
       <c r="AB568" s="4"/>
       <c r="AC568" s="4"/>
     </row>
-    <row r="569" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -23369,7 +23409,7 @@
       <c r="AB569" s="4"/>
       <c r="AC569" s="4"/>
     </row>
-    <row r="570" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -23400,7 +23440,7 @@
       <c r="AB570" s="4"/>
       <c r="AC570" s="4"/>
     </row>
-    <row r="571" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -23431,7 +23471,7 @@
       <c r="AB571" s="4"/>
       <c r="AC571" s="4"/>
     </row>
-    <row r="572" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -23462,7 +23502,7 @@
       <c r="AB572" s="4"/>
       <c r="AC572" s="4"/>
     </row>
-    <row r="573" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -23493,7 +23533,7 @@
       <c r="AB573" s="4"/>
       <c r="AC573" s="4"/>
     </row>
-    <row r="574" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -23524,7 +23564,7 @@
       <c r="AB574" s="4"/>
       <c r="AC574" s="4"/>
     </row>
-    <row r="575" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -23555,7 +23595,7 @@
       <c r="AB575" s="4"/>
       <c r="AC575" s="4"/>
     </row>
-    <row r="576" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -23586,7 +23626,7 @@
       <c r="AB576" s="4"/>
       <c r="AC576" s="4"/>
     </row>
-    <row r="577" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -23617,7 +23657,7 @@
       <c r="AB577" s="4"/>
       <c r="AC577" s="4"/>
     </row>
-    <row r="578" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -23648,7 +23688,7 @@
       <c r="AB578" s="4"/>
       <c r="AC578" s="4"/>
     </row>
-    <row r="579" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -23679,7 +23719,7 @@
       <c r="AB579" s="4"/>
       <c r="AC579" s="4"/>
     </row>
-    <row r="580" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -23710,7 +23750,7 @@
       <c r="AB580" s="4"/>
       <c r="AC580" s="4"/>
     </row>
-    <row r="581" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -23741,7 +23781,7 @@
       <c r="AB581" s="4"/>
       <c r="AC581" s="4"/>
     </row>
-    <row r="582" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -23772,7 +23812,7 @@
       <c r="AB582" s="4"/>
       <c r="AC582" s="4"/>
     </row>
-    <row r="583" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -23803,7 +23843,7 @@
       <c r="AB583" s="4"/>
       <c r="AC583" s="4"/>
     </row>
-    <row r="584" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -23834,7 +23874,7 @@
       <c r="AB584" s="4"/>
       <c r="AC584" s="4"/>
     </row>
-    <row r="585" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -23865,7 +23905,7 @@
       <c r="AB585" s="4"/>
       <c r="AC585" s="4"/>
     </row>
-    <row r="586" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -23896,7 +23936,7 @@
       <c r="AB586" s="4"/>
       <c r="AC586" s="4"/>
     </row>
-    <row r="587" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -23927,7 +23967,7 @@
       <c r="AB587" s="4"/>
       <c r="AC587" s="4"/>
     </row>
-    <row r="588" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -23958,7 +23998,7 @@
       <c r="AB588" s="4"/>
       <c r="AC588" s="4"/>
     </row>
-    <row r="589" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -23989,7 +24029,7 @@
       <c r="AB589" s="4"/>
       <c r="AC589" s="4"/>
     </row>
-    <row r="590" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -24020,7 +24060,7 @@
       <c r="AB590" s="4"/>
       <c r="AC590" s="4"/>
     </row>
-    <row r="591" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -24051,7 +24091,7 @@
       <c r="AB591" s="4"/>
       <c r="AC591" s="4"/>
     </row>
-    <row r="592" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -24082,7 +24122,7 @@
       <c r="AB592" s="4"/>
       <c r="AC592" s="4"/>
     </row>
-    <row r="593" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -24113,7 +24153,7 @@
       <c r="AB593" s="4"/>
       <c r="AC593" s="4"/>
     </row>
-    <row r="594" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -24144,7 +24184,7 @@
       <c r="AB594" s="4"/>
       <c r="AC594" s="4"/>
     </row>
-    <row r="595" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -24175,7 +24215,7 @@
       <c r="AB595" s="4"/>
       <c r="AC595" s="4"/>
     </row>
-    <row r="596" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -24206,7 +24246,7 @@
       <c r="AB596" s="4"/>
       <c r="AC596" s="4"/>
     </row>
-    <row r="597" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -24237,7 +24277,7 @@
       <c r="AB597" s="4"/>
       <c r="AC597" s="4"/>
     </row>
-    <row r="598" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -24268,7 +24308,7 @@
       <c r="AB598" s="4"/>
       <c r="AC598" s="4"/>
     </row>
-    <row r="599" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -24299,7 +24339,7 @@
       <c r="AB599" s="4"/>
       <c r="AC599" s="4"/>
     </row>
-    <row r="600" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -24330,7 +24370,7 @@
       <c r="AB600" s="4"/>
       <c r="AC600" s="4"/>
     </row>
-    <row r="601" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -24361,7 +24401,7 @@
       <c r="AB601" s="4"/>
       <c r="AC601" s="4"/>
     </row>
-    <row r="602" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -24392,7 +24432,7 @@
       <c r="AB602" s="4"/>
       <c r="AC602" s="4"/>
     </row>
-    <row r="603" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -24423,7 +24463,7 @@
       <c r="AB603" s="4"/>
       <c r="AC603" s="4"/>
     </row>
-    <row r="604" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -24454,7 +24494,7 @@
       <c r="AB604" s="4"/>
       <c r="AC604" s="4"/>
     </row>
-    <row r="605" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -24485,7 +24525,7 @@
       <c r="AB605" s="4"/>
       <c r="AC605" s="4"/>
     </row>
-    <row r="606" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -24516,7 +24556,7 @@
       <c r="AB606" s="4"/>
       <c r="AC606" s="4"/>
     </row>
-    <row r="607" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -24547,7 +24587,7 @@
       <c r="AB607" s="4"/>
       <c r="AC607" s="4"/>
     </row>
-    <row r="608" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -24578,7 +24618,7 @@
       <c r="AB608" s="4"/>
       <c r="AC608" s="4"/>
     </row>
-    <row r="609" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -24609,7 +24649,7 @@
       <c r="AB609" s="4"/>
       <c r="AC609" s="4"/>
     </row>
-    <row r="610" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -24640,7 +24680,7 @@
       <c r="AB610" s="4"/>
       <c r="AC610" s="4"/>
     </row>
-    <row r="611" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -24671,7 +24711,7 @@
       <c r="AB611" s="4"/>
       <c r="AC611" s="4"/>
     </row>
-    <row r="612" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -24702,7 +24742,7 @@
       <c r="AB612" s="4"/>
       <c r="AC612" s="4"/>
     </row>
-    <row r="613" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -24733,7 +24773,7 @@
       <c r="AB613" s="4"/>
       <c r="AC613" s="4"/>
     </row>
-    <row r="614" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -24764,7 +24804,7 @@
       <c r="AB614" s="4"/>
       <c r="AC614" s="4"/>
     </row>
-    <row r="615" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -24795,7 +24835,7 @@
       <c r="AB615" s="4"/>
       <c r="AC615" s="4"/>
     </row>
-    <row r="616" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -24826,7 +24866,7 @@
       <c r="AB616" s="4"/>
       <c r="AC616" s="4"/>
     </row>
-    <row r="617" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -24857,7 +24897,7 @@
       <c r="AB617" s="4"/>
       <c r="AC617" s="4"/>
     </row>
-    <row r="618" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -24888,7 +24928,7 @@
       <c r="AB618" s="4"/>
       <c r="AC618" s="4"/>
     </row>
-    <row r="619" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -24919,7 +24959,7 @@
       <c r="AB619" s="4"/>
       <c r="AC619" s="4"/>
     </row>
-    <row r="620" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -24950,7 +24990,7 @@
       <c r="AB620" s="4"/>
       <c r="AC620" s="4"/>
     </row>
-    <row r="621" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -24981,7 +25021,7 @@
       <c r="AB621" s="4"/>
       <c r="AC621" s="4"/>
     </row>
-    <row r="622" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -25012,7 +25052,7 @@
       <c r="AB622" s="4"/>
       <c r="AC622" s="4"/>
     </row>
-    <row r="623" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -25043,7 +25083,7 @@
       <c r="AB623" s="4"/>
       <c r="AC623" s="4"/>
     </row>
-    <row r="624" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -25074,7 +25114,7 @@
       <c r="AB624" s="4"/>
       <c r="AC624" s="4"/>
     </row>
-    <row r="625" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -25105,7 +25145,7 @@
       <c r="AB625" s="4"/>
       <c r="AC625" s="4"/>
     </row>
-    <row r="626" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -25136,7 +25176,7 @@
       <c r="AB626" s="4"/>
       <c r="AC626" s="4"/>
     </row>
-    <row r="627" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -25167,7 +25207,7 @@
       <c r="AB627" s="4"/>
       <c r="AC627" s="4"/>
     </row>
-    <row r="628" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -25198,7 +25238,7 @@
       <c r="AB628" s="4"/>
       <c r="AC628" s="4"/>
     </row>
-    <row r="629" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -25229,7 +25269,7 @@
       <c r="AB629" s="4"/>
       <c r="AC629" s="4"/>
     </row>
-    <row r="630" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -25260,7 +25300,7 @@
       <c r="AB630" s="4"/>
       <c r="AC630" s="4"/>
     </row>
-    <row r="631" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -25291,7 +25331,7 @@
       <c r="AB631" s="4"/>
       <c r="AC631" s="4"/>
     </row>
-    <row r="632" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -25322,7 +25362,7 @@
       <c r="AB632" s="4"/>
       <c r="AC632" s="4"/>
     </row>
-    <row r="633" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -25353,7 +25393,7 @@
       <c r="AB633" s="4"/>
       <c r="AC633" s="4"/>
     </row>
-    <row r="634" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -25384,7 +25424,7 @@
       <c r="AB634" s="4"/>
       <c r="AC634" s="4"/>
     </row>
-    <row r="635" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -25415,7 +25455,7 @@
       <c r="AB635" s="4"/>
       <c r="AC635" s="4"/>
     </row>
-    <row r="636" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -25446,7 +25486,7 @@
       <c r="AB636" s="4"/>
       <c r="AC636" s="4"/>
     </row>
-    <row r="637" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -25477,7 +25517,7 @@
       <c r="AB637" s="4"/>
       <c r="AC637" s="4"/>
     </row>
-    <row r="638" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -25508,7 +25548,7 @@
       <c r="AB638" s="4"/>
       <c r="AC638" s="4"/>
     </row>
-    <row r="639" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -25539,7 +25579,7 @@
       <c r="AB639" s="4"/>
       <c r="AC639" s="4"/>
     </row>
-    <row r="640" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -25570,7 +25610,7 @@
       <c r="AB640" s="4"/>
       <c r="AC640" s="4"/>
     </row>
-    <row r="641" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -25601,7 +25641,7 @@
       <c r="AB641" s="4"/>
       <c r="AC641" s="4"/>
     </row>
-    <row r="642" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -25632,7 +25672,7 @@
       <c r="AB642" s="4"/>
       <c r="AC642" s="4"/>
     </row>
-    <row r="643" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -25663,7 +25703,7 @@
       <c r="AB643" s="4"/>
       <c r="AC643" s="4"/>
     </row>
-    <row r="644" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -25694,7 +25734,7 @@
       <c r="AB644" s="4"/>
       <c r="AC644" s="4"/>
     </row>
-    <row r="645" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -25725,7 +25765,7 @@
       <c r="AB645" s="4"/>
       <c r="AC645" s="4"/>
     </row>
-    <row r="646" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -25756,7 +25796,7 @@
       <c r="AB646" s="4"/>
       <c r="AC646" s="4"/>
     </row>
-    <row r="647" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -25787,7 +25827,7 @@
       <c r="AB647" s="4"/>
       <c r="AC647" s="4"/>
     </row>
-    <row r="648" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -25818,7 +25858,7 @@
       <c r="AB648" s="4"/>
       <c r="AC648" s="4"/>
     </row>
-    <row r="649" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -25849,7 +25889,7 @@
       <c r="AB649" s="4"/>
       <c r="AC649" s="4"/>
     </row>
-    <row r="650" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -25880,7 +25920,7 @@
       <c r="AB650" s="4"/>
       <c r="AC650" s="4"/>
     </row>
-    <row r="651" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -25911,7 +25951,7 @@
       <c r="AB651" s="4"/>
       <c r="AC651" s="4"/>
     </row>
-    <row r="652" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -25942,7 +25982,7 @@
       <c r="AB652" s="4"/>
       <c r="AC652" s="4"/>
     </row>
-    <row r="653" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -25973,7 +26013,7 @@
       <c r="AB653" s="4"/>
       <c r="AC653" s="4"/>
     </row>
-    <row r="654" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -26004,7 +26044,7 @@
       <c r="AB654" s="4"/>
       <c r="AC654" s="4"/>
     </row>
-    <row r="655" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -26035,7 +26075,7 @@
       <c r="AB655" s="4"/>
       <c r="AC655" s="4"/>
     </row>
-    <row r="656" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -26066,7 +26106,7 @@
       <c r="AB656" s="4"/>
       <c r="AC656" s="4"/>
     </row>
-    <row r="657" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -26097,7 +26137,7 @@
       <c r="AB657" s="4"/>
       <c r="AC657" s="4"/>
     </row>
-    <row r="658" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -26128,7 +26168,7 @@
       <c r="AB658" s="4"/>
       <c r="AC658" s="4"/>
     </row>
-    <row r="659" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -26159,7 +26199,7 @@
       <c r="AB659" s="4"/>
       <c r="AC659" s="4"/>
     </row>
-    <row r="660" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -26190,7 +26230,7 @@
       <c r="AB660" s="4"/>
       <c r="AC660" s="4"/>
     </row>
-    <row r="661" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -26221,7 +26261,7 @@
       <c r="AB661" s="4"/>
       <c r="AC661" s="4"/>
     </row>
-    <row r="662" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -26252,7 +26292,7 @@
       <c r="AB662" s="4"/>
       <c r="AC662" s="4"/>
     </row>
-    <row r="663" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -26283,7 +26323,7 @@
       <c r="AB663" s="4"/>
       <c r="AC663" s="4"/>
     </row>
-    <row r="664" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -26314,7 +26354,7 @@
       <c r="AB664" s="4"/>
       <c r="AC664" s="4"/>
     </row>
-    <row r="665" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -26345,7 +26385,7 @@
       <c r="AB665" s="4"/>
       <c r="AC665" s="4"/>
     </row>
-    <row r="666" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -26376,7 +26416,7 @@
       <c r="AB666" s="4"/>
       <c r="AC666" s="4"/>
     </row>
-    <row r="667" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -26407,7 +26447,7 @@
       <c r="AB667" s="4"/>
       <c r="AC667" s="4"/>
     </row>
-    <row r="668" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -26438,7 +26478,7 @@
       <c r="AB668" s="4"/>
       <c r="AC668" s="4"/>
     </row>
-    <row r="669" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -26469,7 +26509,7 @@
       <c r="AB669" s="4"/>
       <c r="AC669" s="4"/>
     </row>
-    <row r="670" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -26500,7 +26540,7 @@
       <c r="AB670" s="4"/>
       <c r="AC670" s="4"/>
     </row>
-    <row r="671" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -26531,7 +26571,7 @@
       <c r="AB671" s="4"/>
       <c r="AC671" s="4"/>
     </row>
-    <row r="672" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -26562,7 +26602,7 @@
       <c r="AB672" s="4"/>
       <c r="AC672" s="4"/>
     </row>
-    <row r="673" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -26593,7 +26633,7 @@
       <c r="AB673" s="4"/>
       <c r="AC673" s="4"/>
     </row>
-    <row r="674" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -26624,7 +26664,7 @@
       <c r="AB674" s="4"/>
       <c r="AC674" s="4"/>
     </row>
-    <row r="675" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -26655,7 +26695,7 @@
       <c r="AB675" s="4"/>
       <c r="AC675" s="4"/>
     </row>
-    <row r="676" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -26686,7 +26726,7 @@
       <c r="AB676" s="4"/>
       <c r="AC676" s="4"/>
     </row>
-    <row r="677" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -26717,7 +26757,7 @@
       <c r="AB677" s="4"/>
       <c r="AC677" s="4"/>
     </row>
-    <row r="678" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -26748,7 +26788,7 @@
       <c r="AB678" s="4"/>
       <c r="AC678" s="4"/>
     </row>
-    <row r="679" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -26779,7 +26819,7 @@
       <c r="AB679" s="4"/>
       <c r="AC679" s="4"/>
     </row>
-    <row r="680" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -26810,7 +26850,7 @@
       <c r="AB680" s="4"/>
       <c r="AC680" s="4"/>
     </row>
-    <row r="681" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -26841,7 +26881,7 @@
       <c r="AB681" s="4"/>
       <c r="AC681" s="4"/>
     </row>
-    <row r="682" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -26872,7 +26912,7 @@
       <c r="AB682" s="4"/>
       <c r="AC682" s="4"/>
     </row>
-    <row r="683" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -26903,7 +26943,7 @@
       <c r="AB683" s="4"/>
       <c r="AC683" s="4"/>
     </row>
-    <row r="684" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -26934,7 +26974,7 @@
       <c r="AB684" s="4"/>
       <c r="AC684" s="4"/>
     </row>
-    <row r="685" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -26965,7 +27005,7 @@
       <c r="AB685" s="4"/>
       <c r="AC685" s="4"/>
     </row>
-    <row r="686" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -26996,7 +27036,7 @@
       <c r="AB686" s="4"/>
       <c r="AC686" s="4"/>
     </row>
-    <row r="687" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -27027,7 +27067,7 @@
       <c r="AB687" s="4"/>
       <c r="AC687" s="4"/>
     </row>
-    <row r="688" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -27058,7 +27098,7 @@
       <c r="AB688" s="4"/>
       <c r="AC688" s="4"/>
     </row>
-    <row r="689" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -27089,7 +27129,7 @@
       <c r="AB689" s="4"/>
       <c r="AC689" s="4"/>
     </row>
-    <row r="690" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -27120,7 +27160,7 @@
       <c r="AB690" s="4"/>
       <c r="AC690" s="4"/>
     </row>
-    <row r="691" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -27151,7 +27191,7 @@
       <c r="AB691" s="4"/>
       <c r="AC691" s="4"/>
     </row>
-    <row r="692" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -27182,7 +27222,7 @@
       <c r="AB692" s="4"/>
       <c r="AC692" s="4"/>
     </row>
-    <row r="693" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -27213,7 +27253,7 @@
       <c r="AB693" s="4"/>
       <c r="AC693" s="4"/>
     </row>
-    <row r="694" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -27244,7 +27284,7 @@
       <c r="AB694" s="4"/>
       <c r="AC694" s="4"/>
     </row>
-    <row r="695" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -27275,7 +27315,7 @@
       <c r="AB695" s="4"/>
       <c r="AC695" s="4"/>
     </row>
-    <row r="696" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -27306,7 +27346,7 @@
       <c r="AB696" s="4"/>
       <c r="AC696" s="4"/>
     </row>
-    <row r="697" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -27337,7 +27377,7 @@
       <c r="AB697" s="4"/>
       <c r="AC697" s="4"/>
     </row>
-    <row r="698" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -27368,7 +27408,7 @@
       <c r="AB698" s="4"/>
       <c r="AC698" s="4"/>
     </row>
-    <row r="699" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -27399,7 +27439,7 @@
       <c r="AB699" s="4"/>
       <c r="AC699" s="4"/>
     </row>
-    <row r="700" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -27430,7 +27470,7 @@
       <c r="AB700" s="4"/>
       <c r="AC700" s="4"/>
     </row>
-    <row r="701" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -27461,7 +27501,7 @@
       <c r="AB701" s="4"/>
       <c r="AC701" s="4"/>
     </row>
-    <row r="702" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -27492,7 +27532,7 @@
       <c r="AB702" s="4"/>
       <c r="AC702" s="4"/>
     </row>
-    <row r="703" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -27523,7 +27563,7 @@
       <c r="AB703" s="4"/>
       <c r="AC703" s="4"/>
     </row>
-    <row r="704" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -27554,7 +27594,7 @@
       <c r="AB704" s="4"/>
       <c r="AC704" s="4"/>
     </row>
-    <row r="705" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -27585,7 +27625,7 @@
       <c r="AB705" s="4"/>
       <c r="AC705" s="4"/>
     </row>
-    <row r="706" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -27616,7 +27656,7 @@
       <c r="AB706" s="4"/>
       <c r="AC706" s="4"/>
     </row>
-    <row r="707" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -27647,7 +27687,7 @@
       <c r="AB707" s="4"/>
       <c r="AC707" s="4"/>
     </row>
-    <row r="708" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -27678,7 +27718,7 @@
       <c r="AB708" s="4"/>
       <c r="AC708" s="4"/>
     </row>
-    <row r="709" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -27709,7 +27749,7 @@
       <c r="AB709" s="4"/>
       <c r="AC709" s="4"/>
     </row>
-    <row r="710" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -27740,7 +27780,7 @@
       <c r="AB710" s="4"/>
       <c r="AC710" s="4"/>
     </row>
-    <row r="711" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -27771,7 +27811,7 @@
       <c r="AB711" s="4"/>
       <c r="AC711" s="4"/>
     </row>
-    <row r="712" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -27802,7 +27842,7 @@
       <c r="AB712" s="4"/>
       <c r="AC712" s="4"/>
     </row>
-    <row r="713" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -27833,7 +27873,7 @@
       <c r="AB713" s="4"/>
       <c r="AC713" s="4"/>
     </row>
-    <row r="714" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -27864,7 +27904,7 @@
       <c r="AB714" s="4"/>
       <c r="AC714" s="4"/>
     </row>
-    <row r="715" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -27895,7 +27935,7 @@
       <c r="AB715" s="4"/>
       <c r="AC715" s="4"/>
     </row>
-    <row r="716" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -27926,7 +27966,7 @@
       <c r="AB716" s="4"/>
       <c r="AC716" s="4"/>
     </row>
-    <row r="717" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -27957,7 +27997,7 @@
       <c r="AB717" s="4"/>
       <c r="AC717" s="4"/>
     </row>
-    <row r="718" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -27988,7 +28028,7 @@
       <c r="AB718" s="4"/>
       <c r="AC718" s="4"/>
     </row>
-    <row r="719" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -28019,7 +28059,7 @@
       <c r="AB719" s="4"/>
       <c r="AC719" s="4"/>
     </row>
-    <row r="720" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -28050,7 +28090,7 @@
       <c r="AB720" s="4"/>
       <c r="AC720" s="4"/>
     </row>
-    <row r="721" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -28081,7 +28121,7 @@
       <c r="AB721" s="4"/>
       <c r="AC721" s="4"/>
     </row>
-    <row r="722" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -28112,7 +28152,7 @@
       <c r="AB722" s="4"/>
       <c r="AC722" s="4"/>
     </row>
-    <row r="723" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -28143,7 +28183,7 @@
       <c r="AB723" s="4"/>
       <c r="AC723" s="4"/>
     </row>
-    <row r="724" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -28174,7 +28214,7 @@
       <c r="AB724" s="4"/>
       <c r="AC724" s="4"/>
     </row>
-    <row r="725" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -28205,7 +28245,7 @@
       <c r="AB725" s="4"/>
       <c r="AC725" s="4"/>
     </row>
-    <row r="726" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -28236,7 +28276,7 @@
       <c r="AB726" s="4"/>
       <c r="AC726" s="4"/>
     </row>
-    <row r="727" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -28267,7 +28307,7 @@
       <c r="AB727" s="4"/>
       <c r="AC727" s="4"/>
     </row>
-    <row r="728" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -28298,7 +28338,7 @@
       <c r="AB728" s="4"/>
       <c r="AC728" s="4"/>
     </row>
-    <row r="729" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -28329,7 +28369,7 @@
       <c r="AB729" s="4"/>
       <c r="AC729" s="4"/>
     </row>
-    <row r="730" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -28360,7 +28400,7 @@
       <c r="AB730" s="4"/>
       <c r="AC730" s="4"/>
     </row>
-    <row r="731" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -28391,7 +28431,7 @@
       <c r="AB731" s="4"/>
       <c r="AC731" s="4"/>
     </row>
-    <row r="732" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -28422,7 +28462,7 @@
       <c r="AB732" s="4"/>
       <c r="AC732" s="4"/>
     </row>
-    <row r="733" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -28453,7 +28493,7 @@
       <c r="AB733" s="4"/>
       <c r="AC733" s="4"/>
     </row>
-    <row r="734" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -28484,7 +28524,7 @@
       <c r="AB734" s="4"/>
       <c r="AC734" s="4"/>
     </row>
-    <row r="735" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -28515,7 +28555,7 @@
       <c r="AB735" s="4"/>
       <c r="AC735" s="4"/>
     </row>
-    <row r="736" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -28546,7 +28586,7 @@
       <c r="AB736" s="4"/>
       <c r="AC736" s="4"/>
     </row>
-    <row r="737" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -28577,7 +28617,7 @@
       <c r="AB737" s="4"/>
       <c r="AC737" s="4"/>
     </row>
-    <row r="738" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -28608,7 +28648,7 @@
       <c r="AB738" s="4"/>
       <c r="AC738" s="4"/>
     </row>
-    <row r="739" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -28639,7 +28679,7 @@
       <c r="AB739" s="4"/>
       <c r="AC739" s="4"/>
     </row>
-    <row r="740" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -28670,7 +28710,7 @@
       <c r="AB740" s="4"/>
       <c r="AC740" s="4"/>
     </row>
-    <row r="741" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -28701,7 +28741,7 @@
       <c r="AB741" s="4"/>
       <c r="AC741" s="4"/>
     </row>
-    <row r="742" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -28732,7 +28772,7 @@
       <c r="AB742" s="4"/>
       <c r="AC742" s="4"/>
     </row>
-    <row r="743" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -28763,7 +28803,7 @@
       <c r="AB743" s="4"/>
       <c r="AC743" s="4"/>
     </row>
-    <row r="744" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -28794,7 +28834,7 @@
       <c r="AB744" s="4"/>
       <c r="AC744" s="4"/>
     </row>
-    <row r="745" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -28825,7 +28865,7 @@
       <c r="AB745" s="4"/>
       <c r="AC745" s="4"/>
     </row>
-    <row r="746" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -28856,7 +28896,7 @@
       <c r="AB746" s="4"/>
       <c r="AC746" s="4"/>
     </row>
-    <row r="747" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -28887,7 +28927,7 @@
       <c r="AB747" s="4"/>
       <c r="AC747" s="4"/>
     </row>
-    <row r="748" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -28918,7 +28958,7 @@
       <c r="AB748" s="4"/>
       <c r="AC748" s="4"/>
     </row>
-    <row r="749" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -28949,7 +28989,7 @@
       <c r="AB749" s="4"/>
       <c r="AC749" s="4"/>
     </row>
-    <row r="750" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -28980,7 +29020,7 @@
       <c r="AB750" s="4"/>
       <c r="AC750" s="4"/>
     </row>
-    <row r="751" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -29011,7 +29051,7 @@
       <c r="AB751" s="4"/>
       <c r="AC751" s="4"/>
     </row>
-    <row r="752" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -29042,7 +29082,7 @@
       <c r="AB752" s="4"/>
       <c r="AC752" s="4"/>
     </row>
-    <row r="753" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -29073,7 +29113,7 @@
       <c r="AB753" s="4"/>
       <c r="AC753" s="4"/>
     </row>
-    <row r="754" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -29104,7 +29144,7 @@
       <c r="AB754" s="4"/>
       <c r="AC754" s="4"/>
     </row>
-    <row r="755" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -29135,7 +29175,7 @@
       <c r="AB755" s="4"/>
       <c r="AC755" s="4"/>
     </row>
-    <row r="756" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -29166,7 +29206,7 @@
       <c r="AB756" s="4"/>
       <c r="AC756" s="4"/>
     </row>
-    <row r="757" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -29197,7 +29237,7 @@
       <c r="AB757" s="4"/>
       <c r="AC757" s="4"/>
     </row>
-    <row r="758" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -29228,7 +29268,7 @@
       <c r="AB758" s="4"/>
       <c r="AC758" s="4"/>
     </row>
-    <row r="759" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -29259,7 +29299,7 @@
       <c r="AB759" s="4"/>
       <c r="AC759" s="4"/>
     </row>
-    <row r="760" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -29290,7 +29330,7 @@
       <c r="AB760" s="4"/>
       <c r="AC760" s="4"/>
     </row>
-    <row r="761" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -29321,7 +29361,7 @@
       <c r="AB761" s="4"/>
       <c r="AC761" s="4"/>
     </row>
-    <row r="762" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -29352,7 +29392,7 @@
       <c r="AB762" s="4"/>
       <c r="AC762" s="4"/>
     </row>
-    <row r="763" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -29383,7 +29423,7 @@
       <c r="AB763" s="4"/>
       <c r="AC763" s="4"/>
     </row>
-    <row r="764" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -29414,7 +29454,7 @@
       <c r="AB764" s="4"/>
       <c r="AC764" s="4"/>
     </row>
-    <row r="765" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -29445,7 +29485,7 @@
       <c r="AB765" s="4"/>
       <c r="AC765" s="4"/>
     </row>
-    <row r="766" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -29476,7 +29516,7 @@
       <c r="AB766" s="4"/>
       <c r="AC766" s="4"/>
     </row>
-    <row r="767" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -29507,7 +29547,7 @@
       <c r="AB767" s="4"/>
       <c r="AC767" s="4"/>
     </row>
-    <row r="768" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -29538,7 +29578,7 @@
       <c r="AB768" s="4"/>
       <c r="AC768" s="4"/>
     </row>
-    <row r="769" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -29569,7 +29609,7 @@
       <c r="AB769" s="4"/>
       <c r="AC769" s="4"/>
     </row>
-    <row r="770" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -29600,7 +29640,7 @@
       <c r="AB770" s="4"/>
       <c r="AC770" s="4"/>
     </row>
-    <row r="771" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -29631,7 +29671,7 @@
       <c r="AB771" s="4"/>
       <c r="AC771" s="4"/>
     </row>
-    <row r="772" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -29662,7 +29702,7 @@
       <c r="AB772" s="4"/>
       <c r="AC772" s="4"/>
     </row>
-    <row r="773" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -29693,7 +29733,7 @@
       <c r="AB773" s="4"/>
       <c r="AC773" s="4"/>
     </row>
-    <row r="774" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -29724,7 +29764,7 @@
       <c r="AB774" s="4"/>
       <c r="AC774" s="4"/>
     </row>
-    <row r="775" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -29755,7 +29795,7 @@
       <c r="AB775" s="4"/>
       <c r="AC775" s="4"/>
     </row>
-    <row r="776" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -29786,7 +29826,7 @@
       <c r="AB776" s="4"/>
       <c r="AC776" s="4"/>
     </row>
-    <row r="777" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -29817,7 +29857,7 @@
       <c r="AB777" s="4"/>
       <c r="AC777" s="4"/>
     </row>
-    <row r="778" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -29848,7 +29888,7 @@
       <c r="AB778" s="4"/>
       <c r="AC778" s="4"/>
     </row>
-    <row r="779" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -29879,7 +29919,7 @@
       <c r="AB779" s="4"/>
       <c r="AC779" s="4"/>
     </row>
-    <row r="780" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -29910,7 +29950,7 @@
       <c r="AB780" s="4"/>
       <c r="AC780" s="4"/>
     </row>
-    <row r="781" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -29941,7 +29981,7 @@
       <c r="AB781" s="4"/>
       <c r="AC781" s="4"/>
     </row>
-    <row r="782" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -29972,7 +30012,7 @@
       <c r="AB782" s="4"/>
       <c r="AC782" s="4"/>
     </row>
-    <row r="783" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -30003,7 +30043,7 @@
       <c r="AB783" s="4"/>
       <c r="AC783" s="4"/>
     </row>
-    <row r="784" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -30034,7 +30074,7 @@
       <c r="AB784" s="4"/>
       <c r="AC784" s="4"/>
     </row>
-    <row r="785" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -30065,7 +30105,7 @@
       <c r="AB785" s="4"/>
       <c r="AC785" s="4"/>
     </row>
-    <row r="786" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -30096,7 +30136,7 @@
       <c r="AB786" s="4"/>
       <c r="AC786" s="4"/>
     </row>
-    <row r="787" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -30127,7 +30167,7 @@
       <c r="AB787" s="4"/>
       <c r="AC787" s="4"/>
     </row>
-    <row r="788" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -30158,7 +30198,7 @@
       <c r="AB788" s="4"/>
       <c r="AC788" s="4"/>
     </row>
-    <row r="789" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -30189,7 +30229,7 @@
       <c r="AB789" s="4"/>
       <c r="AC789" s="4"/>
     </row>
-    <row r="790" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -30220,7 +30260,7 @@
       <c r="AB790" s="4"/>
       <c r="AC790" s="4"/>
     </row>
-    <row r="791" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -30251,7 +30291,7 @@
       <c r="AB791" s="4"/>
       <c r="AC791" s="4"/>
     </row>
-    <row r="792" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -30282,7 +30322,7 @@
       <c r="AB792" s="4"/>
       <c r="AC792" s="4"/>
     </row>
-    <row r="793" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -30313,7 +30353,7 @@
       <c r="AB793" s="4"/>
       <c r="AC793" s="4"/>
     </row>
-    <row r="794" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -30344,7 +30384,7 @@
       <c r="AB794" s="4"/>
       <c r="AC794" s="4"/>
     </row>
-    <row r="795" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -30375,7 +30415,7 @@
       <c r="AB795" s="4"/>
       <c r="AC795" s="4"/>
     </row>
-    <row r="796" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -30406,7 +30446,7 @@
       <c r="AB796" s="4"/>
       <c r="AC796" s="4"/>
     </row>
-    <row r="797" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -30437,7 +30477,7 @@
       <c r="AB797" s="4"/>
       <c r="AC797" s="4"/>
     </row>
-    <row r="798" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -30468,7 +30508,7 @@
       <c r="AB798" s="4"/>
       <c r="AC798" s="4"/>
     </row>
-    <row r="799" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -30499,7 +30539,7 @@
       <c r="AB799" s="4"/>
       <c r="AC799" s="4"/>
     </row>
-    <row r="800" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -30530,7 +30570,7 @@
       <c r="AB800" s="4"/>
       <c r="AC800" s="4"/>
     </row>
-    <row r="801" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -30561,7 +30601,7 @@
       <c r="AB801" s="4"/>
       <c r="AC801" s="4"/>
     </row>
-    <row r="802" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -30592,7 +30632,7 @@
       <c r="AB802" s="4"/>
       <c r="AC802" s="4"/>
     </row>
-    <row r="803" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -30623,7 +30663,7 @@
       <c r="AB803" s="4"/>
       <c r="AC803" s="4"/>
     </row>
-    <row r="804" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -30654,7 +30694,7 @@
       <c r="AB804" s="4"/>
       <c r="AC804" s="4"/>
     </row>
-    <row r="805" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -30685,7 +30725,7 @@
       <c r="AB805" s="4"/>
       <c r="AC805" s="4"/>
     </row>
-    <row r="806" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -30716,7 +30756,7 @@
       <c r="AB806" s="4"/>
       <c r="AC806" s="4"/>
     </row>
-    <row r="807" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -30747,7 +30787,7 @@
       <c r="AB807" s="4"/>
       <c r="AC807" s="4"/>
     </row>
-    <row r="808" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -30778,7 +30818,7 @@
       <c r="AB808" s="4"/>
       <c r="AC808" s="4"/>
     </row>
-    <row r="809" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -30809,7 +30849,7 @@
       <c r="AB809" s="4"/>
       <c r="AC809" s="4"/>
     </row>
-    <row r="810" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -30840,7 +30880,7 @@
       <c r="AB810" s="4"/>
       <c r="AC810" s="4"/>
     </row>
-    <row r="811" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -30871,7 +30911,7 @@
       <c r="AB811" s="4"/>
       <c r="AC811" s="4"/>
     </row>
-    <row r="812" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -30902,7 +30942,7 @@
       <c r="AB812" s="4"/>
       <c r="AC812" s="4"/>
     </row>
-    <row r="813" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -30933,7 +30973,7 @@
       <c r="AB813" s="4"/>
       <c r="AC813" s="4"/>
     </row>
-    <row r="814" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -30964,7 +31004,7 @@
       <c r="AB814" s="4"/>
       <c r="AC814" s="4"/>
     </row>
-    <row r="815" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -30995,7 +31035,7 @@
       <c r="AB815" s="4"/>
       <c r="AC815" s="4"/>
     </row>
-    <row r="816" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -31026,7 +31066,7 @@
       <c r="AB816" s="4"/>
       <c r="AC816" s="4"/>
     </row>
-    <row r="817" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -31057,7 +31097,7 @@
       <c r="AB817" s="4"/>
       <c r="AC817" s="4"/>
     </row>
-    <row r="818" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -31088,7 +31128,7 @@
       <c r="AB818" s="4"/>
       <c r="AC818" s="4"/>
     </row>
-    <row r="819" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -31119,7 +31159,7 @@
       <c r="AB819" s="4"/>
       <c r="AC819" s="4"/>
     </row>
-    <row r="820" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -31150,7 +31190,7 @@
       <c r="AB820" s="4"/>
       <c r="AC820" s="4"/>
     </row>
-    <row r="821" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -31181,7 +31221,7 @@
       <c r="AB821" s="4"/>
       <c r="AC821" s="4"/>
     </row>
-    <row r="822" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -31212,7 +31252,7 @@
       <c r="AB822" s="4"/>
       <c r="AC822" s="4"/>
     </row>
-    <row r="823" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -31243,7 +31283,7 @@
       <c r="AB823" s="4"/>
       <c r="AC823" s="4"/>
     </row>
-    <row r="824" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -31274,7 +31314,7 @@
       <c r="AB824" s="4"/>
       <c r="AC824" s="4"/>
     </row>
-    <row r="825" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -31305,7 +31345,7 @@
       <c r="AB825" s="4"/>
       <c r="AC825" s="4"/>
     </row>
-    <row r="826" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -31336,7 +31376,7 @@
       <c r="AB826" s="4"/>
       <c r="AC826" s="4"/>
     </row>
-    <row r="827" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -31367,7 +31407,7 @@
       <c r="AB827" s="4"/>
       <c r="AC827" s="4"/>
     </row>
-    <row r="828" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -31398,7 +31438,7 @@
       <c r="AB828" s="4"/>
       <c r="AC828" s="4"/>
     </row>
-    <row r="829" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -31429,7 +31469,7 @@
       <c r="AB829" s="4"/>
       <c r="AC829" s="4"/>
     </row>
-    <row r="830" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -31460,7 +31500,7 @@
       <c r="AB830" s="4"/>
       <c r="AC830" s="4"/>
     </row>
-    <row r="831" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -31491,7 +31531,7 @@
       <c r="AB831" s="4"/>
       <c r="AC831" s="4"/>
     </row>
-    <row r="832" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -31522,7 +31562,7 @@
       <c r="AB832" s="4"/>
       <c r="AC832" s="4"/>
     </row>
-    <row r="833" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -31553,7 +31593,7 @@
       <c r="AB833" s="4"/>
       <c r="AC833" s="4"/>
     </row>
-    <row r="834" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -31584,7 +31624,7 @@
       <c r="AB834" s="4"/>
       <c r="AC834" s="4"/>
     </row>
-    <row r="835" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -31615,7 +31655,7 @@
       <c r="AB835" s="4"/>
       <c r="AC835" s="4"/>
     </row>
-    <row r="836" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -31646,7 +31686,7 @@
       <c r="AB836" s="4"/>
       <c r="AC836" s="4"/>
     </row>
-    <row r="837" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -31677,7 +31717,7 @@
       <c r="AB837" s="4"/>
       <c r="AC837" s="4"/>
     </row>
-    <row r="838" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -31708,7 +31748,7 @@
       <c r="AB838" s="4"/>
       <c r="AC838" s="4"/>
     </row>
-    <row r="839" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -31739,7 +31779,7 @@
       <c r="AB839" s="4"/>
       <c r="AC839" s="4"/>
     </row>
-    <row r="840" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -31770,7 +31810,7 @@
       <c r="AB840" s="4"/>
       <c r="AC840" s="4"/>
     </row>
-    <row r="841" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -31801,7 +31841,7 @@
       <c r="AB841" s="4"/>
       <c r="AC841" s="4"/>
     </row>
-    <row r="842" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -31832,7 +31872,7 @@
       <c r="AB842" s="4"/>
       <c r="AC842" s="4"/>
     </row>
-    <row r="843" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -31863,7 +31903,7 @@
       <c r="AB843" s="4"/>
       <c r="AC843" s="4"/>
     </row>
-    <row r="844" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -31894,7 +31934,7 @@
       <c r="AB844" s="4"/>
       <c r="AC844" s="4"/>
     </row>
-    <row r="845" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -31925,7 +31965,7 @@
       <c r="AB845" s="4"/>
       <c r="AC845" s="4"/>
     </row>
-    <row r="846" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -31956,7 +31996,7 @@
       <c r="AB846" s="4"/>
       <c r="AC846" s="4"/>
     </row>
-    <row r="847" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -31987,7 +32027,7 @@
       <c r="AB847" s="4"/>
       <c r="AC847" s="4"/>
     </row>
-    <row r="848" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -32018,7 +32058,7 @@
       <c r="AB848" s="4"/>
       <c r="AC848" s="4"/>
     </row>
-    <row r="849" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -32049,7 +32089,7 @@
       <c r="AB849" s="4"/>
       <c r="AC849" s="4"/>
     </row>
-    <row r="850" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -32080,7 +32120,7 @@
       <c r="AB850" s="4"/>
       <c r="AC850" s="4"/>
     </row>
-    <row r="851" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -32111,7 +32151,7 @@
       <c r="AB851" s="4"/>
       <c r="AC851" s="4"/>
     </row>
-    <row r="852" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -32142,7 +32182,7 @@
       <c r="AB852" s="4"/>
       <c r="AC852" s="4"/>
     </row>
-    <row r="853" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -32173,7 +32213,7 @@
       <c r="AB853" s="4"/>
       <c r="AC853" s="4"/>
     </row>
-    <row r="854" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -32204,7 +32244,7 @@
       <c r="AB854" s="4"/>
       <c r="AC854" s="4"/>
     </row>
-    <row r="855" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -32235,7 +32275,7 @@
       <c r="AB855" s="4"/>
       <c r="AC855" s="4"/>
     </row>
-    <row r="856" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -32266,7 +32306,7 @@
       <c r="AB856" s="4"/>
       <c r="AC856" s="4"/>
     </row>
-    <row r="857" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -32297,7 +32337,7 @@
       <c r="AB857" s="4"/>
       <c r="AC857" s="4"/>
     </row>
-    <row r="858" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -32328,7 +32368,7 @@
       <c r="AB858" s="4"/>
       <c r="AC858" s="4"/>
     </row>
-    <row r="859" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -32359,7 +32399,7 @@
       <c r="AB859" s="4"/>
       <c r="AC859" s="4"/>
     </row>
-    <row r="860" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -32390,7 +32430,7 @@
       <c r="AB860" s="4"/>
       <c r="AC860" s="4"/>
     </row>
-    <row r="861" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -32421,7 +32461,7 @@
       <c r="AB861" s="4"/>
       <c r="AC861" s="4"/>
     </row>
-    <row r="862" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -32452,7 +32492,7 @@
       <c r="AB862" s="4"/>
       <c r="AC862" s="4"/>
     </row>
-    <row r="863" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -32483,7 +32523,7 @@
       <c r="AB863" s="4"/>
       <c r="AC863" s="4"/>
     </row>
-    <row r="864" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -32514,7 +32554,7 @@
       <c r="AB864" s="4"/>
       <c r="AC864" s="4"/>
     </row>
-    <row r="865" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -32545,7 +32585,7 @@
       <c r="AB865" s="4"/>
       <c r="AC865" s="4"/>
     </row>
-    <row r="866" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -32576,7 +32616,7 @@
       <c r="AB866" s="4"/>
       <c r="AC866" s="4"/>
     </row>
-    <row r="867" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -32607,7 +32647,7 @@
       <c r="AB867" s="4"/>
       <c r="AC867" s="4"/>
     </row>
-    <row r="868" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -32638,7 +32678,7 @@
       <c r="AB868" s="4"/>
       <c r="AC868" s="4"/>
     </row>
-    <row r="869" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -32669,7 +32709,7 @@
       <c r="AB869" s="4"/>
       <c r="AC869" s="4"/>
     </row>
-    <row r="870" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -32700,7 +32740,7 @@
       <c r="AB870" s="4"/>
       <c r="AC870" s="4"/>
     </row>
-    <row r="871" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -32731,7 +32771,7 @@
       <c r="AB871" s="4"/>
       <c r="AC871" s="4"/>
     </row>
-    <row r="872" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -32762,7 +32802,7 @@
       <c r="AB872" s="4"/>
       <c r="AC872" s="4"/>
     </row>
-    <row r="873" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -32793,7 +32833,7 @@
       <c r="AB873" s="4"/>
       <c r="AC873" s="4"/>
     </row>
-    <row r="874" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -32824,7 +32864,7 @@
       <c r="AB874" s="4"/>
       <c r="AC874" s="4"/>
     </row>
-    <row r="875" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -32855,7 +32895,7 @@
       <c r="AB875" s="4"/>
       <c r="AC875" s="4"/>
     </row>
-    <row r="876" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -32886,7 +32926,7 @@
       <c r="AB876" s="4"/>
       <c r="AC876" s="4"/>
     </row>
-    <row r="877" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -32917,7 +32957,7 @@
       <c r="AB877" s="4"/>
       <c r="AC877" s="4"/>
     </row>
-    <row r="878" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -32948,7 +32988,7 @@
       <c r="AB878" s="4"/>
       <c r="AC878" s="4"/>
     </row>
-    <row r="879" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -32979,7 +33019,7 @@
       <c r="AB879" s="4"/>
       <c r="AC879" s="4"/>
     </row>
-    <row r="880" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -33010,7 +33050,7 @@
       <c r="AB880" s="4"/>
       <c r="AC880" s="4"/>
     </row>
-    <row r="881" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -33041,7 +33081,7 @@
       <c r="AB881" s="4"/>
       <c r="AC881" s="4"/>
     </row>
-    <row r="882" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -33072,7 +33112,7 @@
       <c r="AB882" s="4"/>
       <c r="AC882" s="4"/>
     </row>
-    <row r="883" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -33103,7 +33143,7 @@
       <c r="AB883" s="4"/>
       <c r="AC883" s="4"/>
     </row>
-    <row r="884" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -33134,7 +33174,7 @@
       <c r="AB884" s="4"/>
       <c r="AC884" s="4"/>
     </row>
-    <row r="885" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -33165,7 +33205,7 @@
       <c r="AB885" s="4"/>
       <c r="AC885" s="4"/>
     </row>
-    <row r="886" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -33196,7 +33236,7 @@
       <c r="AB886" s="4"/>
       <c r="AC886" s="4"/>
     </row>
-    <row r="887" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -33227,7 +33267,7 @@
       <c r="AB887" s="4"/>
       <c r="AC887" s="4"/>
     </row>
-    <row r="888" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -33258,7 +33298,7 @@
       <c r="AB888" s="4"/>
       <c r="AC888" s="4"/>
     </row>
-    <row r="889" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -33289,7 +33329,7 @@
       <c r="AB889" s="4"/>
       <c r="AC889" s="4"/>
     </row>
-    <row r="890" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -33320,7 +33360,7 @@
       <c r="AB890" s="4"/>
       <c r="AC890" s="4"/>
     </row>
-    <row r="891" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -33351,7 +33391,7 @@
       <c r="AB891" s="4"/>
       <c r="AC891" s="4"/>
     </row>
-    <row r="892" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -33382,7 +33422,7 @@
       <c r="AB892" s="4"/>
       <c r="AC892" s="4"/>
     </row>
-    <row r="893" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -33413,7 +33453,7 @@
       <c r="AB893" s="4"/>
       <c r="AC893" s="4"/>
     </row>
-    <row r="894" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -33444,7 +33484,7 @@
       <c r="AB894" s="4"/>
       <c r="AC894" s="4"/>
     </row>
-    <row r="895" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -33475,7 +33515,7 @@
       <c r="AB895" s="4"/>
       <c r="AC895" s="4"/>
     </row>
-    <row r="896" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -33506,7 +33546,7 @@
       <c r="AB896" s="4"/>
       <c r="AC896" s="4"/>
     </row>
-    <row r="897" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -33537,7 +33577,7 @@
       <c r="AB897" s="4"/>
       <c r="AC897" s="4"/>
     </row>
-    <row r="898" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -33568,7 +33608,7 @@
       <c r="AB898" s="4"/>
       <c r="AC898" s="4"/>
     </row>
-    <row r="899" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -33599,7 +33639,7 @@
       <c r="AB899" s="4"/>
       <c r="AC899" s="4"/>
     </row>
-    <row r="900" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -33630,7 +33670,7 @@
       <c r="AB900" s="4"/>
       <c r="AC900" s="4"/>
     </row>
-    <row r="901" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -33661,7 +33701,7 @@
       <c r="AB901" s="4"/>
       <c r="AC901" s="4"/>
     </row>
-    <row r="902" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -33692,7 +33732,7 @@
       <c r="AB902" s="4"/>
       <c r="AC902" s="4"/>
     </row>
-    <row r="903" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -33723,7 +33763,7 @@
       <c r="AB903" s="4"/>
       <c r="AC903" s="4"/>
     </row>
-    <row r="904" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -33754,7 +33794,7 @@
       <c r="AB904" s="4"/>
       <c r="AC904" s="4"/>
     </row>
-    <row r="905" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -33785,7 +33825,7 @@
       <c r="AB905" s="4"/>
       <c r="AC905" s="4"/>
     </row>
-    <row r="906" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -33816,7 +33856,7 @@
       <c r="AB906" s="4"/>
       <c r="AC906" s="4"/>
     </row>
-    <row r="907" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -33847,7 +33887,7 @@
       <c r="AB907" s="4"/>
       <c r="AC907" s="4"/>
     </row>
-    <row r="908" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -33878,7 +33918,7 @@
       <c r="AB908" s="4"/>
       <c r="AC908" s="4"/>
     </row>
-    <row r="909" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -33909,7 +33949,7 @@
       <c r="AB909" s="4"/>
       <c r="AC909" s="4"/>
     </row>
-    <row r="910" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -33940,7 +33980,7 @@
       <c r="AB910" s="4"/>
       <c r="AC910" s="4"/>
     </row>
-    <row r="911" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -33971,7 +34011,7 @@
       <c r="AB911" s="4"/>
       <c r="AC911" s="4"/>
     </row>
-    <row r="912" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -34002,7 +34042,7 @@
       <c r="AB912" s="4"/>
       <c r="AC912" s="4"/>
     </row>
-    <row r="913" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -34033,7 +34073,7 @@
       <c r="AB913" s="4"/>
       <c r="AC913" s="4"/>
     </row>
-    <row r="914" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -34064,7 +34104,7 @@
       <c r="AB914" s="4"/>
       <c r="AC914" s="4"/>
     </row>
-    <row r="915" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -34095,7 +34135,7 @@
       <c r="AB915" s="4"/>
       <c r="AC915" s="4"/>
     </row>
-    <row r="916" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -34126,7 +34166,7 @@
       <c r="AB916" s="4"/>
       <c r="AC916" s="4"/>
     </row>
-    <row r="917" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -34157,7 +34197,7 @@
       <c r="AB917" s="4"/>
       <c r="AC917" s="4"/>
     </row>
-    <row r="918" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -34188,7 +34228,7 @@
       <c r="AB918" s="4"/>
       <c r="AC918" s="4"/>
     </row>
-    <row r="919" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -34219,7 +34259,7 @@
       <c r="AB919" s="4"/>
       <c r="AC919" s="4"/>
     </row>
-    <row r="920" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -34250,7 +34290,7 @@
       <c r="AB920" s="4"/>
       <c r="AC920" s="4"/>
     </row>
-    <row r="921" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -34281,7 +34321,7 @@
       <c r="AB921" s="4"/>
       <c r="AC921" s="4"/>
     </row>
-    <row r="922" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -34312,7 +34352,7 @@
       <c r="AB922" s="4"/>
       <c r="AC922" s="4"/>
     </row>
-    <row r="923" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -34343,7 +34383,7 @@
       <c r="AB923" s="4"/>
       <c r="AC923" s="4"/>
     </row>
-    <row r="924" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -34374,7 +34414,7 @@
       <c r="AB924" s="4"/>
       <c r="AC924" s="4"/>
     </row>
-    <row r="925" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -34405,7 +34445,7 @@
       <c r="AB925" s="4"/>
       <c r="AC925" s="4"/>
     </row>
-    <row r="926" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -34436,7 +34476,7 @@
       <c r="AB926" s="4"/>
       <c r="AC926" s="4"/>
     </row>
-    <row r="927" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -34467,7 +34507,7 @@
       <c r="AB927" s="4"/>
       <c r="AC927" s="4"/>
     </row>
-    <row r="928" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -34498,7 +34538,7 @@
       <c r="AB928" s="4"/>
       <c r="AC928" s="4"/>
     </row>
-    <row r="929" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -34529,7 +34569,7 @@
       <c r="AB929" s="4"/>
       <c r="AC929" s="4"/>
     </row>
-    <row r="930" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -34560,7 +34600,7 @@
       <c r="AB930" s="4"/>
       <c r="AC930" s="4"/>
     </row>
-    <row r="931" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -34591,7 +34631,7 @@
       <c r="AB931" s="4"/>
       <c r="AC931" s="4"/>
     </row>
-    <row r="932" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -34622,7 +34662,7 @@
       <c r="AB932" s="4"/>
       <c r="AC932" s="4"/>
     </row>
-    <row r="933" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -34653,7 +34693,7 @@
       <c r="AB933" s="4"/>
       <c r="AC933" s="4"/>
     </row>
-    <row r="934" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -34684,7 +34724,7 @@
       <c r="AB934" s="4"/>
       <c r="AC934" s="4"/>
     </row>
-    <row r="935" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -34715,7 +34755,7 @@
       <c r="AB935" s="4"/>
       <c r="AC935" s="4"/>
     </row>
-    <row r="936" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -34746,7 +34786,7 @@
       <c r="AB936" s="4"/>
       <c r="AC936" s="4"/>
     </row>
-    <row r="937" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -34777,7 +34817,7 @@
       <c r="AB937" s="4"/>
       <c r="AC937" s="4"/>
     </row>
-    <row r="938" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -34808,7 +34848,7 @@
       <c r="AB938" s="4"/>
       <c r="AC938" s="4"/>
     </row>
-    <row r="939" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -34839,7 +34879,7 @@
       <c r="AB939" s="4"/>
       <c r="AC939" s="4"/>
     </row>
-    <row r="940" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -34870,7 +34910,7 @@
       <c r="AB940" s="4"/>
       <c r="AC940" s="4"/>
     </row>
-    <row r="941" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -34901,7 +34941,7 @@
       <c r="AB941" s="4"/>
       <c r="AC941" s="4"/>
     </row>
-    <row r="942" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -34932,7 +34972,7 @@
       <c r="AB942" s="4"/>
       <c r="AC942" s="4"/>
     </row>
-    <row r="943" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -34963,7 +35003,7 @@
       <c r="AB943" s="4"/>
       <c r="AC943" s="4"/>
     </row>
-    <row r="944" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -34994,7 +35034,7 @@
       <c r="AB944" s="4"/>
       <c r="AC944" s="4"/>
     </row>
-    <row r="945" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -35025,7 +35065,7 @@
       <c r="AB945" s="4"/>
       <c r="AC945" s="4"/>
     </row>
-    <row r="946" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -35056,7 +35096,7 @@
       <c r="AB946" s="4"/>
       <c r="AC946" s="4"/>
     </row>
-    <row r="947" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -35087,7 +35127,7 @@
       <c r="AB947" s="4"/>
       <c r="AC947" s="4"/>
     </row>
-    <row r="948" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -35118,7 +35158,7 @@
       <c r="AB948" s="4"/>
       <c r="AC948" s="4"/>
     </row>
-    <row r="949" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -35149,7 +35189,7 @@
       <c r="AB949" s="4"/>
       <c r="AC949" s="4"/>
     </row>
-    <row r="950" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -35180,7 +35220,7 @@
       <c r="AB950" s="4"/>
       <c r="AC950" s="4"/>
     </row>
-    <row r="951" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -35211,7 +35251,7 @@
       <c r="AB951" s="4"/>
       <c r="AC951" s="4"/>
     </row>
-    <row r="952" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -35242,7 +35282,7 @@
       <c r="AB952" s="4"/>
       <c r="AC952" s="4"/>
     </row>
-    <row r="953" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -35273,7 +35313,7 @@
       <c r="AB953" s="4"/>
       <c r="AC953" s="4"/>
     </row>
-    <row r="954" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -35304,7 +35344,7 @@
       <c r="AB954" s="4"/>
       <c r="AC954" s="4"/>
     </row>
-    <row r="955" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -35335,7 +35375,7 @@
       <c r="AB955" s="4"/>
       <c r="AC955" s="4"/>
     </row>
-    <row r="956" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -35366,7 +35406,7 @@
       <c r="AB956" s="4"/>
       <c r="AC956" s="4"/>
     </row>
-    <row r="957" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -35397,7 +35437,7 @@
       <c r="AB957" s="4"/>
       <c r="AC957" s="4"/>
     </row>
-    <row r="958" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -35428,7 +35468,7 @@
       <c r="AB958" s="4"/>
       <c r="AC958" s="4"/>
     </row>
-    <row r="959" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -35459,7 +35499,7 @@
       <c r="AB959" s="4"/>
       <c r="AC959" s="4"/>
     </row>
-    <row r="960" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -35490,7 +35530,7 @@
       <c r="AB960" s="4"/>
       <c r="AC960" s="4"/>
     </row>
-    <row r="961" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -35521,7 +35561,7 @@
       <c r="AB961" s="4"/>
       <c r="AC961" s="4"/>
     </row>
-    <row r="962" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -35552,7 +35592,7 @@
       <c r="AB962" s="4"/>
       <c r="AC962" s="4"/>
     </row>
-    <row r="963" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -35583,7 +35623,7 @@
       <c r="AB963" s="4"/>
       <c r="AC963" s="4"/>
     </row>
-    <row r="964" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -35614,7 +35654,7 @@
       <c r="AB964" s="4"/>
       <c r="AC964" s="4"/>
     </row>
-    <row r="965" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -35645,7 +35685,7 @@
       <c r="AB965" s="4"/>
       <c r="AC965" s="4"/>
     </row>
-    <row r="966" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -35676,7 +35716,7 @@
       <c r="AB966" s="4"/>
       <c r="AC966" s="4"/>
     </row>
-    <row r="967" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -35707,7 +35747,7 @@
       <c r="AB967" s="4"/>
       <c r="AC967" s="4"/>
     </row>
-    <row r="968" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -35738,7 +35778,7 @@
       <c r="AB968" s="4"/>
       <c r="AC968" s="4"/>
     </row>
-    <row r="969" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -35769,7 +35809,7 @@
       <c r="AB969" s="4"/>
       <c r="AC969" s="4"/>
     </row>
-    <row r="970" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -35800,7 +35840,7 @@
       <c r="AB970" s="4"/>
       <c r="AC970" s="4"/>
     </row>
-    <row r="971" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -35831,7 +35871,7 @@
       <c r="AB971" s="4"/>
       <c r="AC971" s="4"/>
     </row>
-    <row r="972" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -35862,7 +35902,7 @@
       <c r="AB972" s="4"/>
       <c r="AC972" s="4"/>
     </row>
-    <row r="973" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -35893,7 +35933,7 @@
       <c r="AB973" s="4"/>
       <c r="AC973" s="4"/>
     </row>
-    <row r="974" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -35924,7 +35964,7 @@
       <c r="AB974" s="4"/>
       <c r="AC974" s="4"/>
     </row>
-    <row r="975" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -35955,7 +35995,7 @@
       <c r="AB975" s="4"/>
       <c r="AC975" s="4"/>
     </row>
-    <row r="976" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -35986,7 +36026,7 @@
       <c r="AB976" s="4"/>
       <c r="AC976" s="4"/>
     </row>
-    <row r="977" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -36017,7 +36057,7 @@
       <c r="AB977" s="4"/>
       <c r="AC977" s="4"/>
     </row>
-    <row r="978" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -36048,7 +36088,7 @@
       <c r="AB978" s="4"/>
       <c r="AC978" s="4"/>
     </row>
-    <row r="979" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -36079,7 +36119,7 @@
       <c r="AB979" s="4"/>
       <c r="AC979" s="4"/>
     </row>
-    <row r="980" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -36110,7 +36150,7 @@
       <c r="AB980" s="4"/>
       <c r="AC980" s="4"/>
     </row>
-    <row r="981" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -36141,7 +36181,7 @@
       <c r="AB981" s="4"/>
       <c r="AC981" s="4"/>
     </row>
-    <row r="982" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -36172,7 +36212,7 @@
       <c r="AB982" s="4"/>
       <c r="AC982" s="4"/>
     </row>
-    <row r="983" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -36203,7 +36243,7 @@
       <c r="AB983" s="4"/>
       <c r="AC983" s="4"/>
     </row>
-    <row r="984" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -36234,7 +36274,7 @@
       <c r="AB984" s="4"/>
       <c r="AC984" s="4"/>
     </row>
-    <row r="985" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -36265,7 +36305,7 @@
       <c r="AB985" s="4"/>
       <c r="AC985" s="4"/>
     </row>
-    <row r="986" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -36296,7 +36336,7 @@
       <c r="AB986" s="4"/>
       <c r="AC986" s="4"/>
     </row>
-    <row r="987" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -36327,7 +36367,7 @@
       <c r="AB987" s="4"/>
       <c r="AC987" s="4"/>
     </row>
-    <row r="988" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -36358,7 +36398,7 @@
       <c r="AB988" s="4"/>
       <c r="AC988" s="4"/>
     </row>
-    <row r="989" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -36389,7 +36429,7 @@
       <c r="AB989" s="4"/>
       <c r="AC989" s="4"/>
     </row>
-    <row r="990" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -36420,7 +36460,7 @@
       <c r="AB990" s="4"/>
       <c r="AC990" s="4"/>
     </row>
-    <row r="991" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -36451,7 +36491,7 @@
       <c r="AB991" s="4"/>
       <c r="AC991" s="4"/>
     </row>
-    <row r="992" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -36482,7 +36522,7 @@
       <c r="AB992" s="4"/>
       <c r="AC992" s="4"/>
     </row>
-    <row r="993" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -36513,7 +36553,7 @@
       <c r="AB993" s="4"/>
       <c r="AC993" s="4"/>
     </row>
-    <row r="994" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -36544,7 +36584,7 @@
       <c r="AB994" s="4"/>
       <c r="AC994" s="4"/>
     </row>
-    <row r="995" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -36575,7 +36615,7 @@
       <c r="AB995" s="4"/>
       <c r="AC995" s="4"/>
     </row>
-    <row r="996" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -36607,7 +36647,13 @@
       <c r="AC996" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC996" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC996" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B175:D175">
     <cfRule type="expression" dxfId="18" priority="5">
       <formula>$K171="Maybe - needs discussion"</formula>

--- a/1_Input_data/Infoexp.xlsx
+++ b/1_Input_data/Infoexp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C064C792-AC99-E04A-A21C-A4A5ADDEAE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C007AC44-827C-1B49-A167-AB0188A454EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28640" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="499">
   <si>
     <t>Type</t>
   </si>
@@ -1994,12 +1994,6 @@
   </si>
   <si>
     <t>Presence of postnatal microcephalea, microscephalia criteria for follow up measures was calculated with the who_hcircm2zscore() function</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -2609,10 +2603,10 @@
   <dimension ref="A1:AC996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H232" sqref="H232"/>
+      <selection pane="bottomRight" activeCell="M185" sqref="M185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4506,11 +4500,11 @@
       <c r="K43" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>500</v>
+      <c r="L43" s="4">
+        <v>100</v>
+      </c>
+      <c r="M43" s="4">
+        <v>210</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -10710,7 +10704,7 @@
         <v>18</v>
       </c>
       <c r="M184" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>

--- a/1_Input_data/Infoexp.xlsx
+++ b/1_Input_data/Infoexp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C007AC44-827C-1B49-A167-AB0188A454EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CFE382-14E5-B543-AFA5-D8BBF0C7EF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28640" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$AC$996</definedName>
@@ -2136,7 +2137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2207,6 +2208,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2603,10 +2605,10 @@
   <dimension ref="A1:AC996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M185" sqref="M185"/>
+      <selection pane="bottomRight" activeCell="K230" sqref="K230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2681,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>450</v>
       </c>
@@ -2727,7 +2729,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>450</v>
       </c>
@@ -2777,7 +2779,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>450</v>
       </c>
@@ -2823,7 +2825,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>450</v>
       </c>
@@ -2925,7 +2927,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
@@ -2975,7 +2977,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>307</v>
       </c>
@@ -3021,7 +3023,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>307</v>
       </c>
@@ -3151,7 +3153,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>307</v>
       </c>
@@ -3201,7 +3203,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>307</v>
       </c>
@@ -3249,7 +3251,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>307</v>
       </c>
@@ -3617,7 +3619,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>307</v>
       </c>
@@ -3663,7 +3665,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>307</v>
       </c>
@@ -3751,7 +3753,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>307</v>
       </c>
@@ -3795,7 +3797,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>307</v>
       </c>
@@ -3879,7 +3881,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>307</v>
       </c>
@@ -3963,7 +3965,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>307</v>
       </c>
@@ -4563,7 +4565,7 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>307</v>
       </c>
@@ -4609,7 +4611,7 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>307</v>
       </c>
@@ -4655,7 +4657,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>307</v>
       </c>
@@ -4707,7 +4709,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>307</v>
       </c>
@@ -4751,7 +4753,7 @@
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>307</v>
       </c>
@@ -4795,7 +4797,7 @@
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>307</v>
       </c>
@@ -4839,7 +4841,7 @@
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>307</v>
       </c>
@@ -5125,7 +5127,7 @@
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>307</v>
       </c>
@@ -5175,7 +5177,7 @@
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>307</v>
       </c>
@@ -5265,7 +5267,7 @@
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>307</v>
       </c>
@@ -5311,7 +5313,7 @@
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>307</v>
       </c>
@@ -5357,7 +5359,7 @@
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>307</v>
       </c>
@@ -5401,7 +5403,7 @@
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>307</v>
       </c>
@@ -5445,7 +5447,7 @@
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>307</v>
       </c>
@@ -5489,7 +5491,7 @@
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>307</v>
       </c>
@@ -5573,7 +5575,7 @@
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>307</v>
       </c>
@@ -5617,7 +5619,7 @@
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>307</v>
       </c>
@@ -5661,7 +5663,7 @@
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>307</v>
       </c>
@@ -5705,7 +5707,7 @@
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>307</v>
       </c>
@@ -5749,7 +5751,7 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
     </row>
-    <row r="72" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>307</v>
       </c>
@@ -5793,7 +5795,7 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
     </row>
-    <row r="73" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>307</v>
       </c>
@@ -5837,7 +5839,7 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
     </row>
-    <row r="74" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>307</v>
       </c>
@@ -5881,7 +5883,7 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
     </row>
-    <row r="75" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>307</v>
       </c>
@@ -5925,7 +5927,7 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
     </row>
-    <row r="76" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>307</v>
       </c>
@@ -6095,7 +6097,7 @@
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
     </row>
-    <row r="80" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>132</v>
       </c>
@@ -6193,7 +6195,7 @@
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
     </row>
-    <row r="82" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>132</v>
       </c>
@@ -6239,7 +6241,7 @@
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
     </row>
-    <row r="83" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>132</v>
       </c>
@@ -6377,7 +6379,7 @@
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
     </row>
-    <row r="86" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
@@ -6477,7 +6479,7 @@
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
     </row>
-    <row r="88" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>132</v>
       </c>
@@ -6523,7 +6525,7 @@
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
     </row>
-    <row r="89" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>132</v>
       </c>
@@ -6609,7 +6611,7 @@
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
     </row>
-    <row r="91" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>132</v>
       </c>
@@ -6655,7 +6657,7 @@
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
     </row>
-    <row r="92" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>132</v>
       </c>
@@ -7437,7 +7439,7 @@
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
     </row>
-    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>132</v>
       </c>
@@ -7483,7 +7485,7 @@
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
     </row>
-    <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>132</v>
       </c>
@@ -7573,7 +7575,7 @@
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
     </row>
-    <row r="114" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>132</v>
       </c>
@@ -7673,7 +7675,7 @@
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
     </row>
-    <row r="116" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>132</v>
       </c>
@@ -7801,7 +7803,7 @@
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
     </row>
-    <row r="119" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
@@ -7849,7 +7851,7 @@
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
     </row>
-    <row r="120" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>132</v>
       </c>
@@ -8017,7 +8019,7 @@
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
     </row>
-    <row r="124" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>132</v>
       </c>
@@ -8105,7 +8107,7 @@
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
     </row>
-    <row r="126" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>132</v>
       </c>
@@ -8793,7 +8795,7 @@
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
     </row>
-    <row r="143" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>132</v>
       </c>
@@ -8839,7 +8841,7 @@
       <c r="AB143" s="4"/>
       <c r="AC143" s="4"/>
     </row>
-    <row r="144" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>132</v>
       </c>
@@ -8937,7 +8939,7 @@
       <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
     </row>
-    <row r="146" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>132</v>
       </c>
@@ -8983,7 +8985,7 @@
       <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
     </row>
-    <row r="147" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>132</v>
       </c>
@@ -9029,7 +9031,7 @@
       <c r="AB147" s="4"/>
       <c r="AC147" s="4"/>
     </row>
-    <row r="148" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>132</v>
       </c>
@@ -9355,7 +9357,7 @@
       <c r="AB155" s="4"/>
       <c r="AC155" s="4"/>
     </row>
-    <row r="156" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>132</v>
       </c>
@@ -9399,7 +9401,7 @@
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
     </row>
-    <row r="157" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>132</v>
       </c>
@@ -9683,7 +9685,7 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>132</v>
       </c>
@@ -9729,7 +9731,7 @@
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
     </row>
-    <row r="165" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>132</v>
       </c>
@@ -9775,7 +9777,7 @@
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
     </row>
-    <row r="166" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>132</v>
       </c>
@@ -9823,7 +9825,7 @@
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
     </row>
-    <row r="167" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>132</v>
       </c>
@@ -9869,7 +9871,7 @@
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
     </row>
-    <row r="168" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>3</v>
       </c>
@@ -9971,7 +9973,7 @@
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
     </row>
-    <row r="170" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
@@ -10061,7 +10063,7 @@
       <c r="AB171" s="4"/>
       <c r="AC171" s="4"/>
     </row>
-    <row r="172" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>3</v>
       </c>
@@ -10109,7 +10111,7 @@
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
     </row>
-    <row r="173" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>3</v>
       </c>
@@ -10317,7 +10319,7 @@
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
     </row>
-    <row r="177" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>3</v>
       </c>
@@ -10415,7 +10417,7 @@
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
     </row>
-    <row r="179" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>3</v>
       </c>
@@ -10467,7 +10469,7 @@
       <c r="AB179" s="4"/>
       <c r="AC179" s="4"/>
     </row>
-    <row r="180" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>3</v>
       </c>
@@ -10515,7 +10517,7 @@
       <c r="AB180" s="4"/>
       <c r="AC180" s="4"/>
     </row>
-    <row r="181" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>3</v>
       </c>
@@ -10563,7 +10565,7 @@
       <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
     </row>
-    <row r="182" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>3</v>
       </c>
@@ -10704,7 +10706,7 @@
         <v>18</v>
       </c>
       <c r="M184" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -10775,7 +10777,7 @@
       <c r="AB185" s="4"/>
       <c r="AC185" s="4"/>
     </row>
-    <row r="186" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>3</v>
       </c>
@@ -10863,7 +10865,7 @@
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
     </row>
-    <row r="188" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>3</v>
       </c>
@@ -11113,7 +11115,7 @@
       <c r="AB193" s="4"/>
       <c r="AC193" s="4"/>
     </row>
-    <row r="194" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>3</v>
       </c>
@@ -11157,7 +11159,7 @@
       <c r="AB194" s="4"/>
       <c r="AC194" s="4"/>
     </row>
-    <row r="195" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>3</v>
       </c>
@@ -11201,7 +11203,7 @@
       <c r="AB195" s="4"/>
       <c r="AC195" s="4"/>
     </row>
-    <row r="196" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>3</v>
       </c>
@@ -11245,7 +11247,7 @@
       <c r="AB196" s="4"/>
       <c r="AC196" s="4"/>
     </row>
-    <row r="197" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>3</v>
       </c>
@@ -11289,7 +11291,7 @@
       <c r="AB197" s="4"/>
       <c r="AC197" s="4"/>
     </row>
-    <row r="198" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>3</v>
       </c>
@@ -11333,7 +11335,7 @@
       <c r="AB198" s="4"/>
       <c r="AC198" s="4"/>
     </row>
-    <row r="199" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>3</v>
       </c>
@@ -11377,7 +11379,7 @@
       <c r="AB199" s="4"/>
       <c r="AC199" s="4"/>
     </row>
-    <row r="200" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>3</v>
       </c>
@@ -11421,7 +11423,7 @@
       <c r="AB200" s="4"/>
       <c r="AC200" s="4"/>
     </row>
-    <row r="201" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>3</v>
       </c>
@@ -11465,7 +11467,7 @@
       <c r="AB201" s="4"/>
       <c r="AC201" s="4"/>
     </row>
-    <row r="202" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>3</v>
       </c>
@@ -11509,7 +11511,7 @@
       <c r="AB202" s="4"/>
       <c r="AC202" s="4"/>
     </row>
-    <row r="203" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>3</v>
       </c>
@@ -11553,7 +11555,7 @@
       <c r="AB203" s="4"/>
       <c r="AC203" s="4"/>
     </row>
-    <row r="204" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>3</v>
       </c>
@@ -11597,7 +11599,7 @@
       <c r="AB204" s="4"/>
       <c r="AC204" s="4"/>
     </row>
-    <row r="205" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>3</v>
       </c>
@@ -11641,7 +11643,7 @@
       <c r="AB205" s="4"/>
       <c r="AC205" s="4"/>
     </row>
-    <row r="206" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>3</v>
       </c>
@@ -11685,7 +11687,7 @@
       <c r="AB206" s="4"/>
       <c r="AC206" s="4"/>
     </row>
-    <row r="207" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>3</v>
       </c>
@@ -11729,7 +11731,7 @@
       <c r="AB207" s="4"/>
       <c r="AC207" s="4"/>
     </row>
-    <row r="208" spans="1:29" ht="60" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>3</v>
       </c>
@@ -11773,7 +11775,7 @@
       <c r="AB208" s="4"/>
       <c r="AC208" s="4"/>
     </row>
-    <row r="209" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>3</v>
       </c>
@@ -11817,7 +11819,7 @@
       <c r="AB209" s="4"/>
       <c r="AC209" s="4"/>
     </row>
-    <row r="210" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>3</v>
       </c>
@@ -11861,7 +11863,7 @@
       <c r="AB210" s="4"/>
       <c r="AC210" s="4"/>
     </row>
-    <row r="211" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>3</v>
       </c>
@@ -11905,7 +11907,7 @@
       <c r="AB211" s="4"/>
       <c r="AC211" s="4"/>
     </row>
-    <row r="212" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>3</v>
       </c>
@@ -11949,7 +11951,7 @@
       <c r="AB212" s="4"/>
       <c r="AC212" s="4"/>
     </row>
-    <row r="213" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>3</v>
       </c>
@@ -11993,7 +11995,7 @@
       <c r="AB213" s="4"/>
       <c r="AC213" s="4"/>
     </row>
-    <row r="214" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>3</v>
       </c>
@@ -12037,7 +12039,7 @@
       <c r="AB214" s="4"/>
       <c r="AC214" s="4"/>
     </row>
-    <row r="215" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>3</v>
       </c>
@@ -12081,7 +12083,7 @@
       <c r="AB215" s="4"/>
       <c r="AC215" s="4"/>
     </row>
-    <row r="216" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>3</v>
       </c>
@@ -12129,7 +12131,7 @@
       <c r="AB216" s="4"/>
       <c r="AC216" s="4"/>
     </row>
-    <row r="217" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>3</v>
       </c>
@@ -12179,7 +12181,7 @@
       <c r="AB217" s="4"/>
       <c r="AC217" s="4"/>
     </row>
-    <row r="218" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>3</v>
       </c>
@@ -12229,7 +12231,7 @@
       <c r="AB218" s="4"/>
       <c r="AC218" s="4"/>
     </row>
-    <row r="219" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>3</v>
       </c>
@@ -12277,7 +12279,7 @@
       <c r="AB219" s="4"/>
       <c r="AC219" s="4"/>
     </row>
-    <row r="220" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>3</v>
       </c>
@@ -12369,7 +12371,7 @@
       <c r="AB221" s="4"/>
       <c r="AC221" s="4"/>
     </row>
-    <row r="222" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>3</v>
       </c>
@@ -12419,7 +12421,7 @@
       <c r="AB222" s="4"/>
       <c r="AC222" s="4"/>
     </row>
-    <row r="223" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>3</v>
       </c>
@@ -12465,7 +12467,7 @@
       <c r="AB223" s="4"/>
       <c r="AC223" s="4"/>
     </row>
-    <row r="224" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>3</v>
       </c>
@@ -12511,7 +12513,7 @@
       <c r="AB224" s="4"/>
       <c r="AC224" s="4"/>
     </row>
-    <row r="225" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>3</v>
       </c>
@@ -12561,7 +12563,7 @@
       <c r="AB225" s="4"/>
       <c r="AC225" s="4"/>
     </row>
-    <row r="226" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>3</v>
       </c>
@@ -12609,7 +12611,7 @@
       <c r="AB226" s="4"/>
       <c r="AC226" s="4"/>
     </row>
-    <row r="227" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>3</v>
       </c>
@@ -12653,7 +12655,7 @@
       <c r="AB227" s="4"/>
       <c r="AC227" s="4"/>
     </row>
-    <row r="228" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>3</v>
       </c>
@@ -12701,7 +12703,7 @@
       <c r="AB228" s="4"/>
       <c r="AC228" s="4"/>
     </row>
-    <row r="229" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>3</v>
       </c>
@@ -36646,6 +36648,12 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="C"/>
+        <filter val="T"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B175:D175">
@@ -36750,4 +36758,44 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B665B89-F275-1248-A1D1-38897AD25452}">
+  <dimension ref="D8:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1_Input_data/Infoexp.xlsx
+++ b/1_Input_data/Infoexp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CFE382-14E5-B543-AFA5-D8BBF0C7EF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26671A-0806-F947-BBD5-0B03658E44A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28640" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,14 +2601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K230" sqref="K230"/>
+      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2681,7 +2680,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>450</v>
       </c>
@@ -2729,7 +2728,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>450</v>
       </c>
@@ -2779,7 +2778,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>450</v>
       </c>
@@ -2825,7 +2824,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>450</v>
       </c>
@@ -2927,7 +2926,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
@@ -2977,7 +2976,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>307</v>
       </c>
@@ -3023,7 +3022,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>307</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>307</v>
       </c>
@@ -3113,7 +3112,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>307</v>
       </c>
@@ -3153,7 +3152,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>307</v>
       </c>
@@ -3203,7 +3202,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>307</v>
       </c>
@@ -3251,7 +3250,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>307</v>
       </c>
@@ -3299,7 +3298,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>307</v>
       </c>
@@ -3339,7 +3338,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>307</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>307</v>
       </c>
@@ -3419,7 +3418,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>307</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>307</v>
       </c>
@@ -3499,7 +3498,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>307</v>
       </c>
@@ -3539,7 +3538,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>307</v>
       </c>
@@ -3579,7 +3578,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>307</v>
       </c>
@@ -3619,7 +3618,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>307</v>
       </c>
@@ -3665,7 +3664,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>307</v>
       </c>
@@ -3713,7 +3712,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>307</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>307</v>
       </c>
@@ -3797,7 +3796,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>307</v>
       </c>
@@ -3841,7 +3840,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>307</v>
       </c>
@@ -3881,7 +3880,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>307</v>
       </c>
@@ -3925,7 +3924,7 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>307</v>
       </c>
@@ -3965,7 +3964,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>307</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>307</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="140" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="140" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>307</v>
       </c>
@@ -4089,7 +4088,7 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>307</v>
       </c>
@@ -4129,7 +4128,7 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>307</v>
       </c>
@@ -4169,7 +4168,7 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>307</v>
       </c>
@@ -4209,7 +4208,7 @@
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>307</v>
       </c>
@@ -4249,7 +4248,7 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>307</v>
       </c>
@@ -4289,7 +4288,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>307</v>
       </c>
@@ -4329,7 +4328,7 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>307</v>
       </c>
@@ -4525,7 +4524,7 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>307</v>
       </c>
@@ -4565,7 +4564,7 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>307</v>
       </c>
@@ -4611,7 +4610,7 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>307</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>307</v>
       </c>
@@ -4709,7 +4708,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>307</v>
       </c>
@@ -4753,7 +4752,7 @@
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>307</v>
       </c>
@@ -4797,7 +4796,7 @@
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>307</v>
       </c>
@@ -4841,7 +4840,7 @@
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>307</v>
       </c>
@@ -4887,7 +4886,7 @@
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>307</v>
       </c>
@@ -4927,7 +4926,7 @@
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>307</v>
       </c>
@@ -4967,7 +4966,7 @@
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
     </row>
-    <row r="54" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>307</v>
       </c>
@@ -5007,7 +5006,7 @@
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
     </row>
-    <row r="55" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>307</v>
       </c>
@@ -5047,7 +5046,7 @@
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>307</v>
       </c>
@@ -5087,7 +5086,7 @@
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
     </row>
-    <row r="57" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>307</v>
       </c>
@@ -5127,7 +5126,7 @@
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>307</v>
       </c>
@@ -5177,7 +5176,7 @@
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>307</v>
       </c>
@@ -5227,7 +5226,7 @@
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>307</v>
       </c>
@@ -5267,7 +5266,7 @@
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>307</v>
       </c>
@@ -5313,7 +5312,7 @@
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>307</v>
       </c>
@@ -5359,7 +5358,7 @@
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>307</v>
       </c>
@@ -5403,7 +5402,7 @@
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>307</v>
       </c>
@@ -5447,7 +5446,7 @@
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>307</v>
       </c>
@@ -5491,7 +5490,7 @@
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>307</v>
       </c>
@@ -5535,7 +5534,7 @@
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>307</v>
       </c>
@@ -5575,7 +5574,7 @@
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>307</v>
       </c>
@@ -5619,7 +5618,7 @@
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>307</v>
       </c>
@@ -5663,7 +5662,7 @@
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>307</v>
       </c>
@@ -5707,7 +5706,7 @@
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>307</v>
       </c>
@@ -5751,7 +5750,7 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
     </row>
-    <row r="72" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>307</v>
       </c>
@@ -5795,7 +5794,7 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
     </row>
-    <row r="73" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>307</v>
       </c>
@@ -5839,7 +5838,7 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
     </row>
-    <row r="74" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>307</v>
       </c>
@@ -5883,7 +5882,7 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
     </row>
-    <row r="75" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>307</v>
       </c>
@@ -5927,7 +5926,7 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
     </row>
-    <row r="76" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>307</v>
       </c>
@@ -5971,7 +5970,7 @@
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
     </row>
-    <row r="77" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>132</v>
       </c>
@@ -6013,7 +6012,7 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
     </row>
-    <row r="78" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
@@ -6055,7 +6054,7 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
     </row>
-    <row r="79" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>132</v>
       </c>
@@ -6097,7 +6096,7 @@
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
     </row>
-    <row r="80" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>132</v>
       </c>
@@ -6195,7 +6194,7 @@
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
     </row>
-    <row r="82" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>132</v>
       </c>
@@ -6241,7 +6240,7 @@
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
     </row>
-    <row r="83" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>132</v>
       </c>
@@ -6339,7 +6338,7 @@
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
     </row>
-    <row r="85" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>132</v>
       </c>
@@ -6379,7 +6378,7 @@
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
     </row>
-    <row r="86" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
@@ -6479,7 +6478,7 @@
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
     </row>
-    <row r="88" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>132</v>
       </c>
@@ -6525,7 +6524,7 @@
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
     </row>
-    <row r="89" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>132</v>
       </c>
@@ -6571,7 +6570,7 @@
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
     </row>
-    <row r="90" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>132</v>
       </c>
@@ -6611,7 +6610,7 @@
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
     </row>
-    <row r="91" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>132</v>
       </c>
@@ -6657,7 +6656,7 @@
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
     </row>
-    <row r="92" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>132</v>
       </c>
@@ -6703,7 +6702,7 @@
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
     </row>
-    <row r="93" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>132</v>
       </c>
@@ -6743,7 +6742,7 @@
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
     </row>
-    <row r="94" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>132</v>
       </c>
@@ -6783,7 +6782,7 @@
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
     </row>
-    <row r="95" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>132</v>
       </c>
@@ -6823,7 +6822,7 @@
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
     </row>
-    <row r="96" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>132</v>
       </c>
@@ -6863,7 +6862,7 @@
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
     </row>
-    <row r="97" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>132</v>
       </c>
@@ -6903,7 +6902,7 @@
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
     </row>
-    <row r="98" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>132</v>
       </c>
@@ -6943,7 +6942,7 @@
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
     </row>
-    <row r="99" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>132</v>
       </c>
@@ -6983,7 +6982,7 @@
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
     </row>
-    <row r="100" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>132</v>
       </c>
@@ -7023,7 +7022,7 @@
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
     </row>
-    <row r="101" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>132</v>
       </c>
@@ -7063,7 +7062,7 @@
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
     </row>
-    <row r="102" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>132</v>
       </c>
@@ -7103,13 +7102,15 @@
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
     </row>
-    <row r="103" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
+      <c r="D103" s="5">
+        <v>1</v>
+      </c>
       <c r="E103" s="7" t="s">
         <v>185</v>
       </c>
@@ -7143,13 +7144,15 @@
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
     </row>
-    <row r="104" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
       <c r="E104" s="7" t="s">
         <v>187</v>
       </c>
@@ -7183,13 +7186,15 @@
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
     </row>
-    <row r="105" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
       <c r="E105" s="7" t="s">
         <v>189</v>
       </c>
@@ -7223,13 +7228,15 @@
       <c r="AB105" s="4"/>
       <c r="AC105" s="4"/>
     </row>
-    <row r="106" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
       <c r="E106" s="7" t="s">
         <v>191</v>
       </c>
@@ -7263,13 +7270,15 @@
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
     </row>
-    <row r="107" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="D107" s="5">
+        <v>1</v>
+      </c>
       <c r="E107" s="7" t="s">
         <v>193</v>
       </c>
@@ -7303,13 +7312,15 @@
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
     </row>
-    <row r="108" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
       <c r="E108" s="7" t="s">
         <v>195</v>
       </c>
@@ -7343,13 +7354,15 @@
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
     </row>
-    <row r="109" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
       <c r="E109" s="7" t="s">
         <v>197</v>
       </c>
@@ -7439,7 +7452,7 @@
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
     </row>
-    <row r="111" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>132</v>
       </c>
@@ -7485,7 +7498,7 @@
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
     </row>
-    <row r="112" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>132</v>
       </c>
@@ -7535,7 +7548,7 @@
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
     </row>
-    <row r="113" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>132</v>
       </c>
@@ -7575,7 +7588,7 @@
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
     </row>
-    <row r="114" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>132</v>
       </c>
@@ -7675,7 +7688,7 @@
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
     </row>
-    <row r="116" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>132</v>
       </c>
@@ -7723,7 +7736,7 @@
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
     </row>
-    <row r="117" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>132</v>
       </c>
@@ -7763,7 +7776,7 @@
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
     </row>
-    <row r="118" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>132</v>
       </c>
@@ -7803,7 +7816,7 @@
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
     </row>
-    <row r="119" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
@@ -7851,7 +7864,7 @@
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
     </row>
-    <row r="120" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>132</v>
       </c>
@@ -7899,7 +7912,7 @@
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
     </row>
-    <row r="121" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>132</v>
       </c>
@@ -7939,7 +7952,7 @@
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
     </row>
-    <row r="122" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>132</v>
       </c>
@@ -7979,7 +7992,7 @@
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
     </row>
-    <row r="123" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>132</v>
       </c>
@@ -8019,7 +8032,7 @@
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
     </row>
-    <row r="124" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>132</v>
       </c>
@@ -8067,7 +8080,7 @@
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
     </row>
-    <row r="125" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>132</v>
       </c>
@@ -8107,7 +8120,7 @@
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
     </row>
-    <row r="126" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>132</v>
       </c>
@@ -8155,7 +8168,7 @@
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
     </row>
-    <row r="127" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>132</v>
       </c>
@@ -8195,7 +8208,7 @@
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
     </row>
-    <row r="128" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>132</v>
       </c>
@@ -8235,7 +8248,7 @@
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
     </row>
-    <row r="129" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>132</v>
       </c>
@@ -8275,7 +8288,7 @@
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
     </row>
-    <row r="130" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>132</v>
       </c>
@@ -8315,7 +8328,7 @@
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
     </row>
-    <row r="131" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>132</v>
       </c>
@@ -8355,7 +8368,7 @@
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
     </row>
-    <row r="132" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>132</v>
       </c>
@@ -8395,7 +8408,7 @@
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
     </row>
-    <row r="133" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
@@ -8435,7 +8448,7 @@
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
     </row>
-    <row r="134" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -8475,7 +8488,7 @@
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
     </row>
-    <row r="135" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>132</v>
       </c>
@@ -8515,7 +8528,7 @@
       <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
     </row>
-    <row r="136" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>132</v>
       </c>
@@ -8555,7 +8568,7 @@
       <c r="AB136" s="4"/>
       <c r="AC136" s="4"/>
     </row>
-    <row r="137" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>132</v>
       </c>
@@ -8595,7 +8608,7 @@
       <c r="AB137" s="4"/>
       <c r="AC137" s="4"/>
     </row>
-    <row r="138" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>132</v>
       </c>
@@ -8635,7 +8648,7 @@
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
     </row>
-    <row r="139" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>132</v>
       </c>
@@ -8675,7 +8688,7 @@
       <c r="AB139" s="4"/>
       <c r="AC139" s="4"/>
     </row>
-    <row r="140" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>132</v>
       </c>
@@ -8715,7 +8728,7 @@
       <c r="AB140" s="4"/>
       <c r="AC140" s="4"/>
     </row>
-    <row r="141" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>132</v>
       </c>
@@ -8755,7 +8768,7 @@
       <c r="AB141" s="4"/>
       <c r="AC141" s="4"/>
     </row>
-    <row r="142" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>132</v>
       </c>
@@ -8795,7 +8808,7 @@
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
     </row>
-    <row r="143" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>132</v>
       </c>
@@ -8841,7 +8854,7 @@
       <c r="AB143" s="4"/>
       <c r="AC143" s="4"/>
     </row>
-    <row r="144" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>132</v>
       </c>
@@ -8939,7 +8952,7 @@
       <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
     </row>
-    <row r="146" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>132</v>
       </c>
@@ -8985,7 +8998,7 @@
       <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
     </row>
-    <row r="147" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>132</v>
       </c>
@@ -9031,7 +9044,7 @@
       <c r="AB147" s="4"/>
       <c r="AC147" s="4"/>
     </row>
-    <row r="148" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>132</v>
       </c>
@@ -9077,7 +9090,7 @@
       <c r="AB148" s="4"/>
       <c r="AC148" s="4"/>
     </row>
-    <row r="149" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>132</v>
       </c>
@@ -9117,7 +9130,7 @@
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
     </row>
-    <row r="150" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>132</v>
       </c>
@@ -9157,7 +9170,7 @@
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
     </row>
-    <row r="151" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>132</v>
       </c>
@@ -9197,7 +9210,7 @@
       <c r="AB151" s="4"/>
       <c r="AC151" s="4"/>
     </row>
-    <row r="152" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>132</v>
       </c>
@@ -9237,7 +9250,7 @@
       <c r="AB152" s="4"/>
       <c r="AC152" s="4"/>
     </row>
-    <row r="153" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>132</v>
       </c>
@@ -9277,7 +9290,7 @@
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
     </row>
-    <row r="154" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>132</v>
       </c>
@@ -9317,7 +9330,7 @@
       <c r="AB154" s="4"/>
       <c r="AC154" s="4"/>
     </row>
-    <row r="155" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>132</v>
       </c>
@@ -9357,7 +9370,7 @@
       <c r="AB155" s="4"/>
       <c r="AC155" s="4"/>
     </row>
-    <row r="156" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>132</v>
       </c>
@@ -9401,7 +9414,7 @@
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
     </row>
-    <row r="157" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>132</v>
       </c>
@@ -9445,7 +9458,7 @@
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
     </row>
-    <row r="158" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>132</v>
       </c>
@@ -9485,7 +9498,7 @@
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
     </row>
-    <row r="159" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>132</v>
       </c>
@@ -9525,7 +9538,7 @@
       <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
     </row>
-    <row r="160" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>132</v>
       </c>
@@ -9565,7 +9578,7 @@
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
     </row>
-    <row r="161" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>132</v>
       </c>
@@ -9605,7 +9618,7 @@
       <c r="AB161" s="4"/>
       <c r="AC161" s="4"/>
     </row>
-    <row r="162" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>132</v>
       </c>
@@ -9645,7 +9658,7 @@
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
     </row>
-    <row r="163" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>132</v>
       </c>
@@ -9685,7 +9698,7 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>132</v>
       </c>
@@ -9731,7 +9744,7 @@
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
     </row>
-    <row r="165" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>132</v>
       </c>
@@ -9777,7 +9790,7 @@
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
     </row>
-    <row r="166" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>132</v>
       </c>
@@ -9825,7 +9838,7 @@
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
     </row>
-    <row r="167" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>132</v>
       </c>
@@ -9871,7 +9884,7 @@
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
     </row>
-    <row r="168" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>3</v>
       </c>
@@ -9973,7 +9986,7 @@
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
     </row>
-    <row r="170" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
@@ -10023,7 +10036,7 @@
       <c r="AB170" s="4"/>
       <c r="AC170" s="4"/>
     </row>
-    <row r="171" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>3</v>
       </c>
@@ -10063,7 +10076,7 @@
       <c r="AB171" s="4"/>
       <c r="AC171" s="4"/>
     </row>
-    <row r="172" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>3</v>
       </c>
@@ -10111,7 +10124,7 @@
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
     </row>
-    <row r="173" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>3</v>
       </c>
@@ -10319,7 +10332,7 @@
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
     </row>
-    <row r="177" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>3</v>
       </c>
@@ -10417,7 +10430,7 @@
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
     </row>
-    <row r="179" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>3</v>
       </c>
@@ -10469,7 +10482,7 @@
       <c r="AB179" s="4"/>
       <c r="AC179" s="4"/>
     </row>
-    <row r="180" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>3</v>
       </c>
@@ -10517,7 +10530,7 @@
       <c r="AB180" s="4"/>
       <c r="AC180" s="4"/>
     </row>
-    <row r="181" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>3</v>
       </c>
@@ -10565,7 +10578,7 @@
       <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
     </row>
-    <row r="182" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>3</v>
       </c>
@@ -10777,7 +10790,7 @@
       <c r="AB185" s="4"/>
       <c r="AC185" s="4"/>
     </row>
-    <row r="186" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>3</v>
       </c>
@@ -10825,7 +10838,7 @@
       <c r="AB186" s="4"/>
       <c r="AC186" s="4"/>
     </row>
-    <row r="187" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>3</v>
       </c>
@@ -10865,7 +10878,7 @@
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
     </row>
-    <row r="188" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>3</v>
       </c>
@@ -10915,7 +10928,7 @@
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
     </row>
-    <row r="189" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>3</v>
       </c>
@@ -10955,7 +10968,7 @@
       <c r="AB189" s="4"/>
       <c r="AC189" s="4"/>
     </row>
-    <row r="190" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>3</v>
       </c>
@@ -10995,7 +11008,7 @@
       <c r="AB190" s="4"/>
       <c r="AC190" s="4"/>
     </row>
-    <row r="191" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>3</v>
       </c>
@@ -11035,7 +11048,7 @@
       <c r="AB191" s="4"/>
       <c r="AC191" s="4"/>
     </row>
-    <row r="192" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>3</v>
       </c>
@@ -11075,7 +11088,7 @@
       <c r="AB192" s="4"/>
       <c r="AC192" s="4"/>
     </row>
-    <row r="193" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>3</v>
       </c>
@@ -11115,7 +11128,7 @@
       <c r="AB193" s="4"/>
       <c r="AC193" s="4"/>
     </row>
-    <row r="194" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>3</v>
       </c>
@@ -11159,7 +11172,7 @@
       <c r="AB194" s="4"/>
       <c r="AC194" s="4"/>
     </row>
-    <row r="195" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>3</v>
       </c>
@@ -11203,7 +11216,7 @@
       <c r="AB195" s="4"/>
       <c r="AC195" s="4"/>
     </row>
-    <row r="196" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>3</v>
       </c>
@@ -11247,7 +11260,7 @@
       <c r="AB196" s="4"/>
       <c r="AC196" s="4"/>
     </row>
-    <row r="197" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>3</v>
       </c>
@@ -11291,7 +11304,7 @@
       <c r="AB197" s="4"/>
       <c r="AC197" s="4"/>
     </row>
-    <row r="198" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>3</v>
       </c>
@@ -11335,7 +11348,7 @@
       <c r="AB198" s="4"/>
       <c r="AC198" s="4"/>
     </row>
-    <row r="199" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>3</v>
       </c>
@@ -11379,7 +11392,7 @@
       <c r="AB199" s="4"/>
       <c r="AC199" s="4"/>
     </row>
-    <row r="200" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>3</v>
       </c>
@@ -11423,7 +11436,7 @@
       <c r="AB200" s="4"/>
       <c r="AC200" s="4"/>
     </row>
-    <row r="201" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>3</v>
       </c>
@@ -11467,7 +11480,7 @@
       <c r="AB201" s="4"/>
       <c r="AC201" s="4"/>
     </row>
-    <row r="202" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>3</v>
       </c>
@@ -11511,7 +11524,7 @@
       <c r="AB202" s="4"/>
       <c r="AC202" s="4"/>
     </row>
-    <row r="203" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>3</v>
       </c>
@@ -11555,7 +11568,7 @@
       <c r="AB203" s="4"/>
       <c r="AC203" s="4"/>
     </row>
-    <row r="204" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>3</v>
       </c>
@@ -11599,7 +11612,7 @@
       <c r="AB204" s="4"/>
       <c r="AC204" s="4"/>
     </row>
-    <row r="205" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>3</v>
       </c>
@@ -11643,7 +11656,7 @@
       <c r="AB205" s="4"/>
       <c r="AC205" s="4"/>
     </row>
-    <row r="206" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>3</v>
       </c>
@@ -11687,7 +11700,7 @@
       <c r="AB206" s="4"/>
       <c r="AC206" s="4"/>
     </row>
-    <row r="207" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>3</v>
       </c>
@@ -11731,7 +11744,7 @@
       <c r="AB207" s="4"/>
       <c r="AC207" s="4"/>
     </row>
-    <row r="208" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="60" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>3</v>
       </c>
@@ -11775,7 +11788,7 @@
       <c r="AB208" s="4"/>
       <c r="AC208" s="4"/>
     </row>
-    <row r="209" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>3</v>
       </c>
@@ -11819,7 +11832,7 @@
       <c r="AB209" s="4"/>
       <c r="AC209" s="4"/>
     </row>
-    <row r="210" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>3</v>
       </c>
@@ -11863,7 +11876,7 @@
       <c r="AB210" s="4"/>
       <c r="AC210" s="4"/>
     </row>
-    <row r="211" spans="1:29" ht="40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>3</v>
       </c>
@@ -11907,7 +11920,7 @@
       <c r="AB211" s="4"/>
       <c r="AC211" s="4"/>
     </row>
-    <row r="212" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>3</v>
       </c>
@@ -11951,7 +11964,7 @@
       <c r="AB212" s="4"/>
       <c r="AC212" s="4"/>
     </row>
-    <row r="213" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>3</v>
       </c>
@@ -11995,7 +12008,7 @@
       <c r="AB213" s="4"/>
       <c r="AC213" s="4"/>
     </row>
-    <row r="214" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>3</v>
       </c>
@@ -12039,7 +12052,7 @@
       <c r="AB214" s="4"/>
       <c r="AC214" s="4"/>
     </row>
-    <row r="215" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>3</v>
       </c>
@@ -12083,7 +12096,7 @@
       <c r="AB215" s="4"/>
       <c r="AC215" s="4"/>
     </row>
-    <row r="216" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>3</v>
       </c>
@@ -12131,7 +12144,7 @@
       <c r="AB216" s="4"/>
       <c r="AC216" s="4"/>
     </row>
-    <row r="217" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>3</v>
       </c>
@@ -12181,7 +12194,7 @@
       <c r="AB217" s="4"/>
       <c r="AC217" s="4"/>
     </row>
-    <row r="218" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>3</v>
       </c>
@@ -12231,7 +12244,7 @@
       <c r="AB218" s="4"/>
       <c r="AC218" s="4"/>
     </row>
-    <row r="219" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>3</v>
       </c>
@@ -12279,7 +12292,7 @@
       <c r="AB219" s="4"/>
       <c r="AC219" s="4"/>
     </row>
-    <row r="220" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>3</v>
       </c>
@@ -12329,7 +12342,7 @@
       <c r="AB220" s="4"/>
       <c r="AC220" s="4"/>
     </row>
-    <row r="221" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>3</v>
       </c>
@@ -12371,7 +12384,7 @@
       <c r="AB221" s="4"/>
       <c r="AC221" s="4"/>
     </row>
-    <row r="222" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>3</v>
       </c>
@@ -12421,7 +12434,7 @@
       <c r="AB222" s="4"/>
       <c r="AC222" s="4"/>
     </row>
-    <row r="223" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>3</v>
       </c>
@@ -12467,7 +12480,7 @@
       <c r="AB223" s="4"/>
       <c r="AC223" s="4"/>
     </row>
-    <row r="224" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>3</v>
       </c>
@@ -12513,7 +12526,7 @@
       <c r="AB224" s="4"/>
       <c r="AC224" s="4"/>
     </row>
-    <row r="225" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>3</v>
       </c>
@@ -12563,7 +12576,7 @@
       <c r="AB225" s="4"/>
       <c r="AC225" s="4"/>
     </row>
-    <row r="226" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>3</v>
       </c>
@@ -12611,7 +12624,7 @@
       <c r="AB226" s="4"/>
       <c r="AC226" s="4"/>
     </row>
-    <row r="227" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>3</v>
       </c>
@@ -12655,7 +12668,7 @@
       <c r="AB227" s="4"/>
       <c r="AC227" s="4"/>
     </row>
-    <row r="228" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>3</v>
       </c>
@@ -12703,7 +12716,7 @@
       <c r="AB228" s="4"/>
       <c r="AC228" s="4"/>
     </row>
-    <row r="229" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>3</v>
       </c>
@@ -13051,7 +13064,7 @@
       <c r="AB235" s="4"/>
       <c r="AC235" s="4"/>
     </row>
-    <row r="236" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13082,7 +13095,7 @@
       <c r="AB236" s="4"/>
       <c r="AC236" s="4"/>
     </row>
-    <row r="237" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13113,7 +13126,7 @@
       <c r="AB237" s="4"/>
       <c r="AC237" s="4"/>
     </row>
-    <row r="238" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13144,7 +13157,7 @@
       <c r="AB238" s="4"/>
       <c r="AC238" s="4"/>
     </row>
-    <row r="239" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13175,7 +13188,7 @@
       <c r="AB239" s="4"/>
       <c r="AC239" s="4"/>
     </row>
-    <row r="240" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13206,7 +13219,7 @@
       <c r="AB240" s="4"/>
       <c r="AC240" s="4"/>
     </row>
-    <row r="241" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13237,7 +13250,7 @@
       <c r="AB241" s="4"/>
       <c r="AC241" s="4"/>
     </row>
-    <row r="242" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13268,7 +13281,7 @@
       <c r="AB242" s="4"/>
       <c r="AC242" s="4"/>
     </row>
-    <row r="243" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13299,7 +13312,7 @@
       <c r="AB243" s="4"/>
       <c r="AC243" s="4"/>
     </row>
-    <row r="244" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13330,7 +13343,7 @@
       <c r="AB244" s="4"/>
       <c r="AC244" s="4"/>
     </row>
-    <row r="245" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13361,7 +13374,7 @@
       <c r="AB245" s="4"/>
       <c r="AC245" s="4"/>
     </row>
-    <row r="246" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13392,7 +13405,7 @@
       <c r="AB246" s="4"/>
       <c r="AC246" s="4"/>
     </row>
-    <row r="247" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -13423,7 +13436,7 @@
       <c r="AB247" s="4"/>
       <c r="AC247" s="4"/>
     </row>
-    <row r="248" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -13454,7 +13467,7 @@
       <c r="AB248" s="4"/>
       <c r="AC248" s="4"/>
     </row>
-    <row r="249" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -13485,7 +13498,7 @@
       <c r="AB249" s="4"/>
       <c r="AC249" s="4"/>
     </row>
-    <row r="250" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -13516,7 +13529,7 @@
       <c r="AB250" s="4"/>
       <c r="AC250" s="4"/>
     </row>
-    <row r="251" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -13547,7 +13560,7 @@
       <c r="AB251" s="4"/>
       <c r="AC251" s="4"/>
     </row>
-    <row r="252" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -13578,7 +13591,7 @@
       <c r="AB252" s="4"/>
       <c r="AC252" s="4"/>
     </row>
-    <row r="253" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -13609,7 +13622,7 @@
       <c r="AB253" s="4"/>
       <c r="AC253" s="4"/>
     </row>
-    <row r="254" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -13640,7 +13653,7 @@
       <c r="AB254" s="4"/>
       <c r="AC254" s="4"/>
     </row>
-    <row r="255" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -13671,7 +13684,7 @@
       <c r="AB255" s="4"/>
       <c r="AC255" s="4"/>
     </row>
-    <row r="256" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -13702,7 +13715,7 @@
       <c r="AB256" s="4"/>
       <c r="AC256" s="4"/>
     </row>
-    <row r="257" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -13733,7 +13746,7 @@
       <c r="AB257" s="4"/>
       <c r="AC257" s="4"/>
     </row>
-    <row r="258" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -13764,7 +13777,7 @@
       <c r="AB258" s="4"/>
       <c r="AC258" s="4"/>
     </row>
-    <row r="259" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -13795,7 +13808,7 @@
       <c r="AB259" s="4"/>
       <c r="AC259" s="4"/>
     </row>
-    <row r="260" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -13826,7 +13839,7 @@
       <c r="AB260" s="4"/>
       <c r="AC260" s="4"/>
     </row>
-    <row r="261" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -13857,7 +13870,7 @@
       <c r="AB261" s="4"/>
       <c r="AC261" s="4"/>
     </row>
-    <row r="262" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -13888,7 +13901,7 @@
       <c r="AB262" s="4"/>
       <c r="AC262" s="4"/>
     </row>
-    <row r="263" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -13919,7 +13932,7 @@
       <c r="AB263" s="4"/>
       <c r="AC263" s="4"/>
     </row>
-    <row r="264" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -13950,7 +13963,7 @@
       <c r="AB264" s="4"/>
       <c r="AC264" s="4"/>
     </row>
-    <row r="265" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -13981,7 +13994,7 @@
       <c r="AB265" s="4"/>
       <c r="AC265" s="4"/>
     </row>
-    <row r="266" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -14012,7 +14025,7 @@
       <c r="AB266" s="4"/>
       <c r="AC266" s="4"/>
     </row>
-    <row r="267" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14043,7 +14056,7 @@
       <c r="AB267" s="4"/>
       <c r="AC267" s="4"/>
     </row>
-    <row r="268" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14074,7 +14087,7 @@
       <c r="AB268" s="4"/>
       <c r="AC268" s="4"/>
     </row>
-    <row r="269" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -14105,7 +14118,7 @@
       <c r="AB269" s="4"/>
       <c r="AC269" s="4"/>
     </row>
-    <row r="270" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -14136,7 +14149,7 @@
       <c r="AB270" s="4"/>
       <c r="AC270" s="4"/>
     </row>
-    <row r="271" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -14167,7 +14180,7 @@
       <c r="AB271" s="4"/>
       <c r="AC271" s="4"/>
     </row>
-    <row r="272" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -14198,7 +14211,7 @@
       <c r="AB272" s="4"/>
       <c r="AC272" s="4"/>
     </row>
-    <row r="273" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -14229,7 +14242,7 @@
       <c r="AB273" s="4"/>
       <c r="AC273" s="4"/>
     </row>
-    <row r="274" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -14260,7 +14273,7 @@
       <c r="AB274" s="4"/>
       <c r="AC274" s="4"/>
     </row>
-    <row r="275" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -14291,7 +14304,7 @@
       <c r="AB275" s="4"/>
       <c r="AC275" s="4"/>
     </row>
-    <row r="276" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -14322,7 +14335,7 @@
       <c r="AB276" s="4"/>
       <c r="AC276" s="4"/>
     </row>
-    <row r="277" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -14353,7 +14366,7 @@
       <c r="AB277" s="4"/>
       <c r="AC277" s="4"/>
     </row>
-    <row r="278" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -14384,7 +14397,7 @@
       <c r="AB278" s="4"/>
       <c r="AC278" s="4"/>
     </row>
-    <row r="279" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -14415,7 +14428,7 @@
       <c r="AB279" s="4"/>
       <c r="AC279" s="4"/>
     </row>
-    <row r="280" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -14446,7 +14459,7 @@
       <c r="AB280" s="4"/>
       <c r="AC280" s="4"/>
     </row>
-    <row r="281" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -14477,7 +14490,7 @@
       <c r="AB281" s="4"/>
       <c r="AC281" s="4"/>
     </row>
-    <row r="282" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -14508,7 +14521,7 @@
       <c r="AB282" s="4"/>
       <c r="AC282" s="4"/>
     </row>
-    <row r="283" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -14539,7 +14552,7 @@
       <c r="AB283" s="4"/>
       <c r="AC283" s="4"/>
     </row>
-    <row r="284" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -14570,7 +14583,7 @@
       <c r="AB284" s="4"/>
       <c r="AC284" s="4"/>
     </row>
-    <row r="285" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -14601,7 +14614,7 @@
       <c r="AB285" s="4"/>
       <c r="AC285" s="4"/>
     </row>
-    <row r="286" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -14632,7 +14645,7 @@
       <c r="AB286" s="4"/>
       <c r="AC286" s="4"/>
     </row>
-    <row r="287" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -14663,7 +14676,7 @@
       <c r="AB287" s="4"/>
       <c r="AC287" s="4"/>
     </row>
-    <row r="288" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -14694,7 +14707,7 @@
       <c r="AB288" s="4"/>
       <c r="AC288" s="4"/>
     </row>
-    <row r="289" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -14725,7 +14738,7 @@
       <c r="AB289" s="4"/>
       <c r="AC289" s="4"/>
     </row>
-    <row r="290" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -14756,7 +14769,7 @@
       <c r="AB290" s="4"/>
       <c r="AC290" s="4"/>
     </row>
-    <row r="291" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -14787,7 +14800,7 @@
       <c r="AB291" s="4"/>
       <c r="AC291" s="4"/>
     </row>
-    <row r="292" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -14818,7 +14831,7 @@
       <c r="AB292" s="4"/>
       <c r="AC292" s="4"/>
     </row>
-    <row r="293" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -14849,7 +14862,7 @@
       <c r="AB293" s="4"/>
       <c r="AC293" s="4"/>
     </row>
-    <row r="294" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -14880,7 +14893,7 @@
       <c r="AB294" s="4"/>
       <c r="AC294" s="4"/>
     </row>
-    <row r="295" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -14911,7 +14924,7 @@
       <c r="AB295" s="4"/>
       <c r="AC295" s="4"/>
     </row>
-    <row r="296" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -14942,7 +14955,7 @@
       <c r="AB296" s="4"/>
       <c r="AC296" s="4"/>
     </row>
-    <row r="297" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -14973,7 +14986,7 @@
       <c r="AB297" s="4"/>
       <c r="AC297" s="4"/>
     </row>
-    <row r="298" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -15004,7 +15017,7 @@
       <c r="AB298" s="4"/>
       <c r="AC298" s="4"/>
     </row>
-    <row r="299" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -15035,7 +15048,7 @@
       <c r="AB299" s="4"/>
       <c r="AC299" s="4"/>
     </row>
-    <row r="300" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -15066,7 +15079,7 @@
       <c r="AB300" s="4"/>
       <c r="AC300" s="4"/>
     </row>
-    <row r="301" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -15097,7 +15110,7 @@
       <c r="AB301" s="4"/>
       <c r="AC301" s="4"/>
     </row>
-    <row r="302" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -15128,7 +15141,7 @@
       <c r="AB302" s="4"/>
       <c r="AC302" s="4"/>
     </row>
-    <row r="303" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -15159,7 +15172,7 @@
       <c r="AB303" s="4"/>
       <c r="AC303" s="4"/>
     </row>
-    <row r="304" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -15190,7 +15203,7 @@
       <c r="AB304" s="4"/>
       <c r="AC304" s="4"/>
     </row>
-    <row r="305" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -15221,7 +15234,7 @@
       <c r="AB305" s="4"/>
       <c r="AC305" s="4"/>
     </row>
-    <row r="306" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -15252,7 +15265,7 @@
       <c r="AB306" s="4"/>
       <c r="AC306" s="4"/>
     </row>
-    <row r="307" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -15283,7 +15296,7 @@
       <c r="AB307" s="4"/>
       <c r="AC307" s="4"/>
     </row>
-    <row r="308" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -15314,7 +15327,7 @@
       <c r="AB308" s="4"/>
       <c r="AC308" s="4"/>
     </row>
-    <row r="309" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -15345,7 +15358,7 @@
       <c r="AB309" s="4"/>
       <c r="AC309" s="4"/>
     </row>
-    <row r="310" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -15376,7 +15389,7 @@
       <c r="AB310" s="4"/>
       <c r="AC310" s="4"/>
     </row>
-    <row r="311" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -15407,7 +15420,7 @@
       <c r="AB311" s="4"/>
       <c r="AC311" s="4"/>
     </row>
-    <row r="312" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -15438,7 +15451,7 @@
       <c r="AB312" s="4"/>
       <c r="AC312" s="4"/>
     </row>
-    <row r="313" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -15469,7 +15482,7 @@
       <c r="AB313" s="4"/>
       <c r="AC313" s="4"/>
     </row>
-    <row r="314" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -15500,7 +15513,7 @@
       <c r="AB314" s="4"/>
       <c r="AC314" s="4"/>
     </row>
-    <row r="315" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -15531,7 +15544,7 @@
       <c r="AB315" s="4"/>
       <c r="AC315" s="4"/>
     </row>
-    <row r="316" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -15562,7 +15575,7 @@
       <c r="AB316" s="4"/>
       <c r="AC316" s="4"/>
     </row>
-    <row r="317" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -15593,7 +15606,7 @@
       <c r="AB317" s="4"/>
       <c r="AC317" s="4"/>
     </row>
-    <row r="318" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -15624,7 +15637,7 @@
       <c r="AB318" s="4"/>
       <c r="AC318" s="4"/>
     </row>
-    <row r="319" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -15655,7 +15668,7 @@
       <c r="AB319" s="4"/>
       <c r="AC319" s="4"/>
     </row>
-    <row r="320" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -15686,7 +15699,7 @@
       <c r="AB320" s="4"/>
       <c r="AC320" s="4"/>
     </row>
-    <row r="321" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -15717,7 +15730,7 @@
       <c r="AB321" s="4"/>
       <c r="AC321" s="4"/>
     </row>
-    <row r="322" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -15748,7 +15761,7 @@
       <c r="AB322" s="4"/>
       <c r="AC322" s="4"/>
     </row>
-    <row r="323" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -15779,7 +15792,7 @@
       <c r="AB323" s="4"/>
       <c r="AC323" s="4"/>
     </row>
-    <row r="324" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -15810,7 +15823,7 @@
       <c r="AB324" s="4"/>
       <c r="AC324" s="4"/>
     </row>
-    <row r="325" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -15841,7 +15854,7 @@
       <c r="AB325" s="4"/>
       <c r="AC325" s="4"/>
     </row>
-    <row r="326" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -15872,7 +15885,7 @@
       <c r="AB326" s="4"/>
       <c r="AC326" s="4"/>
     </row>
-    <row r="327" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -15903,7 +15916,7 @@
       <c r="AB327" s="4"/>
       <c r="AC327" s="4"/>
     </row>
-    <row r="328" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -15934,7 +15947,7 @@
       <c r="AB328" s="4"/>
       <c r="AC328" s="4"/>
     </row>
-    <row r="329" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -15965,7 +15978,7 @@
       <c r="AB329" s="4"/>
       <c r="AC329" s="4"/>
     </row>
-    <row r="330" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -15996,7 +16009,7 @@
       <c r="AB330" s="4"/>
       <c r="AC330" s="4"/>
     </row>
-    <row r="331" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -16027,7 +16040,7 @@
       <c r="AB331" s="4"/>
       <c r="AC331" s="4"/>
     </row>
-    <row r="332" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -16058,7 +16071,7 @@
       <c r="AB332" s="4"/>
       <c r="AC332" s="4"/>
     </row>
-    <row r="333" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -16089,7 +16102,7 @@
       <c r="AB333" s="4"/>
       <c r="AC333" s="4"/>
     </row>
-    <row r="334" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -16120,7 +16133,7 @@
       <c r="AB334" s="4"/>
       <c r="AC334" s="4"/>
     </row>
-    <row r="335" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -16151,7 +16164,7 @@
       <c r="AB335" s="4"/>
       <c r="AC335" s="4"/>
     </row>
-    <row r="336" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -16182,7 +16195,7 @@
       <c r="AB336" s="4"/>
       <c r="AC336" s="4"/>
     </row>
-    <row r="337" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -16213,7 +16226,7 @@
       <c r="AB337" s="4"/>
       <c r="AC337" s="4"/>
     </row>
-    <row r="338" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -16244,7 +16257,7 @@
       <c r="AB338" s="4"/>
       <c r="AC338" s="4"/>
     </row>
-    <row r="339" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -16275,7 +16288,7 @@
       <c r="AB339" s="4"/>
       <c r="AC339" s="4"/>
     </row>
-    <row r="340" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -16306,7 +16319,7 @@
       <c r="AB340" s="4"/>
       <c r="AC340" s="4"/>
     </row>
-    <row r="341" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -16337,7 +16350,7 @@
       <c r="AB341" s="4"/>
       <c r="AC341" s="4"/>
     </row>
-    <row r="342" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -16368,7 +16381,7 @@
       <c r="AB342" s="4"/>
       <c r="AC342" s="4"/>
     </row>
-    <row r="343" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -16399,7 +16412,7 @@
       <c r="AB343" s="4"/>
       <c r="AC343" s="4"/>
     </row>
-    <row r="344" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -16430,7 +16443,7 @@
       <c r="AB344" s="4"/>
       <c r="AC344" s="4"/>
     </row>
-    <row r="345" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -16461,7 +16474,7 @@
       <c r="AB345" s="4"/>
       <c r="AC345" s="4"/>
     </row>
-    <row r="346" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -16492,7 +16505,7 @@
       <c r="AB346" s="4"/>
       <c r="AC346" s="4"/>
     </row>
-    <row r="347" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -16523,7 +16536,7 @@
       <c r="AB347" s="4"/>
       <c r="AC347" s="4"/>
     </row>
-    <row r="348" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -16554,7 +16567,7 @@
       <c r="AB348" s="4"/>
       <c r="AC348" s="4"/>
     </row>
-    <row r="349" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -16585,7 +16598,7 @@
       <c r="AB349" s="4"/>
       <c r="AC349" s="4"/>
     </row>
-    <row r="350" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -16616,7 +16629,7 @@
       <c r="AB350" s="4"/>
       <c r="AC350" s="4"/>
     </row>
-    <row r="351" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -16647,7 +16660,7 @@
       <c r="AB351" s="4"/>
       <c r="AC351" s="4"/>
     </row>
-    <row r="352" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -16678,7 +16691,7 @@
       <c r="AB352" s="4"/>
       <c r="AC352" s="4"/>
     </row>
-    <row r="353" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -16709,7 +16722,7 @@
       <c r="AB353" s="4"/>
       <c r="AC353" s="4"/>
     </row>
-    <row r="354" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -16740,7 +16753,7 @@
       <c r="AB354" s="4"/>
       <c r="AC354" s="4"/>
     </row>
-    <row r="355" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -16771,7 +16784,7 @@
       <c r="AB355" s="4"/>
       <c r="AC355" s="4"/>
     </row>
-    <row r="356" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -16802,7 +16815,7 @@
       <c r="AB356" s="4"/>
       <c r="AC356" s="4"/>
     </row>
-    <row r="357" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -16833,7 +16846,7 @@
       <c r="AB357" s="4"/>
       <c r="AC357" s="4"/>
     </row>
-    <row r="358" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -16864,7 +16877,7 @@
       <c r="AB358" s="4"/>
       <c r="AC358" s="4"/>
     </row>
-    <row r="359" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -16895,7 +16908,7 @@
       <c r="AB359" s="4"/>
       <c r="AC359" s="4"/>
     </row>
-    <row r="360" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -16926,7 +16939,7 @@
       <c r="AB360" s="4"/>
       <c r="AC360" s="4"/>
     </row>
-    <row r="361" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -16957,7 +16970,7 @@
       <c r="AB361" s="4"/>
       <c r="AC361" s="4"/>
     </row>
-    <row r="362" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -16988,7 +17001,7 @@
       <c r="AB362" s="4"/>
       <c r="AC362" s="4"/>
     </row>
-    <row r="363" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -17019,7 +17032,7 @@
       <c r="AB363" s="4"/>
       <c r="AC363" s="4"/>
     </row>
-    <row r="364" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -17050,7 +17063,7 @@
       <c r="AB364" s="4"/>
       <c r="AC364" s="4"/>
     </row>
-    <row r="365" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -17081,7 +17094,7 @@
       <c r="AB365" s="4"/>
       <c r="AC365" s="4"/>
     </row>
-    <row r="366" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -17112,7 +17125,7 @@
       <c r="AB366" s="4"/>
       <c r="AC366" s="4"/>
     </row>
-    <row r="367" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -17143,7 +17156,7 @@
       <c r="AB367" s="4"/>
       <c r="AC367" s="4"/>
     </row>
-    <row r="368" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -17174,7 +17187,7 @@
       <c r="AB368" s="4"/>
       <c r="AC368" s="4"/>
     </row>
-    <row r="369" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -17205,7 +17218,7 @@
       <c r="AB369" s="4"/>
       <c r="AC369" s="4"/>
     </row>
-    <row r="370" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -17236,7 +17249,7 @@
       <c r="AB370" s="4"/>
       <c r="AC370" s="4"/>
     </row>
-    <row r="371" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -17267,7 +17280,7 @@
       <c r="AB371" s="4"/>
       <c r="AC371" s="4"/>
     </row>
-    <row r="372" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -17298,7 +17311,7 @@
       <c r="AB372" s="4"/>
       <c r="AC372" s="4"/>
     </row>
-    <row r="373" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -17329,7 +17342,7 @@
       <c r="AB373" s="4"/>
       <c r="AC373" s="4"/>
     </row>
-    <row r="374" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -17360,7 +17373,7 @@
       <c r="AB374" s="4"/>
       <c r="AC374" s="4"/>
     </row>
-    <row r="375" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -17391,7 +17404,7 @@
       <c r="AB375" s="4"/>
       <c r="AC375" s="4"/>
     </row>
-    <row r="376" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -17422,7 +17435,7 @@
       <c r="AB376" s="4"/>
       <c r="AC376" s="4"/>
     </row>
-    <row r="377" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -17453,7 +17466,7 @@
       <c r="AB377" s="4"/>
       <c r="AC377" s="4"/>
     </row>
-    <row r="378" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -17484,7 +17497,7 @@
       <c r="AB378" s="4"/>
       <c r="AC378" s="4"/>
     </row>
-    <row r="379" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -17515,7 +17528,7 @@
       <c r="AB379" s="4"/>
       <c r="AC379" s="4"/>
     </row>
-    <row r="380" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -17546,7 +17559,7 @@
       <c r="AB380" s="4"/>
       <c r="AC380" s="4"/>
     </row>
-    <row r="381" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -17577,7 +17590,7 @@
       <c r="AB381" s="4"/>
       <c r="AC381" s="4"/>
     </row>
-    <row r="382" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -17608,7 +17621,7 @@
       <c r="AB382" s="4"/>
       <c r="AC382" s="4"/>
     </row>
-    <row r="383" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -17639,7 +17652,7 @@
       <c r="AB383" s="4"/>
       <c r="AC383" s="4"/>
     </row>
-    <row r="384" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -17670,7 +17683,7 @@
       <c r="AB384" s="4"/>
       <c r="AC384" s="4"/>
     </row>
-    <row r="385" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -17701,7 +17714,7 @@
       <c r="AB385" s="4"/>
       <c r="AC385" s="4"/>
     </row>
-    <row r="386" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -17732,7 +17745,7 @@
       <c r="AB386" s="4"/>
       <c r="AC386" s="4"/>
     </row>
-    <row r="387" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -17763,7 +17776,7 @@
       <c r="AB387" s="4"/>
       <c r="AC387" s="4"/>
     </row>
-    <row r="388" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -17794,7 +17807,7 @@
       <c r="AB388" s="4"/>
       <c r="AC388" s="4"/>
     </row>
-    <row r="389" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -17825,7 +17838,7 @@
       <c r="AB389" s="4"/>
       <c r="AC389" s="4"/>
     </row>
-    <row r="390" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -17856,7 +17869,7 @@
       <c r="AB390" s="4"/>
       <c r="AC390" s="4"/>
     </row>
-    <row r="391" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -17887,7 +17900,7 @@
       <c r="AB391" s="4"/>
       <c r="AC391" s="4"/>
     </row>
-    <row r="392" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -17918,7 +17931,7 @@
       <c r="AB392" s="4"/>
       <c r="AC392" s="4"/>
     </row>
-    <row r="393" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -17949,7 +17962,7 @@
       <c r="AB393" s="4"/>
       <c r="AC393" s="4"/>
     </row>
-    <row r="394" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -17980,7 +17993,7 @@
       <c r="AB394" s="4"/>
       <c r="AC394" s="4"/>
     </row>
-    <row r="395" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -18011,7 +18024,7 @@
       <c r="AB395" s="4"/>
       <c r="AC395" s="4"/>
     </row>
-    <row r="396" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -18042,7 +18055,7 @@
       <c r="AB396" s="4"/>
       <c r="AC396" s="4"/>
     </row>
-    <row r="397" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -18073,7 +18086,7 @@
       <c r="AB397" s="4"/>
       <c r="AC397" s="4"/>
     </row>
-    <row r="398" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -18104,7 +18117,7 @@
       <c r="AB398" s="4"/>
       <c r="AC398" s="4"/>
     </row>
-    <row r="399" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -18135,7 +18148,7 @@
       <c r="AB399" s="4"/>
       <c r="AC399" s="4"/>
     </row>
-    <row r="400" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -18166,7 +18179,7 @@
       <c r="AB400" s="4"/>
       <c r="AC400" s="4"/>
     </row>
-    <row r="401" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -18197,7 +18210,7 @@
       <c r="AB401" s="4"/>
       <c r="AC401" s="4"/>
     </row>
-    <row r="402" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -18228,7 +18241,7 @@
       <c r="AB402" s="4"/>
       <c r="AC402" s="4"/>
     </row>
-    <row r="403" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -18259,7 +18272,7 @@
       <c r="AB403" s="4"/>
       <c r="AC403" s="4"/>
     </row>
-    <row r="404" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -18290,7 +18303,7 @@
       <c r="AB404" s="4"/>
       <c r="AC404" s="4"/>
     </row>
-    <row r="405" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -18321,7 +18334,7 @@
       <c r="AB405" s="4"/>
       <c r="AC405" s="4"/>
     </row>
-    <row r="406" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -18352,7 +18365,7 @@
       <c r="AB406" s="4"/>
       <c r="AC406" s="4"/>
     </row>
-    <row r="407" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -18383,7 +18396,7 @@
       <c r="AB407" s="4"/>
       <c r="AC407" s="4"/>
     </row>
-    <row r="408" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -18414,7 +18427,7 @@
       <c r="AB408" s="4"/>
       <c r="AC408" s="4"/>
     </row>
-    <row r="409" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -18445,7 +18458,7 @@
       <c r="AB409" s="4"/>
       <c r="AC409" s="4"/>
     </row>
-    <row r="410" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -18476,7 +18489,7 @@
       <c r="AB410" s="4"/>
       <c r="AC410" s="4"/>
     </row>
-    <row r="411" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -18507,7 +18520,7 @@
       <c r="AB411" s="4"/>
       <c r="AC411" s="4"/>
     </row>
-    <row r="412" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -18538,7 +18551,7 @@
       <c r="AB412" s="4"/>
       <c r="AC412" s="4"/>
     </row>
-    <row r="413" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -18569,7 +18582,7 @@
       <c r="AB413" s="4"/>
       <c r="AC413" s="4"/>
     </row>
-    <row r="414" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -18600,7 +18613,7 @@
       <c r="AB414" s="4"/>
       <c r="AC414" s="4"/>
     </row>
-    <row r="415" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -18631,7 +18644,7 @@
       <c r="AB415" s="4"/>
       <c r="AC415" s="4"/>
     </row>
-    <row r="416" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -18662,7 +18675,7 @@
       <c r="AB416" s="4"/>
       <c r="AC416" s="4"/>
     </row>
-    <row r="417" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -18693,7 +18706,7 @@
       <c r="AB417" s="4"/>
       <c r="AC417" s="4"/>
     </row>
-    <row r="418" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -18724,7 +18737,7 @@
       <c r="AB418" s="4"/>
       <c r="AC418" s="4"/>
     </row>
-    <row r="419" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -18755,7 +18768,7 @@
       <c r="AB419" s="4"/>
       <c r="AC419" s="4"/>
     </row>
-    <row r="420" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -18786,7 +18799,7 @@
       <c r="AB420" s="4"/>
       <c r="AC420" s="4"/>
     </row>
-    <row r="421" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -18817,7 +18830,7 @@
       <c r="AB421" s="4"/>
       <c r="AC421" s="4"/>
     </row>
-    <row r="422" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -18848,7 +18861,7 @@
       <c r="AB422" s="4"/>
       <c r="AC422" s="4"/>
     </row>
-    <row r="423" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -18879,7 +18892,7 @@
       <c r="AB423" s="4"/>
       <c r="AC423" s="4"/>
     </row>
-    <row r="424" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -18910,7 +18923,7 @@
       <c r="AB424" s="4"/>
       <c r="AC424" s="4"/>
     </row>
-    <row r="425" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -18941,7 +18954,7 @@
       <c r="AB425" s="4"/>
       <c r="AC425" s="4"/>
     </row>
-    <row r="426" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -18972,7 +18985,7 @@
       <c r="AB426" s="4"/>
       <c r="AC426" s="4"/>
     </row>
-    <row r="427" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -19003,7 +19016,7 @@
       <c r="AB427" s="4"/>
       <c r="AC427" s="4"/>
     </row>
-    <row r="428" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -19034,7 +19047,7 @@
       <c r="AB428" s="4"/>
       <c r="AC428" s="4"/>
     </row>
-    <row r="429" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -19065,7 +19078,7 @@
       <c r="AB429" s="4"/>
       <c r="AC429" s="4"/>
     </row>
-    <row r="430" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -19096,7 +19109,7 @@
       <c r="AB430" s="4"/>
       <c r="AC430" s="4"/>
     </row>
-    <row r="431" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -19127,7 +19140,7 @@
       <c r="AB431" s="4"/>
       <c r="AC431" s="4"/>
     </row>
-    <row r="432" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -19158,7 +19171,7 @@
       <c r="AB432" s="4"/>
       <c r="AC432" s="4"/>
     </row>
-    <row r="433" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -19189,7 +19202,7 @@
       <c r="AB433" s="4"/>
       <c r="AC433" s="4"/>
     </row>
-    <row r="434" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -19220,7 +19233,7 @@
       <c r="AB434" s="4"/>
       <c r="AC434" s="4"/>
     </row>
-    <row r="435" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -19251,7 +19264,7 @@
       <c r="AB435" s="4"/>
       <c r="AC435" s="4"/>
     </row>
-    <row r="436" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -19282,7 +19295,7 @@
       <c r="AB436" s="4"/>
       <c r="AC436" s="4"/>
     </row>
-    <row r="437" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -19313,7 +19326,7 @@
       <c r="AB437" s="4"/>
       <c r="AC437" s="4"/>
     </row>
-    <row r="438" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -19344,7 +19357,7 @@
       <c r="AB438" s="4"/>
       <c r="AC438" s="4"/>
     </row>
-    <row r="439" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -19375,7 +19388,7 @@
       <c r="AB439" s="4"/>
       <c r="AC439" s="4"/>
     </row>
-    <row r="440" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -19406,7 +19419,7 @@
       <c r="AB440" s="4"/>
       <c r="AC440" s="4"/>
     </row>
-    <row r="441" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -19437,7 +19450,7 @@
       <c r="AB441" s="4"/>
       <c r="AC441" s="4"/>
     </row>
-    <row r="442" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -19468,7 +19481,7 @@
       <c r="AB442" s="4"/>
       <c r="AC442" s="4"/>
     </row>
-    <row r="443" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -19499,7 +19512,7 @@
       <c r="AB443" s="4"/>
       <c r="AC443" s="4"/>
     </row>
-    <row r="444" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -19530,7 +19543,7 @@
       <c r="AB444" s="4"/>
       <c r="AC444" s="4"/>
     </row>
-    <row r="445" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -19561,7 +19574,7 @@
       <c r="AB445" s="4"/>
       <c r="AC445" s="4"/>
     </row>
-    <row r="446" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -19592,7 +19605,7 @@
       <c r="AB446" s="4"/>
       <c r="AC446" s="4"/>
     </row>
-    <row r="447" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -19623,7 +19636,7 @@
       <c r="AB447" s="4"/>
       <c r="AC447" s="4"/>
     </row>
-    <row r="448" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -19654,7 +19667,7 @@
       <c r="AB448" s="4"/>
       <c r="AC448" s="4"/>
     </row>
-    <row r="449" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -19685,7 +19698,7 @@
       <c r="AB449" s="4"/>
       <c r="AC449" s="4"/>
     </row>
-    <row r="450" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -19716,7 +19729,7 @@
       <c r="AB450" s="4"/>
       <c r="AC450" s="4"/>
     </row>
-    <row r="451" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -19747,7 +19760,7 @@
       <c r="AB451" s="4"/>
       <c r="AC451" s="4"/>
     </row>
-    <row r="452" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -19778,7 +19791,7 @@
       <c r="AB452" s="4"/>
       <c r="AC452" s="4"/>
     </row>
-    <row r="453" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -19809,7 +19822,7 @@
       <c r="AB453" s="4"/>
       <c r="AC453" s="4"/>
     </row>
-    <row r="454" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -19840,7 +19853,7 @@
       <c r="AB454" s="4"/>
       <c r="AC454" s="4"/>
     </row>
-    <row r="455" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -19871,7 +19884,7 @@
       <c r="AB455" s="4"/>
       <c r="AC455" s="4"/>
     </row>
-    <row r="456" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -19902,7 +19915,7 @@
       <c r="AB456" s="4"/>
       <c r="AC456" s="4"/>
     </row>
-    <row r="457" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -19933,7 +19946,7 @@
       <c r="AB457" s="4"/>
       <c r="AC457" s="4"/>
     </row>
-    <row r="458" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -19964,7 +19977,7 @@
       <c r="AB458" s="4"/>
       <c r="AC458" s="4"/>
     </row>
-    <row r="459" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -19995,7 +20008,7 @@
       <c r="AB459" s="4"/>
       <c r="AC459" s="4"/>
     </row>
-    <row r="460" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -20026,7 +20039,7 @@
       <c r="AB460" s="4"/>
       <c r="AC460" s="4"/>
     </row>
-    <row r="461" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -20057,7 +20070,7 @@
       <c r="AB461" s="4"/>
       <c r="AC461" s="4"/>
     </row>
-    <row r="462" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -20088,7 +20101,7 @@
       <c r="AB462" s="4"/>
       <c r="AC462" s="4"/>
     </row>
-    <row r="463" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -20119,7 +20132,7 @@
       <c r="AB463" s="4"/>
       <c r="AC463" s="4"/>
     </row>
-    <row r="464" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -20150,7 +20163,7 @@
       <c r="AB464" s="4"/>
       <c r="AC464" s="4"/>
     </row>
-    <row r="465" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -20181,7 +20194,7 @@
       <c r="AB465" s="4"/>
       <c r="AC465" s="4"/>
     </row>
-    <row r="466" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -20212,7 +20225,7 @@
       <c r="AB466" s="4"/>
       <c r="AC466" s="4"/>
     </row>
-    <row r="467" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -20243,7 +20256,7 @@
       <c r="AB467" s="4"/>
       <c r="AC467" s="4"/>
     </row>
-    <row r="468" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -20274,7 +20287,7 @@
       <c r="AB468" s="4"/>
       <c r="AC468" s="4"/>
     </row>
-    <row r="469" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -20305,7 +20318,7 @@
       <c r="AB469" s="4"/>
       <c r="AC469" s="4"/>
     </row>
-    <row r="470" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -20336,7 +20349,7 @@
       <c r="AB470" s="4"/>
       <c r="AC470" s="4"/>
     </row>
-    <row r="471" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -20367,7 +20380,7 @@
       <c r="AB471" s="4"/>
       <c r="AC471" s="4"/>
     </row>
-    <row r="472" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -20398,7 +20411,7 @@
       <c r="AB472" s="4"/>
       <c r="AC472" s="4"/>
     </row>
-    <row r="473" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -20429,7 +20442,7 @@
       <c r="AB473" s="4"/>
       <c r="AC473" s="4"/>
     </row>
-    <row r="474" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -20460,7 +20473,7 @@
       <c r="AB474" s="4"/>
       <c r="AC474" s="4"/>
     </row>
-    <row r="475" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -20491,7 +20504,7 @@
       <c r="AB475" s="4"/>
       <c r="AC475" s="4"/>
     </row>
-    <row r="476" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -20522,7 +20535,7 @@
       <c r="AB476" s="4"/>
       <c r="AC476" s="4"/>
     </row>
-    <row r="477" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -20553,7 +20566,7 @@
       <c r="AB477" s="4"/>
       <c r="AC477" s="4"/>
     </row>
-    <row r="478" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -20584,7 +20597,7 @@
       <c r="AB478" s="4"/>
       <c r="AC478" s="4"/>
     </row>
-    <row r="479" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -20615,7 +20628,7 @@
       <c r="AB479" s="4"/>
       <c r="AC479" s="4"/>
     </row>
-    <row r="480" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -20646,7 +20659,7 @@
       <c r="AB480" s="4"/>
       <c r="AC480" s="4"/>
     </row>
-    <row r="481" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -20677,7 +20690,7 @@
       <c r="AB481" s="4"/>
       <c r="AC481" s="4"/>
     </row>
-    <row r="482" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -20708,7 +20721,7 @@
       <c r="AB482" s="4"/>
       <c r="AC482" s="4"/>
     </row>
-    <row r="483" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -20739,7 +20752,7 @@
       <c r="AB483" s="4"/>
       <c r="AC483" s="4"/>
     </row>
-    <row r="484" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -20770,7 +20783,7 @@
       <c r="AB484" s="4"/>
       <c r="AC484" s="4"/>
     </row>
-    <row r="485" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -20801,7 +20814,7 @@
       <c r="AB485" s="4"/>
       <c r="AC485" s="4"/>
     </row>
-    <row r="486" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -20832,7 +20845,7 @@
       <c r="AB486" s="4"/>
       <c r="AC486" s="4"/>
     </row>
-    <row r="487" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -20863,7 +20876,7 @@
       <c r="AB487" s="4"/>
       <c r="AC487" s="4"/>
     </row>
-    <row r="488" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -20894,7 +20907,7 @@
       <c r="AB488" s="4"/>
       <c r="AC488" s="4"/>
     </row>
-    <row r="489" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -20925,7 +20938,7 @@
       <c r="AB489" s="4"/>
       <c r="AC489" s="4"/>
     </row>
-    <row r="490" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -20956,7 +20969,7 @@
       <c r="AB490" s="4"/>
       <c r="AC490" s="4"/>
     </row>
-    <row r="491" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -20987,7 +21000,7 @@
       <c r="AB491" s="4"/>
       <c r="AC491" s="4"/>
     </row>
-    <row r="492" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -21018,7 +21031,7 @@
       <c r="AB492" s="4"/>
       <c r="AC492" s="4"/>
     </row>
-    <row r="493" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -21049,7 +21062,7 @@
       <c r="AB493" s="4"/>
       <c r="AC493" s="4"/>
     </row>
-    <row r="494" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -21080,7 +21093,7 @@
       <c r="AB494" s="4"/>
       <c r="AC494" s="4"/>
     </row>
-    <row r="495" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -21111,7 +21124,7 @@
       <c r="AB495" s="4"/>
       <c r="AC495" s="4"/>
     </row>
-    <row r="496" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -21142,7 +21155,7 @@
       <c r="AB496" s="4"/>
       <c r="AC496" s="4"/>
     </row>
-    <row r="497" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -21173,7 +21186,7 @@
       <c r="AB497" s="4"/>
       <c r="AC497" s="4"/>
     </row>
-    <row r="498" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -21204,7 +21217,7 @@
       <c r="AB498" s="4"/>
       <c r="AC498" s="4"/>
     </row>
-    <row r="499" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -21235,7 +21248,7 @@
       <c r="AB499" s="4"/>
       <c r="AC499" s="4"/>
     </row>
-    <row r="500" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -21266,7 +21279,7 @@
       <c r="AB500" s="4"/>
       <c r="AC500" s="4"/>
     </row>
-    <row r="501" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -21297,7 +21310,7 @@
       <c r="AB501" s="4"/>
       <c r="AC501" s="4"/>
     </row>
-    <row r="502" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -21328,7 +21341,7 @@
       <c r="AB502" s="4"/>
       <c r="AC502" s="4"/>
     </row>
-    <row r="503" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -21359,7 +21372,7 @@
       <c r="AB503" s="4"/>
       <c r="AC503" s="4"/>
     </row>
-    <row r="504" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -21390,7 +21403,7 @@
       <c r="AB504" s="4"/>
       <c r="AC504" s="4"/>
     </row>
-    <row r="505" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -21421,7 +21434,7 @@
       <c r="AB505" s="4"/>
       <c r="AC505" s="4"/>
     </row>
-    <row r="506" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -21452,7 +21465,7 @@
       <c r="AB506" s="4"/>
       <c r="AC506" s="4"/>
     </row>
-    <row r="507" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -21483,7 +21496,7 @@
       <c r="AB507" s="4"/>
       <c r="AC507" s="4"/>
     </row>
-    <row r="508" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -21514,7 +21527,7 @@
       <c r="AB508" s="4"/>
       <c r="AC508" s="4"/>
     </row>
-    <row r="509" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -21545,7 +21558,7 @@
       <c r="AB509" s="4"/>
       <c r="AC509" s="4"/>
     </row>
-    <row r="510" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -21576,7 +21589,7 @@
       <c r="AB510" s="4"/>
       <c r="AC510" s="4"/>
     </row>
-    <row r="511" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -21607,7 +21620,7 @@
       <c r="AB511" s="4"/>
       <c r="AC511" s="4"/>
     </row>
-    <row r="512" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -21638,7 +21651,7 @@
       <c r="AB512" s="4"/>
       <c r="AC512" s="4"/>
     </row>
-    <row r="513" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -21669,7 +21682,7 @@
       <c r="AB513" s="4"/>
       <c r="AC513" s="4"/>
     </row>
-    <row r="514" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -21700,7 +21713,7 @@
       <c r="AB514" s="4"/>
       <c r="AC514" s="4"/>
     </row>
-    <row r="515" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -21731,7 +21744,7 @@
       <c r="AB515" s="4"/>
       <c r="AC515" s="4"/>
     </row>
-    <row r="516" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -21762,7 +21775,7 @@
       <c r="AB516" s="4"/>
       <c r="AC516" s="4"/>
     </row>
-    <row r="517" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -21793,7 +21806,7 @@
       <c r="AB517" s="4"/>
       <c r="AC517" s="4"/>
     </row>
-    <row r="518" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -21824,7 +21837,7 @@
       <c r="AB518" s="4"/>
       <c r="AC518" s="4"/>
     </row>
-    <row r="519" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -21855,7 +21868,7 @@
       <c r="AB519" s="4"/>
       <c r="AC519" s="4"/>
     </row>
-    <row r="520" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -21886,7 +21899,7 @@
       <c r="AB520" s="4"/>
       <c r="AC520" s="4"/>
     </row>
-    <row r="521" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -21917,7 +21930,7 @@
       <c r="AB521" s="4"/>
       <c r="AC521" s="4"/>
     </row>
-    <row r="522" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -21948,7 +21961,7 @@
       <c r="AB522" s="4"/>
       <c r="AC522" s="4"/>
     </row>
-    <row r="523" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -21979,7 +21992,7 @@
       <c r="AB523" s="4"/>
       <c r="AC523" s="4"/>
     </row>
-    <row r="524" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -22010,7 +22023,7 @@
       <c r="AB524" s="4"/>
       <c r="AC524" s="4"/>
     </row>
-    <row r="525" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -22041,7 +22054,7 @@
       <c r="AB525" s="4"/>
       <c r="AC525" s="4"/>
     </row>
-    <row r="526" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -22072,7 +22085,7 @@
       <c r="AB526" s="4"/>
       <c r="AC526" s="4"/>
     </row>
-    <row r="527" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -22103,7 +22116,7 @@
       <c r="AB527" s="4"/>
       <c r="AC527" s="4"/>
     </row>
-    <row r="528" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -22134,7 +22147,7 @@
       <c r="AB528" s="4"/>
       <c r="AC528" s="4"/>
     </row>
-    <row r="529" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -22165,7 +22178,7 @@
       <c r="AB529" s="4"/>
       <c r="AC529" s="4"/>
     </row>
-    <row r="530" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -22196,7 +22209,7 @@
       <c r="AB530" s="4"/>
       <c r="AC530" s="4"/>
     </row>
-    <row r="531" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -22227,7 +22240,7 @@
       <c r="AB531" s="4"/>
       <c r="AC531" s="4"/>
     </row>
-    <row r="532" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -22258,7 +22271,7 @@
       <c r="AB532" s="4"/>
       <c r="AC532" s="4"/>
     </row>
-    <row r="533" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -22289,7 +22302,7 @@
       <c r="AB533" s="4"/>
       <c r="AC533" s="4"/>
     </row>
-    <row r="534" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -22320,7 +22333,7 @@
       <c r="AB534" s="4"/>
       <c r="AC534" s="4"/>
     </row>
-    <row r="535" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -22351,7 +22364,7 @@
       <c r="AB535" s="4"/>
       <c r="AC535" s="4"/>
     </row>
-    <row r="536" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -22382,7 +22395,7 @@
       <c r="AB536" s="4"/>
       <c r="AC536" s="4"/>
     </row>
-    <row r="537" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -22413,7 +22426,7 @@
       <c r="AB537" s="4"/>
       <c r="AC537" s="4"/>
     </row>
-    <row r="538" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -22444,7 +22457,7 @@
       <c r="AB538" s="4"/>
       <c r="AC538" s="4"/>
     </row>
-    <row r="539" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -22475,7 +22488,7 @@
       <c r="AB539" s="4"/>
       <c r="AC539" s="4"/>
     </row>
-    <row r="540" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -22506,7 +22519,7 @@
       <c r="AB540" s="4"/>
       <c r="AC540" s="4"/>
     </row>
-    <row r="541" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -22537,7 +22550,7 @@
       <c r="AB541" s="4"/>
       <c r="AC541" s="4"/>
     </row>
-    <row r="542" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -22568,7 +22581,7 @@
       <c r="AB542" s="4"/>
       <c r="AC542" s="4"/>
     </row>
-    <row r="543" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -22599,7 +22612,7 @@
       <c r="AB543" s="4"/>
       <c r="AC543" s="4"/>
     </row>
-    <row r="544" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -22630,7 +22643,7 @@
       <c r="AB544" s="4"/>
       <c r="AC544" s="4"/>
     </row>
-    <row r="545" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -22661,7 +22674,7 @@
       <c r="AB545" s="4"/>
       <c r="AC545" s="4"/>
     </row>
-    <row r="546" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -22692,7 +22705,7 @@
       <c r="AB546" s="4"/>
       <c r="AC546" s="4"/>
     </row>
-    <row r="547" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -22723,7 +22736,7 @@
       <c r="AB547" s="4"/>
       <c r="AC547" s="4"/>
     </row>
-    <row r="548" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -22754,7 +22767,7 @@
       <c r="AB548" s="4"/>
       <c r="AC548" s="4"/>
     </row>
-    <row r="549" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -22785,7 +22798,7 @@
       <c r="AB549" s="4"/>
       <c r="AC549" s="4"/>
     </row>
-    <row r="550" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -22816,7 +22829,7 @@
       <c r="AB550" s="4"/>
       <c r="AC550" s="4"/>
     </row>
-    <row r="551" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -22847,7 +22860,7 @@
       <c r="AB551" s="4"/>
       <c r="AC551" s="4"/>
     </row>
-    <row r="552" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -22878,7 +22891,7 @@
       <c r="AB552" s="4"/>
       <c r="AC552" s="4"/>
     </row>
-    <row r="553" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -22909,7 +22922,7 @@
       <c r="AB553" s="4"/>
       <c r="AC553" s="4"/>
     </row>
-    <row r="554" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -22940,7 +22953,7 @@
       <c r="AB554" s="4"/>
       <c r="AC554" s="4"/>
     </row>
-    <row r="555" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -22971,7 +22984,7 @@
       <c r="AB555" s="4"/>
       <c r="AC555" s="4"/>
     </row>
-    <row r="556" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -23002,7 +23015,7 @@
       <c r="AB556" s="4"/>
       <c r="AC556" s="4"/>
     </row>
-    <row r="557" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -23033,7 +23046,7 @@
       <c r="AB557" s="4"/>
       <c r="AC557" s="4"/>
     </row>
-    <row r="558" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -23064,7 +23077,7 @@
       <c r="AB558" s="4"/>
       <c r="AC558" s="4"/>
     </row>
-    <row r="559" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -23095,7 +23108,7 @@
       <c r="AB559" s="4"/>
       <c r="AC559" s="4"/>
     </row>
-    <row r="560" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -23126,7 +23139,7 @@
       <c r="AB560" s="4"/>
       <c r="AC560" s="4"/>
     </row>
-    <row r="561" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -23157,7 +23170,7 @@
       <c r="AB561" s="4"/>
       <c r="AC561" s="4"/>
     </row>
-    <row r="562" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -23188,7 +23201,7 @@
       <c r="AB562" s="4"/>
       <c r="AC562" s="4"/>
     </row>
-    <row r="563" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -23219,7 +23232,7 @@
       <c r="AB563" s="4"/>
       <c r="AC563" s="4"/>
     </row>
-    <row r="564" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -23250,7 +23263,7 @@
       <c r="AB564" s="4"/>
       <c r="AC564" s="4"/>
     </row>
-    <row r="565" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -23281,7 +23294,7 @@
       <c r="AB565" s="4"/>
       <c r="AC565" s="4"/>
     </row>
-    <row r="566" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -23312,7 +23325,7 @@
       <c r="AB566" s="4"/>
       <c r="AC566" s="4"/>
     </row>
-    <row r="567" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -23343,7 +23356,7 @@
       <c r="AB567" s="4"/>
       <c r="AC567" s="4"/>
     </row>
-    <row r="568" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -23374,7 +23387,7 @@
       <c r="AB568" s="4"/>
       <c r="AC568" s="4"/>
     </row>
-    <row r="569" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -23405,7 +23418,7 @@
       <c r="AB569" s="4"/>
       <c r="AC569" s="4"/>
     </row>
-    <row r="570" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -23436,7 +23449,7 @@
       <c r="AB570" s="4"/>
       <c r="AC570" s="4"/>
     </row>
-    <row r="571" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -23467,7 +23480,7 @@
       <c r="AB571" s="4"/>
       <c r="AC571" s="4"/>
     </row>
-    <row r="572" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -23498,7 +23511,7 @@
       <c r="AB572" s="4"/>
       <c r="AC572" s="4"/>
     </row>
-    <row r="573" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -23529,7 +23542,7 @@
       <c r="AB573" s="4"/>
       <c r="AC573" s="4"/>
     </row>
-    <row r="574" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -23560,7 +23573,7 @@
       <c r="AB574" s="4"/>
       <c r="AC574" s="4"/>
     </row>
-    <row r="575" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -23591,7 +23604,7 @@
       <c r="AB575" s="4"/>
       <c r="AC575" s="4"/>
     </row>
-    <row r="576" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -23622,7 +23635,7 @@
       <c r="AB576" s="4"/>
       <c r="AC576" s="4"/>
     </row>
-    <row r="577" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -23653,7 +23666,7 @@
       <c r="AB577" s="4"/>
       <c r="AC577" s="4"/>
     </row>
-    <row r="578" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -23684,7 +23697,7 @@
       <c r="AB578" s="4"/>
       <c r="AC578" s="4"/>
     </row>
-    <row r="579" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -23715,7 +23728,7 @@
       <c r="AB579" s="4"/>
       <c r="AC579" s="4"/>
     </row>
-    <row r="580" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -23746,7 +23759,7 @@
       <c r="AB580" s="4"/>
       <c r="AC580" s="4"/>
     </row>
-    <row r="581" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -23777,7 +23790,7 @@
       <c r="AB581" s="4"/>
       <c r="AC581" s="4"/>
     </row>
-    <row r="582" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -23808,7 +23821,7 @@
       <c r="AB582" s="4"/>
       <c r="AC582" s="4"/>
     </row>
-    <row r="583" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -23839,7 +23852,7 @@
       <c r="AB583" s="4"/>
       <c r="AC583" s="4"/>
     </row>
-    <row r="584" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -23870,7 +23883,7 @@
       <c r="AB584" s="4"/>
       <c r="AC584" s="4"/>
     </row>
-    <row r="585" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -23901,7 +23914,7 @@
       <c r="AB585" s="4"/>
       <c r="AC585" s="4"/>
     </row>
-    <row r="586" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -23932,7 +23945,7 @@
       <c r="AB586" s="4"/>
       <c r="AC586" s="4"/>
     </row>
-    <row r="587" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -23963,7 +23976,7 @@
       <c r="AB587" s="4"/>
       <c r="AC587" s="4"/>
     </row>
-    <row r="588" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -23994,7 +24007,7 @@
       <c r="AB588" s="4"/>
       <c r="AC588" s="4"/>
     </row>
-    <row r="589" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -24025,7 +24038,7 @@
       <c r="AB589" s="4"/>
       <c r="AC589" s="4"/>
     </row>
-    <row r="590" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -24056,7 +24069,7 @@
       <c r="AB590" s="4"/>
       <c r="AC590" s="4"/>
     </row>
-    <row r="591" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -24087,7 +24100,7 @@
       <c r="AB591" s="4"/>
       <c r="AC591" s="4"/>
     </row>
-    <row r="592" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -24118,7 +24131,7 @@
       <c r="AB592" s="4"/>
       <c r="AC592" s="4"/>
     </row>
-    <row r="593" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -24149,7 +24162,7 @@
       <c r="AB593" s="4"/>
       <c r="AC593" s="4"/>
     </row>
-    <row r="594" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -24180,7 +24193,7 @@
       <c r="AB594" s="4"/>
       <c r="AC594" s="4"/>
     </row>
-    <row r="595" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -24211,7 +24224,7 @@
       <c r="AB595" s="4"/>
       <c r="AC595" s="4"/>
     </row>
-    <row r="596" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -24242,7 +24255,7 @@
       <c r="AB596" s="4"/>
       <c r="AC596" s="4"/>
     </row>
-    <row r="597" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -24273,7 +24286,7 @@
       <c r="AB597" s="4"/>
       <c r="AC597" s="4"/>
     </row>
-    <row r="598" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -24304,7 +24317,7 @@
       <c r="AB598" s="4"/>
       <c r="AC598" s="4"/>
     </row>
-    <row r="599" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -24335,7 +24348,7 @@
       <c r="AB599" s="4"/>
       <c r="AC599" s="4"/>
     </row>
-    <row r="600" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -24366,7 +24379,7 @@
       <c r="AB600" s="4"/>
       <c r="AC600" s="4"/>
     </row>
-    <row r="601" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -24397,7 +24410,7 @@
       <c r="AB601" s="4"/>
       <c r="AC601" s="4"/>
     </row>
-    <row r="602" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -24428,7 +24441,7 @@
       <c r="AB602" s="4"/>
       <c r="AC602" s="4"/>
     </row>
-    <row r="603" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -24459,7 +24472,7 @@
       <c r="AB603" s="4"/>
       <c r="AC603" s="4"/>
     </row>
-    <row r="604" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -24490,7 +24503,7 @@
       <c r="AB604" s="4"/>
       <c r="AC604" s="4"/>
     </row>
-    <row r="605" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -24521,7 +24534,7 @@
       <c r="AB605" s="4"/>
       <c r="AC605" s="4"/>
     </row>
-    <row r="606" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -24552,7 +24565,7 @@
       <c r="AB606" s="4"/>
       <c r="AC606" s="4"/>
     </row>
-    <row r="607" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -24583,7 +24596,7 @@
       <c r="AB607" s="4"/>
       <c r="AC607" s="4"/>
     </row>
-    <row r="608" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -24614,7 +24627,7 @@
       <c r="AB608" s="4"/>
       <c r="AC608" s="4"/>
     </row>
-    <row r="609" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -24645,7 +24658,7 @@
       <c r="AB609" s="4"/>
       <c r="AC609" s="4"/>
     </row>
-    <row r="610" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -24676,7 +24689,7 @@
       <c r="AB610" s="4"/>
       <c r="AC610" s="4"/>
     </row>
-    <row r="611" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -24707,7 +24720,7 @@
       <c r="AB611" s="4"/>
       <c r="AC611" s="4"/>
     </row>
-    <row r="612" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -24738,7 +24751,7 @@
       <c r="AB612" s="4"/>
       <c r="AC612" s="4"/>
     </row>
-    <row r="613" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -24769,7 +24782,7 @@
       <c r="AB613" s="4"/>
       <c r="AC613" s="4"/>
     </row>
-    <row r="614" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -24800,7 +24813,7 @@
       <c r="AB614" s="4"/>
       <c r="AC614" s="4"/>
     </row>
-    <row r="615" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -24831,7 +24844,7 @@
       <c r="AB615" s="4"/>
       <c r="AC615" s="4"/>
     </row>
-    <row r="616" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -24862,7 +24875,7 @@
       <c r="AB616" s="4"/>
       <c r="AC616" s="4"/>
     </row>
-    <row r="617" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -24893,7 +24906,7 @@
       <c r="AB617" s="4"/>
       <c r="AC617" s="4"/>
     </row>
-    <row r="618" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -24924,7 +24937,7 @@
       <c r="AB618" s="4"/>
       <c r="AC618" s="4"/>
     </row>
-    <row r="619" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -24955,7 +24968,7 @@
       <c r="AB619" s="4"/>
       <c r="AC619" s="4"/>
     </row>
-    <row r="620" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -24986,7 +24999,7 @@
       <c r="AB620" s="4"/>
       <c r="AC620" s="4"/>
     </row>
-    <row r="621" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -25017,7 +25030,7 @@
       <c r="AB621" s="4"/>
       <c r="AC621" s="4"/>
     </row>
-    <row r="622" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -25048,7 +25061,7 @@
       <c r="AB622" s="4"/>
       <c r="AC622" s="4"/>
     </row>
-    <row r="623" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -25079,7 +25092,7 @@
       <c r="AB623" s="4"/>
       <c r="AC623" s="4"/>
     </row>
-    <row r="624" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -25110,7 +25123,7 @@
       <c r="AB624" s="4"/>
       <c r="AC624" s="4"/>
     </row>
-    <row r="625" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -25141,7 +25154,7 @@
       <c r="AB625" s="4"/>
       <c r="AC625" s="4"/>
     </row>
-    <row r="626" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -25172,7 +25185,7 @@
       <c r="AB626" s="4"/>
       <c r="AC626" s="4"/>
     </row>
-    <row r="627" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -25203,7 +25216,7 @@
       <c r="AB627" s="4"/>
       <c r="AC627" s="4"/>
     </row>
-    <row r="628" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -25234,7 +25247,7 @@
       <c r="AB628" s="4"/>
       <c r="AC628" s="4"/>
     </row>
-    <row r="629" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -25265,7 +25278,7 @@
       <c r="AB629" s="4"/>
       <c r="AC629" s="4"/>
     </row>
-    <row r="630" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -25296,7 +25309,7 @@
       <c r="AB630" s="4"/>
       <c r="AC630" s="4"/>
     </row>
-    <row r="631" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -25327,7 +25340,7 @@
       <c r="AB631" s="4"/>
       <c r="AC631" s="4"/>
     </row>
-    <row r="632" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -25358,7 +25371,7 @@
       <c r="AB632" s="4"/>
       <c r="AC632" s="4"/>
     </row>
-    <row r="633" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -25389,7 +25402,7 @@
       <c r="AB633" s="4"/>
       <c r="AC633" s="4"/>
     </row>
-    <row r="634" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -25420,7 +25433,7 @@
       <c r="AB634" s="4"/>
       <c r="AC634" s="4"/>
     </row>
-    <row r="635" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -25451,7 +25464,7 @@
       <c r="AB635" s="4"/>
       <c r="AC635" s="4"/>
     </row>
-    <row r="636" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -25482,7 +25495,7 @@
       <c r="AB636" s="4"/>
       <c r="AC636" s="4"/>
     </row>
-    <row r="637" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -25513,7 +25526,7 @@
       <c r="AB637" s="4"/>
       <c r="AC637" s="4"/>
     </row>
-    <row r="638" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -25544,7 +25557,7 @@
       <c r="AB638" s="4"/>
       <c r="AC638" s="4"/>
     </row>
-    <row r="639" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -25575,7 +25588,7 @@
       <c r="AB639" s="4"/>
       <c r="AC639" s="4"/>
     </row>
-    <row r="640" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -25606,7 +25619,7 @@
       <c r="AB640" s="4"/>
       <c r="AC640" s="4"/>
     </row>
-    <row r="641" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -25637,7 +25650,7 @@
       <c r="AB641" s="4"/>
       <c r="AC641" s="4"/>
     </row>
-    <row r="642" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -25668,7 +25681,7 @@
       <c r="AB642" s="4"/>
       <c r="AC642" s="4"/>
     </row>
-    <row r="643" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -25699,7 +25712,7 @@
       <c r="AB643" s="4"/>
       <c r="AC643" s="4"/>
     </row>
-    <row r="644" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -25730,7 +25743,7 @@
       <c r="AB644" s="4"/>
       <c r="AC644" s="4"/>
     </row>
-    <row r="645" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -25761,7 +25774,7 @@
       <c r="AB645" s="4"/>
       <c r="AC645" s="4"/>
     </row>
-    <row r="646" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -25792,7 +25805,7 @@
       <c r="AB646" s="4"/>
       <c r="AC646" s="4"/>
     </row>
-    <row r="647" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -25823,7 +25836,7 @@
       <c r="AB647" s="4"/>
       <c r="AC647" s="4"/>
     </row>
-    <row r="648" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -25854,7 +25867,7 @@
       <c r="AB648" s="4"/>
       <c r="AC648" s="4"/>
     </row>
-    <row r="649" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -25885,7 +25898,7 @@
       <c r="AB649" s="4"/>
       <c r="AC649" s="4"/>
     </row>
-    <row r="650" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -25916,7 +25929,7 @@
       <c r="AB650" s="4"/>
       <c r="AC650" s="4"/>
     </row>
-    <row r="651" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -25947,7 +25960,7 @@
       <c r="AB651" s="4"/>
       <c r="AC651" s="4"/>
     </row>
-    <row r="652" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -25978,7 +25991,7 @@
       <c r="AB652" s="4"/>
       <c r="AC652" s="4"/>
     </row>
-    <row r="653" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -26009,7 +26022,7 @@
       <c r="AB653" s="4"/>
       <c r="AC653" s="4"/>
     </row>
-    <row r="654" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -26040,7 +26053,7 @@
       <c r="AB654" s="4"/>
       <c r="AC654" s="4"/>
     </row>
-    <row r="655" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -26071,7 +26084,7 @@
       <c r="AB655" s="4"/>
       <c r="AC655" s="4"/>
     </row>
-    <row r="656" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -26102,7 +26115,7 @@
       <c r="AB656" s="4"/>
       <c r="AC656" s="4"/>
     </row>
-    <row r="657" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -26133,7 +26146,7 @@
       <c r="AB657" s="4"/>
       <c r="AC657" s="4"/>
     </row>
-    <row r="658" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -26164,7 +26177,7 @@
       <c r="AB658" s="4"/>
       <c r="AC658" s="4"/>
     </row>
-    <row r="659" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -26195,7 +26208,7 @@
       <c r="AB659" s="4"/>
       <c r="AC659" s="4"/>
     </row>
-    <row r="660" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -26226,7 +26239,7 @@
       <c r="AB660" s="4"/>
       <c r="AC660" s="4"/>
     </row>
-    <row r="661" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -26257,7 +26270,7 @@
       <c r="AB661" s="4"/>
       <c r="AC661" s="4"/>
     </row>
-    <row r="662" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -26288,7 +26301,7 @@
       <c r="AB662" s="4"/>
       <c r="AC662" s="4"/>
     </row>
-    <row r="663" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -26319,7 +26332,7 @@
       <c r="AB663" s="4"/>
       <c r="AC663" s="4"/>
     </row>
-    <row r="664" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -26350,7 +26363,7 @@
       <c r="AB664" s="4"/>
       <c r="AC664" s="4"/>
     </row>
-    <row r="665" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -26381,7 +26394,7 @@
       <c r="AB665" s="4"/>
       <c r="AC665" s="4"/>
     </row>
-    <row r="666" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -26412,7 +26425,7 @@
       <c r="AB666" s="4"/>
       <c r="AC666" s="4"/>
     </row>
-    <row r="667" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -26443,7 +26456,7 @@
       <c r="AB667" s="4"/>
       <c r="AC667" s="4"/>
     </row>
-    <row r="668" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -26474,7 +26487,7 @@
       <c r="AB668" s="4"/>
       <c r="AC668" s="4"/>
     </row>
-    <row r="669" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -26505,7 +26518,7 @@
       <c r="AB669" s="4"/>
       <c r="AC669" s="4"/>
     </row>
-    <row r="670" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -26536,7 +26549,7 @@
       <c r="AB670" s="4"/>
       <c r="AC670" s="4"/>
     </row>
-    <row r="671" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -26567,7 +26580,7 @@
       <c r="AB671" s="4"/>
       <c r="AC671" s="4"/>
     </row>
-    <row r="672" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -26598,7 +26611,7 @@
       <c r="AB672" s="4"/>
       <c r="AC672" s="4"/>
     </row>
-    <row r="673" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -26629,7 +26642,7 @@
       <c r="AB673" s="4"/>
       <c r="AC673" s="4"/>
     </row>
-    <row r="674" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -26660,7 +26673,7 @@
       <c r="AB674" s="4"/>
       <c r="AC674" s="4"/>
     </row>
-    <row r="675" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -26691,7 +26704,7 @@
       <c r="AB675" s="4"/>
       <c r="AC675" s="4"/>
     </row>
-    <row r="676" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -26722,7 +26735,7 @@
       <c r="AB676" s="4"/>
       <c r="AC676" s="4"/>
     </row>
-    <row r="677" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -26753,7 +26766,7 @@
       <c r="AB677" s="4"/>
       <c r="AC677" s="4"/>
     </row>
-    <row r="678" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -26784,7 +26797,7 @@
       <c r="AB678" s="4"/>
       <c r="AC678" s="4"/>
     </row>
-    <row r="679" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -26815,7 +26828,7 @@
       <c r="AB679" s="4"/>
       <c r="AC679" s="4"/>
     </row>
-    <row r="680" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -26846,7 +26859,7 @@
       <c r="AB680" s="4"/>
       <c r="AC680" s="4"/>
     </row>
-    <row r="681" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -26877,7 +26890,7 @@
       <c r="AB681" s="4"/>
       <c r="AC681" s="4"/>
     </row>
-    <row r="682" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -26908,7 +26921,7 @@
       <c r="AB682" s="4"/>
       <c r="AC682" s="4"/>
     </row>
-    <row r="683" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -26939,7 +26952,7 @@
       <c r="AB683" s="4"/>
       <c r="AC683" s="4"/>
     </row>
-    <row r="684" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -26970,7 +26983,7 @@
       <c r="AB684" s="4"/>
       <c r="AC684" s="4"/>
     </row>
-    <row r="685" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -27001,7 +27014,7 @@
       <c r="AB685" s="4"/>
       <c r="AC685" s="4"/>
     </row>
-    <row r="686" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -27032,7 +27045,7 @@
       <c r="AB686" s="4"/>
       <c r="AC686" s="4"/>
     </row>
-    <row r="687" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -27063,7 +27076,7 @@
       <c r="AB687" s="4"/>
       <c r="AC687" s="4"/>
     </row>
-    <row r="688" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -27094,7 +27107,7 @@
       <c r="AB688" s="4"/>
       <c r="AC688" s="4"/>
     </row>
-    <row r="689" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -27125,7 +27138,7 @@
       <c r="AB689" s="4"/>
       <c r="AC689" s="4"/>
     </row>
-    <row r="690" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -27156,7 +27169,7 @@
       <c r="AB690" s="4"/>
       <c r="AC690" s="4"/>
     </row>
-    <row r="691" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -27187,7 +27200,7 @@
       <c r="AB691" s="4"/>
       <c r="AC691" s="4"/>
     </row>
-    <row r="692" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -27218,7 +27231,7 @@
       <c r="AB692" s="4"/>
       <c r="AC692" s="4"/>
     </row>
-    <row r="693" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -27249,7 +27262,7 @@
       <c r="AB693" s="4"/>
       <c r="AC693" s="4"/>
     </row>
-    <row r="694" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -27280,7 +27293,7 @@
       <c r="AB694" s="4"/>
       <c r="AC694" s="4"/>
     </row>
-    <row r="695" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -27311,7 +27324,7 @@
       <c r="AB695" s="4"/>
       <c r="AC695" s="4"/>
     </row>
-    <row r="696" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -27342,7 +27355,7 @@
       <c r="AB696" s="4"/>
       <c r="AC696" s="4"/>
     </row>
-    <row r="697" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -27373,7 +27386,7 @@
       <c r="AB697" s="4"/>
       <c r="AC697" s="4"/>
     </row>
-    <row r="698" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -27404,7 +27417,7 @@
       <c r="AB698" s="4"/>
       <c r="AC698" s="4"/>
     </row>
-    <row r="699" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -27435,7 +27448,7 @@
       <c r="AB699" s="4"/>
       <c r="AC699" s="4"/>
     </row>
-    <row r="700" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -27466,7 +27479,7 @@
       <c r="AB700" s="4"/>
       <c r="AC700" s="4"/>
     </row>
-    <row r="701" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -27497,7 +27510,7 @@
       <c r="AB701" s="4"/>
       <c r="AC701" s="4"/>
     </row>
-    <row r="702" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -27528,7 +27541,7 @@
       <c r="AB702" s="4"/>
       <c r="AC702" s="4"/>
     </row>
-    <row r="703" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -27559,7 +27572,7 @@
       <c r="AB703" s="4"/>
       <c r="AC703" s="4"/>
     </row>
-    <row r="704" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -27590,7 +27603,7 @@
       <c r="AB704" s="4"/>
       <c r="AC704" s="4"/>
     </row>
-    <row r="705" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -27621,7 +27634,7 @@
       <c r="AB705" s="4"/>
       <c r="AC705" s="4"/>
     </row>
-    <row r="706" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -27652,7 +27665,7 @@
       <c r="AB706" s="4"/>
       <c r="AC706" s="4"/>
     </row>
-    <row r="707" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -27683,7 +27696,7 @@
       <c r="AB707" s="4"/>
       <c r="AC707" s="4"/>
     </row>
-    <row r="708" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -27714,7 +27727,7 @@
       <c r="AB708" s="4"/>
       <c r="AC708" s="4"/>
     </row>
-    <row r="709" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -27745,7 +27758,7 @@
       <c r="AB709" s="4"/>
       <c r="AC709" s="4"/>
     </row>
-    <row r="710" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -27776,7 +27789,7 @@
       <c r="AB710" s="4"/>
       <c r="AC710" s="4"/>
     </row>
-    <row r="711" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -27807,7 +27820,7 @@
       <c r="AB711" s="4"/>
       <c r="AC711" s="4"/>
     </row>
-    <row r="712" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -27838,7 +27851,7 @@
       <c r="AB712" s="4"/>
       <c r="AC712" s="4"/>
     </row>
-    <row r="713" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -27869,7 +27882,7 @@
       <c r="AB713" s="4"/>
       <c r="AC713" s="4"/>
     </row>
-    <row r="714" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -27900,7 +27913,7 @@
       <c r="AB714" s="4"/>
       <c r="AC714" s="4"/>
     </row>
-    <row r="715" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -27931,7 +27944,7 @@
       <c r="AB715" s="4"/>
       <c r="AC715" s="4"/>
     </row>
-    <row r="716" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -27962,7 +27975,7 @@
       <c r="AB716" s="4"/>
       <c r="AC716" s="4"/>
     </row>
-    <row r="717" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -27993,7 +28006,7 @@
       <c r="AB717" s="4"/>
       <c r="AC717" s="4"/>
     </row>
-    <row r="718" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -28024,7 +28037,7 @@
       <c r="AB718" s="4"/>
       <c r="AC718" s="4"/>
     </row>
-    <row r="719" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -28055,7 +28068,7 @@
       <c r="AB719" s="4"/>
       <c r="AC719" s="4"/>
     </row>
-    <row r="720" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -28086,7 +28099,7 @@
       <c r="AB720" s="4"/>
       <c r="AC720" s="4"/>
     </row>
-    <row r="721" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -28117,7 +28130,7 @@
       <c r="AB721" s="4"/>
       <c r="AC721" s="4"/>
     </row>
-    <row r="722" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -28148,7 +28161,7 @@
       <c r="AB722" s="4"/>
       <c r="AC722" s="4"/>
     </row>
-    <row r="723" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -28179,7 +28192,7 @@
       <c r="AB723" s="4"/>
       <c r="AC723" s="4"/>
     </row>
-    <row r="724" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -28210,7 +28223,7 @@
       <c r="AB724" s="4"/>
       <c r="AC724" s="4"/>
     </row>
-    <row r="725" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -28241,7 +28254,7 @@
       <c r="AB725" s="4"/>
       <c r="AC725" s="4"/>
     </row>
-    <row r="726" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -28272,7 +28285,7 @@
       <c r="AB726" s="4"/>
       <c r="AC726" s="4"/>
     </row>
-    <row r="727" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -28303,7 +28316,7 @@
       <c r="AB727" s="4"/>
       <c r="AC727" s="4"/>
     </row>
-    <row r="728" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -28334,7 +28347,7 @@
       <c r="AB728" s="4"/>
       <c r="AC728" s="4"/>
     </row>
-    <row r="729" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -28365,7 +28378,7 @@
       <c r="AB729" s="4"/>
       <c r="AC729" s="4"/>
     </row>
-    <row r="730" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -28396,7 +28409,7 @@
       <c r="AB730" s="4"/>
       <c r="AC730" s="4"/>
     </row>
-    <row r="731" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -28427,7 +28440,7 @@
       <c r="AB731" s="4"/>
       <c r="AC731" s="4"/>
     </row>
-    <row r="732" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -28458,7 +28471,7 @@
       <c r="AB732" s="4"/>
       <c r="AC732" s="4"/>
     </row>
-    <row r="733" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -28489,7 +28502,7 @@
       <c r="AB733" s="4"/>
       <c r="AC733" s="4"/>
     </row>
-    <row r="734" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -28520,7 +28533,7 @@
       <c r="AB734" s="4"/>
       <c r="AC734" s="4"/>
     </row>
-    <row r="735" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -28551,7 +28564,7 @@
       <c r="AB735" s="4"/>
       <c r="AC735" s="4"/>
     </row>
-    <row r="736" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -28582,7 +28595,7 @@
       <c r="AB736" s="4"/>
       <c r="AC736" s="4"/>
     </row>
-    <row r="737" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -28613,7 +28626,7 @@
       <c r="AB737" s="4"/>
       <c r="AC737" s="4"/>
     </row>
-    <row r="738" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -28644,7 +28657,7 @@
       <c r="AB738" s="4"/>
       <c r="AC738" s="4"/>
     </row>
-    <row r="739" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -28675,7 +28688,7 @@
       <c r="AB739" s="4"/>
       <c r="AC739" s="4"/>
     </row>
-    <row r="740" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -28706,7 +28719,7 @@
       <c r="AB740" s="4"/>
       <c r="AC740" s="4"/>
     </row>
-    <row r="741" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -28737,7 +28750,7 @@
       <c r="AB741" s="4"/>
       <c r="AC741" s="4"/>
     </row>
-    <row r="742" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -28768,7 +28781,7 @@
       <c r="AB742" s="4"/>
       <c r="AC742" s="4"/>
     </row>
-    <row r="743" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -28799,7 +28812,7 @@
       <c r="AB743" s="4"/>
       <c r="AC743" s="4"/>
     </row>
-    <row r="744" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -28830,7 +28843,7 @@
       <c r="AB744" s="4"/>
       <c r="AC744" s="4"/>
     </row>
-    <row r="745" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -28861,7 +28874,7 @@
       <c r="AB745" s="4"/>
       <c r="AC745" s="4"/>
     </row>
-    <row r="746" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -28892,7 +28905,7 @@
       <c r="AB746" s="4"/>
       <c r="AC746" s="4"/>
     </row>
-    <row r="747" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -28923,7 +28936,7 @@
       <c r="AB747" s="4"/>
       <c r="AC747" s="4"/>
     </row>
-    <row r="748" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -28954,7 +28967,7 @@
       <c r="AB748" s="4"/>
       <c r="AC748" s="4"/>
     </row>
-    <row r="749" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -28985,7 +28998,7 @@
       <c r="AB749" s="4"/>
       <c r="AC749" s="4"/>
     </row>
-    <row r="750" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -29016,7 +29029,7 @@
       <c r="AB750" s="4"/>
       <c r="AC750" s="4"/>
     </row>
-    <row r="751" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -29047,7 +29060,7 @@
       <c r="AB751" s="4"/>
       <c r="AC751" s="4"/>
     </row>
-    <row r="752" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -29078,7 +29091,7 @@
       <c r="AB752" s="4"/>
       <c r="AC752" s="4"/>
     </row>
-    <row r="753" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -29109,7 +29122,7 @@
       <c r="AB753" s="4"/>
       <c r="AC753" s="4"/>
     </row>
-    <row r="754" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -29140,7 +29153,7 @@
       <c r="AB754" s="4"/>
       <c r="AC754" s="4"/>
     </row>
-    <row r="755" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -29171,7 +29184,7 @@
       <c r="AB755" s="4"/>
       <c r="AC755" s="4"/>
     </row>
-    <row r="756" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -29202,7 +29215,7 @@
       <c r="AB756" s="4"/>
       <c r="AC756" s="4"/>
     </row>
-    <row r="757" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -29233,7 +29246,7 @@
       <c r="AB757" s="4"/>
       <c r="AC757" s="4"/>
     </row>
-    <row r="758" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -29264,7 +29277,7 @@
       <c r="AB758" s="4"/>
       <c r="AC758" s="4"/>
     </row>
-    <row r="759" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -29295,7 +29308,7 @@
       <c r="AB759" s="4"/>
       <c r="AC759" s="4"/>
     </row>
-    <row r="760" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -29326,7 +29339,7 @@
       <c r="AB760" s="4"/>
       <c r="AC760" s="4"/>
     </row>
-    <row r="761" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -29357,7 +29370,7 @@
       <c r="AB761" s="4"/>
       <c r="AC761" s="4"/>
     </row>
-    <row r="762" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -29388,7 +29401,7 @@
       <c r="AB762" s="4"/>
       <c r="AC762" s="4"/>
     </row>
-    <row r="763" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -29419,7 +29432,7 @@
       <c r="AB763" s="4"/>
       <c r="AC763" s="4"/>
     </row>
-    <row r="764" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -29450,7 +29463,7 @@
       <c r="AB764" s="4"/>
       <c r="AC764" s="4"/>
     </row>
-    <row r="765" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -29481,7 +29494,7 @@
       <c r="AB765" s="4"/>
       <c r="AC765" s="4"/>
     </row>
-    <row r="766" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -29512,7 +29525,7 @@
       <c r="AB766" s="4"/>
       <c r="AC766" s="4"/>
     </row>
-    <row r="767" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -29543,7 +29556,7 @@
       <c r="AB767" s="4"/>
       <c r="AC767" s="4"/>
     </row>
-    <row r="768" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -29574,7 +29587,7 @@
       <c r="AB768" s="4"/>
       <c r="AC768" s="4"/>
     </row>
-    <row r="769" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -29605,7 +29618,7 @@
       <c r="AB769" s="4"/>
       <c r="AC769" s="4"/>
     </row>
-    <row r="770" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -29636,7 +29649,7 @@
       <c r="AB770" s="4"/>
       <c r="AC770" s="4"/>
     </row>
-    <row r="771" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -29667,7 +29680,7 @@
       <c r="AB771" s="4"/>
       <c r="AC771" s="4"/>
     </row>
-    <row r="772" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -29698,7 +29711,7 @@
       <c r="AB772" s="4"/>
       <c r="AC772" s="4"/>
     </row>
-    <row r="773" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -29729,7 +29742,7 @@
       <c r="AB773" s="4"/>
       <c r="AC773" s="4"/>
     </row>
-    <row r="774" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -29760,7 +29773,7 @@
       <c r="AB774" s="4"/>
       <c r="AC774" s="4"/>
     </row>
-    <row r="775" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -29791,7 +29804,7 @@
       <c r="AB775" s="4"/>
       <c r="AC775" s="4"/>
     </row>
-    <row r="776" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -29822,7 +29835,7 @@
       <c r="AB776" s="4"/>
       <c r="AC776" s="4"/>
     </row>
-    <row r="777" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -29853,7 +29866,7 @@
       <c r="AB777" s="4"/>
       <c r="AC777" s="4"/>
     </row>
-    <row r="778" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -29884,7 +29897,7 @@
       <c r="AB778" s="4"/>
       <c r="AC778" s="4"/>
     </row>
-    <row r="779" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -29915,7 +29928,7 @@
       <c r="AB779" s="4"/>
       <c r="AC779" s="4"/>
     </row>
-    <row r="780" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -29946,7 +29959,7 @@
       <c r="AB780" s="4"/>
       <c r="AC780" s="4"/>
     </row>
-    <row r="781" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -29977,7 +29990,7 @@
       <c r="AB781" s="4"/>
       <c r="AC781" s="4"/>
     </row>
-    <row r="782" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -30008,7 +30021,7 @@
       <c r="AB782" s="4"/>
       <c r="AC782" s="4"/>
     </row>
-    <row r="783" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -30039,7 +30052,7 @@
       <c r="AB783" s="4"/>
       <c r="AC783" s="4"/>
     </row>
-    <row r="784" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -30070,7 +30083,7 @@
       <c r="AB784" s="4"/>
       <c r="AC784" s="4"/>
     </row>
-    <row r="785" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -30101,7 +30114,7 @@
       <c r="AB785" s="4"/>
       <c r="AC785" s="4"/>
     </row>
-    <row r="786" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -30132,7 +30145,7 @@
       <c r="AB786" s="4"/>
       <c r="AC786" s="4"/>
     </row>
-    <row r="787" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -30163,7 +30176,7 @@
       <c r="AB787" s="4"/>
       <c r="AC787" s="4"/>
     </row>
-    <row r="788" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -30194,7 +30207,7 @@
       <c r="AB788" s="4"/>
       <c r="AC788" s="4"/>
     </row>
-    <row r="789" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -30225,7 +30238,7 @@
       <c r="AB789" s="4"/>
       <c r="AC789" s="4"/>
     </row>
-    <row r="790" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -30256,7 +30269,7 @@
       <c r="AB790" s="4"/>
       <c r="AC790" s="4"/>
     </row>
-    <row r="791" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -30287,7 +30300,7 @@
       <c r="AB791" s="4"/>
       <c r="AC791" s="4"/>
     </row>
-    <row r="792" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -30318,7 +30331,7 @@
       <c r="AB792" s="4"/>
       <c r="AC792" s="4"/>
     </row>
-    <row r="793" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -30349,7 +30362,7 @@
       <c r="AB793" s="4"/>
       <c r="AC793" s="4"/>
     </row>
-    <row r="794" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -30380,7 +30393,7 @@
       <c r="AB794" s="4"/>
       <c r="AC794" s="4"/>
     </row>
-    <row r="795" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -30411,7 +30424,7 @@
       <c r="AB795" s="4"/>
       <c r="AC795" s="4"/>
     </row>
-    <row r="796" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -30442,7 +30455,7 @@
       <c r="AB796" s="4"/>
       <c r="AC796" s="4"/>
     </row>
-    <row r="797" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -30473,7 +30486,7 @@
       <c r="AB797" s="4"/>
       <c r="AC797" s="4"/>
     </row>
-    <row r="798" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -30504,7 +30517,7 @@
       <c r="AB798" s="4"/>
       <c r="AC798" s="4"/>
     </row>
-    <row r="799" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -30535,7 +30548,7 @@
       <c r="AB799" s="4"/>
       <c r="AC799" s="4"/>
     </row>
-    <row r="800" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -30566,7 +30579,7 @@
       <c r="AB800" s="4"/>
       <c r="AC800" s="4"/>
     </row>
-    <row r="801" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -30597,7 +30610,7 @@
       <c r="AB801" s="4"/>
       <c r="AC801" s="4"/>
     </row>
-    <row r="802" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -30628,7 +30641,7 @@
       <c r="AB802" s="4"/>
       <c r="AC802" s="4"/>
     </row>
-    <row r="803" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -30659,7 +30672,7 @@
       <c r="AB803" s="4"/>
       <c r="AC803" s="4"/>
     </row>
-    <row r="804" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -30690,7 +30703,7 @@
       <c r="AB804" s="4"/>
       <c r="AC804" s="4"/>
     </row>
-    <row r="805" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -30721,7 +30734,7 @@
       <c r="AB805" s="4"/>
       <c r="AC805" s="4"/>
     </row>
-    <row r="806" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -30752,7 +30765,7 @@
       <c r="AB806" s="4"/>
       <c r="AC806" s="4"/>
     </row>
-    <row r="807" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -30783,7 +30796,7 @@
       <c r="AB807" s="4"/>
       <c r="AC807" s="4"/>
     </row>
-    <row r="808" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -30814,7 +30827,7 @@
       <c r="AB808" s="4"/>
       <c r="AC808" s="4"/>
     </row>
-    <row r="809" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -30845,7 +30858,7 @@
       <c r="AB809" s="4"/>
       <c r="AC809" s="4"/>
     </row>
-    <row r="810" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -30876,7 +30889,7 @@
       <c r="AB810" s="4"/>
       <c r="AC810" s="4"/>
     </row>
-    <row r="811" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -30907,7 +30920,7 @@
       <c r="AB811" s="4"/>
       <c r="AC811" s="4"/>
     </row>
-    <row r="812" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -30938,7 +30951,7 @@
       <c r="AB812" s="4"/>
       <c r="AC812" s="4"/>
     </row>
-    <row r="813" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -30969,7 +30982,7 @@
       <c r="AB813" s="4"/>
       <c r="AC813" s="4"/>
     </row>
-    <row r="814" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -31000,7 +31013,7 @@
       <c r="AB814" s="4"/>
       <c r="AC814" s="4"/>
     </row>
-    <row r="815" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -31031,7 +31044,7 @@
       <c r="AB815" s="4"/>
       <c r="AC815" s="4"/>
     </row>
-    <row r="816" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -31062,7 +31075,7 @@
       <c r="AB816" s="4"/>
       <c r="AC816" s="4"/>
     </row>
-    <row r="817" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -31093,7 +31106,7 @@
       <c r="AB817" s="4"/>
       <c r="AC817" s="4"/>
     </row>
-    <row r="818" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -31124,7 +31137,7 @@
       <c r="AB818" s="4"/>
       <c r="AC818" s="4"/>
     </row>
-    <row r="819" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -31155,7 +31168,7 @@
       <c r="AB819" s="4"/>
       <c r="AC819" s="4"/>
     </row>
-    <row r="820" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -31186,7 +31199,7 @@
       <c r="AB820" s="4"/>
       <c r="AC820" s="4"/>
     </row>
-    <row r="821" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -31217,7 +31230,7 @@
       <c r="AB821" s="4"/>
       <c r="AC821" s="4"/>
     </row>
-    <row r="822" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -31248,7 +31261,7 @@
       <c r="AB822" s="4"/>
       <c r="AC822" s="4"/>
     </row>
-    <row r="823" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -31279,7 +31292,7 @@
       <c r="AB823" s="4"/>
       <c r="AC823" s="4"/>
     </row>
-    <row r="824" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -31310,7 +31323,7 @@
       <c r="AB824" s="4"/>
       <c r="AC824" s="4"/>
     </row>
-    <row r="825" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -31341,7 +31354,7 @@
       <c r="AB825" s="4"/>
       <c r="AC825" s="4"/>
     </row>
-    <row r="826" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -31372,7 +31385,7 @@
       <c r="AB826" s="4"/>
       <c r="AC826" s="4"/>
     </row>
-    <row r="827" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -31403,7 +31416,7 @@
       <c r="AB827" s="4"/>
       <c r="AC827" s="4"/>
     </row>
-    <row r="828" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -31434,7 +31447,7 @@
       <c r="AB828" s="4"/>
       <c r="AC828" s="4"/>
     </row>
-    <row r="829" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -31465,7 +31478,7 @@
       <c r="AB829" s="4"/>
       <c r="AC829" s="4"/>
     </row>
-    <row r="830" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -31496,7 +31509,7 @@
       <c r="AB830" s="4"/>
       <c r="AC830" s="4"/>
     </row>
-    <row r="831" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -31527,7 +31540,7 @@
       <c r="AB831" s="4"/>
       <c r="AC831" s="4"/>
     </row>
-    <row r="832" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -31558,7 +31571,7 @@
       <c r="AB832" s="4"/>
       <c r="AC832" s="4"/>
     </row>
-    <row r="833" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -31589,7 +31602,7 @@
       <c r="AB833" s="4"/>
       <c r="AC833" s="4"/>
     </row>
-    <row r="834" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -31620,7 +31633,7 @@
       <c r="AB834" s="4"/>
       <c r="AC834" s="4"/>
     </row>
-    <row r="835" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -31651,7 +31664,7 @@
       <c r="AB835" s="4"/>
       <c r="AC835" s="4"/>
     </row>
-    <row r="836" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -31682,7 +31695,7 @@
       <c r="AB836" s="4"/>
       <c r="AC836" s="4"/>
     </row>
-    <row r="837" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -31713,7 +31726,7 @@
       <c r="AB837" s="4"/>
       <c r="AC837" s="4"/>
     </row>
-    <row r="838" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -31744,7 +31757,7 @@
       <c r="AB838" s="4"/>
       <c r="AC838" s="4"/>
     </row>
-    <row r="839" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -31775,7 +31788,7 @@
       <c r="AB839" s="4"/>
       <c r="AC839" s="4"/>
     </row>
-    <row r="840" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -31806,7 +31819,7 @@
       <c r="AB840" s="4"/>
       <c r="AC840" s="4"/>
     </row>
-    <row r="841" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -31837,7 +31850,7 @@
       <c r="AB841" s="4"/>
       <c r="AC841" s="4"/>
     </row>
-    <row r="842" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -31868,7 +31881,7 @@
       <c r="AB842" s="4"/>
       <c r="AC842" s="4"/>
     </row>
-    <row r="843" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -31899,7 +31912,7 @@
       <c r="AB843" s="4"/>
       <c r="AC843" s="4"/>
     </row>
-    <row r="844" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -31930,7 +31943,7 @@
       <c r="AB844" s="4"/>
       <c r="AC844" s="4"/>
     </row>
-    <row r="845" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -31961,7 +31974,7 @@
       <c r="AB845" s="4"/>
       <c r="AC845" s="4"/>
     </row>
-    <row r="846" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -31992,7 +32005,7 @@
       <c r="AB846" s="4"/>
       <c r="AC846" s="4"/>
     </row>
-    <row r="847" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -32023,7 +32036,7 @@
       <c r="AB847" s="4"/>
       <c r="AC847" s="4"/>
     </row>
-    <row r="848" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -32054,7 +32067,7 @@
       <c r="AB848" s="4"/>
       <c r="AC848" s="4"/>
     </row>
-    <row r="849" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -32085,7 +32098,7 @@
       <c r="AB849" s="4"/>
       <c r="AC849" s="4"/>
     </row>
-    <row r="850" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -32116,7 +32129,7 @@
       <c r="AB850" s="4"/>
       <c r="AC850" s="4"/>
     </row>
-    <row r="851" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -32147,7 +32160,7 @@
       <c r="AB851" s="4"/>
       <c r="AC851" s="4"/>
     </row>
-    <row r="852" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -32178,7 +32191,7 @@
       <c r="AB852" s="4"/>
       <c r="AC852" s="4"/>
     </row>
-    <row r="853" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -32209,7 +32222,7 @@
       <c r="AB853" s="4"/>
       <c r="AC853" s="4"/>
     </row>
-    <row r="854" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -32240,7 +32253,7 @@
       <c r="AB854" s="4"/>
       <c r="AC854" s="4"/>
     </row>
-    <row r="855" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -32271,7 +32284,7 @@
       <c r="AB855" s="4"/>
       <c r="AC855" s="4"/>
     </row>
-    <row r="856" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -32302,7 +32315,7 @@
       <c r="AB856" s="4"/>
       <c r="AC856" s="4"/>
     </row>
-    <row r="857" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -32333,7 +32346,7 @@
       <c r="AB857" s="4"/>
       <c r="AC857" s="4"/>
     </row>
-    <row r="858" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -32364,7 +32377,7 @@
       <c r="AB858" s="4"/>
       <c r="AC858" s="4"/>
     </row>
-    <row r="859" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -32395,7 +32408,7 @@
       <c r="AB859" s="4"/>
       <c r="AC859" s="4"/>
     </row>
-    <row r="860" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -32426,7 +32439,7 @@
       <c r="AB860" s="4"/>
       <c r="AC860" s="4"/>
     </row>
-    <row r="861" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -32457,7 +32470,7 @@
       <c r="AB861" s="4"/>
       <c r="AC861" s="4"/>
     </row>
-    <row r="862" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -32488,7 +32501,7 @@
       <c r="AB862" s="4"/>
       <c r="AC862" s="4"/>
     </row>
-    <row r="863" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -32519,7 +32532,7 @@
       <c r="AB863" s="4"/>
       <c r="AC863" s="4"/>
     </row>
-    <row r="864" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -32550,7 +32563,7 @@
       <c r="AB864" s="4"/>
       <c r="AC864" s="4"/>
     </row>
-    <row r="865" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -32581,7 +32594,7 @@
       <c r="AB865" s="4"/>
       <c r="AC865" s="4"/>
     </row>
-    <row r="866" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -32612,7 +32625,7 @@
       <c r="AB866" s="4"/>
       <c r="AC866" s="4"/>
     </row>
-    <row r="867" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -32643,7 +32656,7 @@
       <c r="AB867" s="4"/>
       <c r="AC867" s="4"/>
     </row>
-    <row r="868" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -32674,7 +32687,7 @@
       <c r="AB868" s="4"/>
       <c r="AC868" s="4"/>
     </row>
-    <row r="869" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -32705,7 +32718,7 @@
       <c r="AB869" s="4"/>
       <c r="AC869" s="4"/>
     </row>
-    <row r="870" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -32736,7 +32749,7 @@
       <c r="AB870" s="4"/>
       <c r="AC870" s="4"/>
     </row>
-    <row r="871" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -32767,7 +32780,7 @@
       <c r="AB871" s="4"/>
       <c r="AC871" s="4"/>
     </row>
-    <row r="872" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -32798,7 +32811,7 @@
       <c r="AB872" s="4"/>
       <c r="AC872" s="4"/>
     </row>
-    <row r="873" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -32829,7 +32842,7 @@
       <c r="AB873" s="4"/>
       <c r="AC873" s="4"/>
     </row>
-    <row r="874" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -32860,7 +32873,7 @@
       <c r="AB874" s="4"/>
       <c r="AC874" s="4"/>
     </row>
-    <row r="875" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -32891,7 +32904,7 @@
       <c r="AB875" s="4"/>
       <c r="AC875" s="4"/>
     </row>
-    <row r="876" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -32922,7 +32935,7 @@
       <c r="AB876" s="4"/>
       <c r="AC876" s="4"/>
     </row>
-    <row r="877" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -32953,7 +32966,7 @@
       <c r="AB877" s="4"/>
       <c r="AC877" s="4"/>
     </row>
-    <row r="878" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -32984,7 +32997,7 @@
       <c r="AB878" s="4"/>
       <c r="AC878" s="4"/>
     </row>
-    <row r="879" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -33015,7 +33028,7 @@
       <c r="AB879" s="4"/>
       <c r="AC879" s="4"/>
     </row>
-    <row r="880" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -33046,7 +33059,7 @@
       <c r="AB880" s="4"/>
       <c r="AC880" s="4"/>
     </row>
-    <row r="881" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -33077,7 +33090,7 @@
       <c r="AB881" s="4"/>
       <c r="AC881" s="4"/>
     </row>
-    <row r="882" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -33108,7 +33121,7 @@
       <c r="AB882" s="4"/>
       <c r="AC882" s="4"/>
     </row>
-    <row r="883" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -33139,7 +33152,7 @@
       <c r="AB883" s="4"/>
       <c r="AC883" s="4"/>
     </row>
-    <row r="884" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -33170,7 +33183,7 @@
       <c r="AB884" s="4"/>
       <c r="AC884" s="4"/>
     </row>
-    <row r="885" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -33201,7 +33214,7 @@
       <c r="AB885" s="4"/>
       <c r="AC885" s="4"/>
     </row>
-    <row r="886" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -33232,7 +33245,7 @@
       <c r="AB886" s="4"/>
       <c r="AC886" s="4"/>
     </row>
-    <row r="887" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -33263,7 +33276,7 @@
       <c r="AB887" s="4"/>
       <c r="AC887" s="4"/>
     </row>
-    <row r="888" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -33294,7 +33307,7 @@
       <c r="AB888" s="4"/>
       <c r="AC888" s="4"/>
     </row>
-    <row r="889" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -33325,7 +33338,7 @@
       <c r="AB889" s="4"/>
       <c r="AC889" s="4"/>
     </row>
-    <row r="890" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -33356,7 +33369,7 @@
       <c r="AB890" s="4"/>
       <c r="AC890" s="4"/>
     </row>
-    <row r="891" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -33387,7 +33400,7 @@
       <c r="AB891" s="4"/>
       <c r="AC891" s="4"/>
     </row>
-    <row r="892" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -33418,7 +33431,7 @@
       <c r="AB892" s="4"/>
       <c r="AC892" s="4"/>
     </row>
-    <row r="893" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -33449,7 +33462,7 @@
       <c r="AB893" s="4"/>
       <c r="AC893" s="4"/>
     </row>
-    <row r="894" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -33480,7 +33493,7 @@
       <c r="AB894" s="4"/>
       <c r="AC894" s="4"/>
     </row>
-    <row r="895" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -33511,7 +33524,7 @@
       <c r="AB895" s="4"/>
       <c r="AC895" s="4"/>
     </row>
-    <row r="896" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -33542,7 +33555,7 @@
       <c r="AB896" s="4"/>
       <c r="AC896" s="4"/>
     </row>
-    <row r="897" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -33573,7 +33586,7 @@
       <c r="AB897" s="4"/>
       <c r="AC897" s="4"/>
     </row>
-    <row r="898" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -33604,7 +33617,7 @@
       <c r="AB898" s="4"/>
       <c r="AC898" s="4"/>
     </row>
-    <row r="899" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -33635,7 +33648,7 @@
       <c r="AB899" s="4"/>
       <c r="AC899" s="4"/>
     </row>
-    <row r="900" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -33666,7 +33679,7 @@
       <c r="AB900" s="4"/>
       <c r="AC900" s="4"/>
     </row>
-    <row r="901" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -33697,7 +33710,7 @@
       <c r="AB901" s="4"/>
       <c r="AC901" s="4"/>
     </row>
-    <row r="902" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -33728,7 +33741,7 @@
       <c r="AB902" s="4"/>
       <c r="AC902" s="4"/>
     </row>
-    <row r="903" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -33759,7 +33772,7 @@
       <c r="AB903" s="4"/>
       <c r="AC903" s="4"/>
     </row>
-    <row r="904" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -33790,7 +33803,7 @@
       <c r="AB904" s="4"/>
       <c r="AC904" s="4"/>
     </row>
-    <row r="905" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -33821,7 +33834,7 @@
       <c r="AB905" s="4"/>
       <c r="AC905" s="4"/>
     </row>
-    <row r="906" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -33852,7 +33865,7 @@
       <c r="AB906" s="4"/>
       <c r="AC906" s="4"/>
     </row>
-    <row r="907" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -33883,7 +33896,7 @@
       <c r="AB907" s="4"/>
       <c r="AC907" s="4"/>
     </row>
-    <row r="908" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -33914,7 +33927,7 @@
       <c r="AB908" s="4"/>
       <c r="AC908" s="4"/>
     </row>
-    <row r="909" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -33945,7 +33958,7 @@
       <c r="AB909" s="4"/>
       <c r="AC909" s="4"/>
     </row>
-    <row r="910" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -33976,7 +33989,7 @@
       <c r="AB910" s="4"/>
       <c r="AC910" s="4"/>
     </row>
-    <row r="911" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -34007,7 +34020,7 @@
       <c r="AB911" s="4"/>
       <c r="AC911" s="4"/>
     </row>
-    <row r="912" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -34038,7 +34051,7 @@
       <c r="AB912" s="4"/>
       <c r="AC912" s="4"/>
     </row>
-    <row r="913" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -34069,7 +34082,7 @@
       <c r="AB913" s="4"/>
       <c r="AC913" s="4"/>
     </row>
-    <row r="914" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -34100,7 +34113,7 @@
       <c r="AB914" s="4"/>
       <c r="AC914" s="4"/>
     </row>
-    <row r="915" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -34131,7 +34144,7 @@
       <c r="AB915" s="4"/>
       <c r="AC915" s="4"/>
     </row>
-    <row r="916" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -34162,7 +34175,7 @@
       <c r="AB916" s="4"/>
       <c r="AC916" s="4"/>
     </row>
-    <row r="917" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -34193,7 +34206,7 @@
       <c r="AB917" s="4"/>
       <c r="AC917" s="4"/>
     </row>
-    <row r="918" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -34224,7 +34237,7 @@
       <c r="AB918" s="4"/>
       <c r="AC918" s="4"/>
     </row>
-    <row r="919" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -34255,7 +34268,7 @@
       <c r="AB919" s="4"/>
       <c r="AC919" s="4"/>
     </row>
-    <row r="920" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -34286,7 +34299,7 @@
       <c r="AB920" s="4"/>
       <c r="AC920" s="4"/>
     </row>
-    <row r="921" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -34317,7 +34330,7 @@
       <c r="AB921" s="4"/>
       <c r="AC921" s="4"/>
     </row>
-    <row r="922" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -34348,7 +34361,7 @@
       <c r="AB922" s="4"/>
       <c r="AC922" s="4"/>
     </row>
-    <row r="923" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -34379,7 +34392,7 @@
       <c r="AB923" s="4"/>
       <c r="AC923" s="4"/>
     </row>
-    <row r="924" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -34410,7 +34423,7 @@
       <c r="AB924" s="4"/>
       <c r="AC924" s="4"/>
     </row>
-    <row r="925" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -34441,7 +34454,7 @@
       <c r="AB925" s="4"/>
       <c r="AC925" s="4"/>
     </row>
-    <row r="926" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -34472,7 +34485,7 @@
       <c r="AB926" s="4"/>
       <c r="AC926" s="4"/>
     </row>
-    <row r="927" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -34503,7 +34516,7 @@
       <c r="AB927" s="4"/>
       <c r="AC927" s="4"/>
     </row>
-    <row r="928" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -34534,7 +34547,7 @@
       <c r="AB928" s="4"/>
       <c r="AC928" s="4"/>
     </row>
-    <row r="929" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -34565,7 +34578,7 @@
       <c r="AB929" s="4"/>
       <c r="AC929" s="4"/>
     </row>
-    <row r="930" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -34596,7 +34609,7 @@
       <c r="AB930" s="4"/>
       <c r="AC930" s="4"/>
     </row>
-    <row r="931" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -34627,7 +34640,7 @@
       <c r="AB931" s="4"/>
       <c r="AC931" s="4"/>
     </row>
-    <row r="932" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -34658,7 +34671,7 @@
       <c r="AB932" s="4"/>
       <c r="AC932" s="4"/>
     </row>
-    <row r="933" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -34689,7 +34702,7 @@
       <c r="AB933" s="4"/>
       <c r="AC933" s="4"/>
     </row>
-    <row r="934" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -34720,7 +34733,7 @@
       <c r="AB934" s="4"/>
       <c r="AC934" s="4"/>
     </row>
-    <row r="935" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -34751,7 +34764,7 @@
       <c r="AB935" s="4"/>
       <c r="AC935" s="4"/>
     </row>
-    <row r="936" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -34782,7 +34795,7 @@
       <c r="AB936" s="4"/>
       <c r="AC936" s="4"/>
     </row>
-    <row r="937" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -34813,7 +34826,7 @@
       <c r="AB937" s="4"/>
       <c r="AC937" s="4"/>
     </row>
-    <row r="938" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -34844,7 +34857,7 @@
       <c r="AB938" s="4"/>
       <c r="AC938" s="4"/>
     </row>
-    <row r="939" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -34875,7 +34888,7 @@
       <c r="AB939" s="4"/>
       <c r="AC939" s="4"/>
     </row>
-    <row r="940" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -34906,7 +34919,7 @@
       <c r="AB940" s="4"/>
       <c r="AC940" s="4"/>
     </row>
-    <row r="941" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -34937,7 +34950,7 @@
       <c r="AB941" s="4"/>
       <c r="AC941" s="4"/>
     </row>
-    <row r="942" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -34968,7 +34981,7 @@
       <c r="AB942" s="4"/>
       <c r="AC942" s="4"/>
     </row>
-    <row r="943" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -34999,7 +35012,7 @@
       <c r="AB943" s="4"/>
       <c r="AC943" s="4"/>
     </row>
-    <row r="944" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -35030,7 +35043,7 @@
       <c r="AB944" s="4"/>
       <c r="AC944" s="4"/>
     </row>
-    <row r="945" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -35061,7 +35074,7 @@
       <c r="AB945" s="4"/>
       <c r="AC945" s="4"/>
     </row>
-    <row r="946" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -35092,7 +35105,7 @@
       <c r="AB946" s="4"/>
       <c r="AC946" s="4"/>
     </row>
-    <row r="947" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -35123,7 +35136,7 @@
       <c r="AB947" s="4"/>
       <c r="AC947" s="4"/>
     </row>
-    <row r="948" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -35154,7 +35167,7 @@
       <c r="AB948" s="4"/>
       <c r="AC948" s="4"/>
     </row>
-    <row r="949" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -35185,7 +35198,7 @@
       <c r="AB949" s="4"/>
       <c r="AC949" s="4"/>
     </row>
-    <row r="950" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -35216,7 +35229,7 @@
       <c r="AB950" s="4"/>
       <c r="AC950" s="4"/>
     </row>
-    <row r="951" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -35247,7 +35260,7 @@
       <c r="AB951" s="4"/>
       <c r="AC951" s="4"/>
     </row>
-    <row r="952" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -35278,7 +35291,7 @@
       <c r="AB952" s="4"/>
       <c r="AC952" s="4"/>
     </row>
-    <row r="953" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -35309,7 +35322,7 @@
       <c r="AB953" s="4"/>
       <c r="AC953" s="4"/>
     </row>
-    <row r="954" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -35340,7 +35353,7 @@
       <c r="AB954" s="4"/>
       <c r="AC954" s="4"/>
     </row>
-    <row r="955" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -35371,7 +35384,7 @@
       <c r="AB955" s="4"/>
       <c r="AC955" s="4"/>
     </row>
-    <row r="956" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -35402,7 +35415,7 @@
       <c r="AB956" s="4"/>
       <c r="AC956" s="4"/>
     </row>
-    <row r="957" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -35433,7 +35446,7 @@
       <c r="AB957" s="4"/>
       <c r="AC957" s="4"/>
     </row>
-    <row r="958" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -35464,7 +35477,7 @@
       <c r="AB958" s="4"/>
       <c r="AC958" s="4"/>
     </row>
-    <row r="959" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -35495,7 +35508,7 @@
       <c r="AB959" s="4"/>
       <c r="AC959" s="4"/>
     </row>
-    <row r="960" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -35526,7 +35539,7 @@
       <c r="AB960" s="4"/>
       <c r="AC960" s="4"/>
     </row>
-    <row r="961" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -35557,7 +35570,7 @@
       <c r="AB961" s="4"/>
       <c r="AC961" s="4"/>
     </row>
-    <row r="962" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -35588,7 +35601,7 @@
       <c r="AB962" s="4"/>
       <c r="AC962" s="4"/>
     </row>
-    <row r="963" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -35619,7 +35632,7 @@
       <c r="AB963" s="4"/>
       <c r="AC963" s="4"/>
     </row>
-    <row r="964" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -35650,7 +35663,7 @@
       <c r="AB964" s="4"/>
       <c r="AC964" s="4"/>
     </row>
-    <row r="965" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -35681,7 +35694,7 @@
       <c r="AB965" s="4"/>
       <c r="AC965" s="4"/>
     </row>
-    <row r="966" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -35712,7 +35725,7 @@
       <c r="AB966" s="4"/>
       <c r="AC966" s="4"/>
     </row>
-    <row r="967" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -35743,7 +35756,7 @@
       <c r="AB967" s="4"/>
       <c r="AC967" s="4"/>
     </row>
-    <row r="968" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -35774,7 +35787,7 @@
       <c r="AB968" s="4"/>
       <c r="AC968" s="4"/>
     </row>
-    <row r="969" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -35805,7 +35818,7 @@
       <c r="AB969" s="4"/>
       <c r="AC969" s="4"/>
     </row>
-    <row r="970" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -35836,7 +35849,7 @@
       <c r="AB970" s="4"/>
       <c r="AC970" s="4"/>
     </row>
-    <row r="971" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -35867,7 +35880,7 @@
       <c r="AB971" s="4"/>
       <c r="AC971" s="4"/>
     </row>
-    <row r="972" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -35898,7 +35911,7 @@
       <c r="AB972" s="4"/>
       <c r="AC972" s="4"/>
     </row>
-    <row r="973" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -35929,7 +35942,7 @@
       <c r="AB973" s="4"/>
       <c r="AC973" s="4"/>
     </row>
-    <row r="974" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -35960,7 +35973,7 @@
       <c r="AB974" s="4"/>
       <c r="AC974" s="4"/>
     </row>
-    <row r="975" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -35991,7 +36004,7 @@
       <c r="AB975" s="4"/>
       <c r="AC975" s="4"/>
     </row>
-    <row r="976" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -36022,7 +36035,7 @@
       <c r="AB976" s="4"/>
       <c r="AC976" s="4"/>
     </row>
-    <row r="977" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -36053,7 +36066,7 @@
       <c r="AB977" s="4"/>
       <c r="AC977" s="4"/>
     </row>
-    <row r="978" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -36084,7 +36097,7 @@
       <c r="AB978" s="4"/>
       <c r="AC978" s="4"/>
     </row>
-    <row r="979" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -36115,7 +36128,7 @@
       <c r="AB979" s="4"/>
       <c r="AC979" s="4"/>
     </row>
-    <row r="980" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -36146,7 +36159,7 @@
       <c r="AB980" s="4"/>
       <c r="AC980" s="4"/>
     </row>
-    <row r="981" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -36177,7 +36190,7 @@
       <c r="AB981" s="4"/>
       <c r="AC981" s="4"/>
     </row>
-    <row r="982" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -36208,7 +36221,7 @@
       <c r="AB982" s="4"/>
       <c r="AC982" s="4"/>
     </row>
-    <row r="983" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -36239,7 +36252,7 @@
       <c r="AB983" s="4"/>
       <c r="AC983" s="4"/>
     </row>
-    <row r="984" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -36270,7 +36283,7 @@
       <c r="AB984" s="4"/>
       <c r="AC984" s="4"/>
     </row>
-    <row r="985" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -36301,7 +36314,7 @@
       <c r="AB985" s="4"/>
       <c r="AC985" s="4"/>
     </row>
-    <row r="986" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -36332,7 +36345,7 @@
       <c r="AB986" s="4"/>
       <c r="AC986" s="4"/>
     </row>
-    <row r="987" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -36363,7 +36376,7 @@
       <c r="AB987" s="4"/>
       <c r="AC987" s="4"/>
     </row>
-    <row r="988" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -36394,7 +36407,7 @@
       <c r="AB988" s="4"/>
       <c r="AC988" s="4"/>
     </row>
-    <row r="989" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -36425,7 +36438,7 @@
       <c r="AB989" s="4"/>
       <c r="AC989" s="4"/>
     </row>
-    <row r="990" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -36456,7 +36469,7 @@
       <c r="AB990" s="4"/>
       <c r="AC990" s="4"/>
     </row>
-    <row r="991" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -36487,7 +36500,7 @@
       <c r="AB991" s="4"/>
       <c r="AC991" s="4"/>
     </row>
-    <row r="992" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -36518,7 +36531,7 @@
       <c r="AB992" s="4"/>
       <c r="AC992" s="4"/>
     </row>
-    <row r="993" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -36549,7 +36562,7 @@
       <c r="AB993" s="4"/>
       <c r="AC993" s="4"/>
     </row>
-    <row r="994" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -36580,7 +36593,7 @@
       <c r="AB994" s="4"/>
       <c r="AC994" s="4"/>
     </row>
-    <row r="995" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -36611,7 +36624,7 @@
       <c r="AB995" s="4"/>
       <c r="AC995" s="4"/>
     </row>
-    <row r="996" spans="1:29" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -36643,19 +36656,6 @@
       <c r="AC996" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC996" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="C"/>
-        <filter val="T"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="B175:D175">
     <cfRule type="expression" dxfId="18" priority="5">
       <formula>$K171="Maybe - needs discussion"</formula>

--- a/1_Input_data/Infoexp.xlsx
+++ b/1_Input_data/Infoexp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26671A-0806-F947-BBD5-0B03658E44A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1F1B6-7E0C-2A45-8250-EF4891617B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28640" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$AC$996</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$AC$998</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="J12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="J22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J33" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="J34" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J87" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="J88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J182" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="J183" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -380,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J193" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+    <comment ref="J195" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J216" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="J218" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J220" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+    <comment ref="J222" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E221" authorId="2" shapeId="0" xr:uid="{87F93DD1-CADE-D04D-A2A0-2138A4FA6CAC}">
+    <comment ref="E223" authorId="2" shapeId="0" xr:uid="{87F93DD1-CADE-D04D-A2A0-2138A4FA6CAC}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -451,7 +451,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="J221" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="J223" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="502">
   <si>
     <t>Type</t>
   </si>
@@ -1895,9 +1895,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>STR</t>
-  </si>
-  <si>
     <t>Mother ID</t>
   </si>
   <si>
@@ -1995,6 +1992,18 @@
   </si>
   <si>
     <t>Presence of postnatal microcephalea, microscephalia criteria for follow up measures was calculated with the who_hcircm2zscore() function</t>
+  </si>
+  <si>
+    <t>studycode</t>
+  </si>
+  <si>
+    <t>Study new code</t>
+  </si>
+  <si>
+    <t>zikv_test</t>
+  </si>
+  <si>
+    <t>IDSTR</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2601,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E221" dT="2021-10-12T18:03:09.97" personId="{1B2C19B9-B605-0845-AE07-2E75EAEC04BC}" id="{87F93DD1-CADE-D04D-A2A0-2138A4FA6CAC}">
+  <threadedComment ref="E223" dT="2021-10-12T18:03:09.97" personId="{1B2C19B9-B605-0845-AE07-2E75EAEC04BC}" id="{87F93DD1-CADE-D04D-A2A0-2138A4FA6CAC}">
     <text xml:space="preserve">Removed temporally for having non structured levels
 </text>
   </threadedComment>
@@ -2601,13 +2610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC996"/>
+  <dimension ref="A1:AC998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2628,40 +2637,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>459</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2693,20 +2702,19 @@
         <v>460</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
       </c>
       <c r="H2" s="4">
-        <f>1</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -2728,35 +2736,33 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G3" s="16">
-        <v>-3</v>
+      <c r="E3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
       </c>
       <c r="H3" s="4">
-        <f>+H2+1</f>
-        <v>2</v>
+        <f>H2+1</f>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2782,27 +2788,31 @@
       <c r="A4" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="G4" s="16">
         <v>-3</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H67" si="0">+H3+1</f>
-        <v>3</v>
-      </c>
-      <c r="I4" s="4"/>
+        <f t="shared" ref="H4:H67" si="0">H3+1</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
       <c r="J4" s="4" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2831,24 +2841,24 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="G5" s="16">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2872,43 +2882,33 @@
     </row>
     <row r="6" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>308</v>
+        <v>485</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="16"/>
+        <v>501</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3</v>
+      </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="L6" s="4">
-        <v>10</v>
-      </c>
-      <c r="M6" s="4">
-        <v>55</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -2930,7 +2930,9 @@
       <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -2938,27 +2940,31 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G7" s="16">
-        <v>3</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L7" s="4">
+        <v>10</v>
+      </c>
+      <c r="M7" s="4">
+        <v>55</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -2988,19 +2994,23 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <v>3</v>
+      </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -3034,23 +3044,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G9" s="16">
-        <v>3</v>
-      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -3077,20 +3083,30 @@
         <v>307</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="16"/>
+        <v>314</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -3112,7 +3128,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>307</v>
       </c>
@@ -3120,17 +3136,17 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="16"/>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -3152,35 +3168,25 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G12" s="16">
-        <v>3</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -3206,29 +3212,31 @@
       <c r="A13" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="5"/>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="16">
+        <v>3</v>
+      </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I13" s="12">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
         <v>1</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>323</v>
+      <c r="J13" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -3262,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>463</v>
@@ -3270,13 +3278,13 @@
       <c r="G14" s="12"/>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14" s="12">
         <v>1</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>325</v>
+      <c r="J14" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -3302,21 +3310,29 @@
       <c r="A15" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="16"/>
+        <v>324</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" s="12"/>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -3346,17 +3362,17 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="16"/>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -3386,17 +3402,17 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="16"/>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -3426,17 +3442,17 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="16"/>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -3466,17 +3482,17 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="16"/>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -3506,17 +3522,17 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="16"/>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -3546,17 +3562,17 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="16"/>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -3586,17 +3602,17 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="16"/>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -3623,26 +3639,20 @@
         <v>307</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="16"/>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -3668,15 +3678,15 @@
       <c r="A24" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="C24" s="5"/>
       <c r="D24" s="12">
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>9</v>
@@ -3684,13 +3694,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -3716,21 +3724,29 @@
       <c r="A25" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>344</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="I25" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -3758,23 +3774,19 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I26" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -3805,20 +3817,20 @@
       <c r="D27" s="12">
         <v>1</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="I27" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -3846,19 +3858,23 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
       <c r="E28" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>350</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="16"/>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -3886,23 +3902,19 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="16"/>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -3930,19 +3942,23 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
       <c r="E30" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>354</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G30" s="16"/>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -3970,23 +3986,19 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="16"/>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -4014,19 +4026,23 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
       <c r="E32" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F32" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G32" s="16"/>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -4048,7 +4064,7 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="140" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>307</v>
       </c>
@@ -4056,17 +4072,17 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="16"/>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -4088,7 +4104,7 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="140" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>307</v>
       </c>
@@ -4096,17 +4112,17 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="16"/>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -4136,17 +4152,17 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="16"/>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -4176,17 +4192,17 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="16"/>
       <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -4216,17 +4232,17 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="16"/>
       <c r="H37" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -4256,17 +4272,17 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="16"/>
       <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -4296,17 +4312,17 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="16"/>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -4336,17 +4352,17 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="16"/>
       <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -4372,37 +4388,25 @@
       <c r="A41" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="16"/>
       <c r="H41" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="L41" s="4">
-        <v>30</v>
-      </c>
-      <c r="M41" s="4">
-        <v>200</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -4424,30 +4428,30 @@
       <c r="A42" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5">
+      <c r="B42" s="5">
         <v>1</v>
       </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="12">
         <v>1</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="4">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L42" s="4">
         <v>30</v>
@@ -4476,36 +4480,36 @@
       <c r="A43" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5">
         <v>1</v>
       </c>
-      <c r="C43" s="5"/>
       <c r="D43" s="12">
         <v>1</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="4">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L43" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M43" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -4524,29 +4528,41 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
       <c r="E44" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F44" s="7"/>
+        <v>382</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G44" s="16"/>
       <c r="H44" s="4">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+        <v>383</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="L44" s="4">
+        <v>100</v>
+      </c>
+      <c r="M44" s="4">
+        <v>210</v>
+      </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -4564,31 +4580,25 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="16"/>
       <c r="H45" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -4622,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>9</v>
@@ -4630,11 +4640,11 @@
       <c r="G46" s="16"/>
       <c r="H46" s="4">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -4663,30 +4673,24 @@
       <c r="B47" s="5">
         <v>1</v>
       </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="12">
         <v>1</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G47" s="16">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G47" s="16"/>
       <c r="H47" s="4">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -4712,25 +4716,33 @@
       <c r="A48" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
       <c r="D48" s="12">
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="16"/>
+        <v>463</v>
+      </c>
+      <c r="G48" s="16">
+        <v>3</v>
+      </c>
       <c r="H48" s="4">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="I48" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
       <c r="J48" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -4762,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>9</v>
@@ -4770,11 +4782,11 @@
       <c r="G49" s="16"/>
       <c r="H49" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -4806,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>9</v>
@@ -4814,11 +4826,11 @@
       <c r="G50" s="16"/>
       <c r="H50" s="4">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -4844,15 +4856,13 @@
       <c r="A51" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="12">
         <v>1</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>9</v>
@@ -4860,11 +4870,11 @@
       <c r="G51" s="16"/>
       <c r="H51" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -4890,21 +4900,27 @@
       <c r="A52" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
       <c r="E52" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>398</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G52" s="16"/>
       <c r="H52" s="4">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -4934,17 +4950,17 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="16"/>
       <c r="H53" s="4">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -4974,17 +4990,17 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="16"/>
       <c r="H54" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -5014,17 +5030,17 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="16"/>
       <c r="H55" s="4">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -5054,17 +5070,17 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="16"/>
       <c r="H56" s="4">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -5093,18 +5109,18 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="E57" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="4">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="I57" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="I57" s="7"/>
       <c r="J57" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -5131,30 +5147,20 @@
         <v>307</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="5">
-        <v>1</v>
-      </c>
-      <c r="D58" s="12">
-        <v>1</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="16">
-        <v>3</v>
-      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="4">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="I58" s="7">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I58" s="4"/>
       <c r="J58" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -5188,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>9</v>
@@ -5198,13 +5204,13 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -5231,20 +5237,30 @@
         <v>307</v>
       </c>
       <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
       <c r="E60" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="16"/>
+        <v>414</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="16">
+        <v>3</v>
+      </c>
       <c r="H60" s="4">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="I60" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
       <c r="J60" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -5272,25 +5288,19 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="12">
-        <v>1</v>
-      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="16">
-        <v>-2</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="16"/>
       <c r="H61" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -5322,21 +5332,21 @@
         <v>1</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="G62" s="16">
         <v>-2</v>
       </c>
       <c r="H62" s="4">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -5368,19 +5378,21 @@
         <v>1</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="16"/>
+        <v>463</v>
+      </c>
+      <c r="G63" s="16">
+        <v>-2</v>
+      </c>
       <c r="H63" s="4">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -5412,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>9</v>
@@ -5420,11 +5432,11 @@
       <c r="G64" s="16"/>
       <c r="H64" s="4">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -5456,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>9</v>
@@ -5464,11 +5476,11 @@
       <c r="G65" s="16"/>
       <c r="H65" s="4">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -5500,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>9</v>
@@ -5508,11 +5520,11 @@
       <c r="G66" s="16"/>
       <c r="H66" s="4">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -5540,19 +5552,23 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="12">
+        <v>1</v>
+      </c>
       <c r="E67" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>428</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G67" s="16"/>
       <c r="H67" s="4">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -5580,23 +5596,19 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="12">
-        <v>1</v>
-      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="16"/>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H131" si="1">+H67+1</f>
-        <v>67</v>
+        <f t="shared" ref="H68:H131" si="1">H67+1</f>
+        <v>65</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -5628,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>9</v>
@@ -5636,11 +5648,11 @@
       <c r="G69" s="16"/>
       <c r="H69" s="4">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -5672,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>9</v>
@@ -5680,11 +5692,11 @@
       <c r="G70" s="16"/>
       <c r="H70" s="4">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -5716,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>9</v>
@@ -5724,11 +5736,11 @@
       <c r="G71" s="16"/>
       <c r="H71" s="4">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -5760,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>9</v>
@@ -5768,11 +5780,11 @@
       <c r="G72" s="16"/>
       <c r="H72" s="4">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -5804,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>9</v>
@@ -5812,11 +5824,11 @@
       <c r="G73" s="16"/>
       <c r="H73" s="4">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -5848,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>9</v>
@@ -5856,11 +5868,11 @@
       <c r="G74" s="16"/>
       <c r="H74" s="4">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -5892,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>9</v>
@@ -5900,11 +5912,11 @@
       <c r="G75" s="16"/>
       <c r="H75" s="4">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -5936,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>9</v>
@@ -5944,11 +5956,11 @@
       <c r="G76" s="16"/>
       <c r="H76" s="4">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -5972,25 +5984,27 @@
     </row>
     <row r="77" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
       <c r="E77" s="7" t="s">
-        <v>133</v>
+        <v>448</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>464</v>
+        <v>9</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="4">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7" t="s">
-        <v>134</v>
+        <v>449</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -6020,19 +6034,19 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="4">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6061,20 +6075,20 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="G79" s="18"/>
+      <c r="E79" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="16"/>
       <c r="H79" s="4">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="I79" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="I79" s="7"/>
       <c r="J79" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -6100,27 +6114,23 @@
       <c r="A80" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="5">
-        <v>1</v>
-      </c>
+      <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="12">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G80" s="16"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="G80" s="18"/>
       <c r="H80" s="4">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="I80" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I80" s="13"/>
       <c r="J80" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -6154,29 +6164,23 @@
         <v>1</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="4">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L81" s="4">
-        <v>0</v>
-      </c>
-      <c r="M81" s="4">
-        <v>46</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -6205,24 +6209,30 @@
       <c r="D82" s="12">
         <v>1</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="G82" s="19"/>
+      <c r="E82" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" s="16"/>
       <c r="H82" s="4">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="I82" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="I82" s="7"/>
       <c r="J82" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4">
+        <v>46</v>
+      </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -6251,22 +6261,20 @@
       <c r="D83" s="12">
         <v>1</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="16">
-        <v>-2</v>
-      </c>
+      <c r="E83" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="G83" s="19"/>
       <c r="H83" s="4">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="I83" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="I83" s="14"/>
       <c r="J83" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -6292,34 +6300,32 @@
       <c r="A84" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5">
+      <c r="B84" s="5">
         <v>1</v>
       </c>
+      <c r="C84" s="5"/>
       <c r="D84" s="12">
         <v>1</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="G84" s="16">
+        <v>-2</v>
+      </c>
       <c r="H84" s="4">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="L84" s="4">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -6343,23 +6349,33 @@
         <v>132</v>
       </c>
       <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="12">
+        <v>1</v>
+      </c>
       <c r="E85" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="G85" s="16"/>
       <c r="H85" s="4">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -6382,29 +6398,21 @@
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="5">
-        <v>1</v>
-      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="12">
-        <v>1</v>
-      </c>
+      <c r="D86" s="5"/>
       <c r="E86" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G86" s="16">
-        <v>-2</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="16"/>
       <c r="H86" s="4">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -6438,29 +6446,25 @@
         <v>1</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" s="16"/>
+        <v>463</v>
+      </c>
+      <c r="G87" s="16">
+        <v>-2</v>
+      </c>
       <c r="H87" s="4">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L87" s="4">
-        <v>0</v>
-      </c>
-      <c r="M87" s="4">
-        <v>46</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6490,23 +6494,29 @@
         <v>1</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>464</v>
+        <v>42</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="4">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4">
+        <v>46</v>
+      </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -6535,20 +6545,20 @@
       <c r="D89" s="12">
         <v>1</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="G89" s="19"/>
+      <c r="E89" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G89" s="16"/>
       <c r="H89" s="4">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="I89" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="I89" s="7"/>
       <c r="J89" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -6574,21 +6584,27 @@
       <c r="A90" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="5"/>
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="16"/>
+      <c r="D90" s="12">
+        <v>1</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="G90" s="19"/>
       <c r="H90" s="4">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="I90" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I90" s="14"/>
       <c r="J90" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -6614,27 +6630,21 @@
       <c r="A91" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="5">
-        <v>1</v>
-      </c>
+      <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="12">
-        <v>1</v>
-      </c>
+      <c r="D91" s="5"/>
       <c r="E91" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>463</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F91" s="7"/>
       <c r="G91" s="16"/>
       <c r="H91" s="4">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -6668,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>463</v>
@@ -6676,11 +6686,11 @@
       <c r="G92" s="16"/>
       <c r="H92" s="4">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -6706,21 +6716,27 @@
       <c r="A93" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B93" s="5"/>
+      <c r="B93" s="5">
+        <v>1</v>
+      </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="12">
+        <v>1</v>
+      </c>
       <c r="E93" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F93" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>463</v>
+      </c>
       <c r="G93" s="16"/>
       <c r="H93" s="4">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -6750,17 +6766,17 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="16"/>
       <c r="H94" s="4">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -6790,17 +6806,17 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -6830,17 +6846,17 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -6870,17 +6886,17 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="16"/>
       <c r="H97" s="4">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -6910,17 +6926,17 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -6950,17 +6966,17 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -6990,17 +7006,17 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="16"/>
       <c r="H100" s="4">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -7030,17 +7046,17 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="16"/>
       <c r="H101" s="4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -7070,17 +7086,17 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="16"/>
       <c r="H102" s="4">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -7108,21 +7124,19 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="5">
-        <v>1</v>
-      </c>
+      <c r="D103" s="5"/>
       <c r="E103" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="16"/>
       <c r="H103" s="4">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -7154,17 +7168,17 @@
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="16"/>
       <c r="H104" s="4">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -7196,17 +7210,17 @@
         <v>1</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="16"/>
       <c r="H105" s="4">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -7238,17 +7252,17 @@
         <v>1</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="16"/>
       <c r="H106" s="4">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -7280,17 +7294,17 @@
         <v>1</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="16"/>
       <c r="H107" s="4">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -7322,17 +7336,17 @@
         <v>1</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="16"/>
       <c r="H108" s="4">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7364,17 +7378,17 @@
         <v>1</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="16"/>
       <c r="H109" s="4">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7400,41 +7414,27 @@
       <c r="A110" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5">
         <v>1</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="12">
-        <v>1</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G110" s="12">
-        <v>2</v>
-      </c>
+      <c r="E110" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="16"/>
       <c r="H110" s="4">
         <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="I110" s="12">
-        <v>1</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L110" s="4">
-        <v>0</v>
-      </c>
-      <c r="M110" s="4">
-        <v>46</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -7463,24 +7463,34 @@
       <c r="D111" s="12">
         <v>1</v>
       </c>
-      <c r="E111" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="G111" s="19"/>
+      <c r="E111" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="12">
+        <v>2</v>
+      </c>
       <c r="H111" s="4">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="I111" s="14"/>
-      <c r="J111" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="I111" s="12">
+        <v>1</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L111" s="4">
+        <v>0</v>
+      </c>
+      <c r="M111" s="4">
+        <v>46</v>
+      </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -7505,28 +7515,24 @@
       <c r="B112" s="5">
         <v>1</v>
       </c>
-      <c r="C112" s="5">
-        <v>1</v>
-      </c>
+      <c r="C112" s="5"/>
       <c r="D112" s="12">
         <v>1</v>
       </c>
-      <c r="E112" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="16"/>
+      <c r="E112" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="G112" s="19"/>
       <c r="H112" s="4">
         <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="I112" s="7">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I112" s="14"/>
       <c r="J112" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -7552,21 +7558,31 @@
       <c r="A113" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F113" s="7"/>
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="D113" s="12">
+        <v>1</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G113" s="16"/>
       <c r="H113" s="4">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="I113" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I113" s="7">
+        <v>1</v>
+      </c>
       <c r="J113" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -7592,27 +7608,21 @@
       <c r="A114" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="5">
-        <v>1</v>
-      </c>
+      <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="12">
-        <v>1</v>
-      </c>
+      <c r="D114" s="5"/>
       <c r="E114" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>464</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F114" s="7"/>
       <c r="G114" s="16"/>
       <c r="H114" s="4">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -7646,31 +7656,23 @@
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G115" s="16">
-        <v>-2</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="G115" s="16"/>
       <c r="H115" s="4">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L115" s="4">
-        <v>0</v>
-      </c>
-      <c r="M115" s="4">
-        <v>46</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -7699,26 +7701,32 @@
       <c r="D116" s="12">
         <v>1</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>463</v>
+      <c r="E116" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G116" s="16">
         <v>-2</v>
       </c>
       <c r="H116" s="4">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="I116" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="I116" s="7"/>
       <c r="J116" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L116" s="4">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4">
+        <v>46</v>
+      </c>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -7740,21 +7748,29 @@
       <c r="A117" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="5"/>
+      <c r="B117" s="5">
+        <v>1</v>
+      </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="16"/>
+      <c r="D117" s="12">
+        <v>1</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="G117" s="16">
+        <v>-2</v>
+      </c>
       <c r="H117" s="4">
         <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="I117" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="I117" s="14"/>
       <c r="J117" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -7784,17 +7800,17 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="16"/>
       <c r="H118" s="4">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -7820,29 +7836,21 @@
       <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B119" s="5">
-        <v>1</v>
-      </c>
+      <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="12">
-        <v>1</v>
-      </c>
+      <c r="D119" s="5"/>
       <c r="E119" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="F119" s="7"/>
       <c r="G119" s="16"/>
       <c r="H119" s="4">
         <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="I119" s="7">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I119" s="7"/>
       <c r="J119" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
@@ -7876,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>9</v>
@@ -7884,13 +7892,13 @@
       <c r="G120" s="16"/>
       <c r="H120" s="4">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I120" s="7">
         <v>1</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -7916,21 +7924,29 @@
       <c r="A121" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B121" s="5"/>
+      <c r="B121" s="5">
+        <v>1</v>
+      </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="12">
+        <v>1</v>
+      </c>
       <c r="E121" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F121" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G121" s="16"/>
       <c r="H121" s="4">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="I121" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="I121" s="7">
+        <v>1</v>
+      </c>
       <c r="J121" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -7960,17 +7976,17 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="16"/>
       <c r="H122" s="4">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -8000,17 +8016,17 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F123" s="7"/>
       <c r="G123" s="16"/>
       <c r="H123" s="4">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -8036,29 +8052,21 @@
       <c r="A124" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="5">
-        <v>1</v>
-      </c>
+      <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="12">
-        <v>1</v>
-      </c>
+      <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F124" s="7"/>
       <c r="G124" s="16"/>
       <c r="H124" s="4">
         <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="I124" s="7">
-        <v>1</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="I124" s="7"/>
       <c r="J124" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -8084,21 +8092,29 @@
       <c r="A125" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="5"/>
+      <c r="B125" s="5">
+        <v>1</v>
+      </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="12">
+        <v>1</v>
+      </c>
       <c r="E125" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F125" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G125" s="16"/>
       <c r="H125" s="4">
         <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="I125" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="I125" s="7">
+        <v>1</v>
+      </c>
       <c r="J125" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -8124,29 +8140,21 @@
       <c r="A126" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="5">
-        <v>1</v>
-      </c>
+      <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="12">
-        <v>1</v>
-      </c>
+      <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F126" s="7"/>
       <c r="G126" s="16"/>
       <c r="H126" s="4">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="I126" s="7">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I126" s="7"/>
       <c r="J126" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -8172,21 +8180,29 @@
       <c r="A127" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5">
+        <v>1</v>
+      </c>
       <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="12">
+        <v>1</v>
+      </c>
       <c r="E127" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F127" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G127" s="16"/>
       <c r="H127" s="4">
         <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="I127" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="I127" s="7">
+        <v>1</v>
+      </c>
       <c r="J127" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -8216,17 +8232,17 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F128" s="7"/>
       <c r="G128" s="16"/>
       <c r="H128" s="4">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -8256,17 +8272,17 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="16"/>
       <c r="H129" s="4">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -8296,17 +8312,17 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="16"/>
       <c r="H130" s="4">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -8336,17 +8352,17 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="16"/>
       <c r="H131" s="4">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -8376,17 +8392,17 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="16"/>
       <c r="H132" s="4">
-        <f t="shared" ref="H132:H195" si="2">+H131+1</f>
-        <v>131</v>
+        <f t="shared" ref="H132:H195" si="2">H131+1</f>
+        <v>129</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -8416,17 +8432,17 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="16"/>
       <c r="H133" s="4">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -8456,17 +8472,17 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="16"/>
       <c r="H134" s="4">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -8496,17 +8512,17 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F135" s="7"/>
       <c r="G135" s="16"/>
       <c r="H135" s="4">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -8536,17 +8552,17 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="16"/>
       <c r="H136" s="4">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -8576,17 +8592,17 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="16"/>
       <c r="H137" s="4">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -8616,17 +8632,17 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F138" s="7"/>
       <c r="G138" s="16"/>
       <c r="H138" s="4">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -8656,17 +8672,17 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F139" s="7"/>
       <c r="G139" s="16"/>
       <c r="H139" s="4">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -8696,17 +8712,17 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F140" s="7"/>
       <c r="G140" s="16"/>
       <c r="H140" s="4">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -8736,17 +8752,17 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F141" s="7"/>
       <c r="G141" s="16"/>
       <c r="H141" s="4">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -8776,17 +8792,17 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="16"/>
       <c r="H142" s="4">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -8812,27 +8828,21 @@
       <c r="A143" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B143" s="5">
-        <v>1</v>
-      </c>
+      <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="12">
-        <v>1</v>
-      </c>
+      <c r="D143" s="5"/>
       <c r="E143" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>463</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F143" s="7"/>
       <c r="G143" s="16"/>
       <c r="H143" s="4">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -8866,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>463</v>
@@ -8874,11 +8884,11 @@
       <c r="G144" s="16"/>
       <c r="H144" s="4">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -8912,29 +8922,23 @@
         <v>1</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>42</v>
+        <v>463</v>
       </c>
       <c r="G145" s="16"/>
       <c r="H145" s="4">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L145" s="4">
-        <v>0</v>
-      </c>
-      <c r="M145" s="4">
-        <v>46</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
@@ -8963,24 +8967,30 @@
       <c r="D146" s="12">
         <v>1</v>
       </c>
-      <c r="E146" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="G146" s="19"/>
+      <c r="E146" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" s="16"/>
       <c r="H146" s="4">
         <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="I146" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="I146" s="7"/>
       <c r="J146" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L146" s="4">
+        <v>0</v>
+      </c>
+      <c r="M146" s="4">
+        <v>46</v>
+      </c>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
@@ -9009,20 +9019,20 @@
       <c r="D147" s="12">
         <v>1</v>
       </c>
-      <c r="E147" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" s="16"/>
+      <c r="E147" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="G147" s="19"/>
       <c r="H147" s="4">
         <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="I147" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="I147" s="14"/>
       <c r="J147" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -9056,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>9</v>
@@ -9064,11 +9074,11 @@
       <c r="G148" s="16"/>
       <c r="H148" s="4">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
@@ -9094,21 +9104,27 @@
       <c r="A149" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B149" s="5"/>
+      <c r="B149" s="5">
+        <v>1</v>
+      </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="12">
+        <v>1</v>
+      </c>
       <c r="E149" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F149" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G149" s="16"/>
       <c r="H149" s="4">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
@@ -9138,17 +9154,17 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="16"/>
       <c r="H150" s="4">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
@@ -9178,17 +9194,17 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F151" s="7"/>
       <c r="G151" s="16"/>
       <c r="H151" s="4">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
@@ -9218,17 +9234,17 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="16"/>
       <c r="H152" s="4">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
@@ -9258,17 +9274,17 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="16"/>
       <c r="H153" s="4">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
@@ -9298,17 +9314,17 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F154" s="7"/>
       <c r="G154" s="16"/>
       <c r="H154" s="4">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
@@ -9338,17 +9354,17 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="16"/>
       <c r="H155" s="4">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
@@ -9376,23 +9392,19 @@
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="12">
-        <v>1</v>
-      </c>
+      <c r="D156" s="5"/>
       <c r="E156" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F156" s="7"/>
       <c r="G156" s="16"/>
       <c r="H156" s="4">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
@@ -9424,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>9</v>
@@ -9432,11 +9444,11 @@
       <c r="G157" s="16"/>
       <c r="H157" s="4">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
@@ -9464,19 +9476,23 @@
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+      <c r="D158" s="12">
+        <v>1</v>
+      </c>
       <c r="E158" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F158" s="7"/>
+        <v>293</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G158" s="16"/>
       <c r="H158" s="4">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -9506,17 +9522,17 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="16"/>
       <c r="H159" s="4">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
@@ -9546,17 +9562,17 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="16"/>
       <c r="H160" s="4">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
@@ -9586,17 +9602,17 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="16"/>
       <c r="H161" s="4">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
@@ -9626,17 +9642,17 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="16"/>
       <c r="H162" s="4">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -9666,17 +9682,17 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F163" s="7"/>
       <c r="G163" s="16"/>
       <c r="H163" s="4">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
@@ -9698,31 +9714,25 @@
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
     </row>
-    <row r="164" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4">
-        <v>2</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F164" s="7"/>
+      <c r="G164" s="16"/>
       <c r="H164" s="4">
         <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
-      <c r="I164" s="4">
-        <v>1</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>468</v>
+        <v>161</v>
+      </c>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
@@ -9754,7 +9764,7 @@
         <v>2</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>9</v>
@@ -9762,13 +9772,13 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I165" s="4">
         <v>1</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -9800,23 +9810,21 @@
         <v>2</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G166" s="4">
-        <v>3</v>
-      </c>
+      <c r="G166" s="4"/>
       <c r="H166" s="4">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I166" s="4">
         <v>1</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -9848,21 +9856,23 @@
         <v>2</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G167" s="4"/>
+      <c r="G167" s="4">
+        <v>3</v>
+      </c>
       <c r="H167" s="4">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I167" s="4">
         <v>1</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -9884,33 +9894,31 @@
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
     </row>
-    <row r="168" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B168" s="5">
-        <v>1</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5">
-        <v>1</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4">
+        <v>2</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G168" s="16">
-        <v>-2</v>
-      </c>
+      <c r="G168" s="4"/>
       <c r="H168" s="4">
         <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
-      <c r="I168" s="6"/>
-      <c r="J168" s="7" t="s">
-        <v>5</v>
+        <v>165</v>
+      </c>
+      <c r="I168" s="4">
+        <v>1</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
@@ -9944,31 +9952,25 @@
         <v>1</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G169" s="16">
         <v>-2</v>
       </c>
       <c r="H169" s="4">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L169" s="4">
-        <v>0</v>
-      </c>
-      <c r="M169" s="4">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
@@ -9993,32 +9995,36 @@
       <c r="B170" s="5">
         <v>1</v>
       </c>
-      <c r="C170" s="5">
-        <v>1</v>
-      </c>
+      <c r="C170" s="5"/>
       <c r="D170" s="5">
         <v>1</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G170" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="G170" s="16">
+        <v>-2</v>
+      </c>
       <c r="H170" s="4">
         <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
-      <c r="I170" s="6">
-        <v>1</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I170" s="6"/>
       <c r="J170" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L170" s="4">
+        <v>0</v>
+      </c>
+      <c r="M170" s="4">
+        <v>20</v>
+      </c>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
@@ -10040,21 +10046,31 @@
       <c r="A171" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="7"/>
-      <c r="G171" s="16"/>
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+      <c r="C171" s="5">
+        <v>1</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="20"/>
       <c r="H171" s="4">
         <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="I171" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="I171" s="6">
+        <v>1</v>
+      </c>
       <c r="J171" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
@@ -10080,29 +10096,21 @@
       <c r="A172" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="5">
-        <v>1</v>
-      </c>
+      <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="5">
-        <v>1</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G172" s="20">
-        <v>-2</v>
-      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="16"/>
       <c r="H172" s="4">
         <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="I172" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="I172" s="7"/>
       <c r="J172" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
@@ -10136,21 +10144,21 @@
         <v>1</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="G173" s="20">
         <v>-2</v>
       </c>
       <c r="H173" s="4">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I173" s="6"/>
       <c r="J173" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
@@ -10184,29 +10192,25 @@
         <v>1</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G174" s="20"/>
+        <v>463</v>
+      </c>
+      <c r="G174" s="20">
+        <v>-2</v>
+      </c>
       <c r="H174" s="4">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I174" s="6"/>
       <c r="J174" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K174" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L174" s="4">
-        <v>20</v>
-      </c>
-      <c r="M174" s="4">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
@@ -10236,27 +10240,25 @@
         <v>1</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G175" s="20">
-        <v>-2</v>
-      </c>
+      <c r="G175" s="20"/>
       <c r="H175" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I175" s="6"/>
       <c r="J175" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L175" s="4">
         <v>20</v>
-      </c>
-      <c r="K175" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L175" s="4">
-        <v>0</v>
       </c>
       <c r="M175" s="4">
         <v>46</v>
@@ -10290,24 +10292,24 @@
         <v>1</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G176" s="16">
+      <c r="G176" s="20">
         <v>-2</v>
       </c>
       <c r="H176" s="4">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I176" s="6"/>
       <c r="J176" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L176" s="4">
         <v>0</v>
@@ -10332,35 +10334,43 @@
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
     </row>
-    <row r="177" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4">
-        <v>2</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G177" s="4"/>
+      <c r="B177" s="5">
+        <v>1</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177" s="16">
+        <v>-2</v>
+      </c>
       <c r="H177" s="4">
         <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="I177" s="4">
-        <v>1</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-      <c r="M177" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="I177" s="6"/>
+      <c r="J177" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L177" s="4">
+        <v>0</v>
+      </c>
+      <c r="M177" s="4">
+        <v>46</v>
+      </c>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
@@ -10388,31 +10398,25 @@
         <v>2</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="4">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I178" s="4">
         <v>1</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L178" s="4">
-        <v>0</v>
-      </c>
-      <c r="M178" s="4">
-        <v>46</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
@@ -10430,41 +10434,41 @@
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
     </row>
-    <row r="179" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="5">
-        <v>1</v>
-      </c>
-      <c r="C179" s="5">
-        <v>1</v>
-      </c>
-      <c r="D179" s="5">
-        <v>1</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G179" s="16">
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4">
         <v>2</v>
       </c>
+      <c r="E179" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G179" s="4"/>
       <c r="H179" s="4">
         <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="I179" s="7">
+        <v>176</v>
+      </c>
+      <c r="I179" s="4">
         <v>1</v>
       </c>
-      <c r="J179" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
+      <c r="J179" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L179" s="4">
+        <v>0</v>
+      </c>
+      <c r="M179" s="4">
+        <v>46</v>
+      </c>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
       <c r="P179" s="4"/>
@@ -10489,26 +10493,30 @@
       <c r="B180" s="5">
         <v>1</v>
       </c>
-      <c r="C180" s="5"/>
+      <c r="C180" s="5">
+        <v>1</v>
+      </c>
       <c r="D180" s="5">
         <v>1</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G180" s="16"/>
+      <c r="G180" s="16">
+        <v>2</v>
+      </c>
       <c r="H180" s="4">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I180" s="7">
         <v>1</v>
       </c>
-      <c r="J180" s="7" t="s">
-        <v>26</v>
+      <c r="J180" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
@@ -10542,21 +10550,21 @@
         <v>1</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G181" s="16">
-        <v>-2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G181" s="16"/>
       <c r="H181" s="4">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="I181" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="I181" s="7">
+        <v>1</v>
+      </c>
       <c r="J181" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
@@ -10590,21 +10598,21 @@
         <v>1</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G182" s="16"/>
+        <v>463</v>
+      </c>
+      <c r="G182" s="16">
+        <v>-2</v>
+      </c>
       <c r="H182" s="4">
         <f t="shared" si="2"/>
-        <v>181</v>
-      </c>
-      <c r="I182" s="7">
-        <v>1</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I182" s="7"/>
       <c r="J182" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
@@ -10633,38 +10641,30 @@
       <c r="B183" s="5">
         <v>1</v>
       </c>
-      <c r="C183" s="5">
-        <v>1</v>
-      </c>
+      <c r="C183" s="5"/>
       <c r="D183" s="5">
         <v>1</v>
       </c>
-      <c r="E183" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F183" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G183" s="21"/>
+      <c r="E183" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="16"/>
       <c r="H183" s="4">
         <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
-      <c r="I183" s="9">
+        <v>180</v>
+      </c>
+      <c r="I183" s="7">
         <v>1</v>
       </c>
       <c r="J183" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K183" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="L183" s="4">
-        <v>100</v>
-      </c>
-      <c r="M183" s="4">
-        <v>6000</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
@@ -10689,37 +10689,37 @@
       <c r="B184" s="5">
         <v>1</v>
       </c>
-      <c r="C184" s="5"/>
+      <c r="C184" s="5">
+        <v>1</v>
+      </c>
       <c r="D184" s="5">
         <v>1</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G184" s="21">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G184" s="21"/>
       <c r="H184" s="4">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I184" s="9">
         <v>1</v>
       </c>
       <c r="J184" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L184" s="4">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="M184" s="4">
-        <v>70</v>
+        <v>6000</v>
       </c>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -10750,29 +10750,33 @@
         <v>1</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G185" s="21"/>
+      <c r="G185" s="21">
+        <v>2</v>
+      </c>
       <c r="H185" s="4">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I185" s="9">
         <v>1</v>
       </c>
-      <c r="J185" s="10" t="s">
-        <v>38</v>
+      <c r="J185" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L185" s="4">
-        <v>0</v>
-      </c>
-      <c r="M185" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="M185" s="4">
+        <v>70</v>
+      </c>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
@@ -10801,25 +10805,29 @@
       <c r="D186" s="5">
         <v>1</v>
       </c>
-      <c r="E186" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G186" s="16">
-        <v>-2</v>
-      </c>
+      <c r="E186" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G186" s="21"/>
       <c r="H186" s="4">
         <f t="shared" si="2"/>
-        <v>185</v>
-      </c>
-      <c r="I186" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="I186" s="9">
+        <v>1</v>
+      </c>
       <c r="J186" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="L186" s="4">
+        <v>0</v>
+      </c>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
@@ -10842,21 +10850,29 @@
       <c r="A187" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B187" s="5"/>
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
       <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F187" s="5"/>
-      <c r="G187" s="12"/>
+      <c r="D187" s="5">
+        <v>1</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="G187" s="16">
+        <v>-2</v>
+      </c>
       <c r="H187" s="4">
         <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="I187" s="12"/>
-      <c r="J187" s="7" t="s">
-        <v>55</v>
+        <v>184</v>
+      </c>
+      <c r="I187" s="6"/>
+      <c r="J187" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
@@ -10883,30 +10899,20 @@
         <v>3</v>
       </c>
       <c r="B188" s="5"/>
-      <c r="C188" s="5">
-        <v>1</v>
-      </c>
-      <c r="D188" s="5">
-        <v>1</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G188" s="22">
-        <v>3</v>
-      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F188" s="5"/>
+      <c r="G188" s="12"/>
       <c r="H188" s="4">
         <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-      <c r="I188" s="11">
-        <v>1</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="I188" s="12"/>
       <c r="J188" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
@@ -10933,20 +10939,30 @@
         <v>3</v>
       </c>
       <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F189" s="7"/>
-      <c r="G189" s="16"/>
+      <c r="C189" s="5">
+        <v>1</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="22">
+        <v>3</v>
+      </c>
       <c r="H189" s="4">
         <f t="shared" si="2"/>
-        <v>188</v>
-      </c>
-      <c r="I189" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="I189" s="11">
+        <v>1</v>
+      </c>
       <c r="J189" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
@@ -10976,17 +10992,17 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="16"/>
       <c r="H190" s="4">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
@@ -11016,17 +11032,17 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="16"/>
       <c r="H191" s="4">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
@@ -11052,22 +11068,26 @@
       <c r="A192" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12">
+        <v>1</v>
+      </c>
       <c r="E192" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F192" s="7"/>
-      <c r="G192" s="16"/>
+        <v>500</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G192" s="16">
+        <v>3</v>
+      </c>
       <c r="H192" s="4">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I192" s="7"/>
-      <c r="J192" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="J192" s="7"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
@@ -11096,17 +11116,17 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="16"/>
       <c r="H193" s="4">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
@@ -11134,23 +11154,19 @@
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="12">
-        <v>1</v>
-      </c>
+      <c r="D194" s="5"/>
       <c r="E194" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F194" s="7"/>
       <c r="G194" s="16"/>
       <c r="H194" s="4">
         <f t="shared" si="2"/>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
@@ -11178,23 +11194,19 @@
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="12">
-        <v>1</v>
-      </c>
+      <c r="D195" s="5"/>
       <c r="E195" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>463</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F195" s="7"/>
       <c r="G195" s="16"/>
       <c r="H195" s="4">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
@@ -11226,19 +11238,19 @@
         <v>1</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G196" s="16"/>
       <c r="H196" s="4">
-        <f t="shared" ref="H196:H235" si="3">+H195+1</f>
-        <v>195</v>
+        <f t="shared" ref="H196:H237" si="3">H195+1</f>
+        <v>193</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -11260,7 +11272,7 @@
       <c r="AB196" s="4"/>
       <c r="AC196" s="4"/>
     </row>
-    <row r="197" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>3</v>
       </c>
@@ -11270,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>463</v>
@@ -11278,11 +11290,11 @@
       <c r="G197" s="16"/>
       <c r="H197" s="4">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
@@ -11304,7 +11316,7 @@
       <c r="AB197" s="4"/>
       <c r="AC197" s="4"/>
     </row>
-    <row r="198" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>3</v>
       </c>
@@ -11314,19 +11326,19 @@
         <v>1</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="G198" s="16"/>
       <c r="H198" s="4">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
@@ -11358,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>463</v>
@@ -11366,11 +11378,11 @@
       <c r="G199" s="16"/>
       <c r="H199" s="4">
         <f t="shared" si="3"/>
-        <v>198</v>
-      </c>
-      <c r="I199" s="16"/>
-      <c r="J199" s="5" t="s">
-        <v>79</v>
+        <v>196</v>
+      </c>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
@@ -11402,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>463</v>
@@ -11410,11 +11422,11 @@
       <c r="G200" s="16"/>
       <c r="H200" s="4">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -11446,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>463</v>
@@ -11454,11 +11466,11 @@
       <c r="G201" s="16"/>
       <c r="H201" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7" t="s">
-        <v>83</v>
+        <v>198</v>
+      </c>
+      <c r="I201" s="16"/>
+      <c r="J201" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
@@ -11480,7 +11492,7 @@
       <c r="AB201" s="4"/>
       <c r="AC201" s="4"/>
     </row>
-    <row r="202" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>3</v>
       </c>
@@ -11490,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>463</v>
@@ -11498,11 +11510,11 @@
       <c r="G202" s="16"/>
       <c r="H202" s="4">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -11524,7 +11536,7 @@
       <c r="AB202" s="4"/>
       <c r="AC202" s="4"/>
     </row>
-    <row r="203" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>3</v>
       </c>
@@ -11534,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>463</v>
@@ -11542,11 +11554,11 @@
       <c r="G203" s="16"/>
       <c r="H203" s="4">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
@@ -11578,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>463</v>
@@ -11586,11 +11598,11 @@
       <c r="G204" s="16"/>
       <c r="H204" s="4">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
@@ -11622,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>463</v>
@@ -11630,11 +11642,11 @@
       <c r="G205" s="16"/>
       <c r="H205" s="4">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
@@ -11656,7 +11668,7 @@
       <c r="AB205" s="4"/>
       <c r="AC205" s="4"/>
     </row>
-    <row r="206" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>3</v>
       </c>
@@ -11666,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>463</v>
@@ -11674,11 +11686,11 @@
       <c r="G206" s="16"/>
       <c r="H206" s="4">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
@@ -11700,7 +11712,7 @@
       <c r="AB206" s="4"/>
       <c r="AC206" s="4"/>
     </row>
-    <row r="207" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>3</v>
       </c>
@@ -11710,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>463</v>
@@ -11718,11 +11730,11 @@
       <c r="G207" s="16"/>
       <c r="H207" s="4">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
@@ -11744,7 +11756,7 @@
       <c r="AB207" s="4"/>
       <c r="AC207" s="4"/>
     </row>
-    <row r="208" spans="1:29" ht="60" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>3</v>
       </c>
@@ -11754,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>463</v>
@@ -11762,11 +11774,11 @@
       <c r="G208" s="16"/>
       <c r="H208" s="4">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
@@ -11798,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>463</v>
@@ -11806,11 +11818,11 @@
       <c r="G209" s="16"/>
       <c r="H209" s="4">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
@@ -11832,7 +11844,7 @@
       <c r="AB209" s="4"/>
       <c r="AC209" s="4"/>
     </row>
-    <row r="210" spans="1:29" ht="40" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="60" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>3</v>
       </c>
@@ -11842,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>463</v>
@@ -11850,11 +11862,11 @@
       <c r="G210" s="16"/>
       <c r="H210" s="4">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
@@ -11886,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>463</v>
@@ -11894,11 +11906,11 @@
       <c r="G211" s="16"/>
       <c r="H211" s="4">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
@@ -11920,7 +11932,7 @@
       <c r="AB211" s="4"/>
       <c r="AC211" s="4"/>
     </row>
-    <row r="212" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>3</v>
       </c>
@@ -11930,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>463</v>
@@ -11938,11 +11950,11 @@
       <c r="G212" s="16"/>
       <c r="H212" s="4">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
@@ -11964,7 +11976,7 @@
       <c r="AB212" s="4"/>
       <c r="AC212" s="4"/>
     </row>
-    <row r="213" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="40" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>3</v>
       </c>
@@ -11974,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>463</v>
@@ -11982,11 +11994,11 @@
       <c r="G213" s="16"/>
       <c r="H213" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
@@ -12013,12 +12025,12 @@
         <v>3</v>
       </c>
       <c r="B214" s="5"/>
-      <c r="C214" s="12"/>
+      <c r="C214" s="5"/>
       <c r="D214" s="12">
         <v>1</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>463</v>
@@ -12026,11 +12038,11 @@
       <c r="G214" s="16"/>
       <c r="H214" s="4">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
@@ -12057,12 +12069,12 @@
         <v>3</v>
       </c>
       <c r="B215" s="5"/>
-      <c r="C215" s="12"/>
+      <c r="C215" s="5"/>
       <c r="D215" s="12">
         <v>1</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F215" s="7" t="s">
         <v>463</v>
@@ -12070,11 +12082,11 @@
       <c r="G215" s="16"/>
       <c r="H215" s="4">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
@@ -12100,29 +12112,25 @@
       <c r="A216" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="5">
-        <v>1</v>
-      </c>
-      <c r="C216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="12">
         <v>1</v>
       </c>
-      <c r="E216" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F216" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G216" s="22"/>
+      <c r="E216" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G216" s="16"/>
       <c r="H216" s="4">
         <f t="shared" si="3"/>
-        <v>215</v>
-      </c>
-      <c r="I216" s="11">
-        <v>1</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="I216" s="7"/>
       <c r="J216" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
@@ -12148,31 +12156,25 @@
       <c r="A217" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="5">
-        <v>1</v>
-      </c>
-      <c r="C217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="12"/>
       <c r="D217" s="12">
         <v>1</v>
       </c>
-      <c r="E217" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G217" s="22">
-        <v>2</v>
-      </c>
+      <c r="E217" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G217" s="16"/>
       <c r="H217" s="4">
         <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="I217" s="11">
-        <v>1</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="I217" s="7"/>
       <c r="J217" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
@@ -12206,23 +12208,21 @@
         <v>1</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G218" s="22">
-        <v>2</v>
-      </c>
+      <c r="G218" s="22"/>
       <c r="H218" s="4">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I218" s="11">
         <v>1</v>
       </c>
       <c r="J218" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
@@ -12256,21 +12256,23 @@
         <v>1</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G219" s="22"/>
+      <c r="G219" s="22">
+        <v>2</v>
+      </c>
       <c r="H219" s="4">
         <f t="shared" si="3"/>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I219" s="11">
         <v>1</v>
       </c>
       <c r="J219" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
@@ -12304,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F220" s="11" t="s">
         <v>9</v>
@@ -12314,13 +12316,13 @@
       </c>
       <c r="H220" s="4">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I220" s="11">
         <v>1</v>
       </c>
       <c r="J220" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
@@ -12346,23 +12348,29 @@
       <c r="A221" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="5"/>
+      <c r="B221" s="5">
+        <v>1</v>
+      </c>
       <c r="C221" s="5"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G221" s="16"/>
+      <c r="D221" s="12">
+        <v>1</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F221" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="22"/>
       <c r="H221" s="4">
         <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="I221" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="I221" s="11">
+        <v>1</v>
+      </c>
       <c r="J221" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
@@ -12388,31 +12396,31 @@
       <c r="A222" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5">
+      <c r="B222" s="5">
         <v>1</v>
       </c>
+      <c r="C222" s="5"/>
       <c r="D222" s="12">
         <v>1</v>
       </c>
-      <c r="E222" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F222" s="7" t="s">
+      <c r="E222" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F222" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G222" s="16">
-        <v>3</v>
+      <c r="G222" s="22">
+        <v>2</v>
       </c>
       <c r="H222" s="4">
         <f t="shared" si="3"/>
-        <v>221</v>
-      </c>
-      <c r="I222" s="7">
+        <v>219</v>
+      </c>
+      <c r="I222" s="11">
         <v>1</v>
       </c>
       <c r="J222" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
@@ -12434,31 +12442,27 @@
       <c r="AB222" s="4"/>
       <c r="AC222" s="4"/>
     </row>
-    <row r="223" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4">
-        <v>2</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G223" s="4"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G223" s="16"/>
       <c r="H223" s="4">
         <f t="shared" si="3"/>
-        <v>222</v>
-      </c>
-      <c r="I223" s="4">
-        <v>1</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>473</v>
+        <v>220</v>
+      </c>
+      <c r="I223" s="7"/>
+      <c r="J223" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
@@ -12480,31 +12484,35 @@
       <c r="AB223" s="4"/>
       <c r="AC223" s="4"/>
     </row>
-    <row r="224" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4">
-        <v>2</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="F224" s="4" t="s">
+      <c r="B224" s="5"/>
+      <c r="C224" s="5">
+        <v>1</v>
+      </c>
+      <c r="D224" s="12">
+        <v>1</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F224" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G224" s="4"/>
+      <c r="G224" s="16">
+        <v>3</v>
+      </c>
       <c r="H224" s="4">
         <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="I224" s="4">
+        <v>221</v>
+      </c>
+      <c r="I224" s="7">
         <v>1</v>
       </c>
-      <c r="J224" s="4" t="s">
-        <v>474</v>
+      <c r="J224" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
@@ -12526,35 +12534,31 @@
       <c r="AB224" s="4"/>
       <c r="AC224" s="4"/>
     </row>
-    <row r="225" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B225" s="5">
-        <v>1</v>
-      </c>
-      <c r="C225" s="5">
-        <v>1</v>
-      </c>
-      <c r="D225" s="12">
-        <v>1</v>
-      </c>
-      <c r="E225" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F225" s="11" t="s">
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4">
+        <v>2</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G225" s="16">
-        <v>-2</v>
-      </c>
+      <c r="G225" s="4"/>
       <c r="H225" s="4">
         <f t="shared" si="3"/>
-        <v>224</v>
-      </c>
-      <c r="I225" s="11"/>
-      <c r="J225" s="7" t="s">
-        <v>127</v>
+        <v>222</v>
+      </c>
+      <c r="I225" s="4">
+        <v>1</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>472</v>
       </c>
       <c r="K225" s="4"/>
       <c r="L225" s="4"/>
@@ -12576,33 +12580,31 @@
       <c r="AB225" s="4"/>
       <c r="AC225" s="4"/>
     </row>
-    <row r="226" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B226" s="5">
-        <v>1</v>
-      </c>
-      <c r="C226" s="5"/>
-      <c r="D226" s="12">
-        <v>1</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F226" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="G226" s="23"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4">
+        <v>2</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="4"/>
       <c r="H226" s="4">
         <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="I226" s="17">
+        <v>223</v>
+      </c>
+      <c r="I226" s="4">
         <v>1</v>
       </c>
-      <c r="J226" s="7" t="s">
-        <v>129</v>
+      <c r="J226" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
@@ -12628,25 +12630,31 @@
       <c r="A227" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
+      <c r="B227" s="5">
+        <v>1</v>
+      </c>
+      <c r="C227" s="5">
+        <v>1</v>
+      </c>
       <c r="D227" s="12">
-        <v>2</v>
-      </c>
-      <c r="E227" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F227" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F227" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G227" s="23"/>
+      <c r="G227" s="16">
+        <v>-2</v>
+      </c>
       <c r="H227" s="4">
         <f t="shared" si="3"/>
-        <v>226</v>
-      </c>
-      <c r="I227" s="17"/>
+        <v>224</v>
+      </c>
+      <c r="I227" s="11"/>
       <c r="J227" s="7" t="s">
-        <v>498</v>
+        <v>127</v>
       </c>
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
@@ -12675,26 +12683,26 @@
       <c r="B228" s="5">
         <v>1</v>
       </c>
-      <c r="C228" s="5">
-        <v>1</v>
-      </c>
+      <c r="C228" s="5"/>
       <c r="D228" s="12">
         <v>1</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G228" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="F228" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="G228" s="23"/>
       <c r="H228" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
-      </c>
-      <c r="I228" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="I228" s="17">
+        <v>1</v>
+      </c>
       <c r="J228" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
@@ -12716,33 +12724,29 @@
       <c r="AB228" s="4"/>
       <c r="AC228" s="4"/>
     </row>
-    <row r="229" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4">
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12">
         <v>2</v>
       </c>
-      <c r="E229" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="F229" s="4" t="s">
+      <c r="E229" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F229" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G229" s="4">
-        <v>2</v>
-      </c>
+      <c r="G229" s="23"/>
       <c r="H229" s="4">
         <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="I229" s="4">
-        <v>1</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>475</v>
+        <v>226</v>
+      </c>
+      <c r="I229" s="17"/>
+      <c r="J229" s="7" t="s">
+        <v>497</v>
       </c>
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
@@ -12771,31 +12775,29 @@
       <c r="B230" s="5">
         <v>1</v>
       </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5">
+      <c r="C230" s="5">
         <v>1</v>
       </c>
+      <c r="D230" s="12">
+        <v>1</v>
+      </c>
       <c r="E230" s="7" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G230" s="16"/>
       <c r="H230" s="4">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K230" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="L230" s="4">
-        <v>0</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
       <c r="O230" s="4"/>
@@ -12814,38 +12816,36 @@
       <c r="AB230" s="4"/>
       <c r="AC230" s="4"/>
     </row>
-    <row r="231" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="19" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B231" s="5">
-        <v>1</v>
-      </c>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5">
-        <v>1</v>
-      </c>
-      <c r="E231" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G231" s="16"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4">
+        <v>2</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" s="4">
+        <v>2</v>
+      </c>
       <c r="H231" s="4">
         <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="I231" s="7"/>
-      <c r="J231" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K231" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="L231" s="4">
-        <v>0</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="I231" s="4">
+        <v>1</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
       <c r="O231" s="4"/>
@@ -12876,22 +12876,22 @@
         <v>1</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G232" s="16"/>
       <c r="H232" s="4">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L232" s="4">
         <v>0</v>
@@ -12926,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>42</v>
@@ -12934,14 +12934,14 @@
       <c r="G233" s="16"/>
       <c r="H233" s="4">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L233" s="4">
         <v>0</v>
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>32</v>
@@ -12984,14 +12984,14 @@
       <c r="G234" s="16"/>
       <c r="H234" s="4">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L234" s="4">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F235" s="7" t="s">
         <v>42</v>
@@ -13034,14 +13034,14 @@
       <c r="G235" s="16"/>
       <c r="H235" s="4">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K235" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L235" s="4">
         <v>0</v>
@@ -13064,19 +13064,38 @@
       <c r="AB235" s="4"/>
       <c r="AC235" s="4"/>
     </row>
-    <row r="236" spans="1:29" ht="19" x14ac:dyDescent="0.2">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="4"/>
-      <c r="G236" s="4"/>
-      <c r="H236" s="4"/>
-      <c r="I236" s="4"/>
-      <c r="J236" s="4"/>
-      <c r="K236" s="4"/>
-      <c r="L236" s="4"/>
+    <row r="236" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="5">
+        <v>1</v>
+      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5">
+        <v>1</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G236" s="16"/>
+      <c r="H236" s="4">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="I236" s="7"/>
+      <c r="J236" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K236" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="L236" s="4">
+        <v>0</v>
+      </c>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
       <c r="O236" s="4"/>
@@ -13095,19 +13114,38 @@
       <c r="AB236" s="4"/>
       <c r="AC236" s="4"/>
     </row>
-    <row r="237" spans="1:29" ht="19" x14ac:dyDescent="0.2">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
-      <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
-      <c r="I237" s="4"/>
-      <c r="J237" s="4"/>
-      <c r="K237" s="4"/>
-      <c r="L237" s="4"/>
+    <row r="237" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" s="5">
+        <v>1</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5">
+        <v>1</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G237" s="16"/>
+      <c r="H237" s="4">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="I237" s="7"/>
+      <c r="J237" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K237" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="L237" s="4">
+        <v>0</v>
+      </c>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
       <c r="O237" s="4"/>
@@ -36655,104 +36693,166 @@
       <c r="AB996" s="4"/>
       <c r="AC996" s="4"/>
     </row>
+    <row r="997" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+      <c r="A997" s="4"/>
+      <c r="B997" s="4"/>
+      <c r="C997" s="4"/>
+      <c r="D997" s="4"/>
+      <c r="E997" s="4"/>
+      <c r="F997" s="4"/>
+      <c r="G997" s="4"/>
+      <c r="H997" s="4"/>
+      <c r="I997" s="4"/>
+      <c r="J997" s="4"/>
+      <c r="K997" s="4"/>
+      <c r="L997" s="4"/>
+      <c r="M997" s="4"/>
+      <c r="N997" s="4"/>
+      <c r="O997" s="4"/>
+      <c r="P997" s="4"/>
+      <c r="Q997" s="4"/>
+      <c r="R997" s="4"/>
+      <c r="S997" s="4"/>
+      <c r="T997" s="4"/>
+      <c r="U997" s="4"/>
+      <c r="V997" s="4"/>
+      <c r="W997" s="4"/>
+      <c r="X997" s="4"/>
+      <c r="Y997" s="4"/>
+      <c r="Z997" s="4"/>
+      <c r="AA997" s="4"/>
+      <c r="AB997" s="4"/>
+      <c r="AC997" s="4"/>
+    </row>
+    <row r="998" spans="1:29" ht="19" x14ac:dyDescent="0.2">
+      <c r="A998" s="4"/>
+      <c r="B998" s="4"/>
+      <c r="C998" s="4"/>
+      <c r="D998" s="4"/>
+      <c r="E998" s="4"/>
+      <c r="F998" s="4"/>
+      <c r="G998" s="4"/>
+      <c r="H998" s="4"/>
+      <c r="I998" s="4"/>
+      <c r="J998" s="4"/>
+      <c r="K998" s="4"/>
+      <c r="L998" s="4"/>
+      <c r="M998" s="4"/>
+      <c r="N998" s="4"/>
+      <c r="O998" s="4"/>
+      <c r="P998" s="4"/>
+      <c r="Q998" s="4"/>
+      <c r="R998" s="4"/>
+      <c r="S998" s="4"/>
+      <c r="T998" s="4"/>
+      <c r="U998" s="4"/>
+      <c r="V998" s="4"/>
+      <c r="W998" s="4"/>
+      <c r="X998" s="4"/>
+      <c r="Y998" s="4"/>
+      <c r="Z998" s="4"/>
+      <c r="AA998" s="4"/>
+      <c r="AB998" s="4"/>
+      <c r="AC998" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B175:D175">
+  <conditionalFormatting sqref="B176:D176">
     <cfRule type="expression" dxfId="18" priority="5">
-      <formula>$K171="Maybe - needs discussion"</formula>
+      <formula>$K172="Maybe - needs discussion"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E173:G173 I173">
+  <conditionalFormatting sqref="E174:G174 I174">
     <cfRule type="expression" dxfId="17" priority="6">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J179">
+  <conditionalFormatting sqref="J180">
     <cfRule type="expression" dxfId="16" priority="7">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J188:J198 J200:J228 E228:G228 E226:E227 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 D12:D14 D23:D24 D26:D27 D29 D31 D41:D43 D45:D51 D58:D59 D61:D66 I228 E188:G225 E168:G172 D68:D76 D2:D9 I188:I225 I168:I172 J168:J185 E174:G186 B168:D228 B230:G235 I174:I185 D110:D112 I186:J186 I230:J235">
+  <conditionalFormatting sqref="J189:J200 J202:J230 E230:G230 E228:E229 D81:D85 D87:D90 D92:D93 D115:D117 D120:D121 D125 D127 D144:D149 D157:D158 D13:D15 D24:D25 D27:D28 D30 D32 D42:D44 D46:D52 D59:D60 D62:D67 I230 E189:G227 E169:G173 D69:D77 D2:D10 I189:I227 I169:I173 J169:J186 E175:G187 B169:D230 B232:G237 I175:I186 D111:D113 I187:J187 I232:J237">
     <cfRule type="expression" dxfId="15" priority="8">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J188:J198 J200:J228 E228:G228 E226:E227 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 I228 I188:I225 B158:D228 B6:G76 G83 G86 G115:G116 E168:G186 E188:G225 B110:D112 I6:J83 I168:J186 B1:J5 B230:J235 I114:J118 I87:J94 I96:J97 H3:H235">
+  <conditionalFormatting sqref="J189:J200 J202:J230 E230:G230 E228:E229 D81:D85 D87:D90 D92:D93 D115:D117 D120:D121 D125 D127 D144:D149 D157:D158 I230 I189:I227 B159:D230 B7:G77 G84 G87 G116:G117 E169:G187 E189:G227 B111:D113 H4:H237 I7:J84 I169:J187 B232:J237 I115:J119 I88:J95 I97:J98 B1:J6">
     <cfRule type="expression" dxfId="14" priority="9">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B205:D205 B196:D196">
+  <conditionalFormatting sqref="B207:D207 B198:D198">
     <cfRule type="expression" dxfId="13" priority="10">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B197:D204 B206:D212">
+  <conditionalFormatting sqref="B199:D206 B208:D214">
     <cfRule type="expression" dxfId="12" priority="11">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:D175">
+  <conditionalFormatting sqref="B176:D176">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B176:D178">
+  <conditionalFormatting sqref="B177:D179">
     <cfRule type="expression" dxfId="10" priority="13">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 B158:G228 B230:G235 I153:I185 J77:J185 B110:C112 E110:G112 I77:I148 I79:J79 I186:J228 I230:J235">
+  <conditionalFormatting sqref="E80:G80 B159:G230 B232:G237 I154:I186 J78:J186 B111:C113 E111:G113 I78:I149 I80:J80 I187:J230 I232:J237">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:C89 B91:C92 B114:C116 B119:C120 B124:C124 B126:C126 B149:D155 B143:C148 B77:G79 B80:C84 B156:C157 E153:G157 E143:G148 B127:G142 E126:G126 B125:G125 E124:G124 B121:G123 E119:G120 B117:G118 E114:G114 B113:G113 B93:G109 E91:G92 B90:G90 E87:G89 B85:G85 E80:G82 E84:G84 E83:F83 E86:F86 E115:F116">
+  <conditionalFormatting sqref="B87:C90 B92:C93 B115:C117 B120:C121 B125:C125 B127:C127 B150:D156 B144:C149 B78:G80 B81:C85 B157:C158 E154:G158 E144:G149 B128:G143 E127:G127 B126:G126 E125:G125 B122:G124 E120:G121 B118:G119 E115:G115 B114:G114 B94:G110 E92:G93 B91:G91 E88:G90 B86:G86 E81:G83 E85:G85 E84:F84 E87:F87 E116:F117">
     <cfRule type="expression" dxfId="8" priority="15">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96:G97 B85:D85 B90:G90 B86:C89 B93:D109 B91:C92 B113:D113 B117:G118 B114:C116 B121:D123 B119:C120 B125:D125 B124:C124 B127:D142 B126:C126 B149:D155 B143:C148 B77:G79 B80:C84 B156:C157 E114:G114 E91:G94 E87:G89 E80:G82 E83:F83 E115:F116">
+  <conditionalFormatting sqref="E97:G98 B86:D86 B91:G91 B87:C90 B94:D110 B92:C93 B114:D114 B118:G119 B115:C117 B122:D124 B120:C121 B126:D126 B125:C125 B128:D143 B127:C127 B150:D156 B144:C149 B78:G80 B81:C85 B157:C158 E115:G115 E92:G95 E88:G90 E81:G83 E84:F84 E116:F117">
     <cfRule type="expression" dxfId="7" priority="16">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J12 B10:G11 J14:J76 B15:G22 B25:G25 B44:G44 B41:C43 B52:G57 B45:C51 B6:C9 E6:G9 B12:C14 E12:G14 B23:C24 E23:G24 B28:G28 B26:C27 E26:G27 B30:G30 B29:C29 E29:G29 B32:G40 B31:C31 E31:G31 E41:G43 E45:G51 B60:G60 B58:C59 E58:G59 B67:G67 B61:C66 B68:C76 E68:G76 I6:I76 E61:G66 G83 G86 G115:G116 G168:G169 G176 G181 G186 G225">
+  <conditionalFormatting sqref="J7:J13 B11:G12 J15:J77 B16:G23 B26:G26 B45:G45 B42:C44 B53:G58 B46:C52 B7:C10 E7:G10 B13:C15 E13:G15 B24:C25 E24:G25 B29:G29 B27:C28 E27:G28 B31:G31 B30:C30 E30:G30 B33:G41 B32:C32 E32:G32 E42:G44 E46:G52 B61:G61 B59:C60 E59:G60 B68:G68 B62:C67 B69:C77 E69:G77 I7:I77 E62:G67 G84 G87 G116:G117 G169:G170 G177 G182 G187 G227">
     <cfRule type="expression" dxfId="6" priority="17">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J76 J6:J12 B10:G11 B15:G22 B25:G25 B44:G44 B41:C43 B52:G57 B45:C51 B6:C9 E6:G9 B12:C14 E12:G14 B23:C24 E23:G24 B28:G28 B26:C27 E26:G27 B30:G30 B29:C29 E29:G29 B32:G40 B31:C31 E31:G31 E41:G43 E45:G51 B60:G60 B58:C59 E58:G59 B67:G67 B61:C66 B68:C76 E68:G76 I6:I76 E61:G66 G83 G86 G115:G116 G168:G169 G176 G181 G186 G225">
+  <conditionalFormatting sqref="J15:J77 J7:J13 B11:G12 B16:G23 B26:G26 B45:G45 B42:C44 B53:G58 B46:C52 B7:C10 E7:G10 B13:C15 E13:G15 B24:C25 E24:G25 B29:G29 B27:C28 E27:G28 B31:G31 B30:C30 E30:G30 B33:G41 B32:C32 E32:G32 E42:G44 E46:G52 B61:G61 B59:C60 E59:G60 B68:G68 B62:C67 B69:C77 E69:G77 I7:I77 E62:G67 G84 G87 G116:G117 G169:G170 G177 G182 G187 G227">
     <cfRule type="expression" dxfId="5" priority="18">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86 I86">
+  <conditionalFormatting sqref="F87 I87">
     <cfRule type="expression" dxfId="4" priority="23">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5">
+  <conditionalFormatting sqref="E4:E6">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5">
+  <conditionalFormatting sqref="E4:E6">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:G5">
+  <conditionalFormatting sqref="F4:G6">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:G5">
+  <conditionalFormatting sqref="F4:G6">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J179" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J180" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
